--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="447">
   <si>
     <t>Doi</t>
   </si>
@@ -2250,6 +2250,256 @@
   </si>
   <si>
     <t>[[[[[[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,      Vera%Regitz-Zagrosek%NULL%1,      Hannelore K.%Neuhauser%NULL%1,      Rosemary%Morgan%NULL%1,      Sabra L.%Klein%NULL%1,     Catherine%Gebhard%Catherine.gebhard@usz.ch%1,     Vera%Regitz-Zagrosek%NULL%1,     Hannelore K.%Neuhauser%NULL%1,     Rosemary%Morgan%NULL%1,     Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
+ We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
+Methods
+id="Par2"&gt;All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
+ This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
+ All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
+ We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
+ In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
+Findings
+id="Par3"&gt;The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
+ More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
+ Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
+ Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
+ In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
+Conclusion
+id="Par4"&gt;SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
+ Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
+ Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%3,  Chengcheng%Yu%NULL%2,  Jing%Qu%NULL%1,  Lieguang%Zhang%NULL%2,  Songfeng%Jiang%NULL%1,  Deyang%Huang%NULL%1,  Bihua%Chen%NULL%1,  Zhiping%Zhang%NULL%1,  Wanhua%Guan%NULL%1,  Zhoukun%Ling%NULL%1,  Rui%Jiang%NULL%1,  Tianli%Hu%NULL%1,  Yan%Ding%NULL%1,  Lin%Lin%NULL%1,  Qingxin%Gan%NULL%1,  Liangping%Luo%tluolp@jnu.edu.cn%2,  Xiaoping%Tang%xtang@21cn.com%1,  Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since Middle East respiratory syndrome (MERS) infection was first reported in 2012, many studies have analysed its transmissibility and severity.
+ However, the methodology and results of these studies have varied, and there has been no systematic review of MERS.
+ This study reviews the characteristics and associated risk factors of MERS.
+Method
+id="Par2"&gt;We searched international (PubMed, ScienceDirect, Cochrane) and Korean databases (DBpia, KISS) for English- or Korean-language articles using the terms “MERS” and “Middle East respiratory syndrome”.
+ Only human studies with &amp;gt; 20 participants were analysed to exclude studies with low representation.
+ Epidemiologic studies with information on transmissibility and severity of MERS as well as studies containing MERS risk factors were included.
+Result
+id="Par3"&gt;A total of 59 studies were included.
+ Most studies from Saudi Arabia reported higher mortality (22–69.2%) than those from South Korea (20.4%).
+ While the R0 value in Saudi Arabia was &amp;lt; 1 in all but one study, in South Korea, the R0 value was 2.5–8.09 in the early stage and decreased to &amp;lt; 1 in the later stage.
+ The incubation period was 4.5–5.2 days in Saudi Arabia and 6–7.8 days in South Korea.
+ Duration from onset was 4–10 days to confirmation, 2.9–5.3 days to hospitalization, 11–17 days to death, and 14–20 days to discharge.
+ Older age and concomitant disease were the most common factors related to MERS infection, severity, and mortality.
+Conclusion
+id="Par4"&gt;The transmissibility and severity of MERS differed by outbreak region and patient characteristics.
+ Further studies assessing the risk of MERS should consider these factors.
+</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,  Soyoung%Jung%syjung@kiom.re.kr%1,  Aeran%Kim%arkim@kiom.re.kr%1,  Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Emerging evidence from China suggests that coronavirus disease 2019 (COVID-19) is deadlier for infected men than women with a 2.8% fatality rate being reported in Chinese men versus 1.7% in women.
+ Further, sex-disaggregated data for COVID-19 in several European countries show a similar number of cases between the sexes, but more severe outcomes in aged men.
+ Case fatality is highest in men with pre-existing cardiovascular conditions.
+ The mechanisms accounting for the reduced case fatality rate in women are currently unclear but may offer potential to develop novel risk stratification tools and therapeutic options for women and men.
+Content
+id="Par2"&gt;The present review summarizes latest clinical and epidemiological evidence for gender and sex differences in COVID-19 from Europe and China.
+ We discuss potential sex-specific mechanisms modulating the course of disease, such as hormone-regulated expression of genes encoding for the severe acute respiratory syndrome coronavirus 2 (SARS-CoV2) entry receptors angiotensin converting enzyme (ACE) 2 receptor and TMPRSS2 as well as sex hormone-driven innate and adaptive immune responses and immunoaging.
+ Finally, we elucidate the impact of gender-specific lifestyle, health behavior, psychological stress, and socioeconomic conditions on COVID-19 and discuss sex specific aspects of antiviral therapies.
+Conclusion
+id="Par3"&gt;The sex and gender disparities observed in COVID-19 vulnerability emphasize the need to better understand the impact of sex and gender on incidence and case fatality of the disease and to tailor treatment according to sex and gender.
+ The ongoing and planned prophylactic and therapeutic treatment studies must include prospective sex- and gender-sensitive analyses.
+</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,  Vera%Regitz-Zagrosek%NULL%1,  Hannelore K.%Neuhauser%NULL%1,  Rosemary%Morgan%NULL%1,  Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
+ We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
+Methods
+All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
+ This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
+ All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
+ We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
+ In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
+Findings
+id="Par3"&gt;The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
+ More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
+ Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
+ Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
+ In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
+Conclusion
+id="Par4"&gt;SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
+ Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
+ Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%3,   Chengcheng%Yu%NULL%1,   Jing%Qu%NULL%1,   Lieguang%Zhang%NULL%1,   Songfeng%Jiang%NULL%1,   Deyang%Huang%NULL%1,   Bihua%Chen%NULL%1,   Zhiping%Zhang%NULL%1,   Wanhua%Guan%NULL%1,   Zhoukun%Ling%NULL%1,   Rui%Jiang%NULL%1,   Tianli%Hu%NULL%1,   Yan%Ding%NULL%1,   Lin%Lin%NULL%1,   Qingxin%Gan%NULL%1,   Liangping%Luo%tluolp@jnu.edu.cn%1,   Xiaoping%Tang%xtang@21cn.com%1,   Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since Middle East respiratory syndrome (MERS) infection was first reported in 2012, many studies have analysed its transmissibility and severity.
+ However, the methodology and results of these studies have varied, and there has been no systematic review of MERS.
+ This study reviews the characteristics and associated risk factors of MERS.
+Method
+We searched international (PubMed, ScienceDirect, Cochrane) and Korean databases (DBpia, KISS) for English- or Korean-language articles using the terms “MERS” and “Middle East respiratory syndrome”.
+ Only human studies with &amp;gt; 20 participants were analysed to exclude studies with low representation.
+ Epidemiologic studies with information on transmissibility and severity of MERS as well as studies containing MERS risk factors were included.
+Result
+id="Par3"&gt;A total of 59 studies were included.
+ Most studies from Saudi Arabia reported higher mortality (22–69.2%) than those from South Korea (20.4%).
+ While the R0 value in Saudi Arabia was &amp;lt; 1 in all but one study, in South Korea, the R0 value was 2.5–8.09 in the early stage and decreased to &amp;lt; 1 in the later stage.
+ The incubation period was 4.5–5.2 days in Saudi Arabia and 6–7.8 days in South Korea.
+ Duration from onset was 4–10 days to confirmation, 2.9–5.3 days to hospitalization, 11–17 days to death, and 14–20 days to discharge.
+ Older age and concomitant disease were the most common factors related to MERS infection, severity, and mortality.
+Conclusion
+id="Par4"&gt;The transmissibility and severity of MERS differed by outbreak region and patient characteristics.
+ Further studies assessing the risk of MERS should consider these factors.
+</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,   Soyoung%Jung%syjung@kiom.re.kr%1,   Aeran%Kim%arkim@kiom.re.kr%1,   Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Emerging evidence from China suggests that coronavirus disease 2019 (COVID-19) is deadlier for infected men than women with a 2.8% fatality rate being reported in Chinese men versus 1.7% in women.
+ Further, sex-disaggregated data for COVID-19 in several European countries show a similar number of cases between the sexes, but more severe outcomes in aged men.
+ Case fatality is highest in men with pre-existing cardiovascular conditions.
+ The mechanisms accounting for the reduced case fatality rate in women are currently unclear but may offer potential to develop novel risk stratification tools and therapeutic options for women and men.
+Content
+The present review summarizes latest clinical and epidemiological evidence for gender and sex differences in COVID-19 from Europe and China.
+ We discuss potential sex-specific mechanisms modulating the course of disease, such as hormone-regulated expression of genes encoding for the severe acute respiratory syndrome coronavirus 2 (SARS-CoV2) entry receptors angiotensin converting enzyme (ACE) 2 receptor and TMPRSS2 as well as sex hormone-driven innate and adaptive immune responses and immunoaging.
+ Finally, we elucidate the impact of gender-specific lifestyle, health behavior, psychological stress, and socioeconomic conditions on COVID-19 and discuss sex specific aspects of antiviral therapies.
+Conclusion
+id="Par3"&gt;The sex and gender disparities observed in COVID-19 vulnerability emphasize the need to better understand the impact of sex and gender on incidence and case fatality of the disease and to tailor treatment according to sex and gender.
+ The ongoing and planned prophylactic and therapeutic treatment studies must include prospective sex- and gender-sensitive analyses.
+</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,   Vera%Regitz-Zagrosek%NULL%1,   Hannelore K.%Neuhauser%NULL%1,   Rosemary%Morgan%NULL%1,   Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
+ We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
+Methods
+All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
+ This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
+ All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
+ We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
+ In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
+Findings
+The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
+ More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
+ Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
+ Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
+ In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
+Conclusion
+id="Par4"&gt;SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
+ Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
+ Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%3,    Chengcheng%Yu%NULL%1,    Jing%Qu%NULL%1,    Lieguang%Zhang%NULL%1,    Songfeng%Jiang%NULL%1,    Deyang%Huang%NULL%1,    Bihua%Chen%NULL%1,    Zhiping%Zhang%NULL%1,    Wanhua%Guan%NULL%1,    Zhoukun%Ling%NULL%1,    Rui%Jiang%NULL%1,    Tianli%Hu%NULL%1,    Yan%Ding%NULL%1,    Lin%Lin%NULL%1,    Qingxin%Gan%NULL%1,    Liangping%Luo%tluolp@jnu.edu.cn%1,    Xiaoping%Tang%xtang@21cn.com%1,    Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since Middle East respiratory syndrome (MERS) infection was first reported in 2012, many studies have analysed its transmissibility and severity.
+ However, the methodology and results of these studies have varied, and there has been no systematic review of MERS.
+ This study reviews the characteristics and associated risk factors of MERS.
+Method
+We searched international (PubMed, ScienceDirect, Cochrane) and Korean databases (DBpia, KISS) for English- or Korean-language articles using the terms “MERS” and “Middle East respiratory syndrome”.
+ Only human studies with &amp;gt; 20 participants were analysed to exclude studies with low representation.
+ Epidemiologic studies with information on transmissibility and severity of MERS as well as studies containing MERS risk factors were included.
+Result
+A total of 59 studies were included.
+ Most studies from Saudi Arabia reported higher mortality (22–69.2%) than those from South Korea (20.4%).
+ While the R0 value in Saudi Arabia was &amp;lt; 1 in all but one study, in South Korea, the R0 value was 2.5–8.09 in the early stage and decreased to &amp;lt; 1 in the later stage.
+ The incubation period was 4.5–5.2 days in Saudi Arabia and 6–7.8 days in South Korea.
+ Duration from onset was 4–10 days to confirmation, 2.9–5.3 days to hospitalization, 11–17 days to death, and 14–20 days to discharge.
+ Older age and concomitant disease were the most common factors related to MERS infection, severity, and mortality.
+Conclusion
+id="Par4"&gt;The transmissibility and severity of MERS differed by outbreak region and patient characteristics.
+ Further studies assessing the risk of MERS should consider these factors.
+</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,    Soyoung%Jung%syjung@kiom.re.kr%1,    Aeran%Kim%arkim@kiom.re.kr%1,    Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Emerging evidence from China suggests that coronavirus disease 2019 (COVID-19) is deadlier for infected men than women with a 2.8% fatality rate being reported in Chinese men versus 1.7% in women.
+ Further, sex-disaggregated data for COVID-19 in several European countries show a similar number of cases between the sexes, but more severe outcomes in aged men.
+ Case fatality is highest in men with pre-existing cardiovascular conditions.
+ The mechanisms accounting for the reduced case fatality rate in women are currently unclear but may offer potential to develop novel risk stratification tools and therapeutic options for women and men.
+Content
+The present review summarizes latest clinical and epidemiological evidence for gender and sex differences in COVID-19 from Europe and China.
+ We discuss potential sex-specific mechanisms modulating the course of disease, such as hormone-regulated expression of genes encoding for the severe acute respiratory syndrome coronavirus 2 (SARS-CoV2) entry receptors angiotensin converting enzyme (ACE) 2 receptor and TMPRSS2 as well as sex hormone-driven innate and adaptive immune responses and immunoaging.
+ Finally, we elucidate the impact of gender-specific lifestyle, health behavior, psychological stress, and socioeconomic conditions on COVID-19 and discuss sex specific aspects of antiviral therapies.
+Conclusion
+The sex and gender disparities observed in COVID-19 vulnerability emphasize the need to better understand the impact of sex and gender on incidence and case fatality of the disease and to tailor treatment according to sex and gender.
+ The ongoing and planned prophylactic and therapeutic treatment studies must include prospective sex- and gender-sensitive analyses.
+</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,    Vera%Regitz-Zagrosek%NULL%1,    Hannelore K.%Neuhauser%NULL%1,    Rosemary%Morgan%NULL%1,    Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
+ We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
+Methods
+All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
+ This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
+ All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
+ We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
+ In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
+Findings
+The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
+ More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
+ Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
+ Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
+ In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
+Conclusion
+SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
+ Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
+ Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%3,     Chengcheng%Yu%NULL%1,     Jing%Qu%NULL%1,     Lieguang%Zhang%NULL%1,     Songfeng%Jiang%NULL%1,     Deyang%Huang%NULL%1,     Bihua%Chen%NULL%1,     Zhiping%Zhang%NULL%1,     Wanhua%Guan%NULL%1,     Zhoukun%Ling%NULL%1,     Rui%Jiang%NULL%1,     Tianli%Hu%NULL%1,     Yan%Ding%NULL%1,     Lin%Lin%NULL%1,     Qingxin%Gan%NULL%1,     Liangping%Luo%tluolp@jnu.edu.cn%1,     Xiaoping%Tang%xtang@21cn.com%1,     Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since Middle East respiratory syndrome (MERS) infection was first reported in 2012, many studies have analysed its transmissibility and severity.
+ However, the methodology and results of these studies have varied, and there has been no systematic review of MERS.
+ This study reviews the characteristics and associated risk factors of MERS.
+Method
+We searched international (PubMed, ScienceDirect, Cochrane) and Korean databases (DBpia, KISS) for English- or Korean-language articles using the terms “MERS” and “Middle East respiratory syndrome”.
+ Only human studies with &amp;gt; 20 participants were analysed to exclude studies with low representation.
+ Epidemiologic studies with information on transmissibility and severity of MERS as well as studies containing MERS risk factors were included.
+Result
+A total of 59 studies were included.
+ Most studies from Saudi Arabia reported higher mortality (22–69.2%) than those from South Korea (20.4%).
+ While the R0 value in Saudi Arabia was &amp;lt; 1 in all but one study, in South Korea, the R0 value was 2.5–8.09 in the early stage and decreased to &amp;lt; 1 in the later stage.
+ The incubation period was 4.5–5.2 days in Saudi Arabia and 6–7.8 days in South Korea.
+ Duration from onset was 4–10 days to confirmation, 2.9–5.3 days to hospitalization, 11–17 days to death, and 14–20 days to discharge.
+ Older age and concomitant disease were the most common factors related to MERS infection, severity, and mortality.
+Conclusion
+The transmissibility and severity of MERS differed by outbreak region and patient characteristics.
+ Further studies assessing the risk of MERS should consider these factors.
+</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,     Soyoung%Jung%syjung@kiom.re.kr%1,     Aeran%Kim%arkim@kiom.re.kr%1,     Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
   </si>
 </sst>
 </file>
@@ -3758,10 +4008,10 @@
         <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>443</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>444</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -4198,10 +4448,10 @@
         <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>445</v>
       </c>
       <c r="E37" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -4286,10 +4536,10 @@
         <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>232</v>
+        <v>441</v>
       </c>
       <c r="E39" t="s">
-        <v>264</v>
+        <v>442</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="425">
   <si>
     <t>Doi</t>
   </si>
@@ -2250,256 +2250,6 @@
   </si>
   <si>
     <t>[[[[[[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,      Vera%Regitz-Zagrosek%NULL%1,      Hannelore K.%Neuhauser%NULL%1,      Rosemary%Morgan%NULL%1,      Sabra L.%Klein%NULL%1,     Catherine%Gebhard%Catherine.gebhard@usz.ch%1,     Vera%Regitz-Zagrosek%NULL%1,     Hannelore K.%Neuhauser%NULL%1,     Rosemary%Morgan%NULL%1,     Sabra L.%Klein%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
- We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
-Methods
-id="Par2"&gt;All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
- This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
- All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
- We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
- In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
-Findings
-id="Par3"&gt;The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
- More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
- Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
- Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
- In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
-Conclusion
-id="Par4"&gt;SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
- Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
- Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
-</t>
-  </si>
-  <si>
-    <t>[Xi%Xu%NULL%3,  Chengcheng%Yu%NULL%2,  Jing%Qu%NULL%1,  Lieguang%Zhang%NULL%2,  Songfeng%Jiang%NULL%1,  Deyang%Huang%NULL%1,  Bihua%Chen%NULL%1,  Zhiping%Zhang%NULL%1,  Wanhua%Guan%NULL%1,  Zhoukun%Ling%NULL%1,  Rui%Jiang%NULL%1,  Tianli%Hu%NULL%1,  Yan%Ding%NULL%1,  Lin%Lin%NULL%1,  Qingxin%Gan%NULL%1,  Liangping%Luo%tluolp@jnu.edu.cn%2,  Xiaoping%Tang%xtang@21cn.com%1,  Jinxin%Liu%Liujx83710378@126.com%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since Middle East respiratory syndrome (MERS) infection was first reported in 2012, many studies have analysed its transmissibility and severity.
- However, the methodology and results of these studies have varied, and there has been no systematic review of MERS.
- This study reviews the characteristics and associated risk factors of MERS.
-Method
-id="Par2"&gt;We searched international (PubMed, ScienceDirect, Cochrane) and Korean databases (DBpia, KISS) for English- or Korean-language articles using the terms “MERS” and “Middle East respiratory syndrome”.
- Only human studies with &amp;gt; 20 participants were analysed to exclude studies with low representation.
- Epidemiologic studies with information on transmissibility and severity of MERS as well as studies containing MERS risk factors were included.
-Result
-id="Par3"&gt;A total of 59 studies were included.
- Most studies from Saudi Arabia reported higher mortality (22–69.2%) than those from South Korea (20.4%).
- While the R0 value in Saudi Arabia was &amp;lt; 1 in all but one study, in South Korea, the R0 value was 2.5–8.09 in the early stage and decreased to &amp;lt; 1 in the later stage.
- The incubation period was 4.5–5.2 days in Saudi Arabia and 6–7.8 days in South Korea.
- Duration from onset was 4–10 days to confirmation, 2.9–5.3 days to hospitalization, 11–17 days to death, and 14–20 days to discharge.
- Older age and concomitant disease were the most common factors related to MERS infection, severity, and mortality.
-Conclusion
-id="Par4"&gt;The transmissibility and severity of MERS differed by outbreak region and patient characteristics.
- Further studies assessing the risk of MERS should consider these factors.
-</t>
-  </si>
-  <si>
-    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,  Soyoung%Jung%syjung@kiom.re.kr%1,  Aeran%Kim%arkim@kiom.re.kr%1,  Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Emerging evidence from China suggests that coronavirus disease 2019 (COVID-19) is deadlier for infected men than women with a 2.8% fatality rate being reported in Chinese men versus 1.7% in women.
- Further, sex-disaggregated data for COVID-19 in several European countries show a similar number of cases between the sexes, but more severe outcomes in aged men.
- Case fatality is highest in men with pre-existing cardiovascular conditions.
- The mechanisms accounting for the reduced case fatality rate in women are currently unclear but may offer potential to develop novel risk stratification tools and therapeutic options for women and men.
-Content
-id="Par2"&gt;The present review summarizes latest clinical and epidemiological evidence for gender and sex differences in COVID-19 from Europe and China.
- We discuss potential sex-specific mechanisms modulating the course of disease, such as hormone-regulated expression of genes encoding for the severe acute respiratory syndrome coronavirus 2 (SARS-CoV2) entry receptors angiotensin converting enzyme (ACE) 2 receptor and TMPRSS2 as well as sex hormone-driven innate and adaptive immune responses and immunoaging.
- Finally, we elucidate the impact of gender-specific lifestyle, health behavior, psychological stress, and socioeconomic conditions on COVID-19 and discuss sex specific aspects of antiviral therapies.
-Conclusion
-id="Par3"&gt;The sex and gender disparities observed in COVID-19 vulnerability emphasize the need to better understand the impact of sex and gender on incidence and case fatality of the disease and to tailor treatment according to sex and gender.
- The ongoing and planned prophylactic and therapeutic treatment studies must include prospective sex- and gender-sensitive analyses.
-</t>
-  </si>
-  <si>
-    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,  Vera%Regitz-Zagrosek%NULL%1,  Hannelore K.%Neuhauser%NULL%1,  Rosemary%Morgan%NULL%1,  Sabra L.%Klein%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
- We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
-Methods
-All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
- This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
- All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
- We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
- In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
-Findings
-id="Par3"&gt;The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
- More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
- Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
- Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
- In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
-Conclusion
-id="Par4"&gt;SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
- Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
- Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
-</t>
-  </si>
-  <si>
-    <t>[Xi%Xu%NULL%3,   Chengcheng%Yu%NULL%1,   Jing%Qu%NULL%1,   Lieguang%Zhang%NULL%1,   Songfeng%Jiang%NULL%1,   Deyang%Huang%NULL%1,   Bihua%Chen%NULL%1,   Zhiping%Zhang%NULL%1,   Wanhua%Guan%NULL%1,   Zhoukun%Ling%NULL%1,   Rui%Jiang%NULL%1,   Tianli%Hu%NULL%1,   Yan%Ding%NULL%1,   Lin%Lin%NULL%1,   Qingxin%Gan%NULL%1,   Liangping%Luo%tluolp@jnu.edu.cn%1,   Xiaoping%Tang%xtang@21cn.com%1,   Jinxin%Liu%Liujx83710378@126.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since Middle East respiratory syndrome (MERS) infection was first reported in 2012, many studies have analysed its transmissibility and severity.
- However, the methodology and results of these studies have varied, and there has been no systematic review of MERS.
- This study reviews the characteristics and associated risk factors of MERS.
-Method
-We searched international (PubMed, ScienceDirect, Cochrane) and Korean databases (DBpia, KISS) for English- or Korean-language articles using the terms “MERS” and “Middle East respiratory syndrome”.
- Only human studies with &amp;gt; 20 participants were analysed to exclude studies with low representation.
- Epidemiologic studies with information on transmissibility and severity of MERS as well as studies containing MERS risk factors were included.
-Result
-id="Par3"&gt;A total of 59 studies were included.
- Most studies from Saudi Arabia reported higher mortality (22–69.2%) than those from South Korea (20.4%).
- While the R0 value in Saudi Arabia was &amp;lt; 1 in all but one study, in South Korea, the R0 value was 2.5–8.09 in the early stage and decreased to &amp;lt; 1 in the later stage.
- The incubation period was 4.5–5.2 days in Saudi Arabia and 6–7.8 days in South Korea.
- Duration from onset was 4–10 days to confirmation, 2.9–5.3 days to hospitalization, 11–17 days to death, and 14–20 days to discharge.
- Older age and concomitant disease were the most common factors related to MERS infection, severity, and mortality.
-Conclusion
-id="Par4"&gt;The transmissibility and severity of MERS differed by outbreak region and patient characteristics.
- Further studies assessing the risk of MERS should consider these factors.
-</t>
-  </si>
-  <si>
-    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,   Soyoung%Jung%syjung@kiom.re.kr%1,   Aeran%Kim%arkim@kiom.re.kr%1,   Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Emerging evidence from China suggests that coronavirus disease 2019 (COVID-19) is deadlier for infected men than women with a 2.8% fatality rate being reported in Chinese men versus 1.7% in women.
- Further, sex-disaggregated data for COVID-19 in several European countries show a similar number of cases between the sexes, but more severe outcomes in aged men.
- Case fatality is highest in men with pre-existing cardiovascular conditions.
- The mechanisms accounting for the reduced case fatality rate in women are currently unclear but may offer potential to develop novel risk stratification tools and therapeutic options for women and men.
-Content
-The present review summarizes latest clinical and epidemiological evidence for gender and sex differences in COVID-19 from Europe and China.
- We discuss potential sex-specific mechanisms modulating the course of disease, such as hormone-regulated expression of genes encoding for the severe acute respiratory syndrome coronavirus 2 (SARS-CoV2) entry receptors angiotensin converting enzyme (ACE) 2 receptor and TMPRSS2 as well as sex hormone-driven innate and adaptive immune responses and immunoaging.
- Finally, we elucidate the impact of gender-specific lifestyle, health behavior, psychological stress, and socioeconomic conditions on COVID-19 and discuss sex specific aspects of antiviral therapies.
-Conclusion
-id="Par3"&gt;The sex and gender disparities observed in COVID-19 vulnerability emphasize the need to better understand the impact of sex and gender on incidence and case fatality of the disease and to tailor treatment according to sex and gender.
- The ongoing and planned prophylactic and therapeutic treatment studies must include prospective sex- and gender-sensitive analyses.
-</t>
-  </si>
-  <si>
-    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,   Vera%Regitz-Zagrosek%NULL%1,   Hannelore K.%Neuhauser%NULL%1,   Rosemary%Morgan%NULL%1,   Sabra L.%Klein%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
- We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
-Methods
-All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
- This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
- All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
- We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
- In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
-Findings
-The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
- More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
- Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
- Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
- In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
-Conclusion
-id="Par4"&gt;SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
- Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
- Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
-</t>
-  </si>
-  <si>
-    <t>[Xi%Xu%NULL%3,    Chengcheng%Yu%NULL%1,    Jing%Qu%NULL%1,    Lieguang%Zhang%NULL%1,    Songfeng%Jiang%NULL%1,    Deyang%Huang%NULL%1,    Bihua%Chen%NULL%1,    Zhiping%Zhang%NULL%1,    Wanhua%Guan%NULL%1,    Zhoukun%Ling%NULL%1,    Rui%Jiang%NULL%1,    Tianli%Hu%NULL%1,    Yan%Ding%NULL%1,    Lin%Lin%NULL%1,    Qingxin%Gan%NULL%1,    Liangping%Luo%tluolp@jnu.edu.cn%1,    Xiaoping%Tang%xtang@21cn.com%1,    Jinxin%Liu%Liujx83710378@126.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since Middle East respiratory syndrome (MERS) infection was first reported in 2012, many studies have analysed its transmissibility and severity.
- However, the methodology and results of these studies have varied, and there has been no systematic review of MERS.
- This study reviews the characteristics and associated risk factors of MERS.
-Method
-We searched international (PubMed, ScienceDirect, Cochrane) and Korean databases (DBpia, KISS) for English- or Korean-language articles using the terms “MERS” and “Middle East respiratory syndrome”.
- Only human studies with &amp;gt; 20 participants were analysed to exclude studies with low representation.
- Epidemiologic studies with information on transmissibility and severity of MERS as well as studies containing MERS risk factors were included.
-Result
-A total of 59 studies were included.
- Most studies from Saudi Arabia reported higher mortality (22–69.2%) than those from South Korea (20.4%).
- While the R0 value in Saudi Arabia was &amp;lt; 1 in all but one study, in South Korea, the R0 value was 2.5–8.09 in the early stage and decreased to &amp;lt; 1 in the later stage.
- The incubation period was 4.5–5.2 days in Saudi Arabia and 6–7.8 days in South Korea.
- Duration from onset was 4–10 days to confirmation, 2.9–5.3 days to hospitalization, 11–17 days to death, and 14–20 days to discharge.
- Older age and concomitant disease were the most common factors related to MERS infection, severity, and mortality.
-Conclusion
-id="Par4"&gt;The transmissibility and severity of MERS differed by outbreak region and patient characteristics.
- Further studies assessing the risk of MERS should consider these factors.
-</t>
-  </si>
-  <si>
-    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,    Soyoung%Jung%syjung@kiom.re.kr%1,    Aeran%Kim%arkim@kiom.re.kr%1,    Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Emerging evidence from China suggests that coronavirus disease 2019 (COVID-19) is deadlier for infected men than women with a 2.8% fatality rate being reported in Chinese men versus 1.7% in women.
- Further, sex-disaggregated data for COVID-19 in several European countries show a similar number of cases between the sexes, but more severe outcomes in aged men.
- Case fatality is highest in men with pre-existing cardiovascular conditions.
- The mechanisms accounting for the reduced case fatality rate in women are currently unclear but may offer potential to develop novel risk stratification tools and therapeutic options for women and men.
-Content
-The present review summarizes latest clinical and epidemiological evidence for gender and sex differences in COVID-19 from Europe and China.
- We discuss potential sex-specific mechanisms modulating the course of disease, such as hormone-regulated expression of genes encoding for the severe acute respiratory syndrome coronavirus 2 (SARS-CoV2) entry receptors angiotensin converting enzyme (ACE) 2 receptor and TMPRSS2 as well as sex hormone-driven innate and adaptive immune responses and immunoaging.
- Finally, we elucidate the impact of gender-specific lifestyle, health behavior, psychological stress, and socioeconomic conditions on COVID-19 and discuss sex specific aspects of antiviral therapies.
-Conclusion
-The sex and gender disparities observed in COVID-19 vulnerability emphasize the need to better understand the impact of sex and gender on incidence and case fatality of the disease and to tailor treatment according to sex and gender.
- The ongoing and planned prophylactic and therapeutic treatment studies must include prospective sex- and gender-sensitive analyses.
-</t>
-  </si>
-  <si>
-    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,    Vera%Regitz-Zagrosek%NULL%1,    Hannelore K.%Neuhauser%NULL%1,    Rosemary%Morgan%NULL%1,    Sabra L.%Klein%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
- We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
-Methods
-All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
- This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
- All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
- We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
- In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
-Findings
-The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
- More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
- Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
- Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
- In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
-Conclusion
-SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
- Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
- Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
-</t>
-  </si>
-  <si>
-    <t>[Xi%Xu%NULL%3,     Chengcheng%Yu%NULL%1,     Jing%Qu%NULL%1,     Lieguang%Zhang%NULL%1,     Songfeng%Jiang%NULL%1,     Deyang%Huang%NULL%1,     Bihua%Chen%NULL%1,     Zhiping%Zhang%NULL%1,     Wanhua%Guan%NULL%1,     Zhoukun%Ling%NULL%1,     Rui%Jiang%NULL%1,     Tianli%Hu%NULL%1,     Yan%Ding%NULL%1,     Lin%Lin%NULL%1,     Qingxin%Gan%NULL%1,     Liangping%Luo%tluolp@jnu.edu.cn%1,     Xiaoping%Tang%xtang@21cn.com%1,     Jinxin%Liu%Liujx83710378@126.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Since Middle East respiratory syndrome (MERS) infection was first reported in 2012, many studies have analysed its transmissibility and severity.
- However, the methodology and results of these studies have varied, and there has been no systematic review of MERS.
- This study reviews the characteristics and associated risk factors of MERS.
-Method
-We searched international (PubMed, ScienceDirect, Cochrane) and Korean databases (DBpia, KISS) for English- or Korean-language articles using the terms “MERS” and “Middle East respiratory syndrome”.
- Only human studies with &amp;gt; 20 participants were analysed to exclude studies with low representation.
- Epidemiologic studies with information on transmissibility and severity of MERS as well as studies containing MERS risk factors were included.
-Result
-A total of 59 studies were included.
- Most studies from Saudi Arabia reported higher mortality (22–69.2%) than those from South Korea (20.4%).
- While the R0 value in Saudi Arabia was &amp;lt; 1 in all but one study, in South Korea, the R0 value was 2.5–8.09 in the early stage and decreased to &amp;lt; 1 in the later stage.
- The incubation period was 4.5–5.2 days in Saudi Arabia and 6–7.8 days in South Korea.
- Duration from onset was 4–10 days to confirmation, 2.9–5.3 days to hospitalization, 11–17 days to death, and 14–20 days to discharge.
- Older age and concomitant disease were the most common factors related to MERS infection, severity, and mortality.
-Conclusion
-The transmissibility and severity of MERS differed by outbreak region and patient characteristics.
- Further studies assessing the risk of MERS should consider these factors.
-</t>
-  </si>
-  <si>
-    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,     Soyoung%Jung%syjung@kiom.re.kr%1,     Aeran%Kim%arkim@kiom.re.kr%1,     Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
   </si>
 </sst>
 </file>
@@ -4008,10 +3758,10 @@
         <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>443</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>444</v>
+        <v>255</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -4448,10 +4198,10 @@
         <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>445</v>
+        <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>446</v>
+        <v>262</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -4536,10 +4286,10 @@
         <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>441</v>
+        <v>232</v>
       </c>
       <c r="E39" t="s">
-        <v>442</v>
+        <v>264</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="462">
   <si>
     <t>Doi</t>
   </si>
@@ -2250,6 +2250,117 @@
   </si>
   <si>
     <t>[[[[[[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,      Vera%Regitz-Zagrosek%NULL%1,      Hannelore K.%Neuhauser%NULL%1,      Rosemary%Morgan%NULL%1,      Sabra L.%Klein%NULL%1,     Catherine%Gebhard%Catherine.gebhard@usz.ch%1,     Vera%Regitz-Zagrosek%NULL%1,     Hannelore K.%Neuhauser%NULL%1,     Rosemary%Morgan%NULL%1,     Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,  Jordi%Rello%NULL%1,  Sofia%Tejada%NULL%1,  Alejandro%Martín%NULL%1,  Goiatz%Balziskueta%NULL%1,  Cristina%Vinuesa%NULL%1,  Borja%Fernández-Miret%NULL%1,  Ana%Villagra%NULL%1,  Ana%Vallejo%NULL%1,  Ana%San Sebastián%NULL%1,  Sara%Cabañes%NULL%1,  Sebastián%Iribarren%NULL%1,  Fernando%Fonseca%NULL%1,  Javier%Maynar%NULL%1,  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,  Bijan J.%Ghassemieh%NULL%2,  Michelle%Nichols%NULL%2,  Richard%Kim%NULL%2,  Keith R.%Jerome%NULL%2,  Arun K.%Nalla%NULL%2,  Alexander L.%Greninger%NULL%2,  Sudhakar%Pipavath%NULL%2,  Mark M.%Wurfel%NULL%2,  Laura%Evans%NULL%2,  Patricia A.%Kritek%NULL%2,  T. Eoin%West%NULL%2,  Andrew%Luks%NULL%2,  Anthony%Gerbino%NULL%2,  Chris R.%Dale%NULL%2,  Jason D.%Goldman%NULL%2,  Shane%O’Mahony%NULL%2,  Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%3,  Wenlin%Cheng%NULL%3,  Lei%Yu%NULL%3,  Ya-Kun%Liu%NULL%3,  Xiaoyong%Hu%NULL%3,  Qiang%Liu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,  Tangkai%Qi%NULL%2,  Li%Liu%NULL%3,  Yun%Ling%NULL%6,  Zhiping%Qian%NULL%3,  Tao%Li%NULL%4,  Feng%Li%NULL%4,  Qingnian%Xu%NULL%3,  Yuyi%Zhang%NULL%3,  Shuibao%Xu%NULL%2,  Zhigang%Song%NULL%3,  Yigang%Zeng%NULL%2,  Yinzhong%Shen%NULL%2,  Yuxin%Shi%NULL%5,  Tongyu%Zhu%NULL%3,  Hongzhou%Lu%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,  Min%Zhou%NULL%7,  Xuan%Dong%NULL%3,  Jieming%Qu%NULL%7,  Fengyun%Gong%NULL%3,  Yang%Han%NULL%3,  Yang%Qiu%NULL%3,  Jingli%Wang%NULL%3,  Ying%Liu%NULL%6,  Yuan%Wei%NULL%0,  Jia'an%Xia%NULL%0,  Ting%Yu%NULL%0,  Xinxin%Zhang%NULL%5,  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,  Zhe%Dai%NULL%1,  Pingzheng%Mo%NULL%1,  Xinyu%Li%NULL%1,  Zhiyong%Ma%NULL%1,  Shihui%Song%NULL%1,  Xiaoping%Chen%NULL%1,  Mingqi%Luo%NULL%1,  Ke%Liang%NULL%1,  Shicheng%Gao%NULL%1,  Yongxi%Zhang%NULL%1,  Liping%Deng%dengdeng78@126.com%1,  Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,  Di%Wu%NULL%0,  Huilong%Chen%NULL%0,  Weiming%Yan%NULL%0,  Danlei%Yang%NULL%0,  Guang%Chen%NULL%0,  Ke%Ma%NULL%0,  Dong%Xu%NULL%0,  Haijing%Yu%NULL%0,  Hongwu%Wang%NULL%0,  Tao%Wang%NULL%0,  Wei%Guo%NULL%0,  Jia%Chen%NULL%0,  Chen%Ding%NULL%0,  Xiaoping%Zhang%NULL%0,  Jiaquan%Huang%NULL%0,  Meifang%Han%NULL%0,  Shusheng%Li%NULL%0,  Xiaoping%Luo%NULL%0,  Jianping%Zhao%NULL%0,  Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,  Nan%Yang%NULL%0,  Yanqiu%Wei%NULL%0,  Huihui%Yue%NULL%0,  Fengqin%Zhang%NULL%0,  Jianping%Zhao%NULL%0,  Li%He%NULL%0,  Gaohong%Sheng%NULL%0,  Peng%Chen%NULL%0,  Gang%Li%NULL%0,  Sisi%Wu%NULL%0,  Bo%Zhang%NULL%0,  Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,  Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,  Xiaoping%Miao%miaoxp@hust.edu.cn%0,  Juan%Li%lijuan@tjh.tjmu.edu.cn%0,  Wenhua%Liu%liuwh_2013@126.com%0,  Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,  Li-Rong%Liang%NULL%1,  Cheng-Qing%Yang%NULL%1,  Wen%Wang%NULL%3,  Tan-Ze%Cao%NULL%1,  Ming%Li%NULL%1,  Guang-Yun%Guo%NULL%1,  Juan%Du%NULL%1,  Chun-Lan%Zheng%NULL%1,  Qi%Zhu%NULL%1,  Ming%Hu%NULL%1,  Xu-Yan%Li%NULL%3,  Peng%Peng%NULL%0,  Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,  Li-Min%Liu%NULL%2,  Wen%Yin%NULL%0,  Wen%Wang%NULL%0,  Lu-Lu%Guan%NULL%2,  Ming-Li%Yuan%NULL%2,  Yu-Lei%Li%NULL%2,  Yi%Hu%NULL%0,  Xu-Yan%Li%NULL%0,  Bing%Sun%NULL%2,  Peng%Peng%NULL%0,  Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,  Lei%Tu%NULL%1,  Pingjun%Zhu%NULL%1,  Mi%Mu%NULL%1,  Runsheng%Wang%NULL%1,  Pengcheng%Yang%NULL%1,  Xi%Wang%NULL%1,  Chao%Hu%NULL%1,  Rongyu%Ping%NULL%1,  Peng%Hu%NULL%1,  Tianzhi%Li%NULL%1,  Feng%Cao%NULL%1,  Christopher%Chang%NULL%1,  Qinyong%Hu%NULL%1,  Yang%Jin%NULL%1,  Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,  Zheng-yi%Ni%NULL%0,  Yu%Hu%NULL%0,  Wen-hua%Liang%NULL%0,  Chun-quan%Ou%NULL%0,  Jian-xing%He%NULL%0,  Lei%Liu%NULL%0,  Hong%Shan%NULL%0,  Chun-liang%Lei%NULL%0,  David S.C.%Hui%NULL%0,  Bin%Du%NULL%0,  Lan-juan%Li%NULL%0,  Guang%Zeng%NULL%0,  Kwok-Yung%Yuen%NULL%0,  Ru-chong%Chen%NULL%0,  Chun-li%Tang%NULL%0,  Tao%Wang%NULL%0,  Ping-yan%Chen%NULL%0,  Jie%Xiang%NULL%0,  Shi-yue%Li%NULL%0,  Jin-lin%Wang%NULL%0,  Zi-jing%Liang%NULL%0,  Yi-xiang%Peng%NULL%0,  Li%Wei%NULL%0,  Yong%Liu%NULL%0,  Ya-hua%Hu%NULL%0,  Peng%Peng%NULL%0,  Jian-ming%Wang%NULL%0,  Ji-yang%Liu%NULL%0,  Zhong%Chen%NULL%0,  Gang%Li%NULL%0,  Zhi-jian%Zheng%NULL%0,  Shao-qin%Qiu%NULL%0,  Jie%Luo%NULL%0,  Chang-jiang%Ye%NULL%0,  Shao-yong%Zhu%NULL%0,  Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,  Yeming%Wang%NULL%0,  Xingwang%Li%NULL%0,  Lili%Ren%NULL%0,  Jianping%Zhao%NULL%0,  Yi%Hu%NULL%0,  Li%Zhang%NULL%0,  Guohui%Fan%NULL%0,  Jiuyang%Xu%NULL%0,  Xiaoying%Gu%NULL%0,  Zhenshun%Cheng%NULL%0,  Ting%Yu%NULL%0,  Jiaan%Xia%NULL%0,  Yuan%Wei%NULL%0,  Wenjuan%Wu%NULL%0,  Xuelei%Xie%NULL%0,  Wen%Yin%NULL%0,  Hui%Li%NULL%0,  Min%Liu%NULL%0,  Yan%Xiao%NULL%0,  Hong%Gao%NULL%0,  Li%Guo%NULL%0,  Jungang%Xie%NULL%0,  Guangfa%Wang%NULL%0,  Rongmeng%Jiang%NULL%0,  Zhancheng%Gao%NULL%0,  Qi%Jin%NULL%0,  Jianwei%Wang%wangjw28@163.com%0,  Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%11]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,  Shuyun%Xu%NULL%1,  Muqing%Yu%NULL%2,  Ke%Wang%NULL%2,  Yu%Tao%NULL%2,  Ying%Zhou%NULL%2,  Jing%Shi%NULL%1,  Min%Zhou%NULL%0,  Bo%Wu%NULL%1,  Zhenyu%Yang%NULL%1,  Cong%Zhang%NULL%3,  Junqing%Yue%NULL%1,  Zhiguo%Zhang%NULL%3,  Harald%Renz%NULL%1,  Xiansheng%Liu%NULL%1,  Jungang%Xie%NULL%0,  Min%Xie%NULL%2,  Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,  Yuan-Yuan%Fang%NULL%0,  Yan%Deng%NULL%0,  Wei%Liu%NULL%0,  Mei-Fang%Wang%NULL%0,  Jing-Ping%Ma%NULL%0,  Wei%Xiao%NULL%0,  Ying-Nan%Wang%NULL%0,  Min-Hua%Zhong%NULL%0,  Cheng-Hong%Li%NULL%0,  Guang-Cai%Li%NULL%0,  Hui-Guo%Liu%NULL%0,  Xiu-Yuan%Hao%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,  Mikael%Chetboun%NULL%2,  Julien%Poissy%NULL%3,  Violeta%Raverdy%NULL%2,  Jerome%Noulette%NULL%3,  Alain%Duhamel%NULL%2,  Julien%Labreuche%NULL%2,  Daniel%Mathieu%NULL%5,  Francois%Pattou%francois.pattou@univ-lille.fr%2,  Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,  Robert%Caizzo%NULL%3,  Morgan%Caplan%NULL%2,  Nicolas%Cousin%NULL%2,  Thibault%Duburcq%NULL%2,  Arthur%Durand%NULL%2,  Ahmed%El kalioubie%NULL%2,  Raphael%Favory%NULL%2,  Bruno%Garcia%NULL%2,  Patrick%Girardie%NULL%2,  Julien%Goutay%NULL%2,  Marion%Houard%NULL%2,  Emmanuelle%Jaillette%NULL%2,  Nicolas%Kostuj%NULL%2,  Geoffrey%Ledoux%NULL%2,  Daniel%Mathieu%NULL%0,  Anne Sophie%Moreau%NULL%2,  Christopher%Niles%NULL%2,  Saad%Nseir%NULL%3,  Thierry%Onimus%NULL%2,  Erika%Parmentier%NULL%2,  Sebastien%Préau%NULL%2,  Laurent%Robriquet%NULL%2,  Anahita%Rouze%NULL%2,  Sophie%Six%NULL%2,  Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,  Yi%Xiang%NULL%1,  Wei%Fang%NULL%1,  Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,  Boqun%Li%279685211@qq.com%1,  Yanjun%Hu%huyanjun@163.com%1,  Chunhui%Lang%NULL%1,  Daoqiu%Huang%NULL%1,  Qiuyan%Sun%NULL%1,  Yan%Xiong%NULL%2,  Xia%Huang%NULL%1,  Jinglong%Lv%NULL%1,  Yaling%Luo%NULL%1,  Li%Shen%NULL%1,  Haoran%Yang%NULL%1,  Gu%Huang%NULL%1,  Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,  Min%Pan%NULL%1,  Xiumei%Zhang%NULL%1,  Mingfeng%Han%fyhmf@163.com%1,  Xiaoyun%Fan%13956988552@126.com%1,  Fengde%Zhao%NULL%1,  Manli%Miao%NULL%1,  Jing%Xu%NULL%2,  Minglong%Guan%NULL%1,  Xia%Deng%NULL%1,  Xu%Chen%NULL%1,  Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,  J.%Fang%NULL%1,  Y.%Zhu%NULL%1,  L.%Chen%NULL%1,  F.%Ding%NULL%1,  R.%Zhou%NULL%1,  L.%Ge%NULL%1,  F.%Wang%NULL%1,  Q.%Chen%NULL%1,  Y.%Zhang%NULL%2,  Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,  Jun%Liu%NULL%3,  Xinguo%Zhao%NULL%1,  Chengyuan%Liu%NULL%1,  Wei%Wang%NULL%2,  Dawei%Wang%NULL%1,  Wei%Xu%NULL%2,  Chunyu%Zhang%NULL%1,  Jiong%Yu%NULL%1,  Bin%Jiang%NULL%1,  Hongcui%Cao%hccao@zju.edu.cn%1,  Lanjuan%Li%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,  Jianming%Zhao%NULL%1,  Ningfang%Lian%1533532863@qq.com%1,  Su%Lin%NULL%1,  Qunfang%Xie%NULL%1,  Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,  Chengcheng%Yu%NULL%2,  Jing%Qu%NULL%1,  Lieguang%Zhang%NULL%2,  Songfeng%Jiang%NULL%1,  Deyang%Huang%NULL%1,  Bihua%Chen%NULL%1,  Zhiping%Zhang%NULL%1,  Wanhua%Guan%NULL%1,  Zhoukun%Ling%NULL%1,  Rui%Jiang%NULL%1,  Tianli%Hu%NULL%1,  Yan%Ding%NULL%1,  Lin%Lin%NULL%1,  Qingxin%Gan%NULL%1,  Liangping%Luo%tluolp@jnu.edu.cn%2,  Xiaoping%Tang%xtang@21cn.com%1,  Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,  Qiqi%Cao%NULL%1,  Le%Qin%NULL%1,  Xiaoyang%Wang%NULL%1,  Zenghui%Cheng%NULL%1,  Ashan%Pan%NULL%1,  Jianyi%Dai%NULL%1,  Qingfeng%Sun%NULL%1,  Fengquan%Zhao%NULL%1,  Jieming%Qu%NULL%0,  Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,  Areeba%Ali%NULL%1,  Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,  Jaime A.%Cardona-Ospina%NULL%1,  Estefanía%Gutiérrez-Ocampo%NULL%1,  Rhuvi%Villamizar-Peña%NULL%1,  Yeimer%Holguin-Rivera%NULL%1,  Juan Pablo%Escalera-Antezana%NULL%1,  Lucia Elena%Alvarado-Arnez%NULL%1,  D. Katterine%Bonilla-Aldana%NULL%1,  Carlos%Franco-Paredes%NULL%1,  Andrés F.%Henao-Martinez%NULL%1,  Alberto%Paniz-Mondolfi%NULL%1,  Guillermo J.%Lagos-Grisales%NULL%1,  Eduardo%Ramírez-Vallejo%NULL%1,  Jose A.%Suárez%NULL%1,  Lysien I.%Zambrano%NULL%1,  Wilmer E.%Villamil-Gómez%NULL%1,  Graciela J.%Balbin-Ramon%NULL%1,  Ali A.%Rabaan%NULL%1,  Harapan%Harapan%NULL%1,  Kuldeep%Dhama%NULL%1,  Hiroshi%Nishiura%NULL%2,  Hiromitsu%Kataoka%NULL%1,  Tauseef%Ahmad%NULL%1,  Ranjit%Sah%NULL%2,  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,  Ben%Van Calster%NULL%1,  Gary S%Collins%NULL%1,  Richard D%Riley%NULL%1,  Georg%Heinze%NULL%1,  Ewoud%Schuit%NULL%1,  Marc M J%Bonten%NULL%1,  Johanna A A%Damen%NULL%1,  Thomas P A%Debray%NULL%1,  Maarten%De Vos%NULL%1,  Paula%Dhiman%NULL%1,  Maria C%Haller%NULL%1,  Michael O%Harhay%NULL%1,  Liesbet%Henckaerts%NULL%1,  Nina%Kreuzberger%NULL%1,  Anna%Lohmann%NULL%1,  Kim%Luijken%NULL%1,  Jie%Ma%NULL%1,  Constanza L%Andaur Navarro%NULL%1,  Johannes B%Reitsma%NULL%1,  Jamie C%Sergeant%NULL%1,  Chunhu%Shi%NULL%1,  Nicole%Skoetz%NULL%1,  Luc J M%Smits%NULL%1,  Kym I E%Snell%NULL%1,  Matthew%Sperrin%NULL%1,  René%Spijker%NULL%1,  Ewout W%Steyerberg%NULL%1,  Toshihiko%Takada%NULL%1,  Sander M J%van Kuijk%NULL%1,  Florien S%van Royen%NULL%1,  Christine%Wallisch%NULL%1,  Lotty%Hooft%NULL%1,  Karel G M%Moons%NULL%1,  Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,  Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,  Satoshi%Kutsuna%sonare.since1192@gmail.com%1,  Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,  Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,  Jung Wan%Park%NULL%3,  Moran%Ki%NULL%1,  Mi-Yeon%Yeon%NULL%3,  Jin%Kim%NULL%1,  Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,  Soyoung%Jung%syjung@kiom.re.kr%1,  Aeran%Kim%arkim@kiom.re.kr%1,  Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,  D. S. Y.%Chong%NULL%1,  W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,  Vera%Regitz-Zagrosek%NULL%1,  Hannelore K.%Neuhauser%NULL%1,  Rosemary%Morgan%NULL%1,  Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2628,7 +2739,9 @@
       <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" t="s">
+        <v>425</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2661,7 +2774,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>426</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -2672,7 +2785,9 @@
       <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" t="s">
+        <v>427</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -2705,7 +2820,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>428</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -2716,7 +2831,9 @@
       <c r="H3" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" t="s">
+        <v>429</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -2749,7 +2866,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>430</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2760,7 +2877,9 @@
       <c r="H4" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" t="s">
+        <v>429</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -2793,7 +2912,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>431</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -2804,7 +2923,9 @@
       <c r="H5" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" t="s">
+        <v>427</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2837,7 +2958,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>432</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -2848,7 +2969,9 @@
       <c r="H6" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" t="s">
+        <v>427</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -2881,7 +3004,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>433</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -2892,7 +3015,9 @@
       <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" t="s">
+        <v>429</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2925,7 +3050,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>434</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -2936,7 +3061,9 @@
       <c r="H8" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" t="s">
+        <v>429</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2969,7 +3096,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>435</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2980,7 +3107,9 @@
       <c r="H9" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" t="s">
+        <v>429</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -3013,7 +3142,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>436</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -3024,7 +3153,9 @@
       <c r="H10" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" t="s">
+        <v>429</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -3057,7 +3188,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>437</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -3068,7 +3199,9 @@
       <c r="H11" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" t="s">
+        <v>429</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -3101,7 +3234,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>243</v>
+        <v>438</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -3112,7 +3245,9 @@
       <c r="H12" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" t="s">
+        <v>429</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3145,7 +3280,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>439</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -3156,7 +3291,9 @@
       <c r="H13" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" t="s">
+        <v>429</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -3189,7 +3326,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>440</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -3200,7 +3337,9 @@
       <c r="H14" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" t="s">
+        <v>427</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -3233,7 +3372,7 @@
         <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>246</v>
+        <v>441</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -3244,7 +3383,9 @@
       <c r="H15" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" t="s">
+        <v>429</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -3277,7 +3418,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>442</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -3288,7 +3429,9 @@
       <c r="H16" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" t="s">
+        <v>427</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3321,7 +3464,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>443</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -3332,7 +3475,9 @@
       <c r="H17" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" t="s">
+        <v>429</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -3376,7 +3521,9 @@
       <c r="H18" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" t="s">
+        <v>444</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3420,7 +3567,9 @@
       <c r="H19" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" t="s">
+        <v>444</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -3453,7 +3602,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
+        <v>445</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -3464,7 +3613,9 @@
       <c r="H20" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" t="s">
+        <v>429</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -3497,7 +3648,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>250</v>
+        <v>446</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -3508,7 +3659,9 @@
       <c r="H21" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" t="s">
+        <v>429</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -3552,7 +3705,9 @@
       <c r="H22" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" t="s">
+        <v>444</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -3585,7 +3740,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>447</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -3596,7 +3751,9 @@
       <c r="H23" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" t="s">
+        <v>427</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3629,7 +3786,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>252</v>
+        <v>448</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -3640,7 +3797,9 @@
       <c r="H24" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" t="s">
+        <v>427</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3673,7 +3832,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>253</v>
+        <v>449</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -3684,7 +3843,9 @@
       <c r="H25" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" t="s">
+        <v>429</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -3717,7 +3878,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>450</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -3728,7 +3889,9 @@
       <c r="H26" t="s">
         <v>151</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" t="s">
+        <v>429</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3761,7 +3924,7 @@
         <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>451</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -3772,7 +3935,9 @@
       <c r="H27" t="s">
         <v>156</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" t="s">
+        <v>452</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -3805,7 +3970,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>256</v>
+        <v>453</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -3816,7 +3981,9 @@
       <c r="H28" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" t="s">
+        <v>427</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3860,7 +4027,9 @@
       <c r="H29" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" t="s">
+        <v>444</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3904,7 +4073,9 @@
       <c r="H30" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" t="s">
+        <v>444</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3948,7 +4119,9 @@
       <c r="H31" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="2"/>
+      <c r="I31" t="s">
+        <v>444</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -3981,7 +4154,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>257</v>
+        <v>454</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -3992,7 +4165,9 @@
       <c r="H32" t="s">
         <v>166</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" t="s">
+        <v>429</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -4025,7 +4200,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>258</v>
+        <v>455</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -4036,7 +4211,9 @@
       <c r="H33" t="s">
         <v>171</v>
       </c>
-      <c r="I33" s="2"/>
+      <c r="I33" t="s">
+        <v>427</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -4069,7 +4246,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>259</v>
+        <v>456</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -4080,7 +4257,9 @@
       <c r="H34" t="s">
         <v>176</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" t="s">
+        <v>429</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -4113,7 +4292,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
+        <v>457</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -4124,7 +4303,9 @@
       <c r="H35" t="s">
         <v>181</v>
       </c>
-      <c r="I35" s="2"/>
+      <c r="I35" t="s">
+        <v>452</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -4157,7 +4338,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>261</v>
+        <v>458</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -4168,7 +4349,9 @@
       <c r="H36" t="s">
         <v>186</v>
       </c>
-      <c r="I36" s="2"/>
+      <c r="I36" t="s">
+        <v>427</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -4201,7 +4384,7 @@
         <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>262</v>
+        <v>459</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -4212,7 +4395,9 @@
       <c r="H37" t="s">
         <v>191</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" t="s">
+        <v>452</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -4245,7 +4430,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>263</v>
+        <v>460</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -4256,7 +4441,9 @@
       <c r="H38" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="2"/>
+      <c r="I38" t="s">
+        <v>429</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -4289,7 +4476,7 @@
         <v>232</v>
       </c>
       <c r="E39" t="s">
-        <v>264</v>
+        <v>461</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -4300,7 +4487,9 @@
       <c r="H39" t="s">
         <v>200</v>
       </c>
-      <c r="I39" s="2"/>
+      <c r="I39" t="s">
+        <v>452</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5485" uniqueCount="604">
   <si>
     <t>Doi</t>
   </si>
@@ -2361,6 +2361,471 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,  Vera%Regitz-Zagrosek%NULL%1,  Hannelore K.%Neuhauser%NULL%1,  Rosemary%Morgan%NULL%1,  Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,   Jordi%Rello%NULL%1,   Sofia%Tejada%NULL%1,   Alejandro%Martín%NULL%1,   Goiatz%Balziskueta%NULL%1,   Cristina%Vinuesa%NULL%1,   Borja%Fernández-Miret%NULL%1,   Ana%Villagra%NULL%1,   Ana%Vallejo%NULL%1,   Ana%San Sebastián%NULL%1,   Sara%Cabañes%NULL%1,   Sebastián%Iribarren%NULL%1,   Fernando%Fonseca%NULL%1,   Javier%Maynar%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,   Bijan J.%Ghassemieh%NULL%2,   Michelle%Nichols%NULL%2,   Richard%Kim%NULL%2,   Keith R.%Jerome%NULL%2,   Arun K.%Nalla%NULL%2,   Alexander L.%Greninger%NULL%2,   Sudhakar%Pipavath%NULL%2,   Mark M.%Wurfel%NULL%2,   Laura%Evans%NULL%2,   Patricia A.%Kritek%NULL%2,   T. Eoin%West%NULL%2,   Andrew%Luks%NULL%2,   Anthony%Gerbino%NULL%2,   Chris R.%Dale%NULL%2,   Jason D.%Goldman%NULL%2,   Shane%O’Mahony%NULL%2,   Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%3,   Wenlin%Cheng%NULL%3,   Lei%Yu%NULL%3,   Ya-Kun%Liu%NULL%3,   Xiaoyong%Hu%NULL%3,   Qiang%Liu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,   Tangkai%Qi%NULL%2,   Li%Liu%NULL%3,   Yun%Ling%NULL%6,   Zhiping%Qian%NULL%3,   Tao%Li%NULL%5,   Feng%Li%NULL%4,   Qingnian%Xu%NULL%3,   Yuyi%Zhang%NULL%3,   Shuibao%Xu%NULL%2,   Zhigang%Song%NULL%3,   Yigang%Zeng%NULL%2,   Yinzhong%Shen%NULL%2,   Yuxin%Shi%NULL%5,   Tongyu%Zhu%NULL%3,   Hongzhou%Lu%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,   Min%Zhou%NULL%7,   Xuan%Dong%NULL%3,   Jieming%Qu%NULL%7,   Fengyun%Gong%NULL%3,   Yang%Han%NULL%3,   Yang%Qiu%NULL%3,   Jingli%Wang%NULL%3,   Ying%Liu%NULL%6,   Yuan%Wei%NULL%0,   Jia'an%Xia%NULL%0,   Ting%Yu%NULL%0,   Xinxin%Zhang%NULL%5,   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,   Zhe%Dai%NULL%1,   Pingzheng%Mo%NULL%1,   Xinyu%Li%NULL%1,   Zhiyong%Ma%NULL%1,   Shihui%Song%NULL%1,   Xiaoping%Chen%NULL%1,   Mingqi%Luo%NULL%1,   Ke%Liang%NULL%1,   Shicheng%Gao%NULL%1,   Yongxi%Zhang%NULL%1,   Liping%Deng%dengdeng78@126.com%1,   Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,   Di%Wu%NULL%0,   Huilong%Chen%NULL%0,   Weiming%Yan%NULL%0,   Danlei%Yang%NULL%0,   Guang%Chen%NULL%0,   Ke%Ma%NULL%0,   Dong%Xu%NULL%0,   Haijing%Yu%NULL%0,   Hongwu%Wang%NULL%0,   Tao%Wang%NULL%0,   Wei%Guo%NULL%0,   Jia%Chen%NULL%0,   Chen%Ding%NULL%0,   Xiaoping%Zhang%NULL%0,   Jiaquan%Huang%NULL%0,   Meifang%Han%NULL%0,   Shusheng%Li%NULL%0,   Xiaoping%Luo%NULL%0,   Jianping%Zhao%NULL%0,   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,   Nan%Yang%NULL%0,   Yanqiu%Wei%NULL%0,   Huihui%Yue%NULL%0,   Fengqin%Zhang%NULL%0,   Jianping%Zhao%NULL%0,   Li%He%NULL%0,   Gaohong%Sheng%NULL%0,   Peng%Chen%NULL%0,   Gang%Li%NULL%0,   Sisi%Wu%NULL%0,   Bo%Zhang%NULL%0,   Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,   Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,   Xiaoping%Miao%miaoxp@hust.edu.cn%0,   Juan%Li%lijuan@tjh.tjmu.edu.cn%0,   Wenhua%Liu%liuwh_2013@126.com%0,   Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,   Li-Rong%Liang%NULL%1,   Cheng-Qing%Yang%NULL%1,   Wen%Wang%NULL%3,   Tan-Ze%Cao%NULL%1,   Ming%Li%NULL%1,   Guang-Yun%Guo%NULL%1,   Juan%Du%NULL%1,   Chun-Lan%Zheng%NULL%1,   Qi%Zhu%NULL%1,   Ming%Hu%NULL%1,   Xu-Yan%Li%NULL%3,   Peng%Peng%NULL%0,   Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,   Li-Min%Liu%NULL%2,   Wen%Yin%NULL%0,   Wen%Wang%NULL%0,   Lu-Lu%Guan%NULL%2,   Ming-Li%Yuan%NULL%2,   Yu-Lei%Li%NULL%2,   Yi%Hu%NULL%0,   Xu-Yan%Li%NULL%0,   Bing%Sun%NULL%2,   Peng%Peng%NULL%0,   Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,   Lei%Tu%NULL%1,   Pingjun%Zhu%NULL%1,   Mi%Mu%NULL%1,   Runsheng%Wang%NULL%1,   Pengcheng%Yang%NULL%1,   Xi%Wang%NULL%1,   Chao%Hu%NULL%1,   Rongyu%Ping%NULL%1,   Peng%Hu%NULL%1,   Tianzhi%Li%NULL%1,   Feng%Cao%NULL%1,   Christopher%Chang%NULL%1,   Qinyong%Hu%NULL%1,   Yang%Jin%NULL%1,   Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,   Shuyun%Xu%NULL%1,   Muqing%Yu%NULL%2,   Ke%Wang%NULL%2,   Yu%Tao%NULL%2,   Ying%Zhou%NULL%2,   Jing%Shi%NULL%1,   Min%Zhou%NULL%0,   Bo%Wu%NULL%1,   Zhenyu%Yang%NULL%1,   Cong%Zhang%NULL%0,   Junqing%Yue%NULL%1,   Zhiguo%Zhang%NULL%3,   Harald%Renz%NULL%1,   Xiansheng%Liu%NULL%1,   Jungang%Xie%NULL%0,   Min%Xie%NULL%2,   Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,   Yuan-Yuan%Fang%NULL%0,   Yan%Deng%NULL%0,   Wei%Liu%NULL%0,   Mei-Fang%Wang%NULL%0,   Jing-Ping%Ma%NULL%0,   Wei%Xiao%NULL%0,   Ying-Nan%Wang%NULL%0,   Min-Hua%Zhong%NULL%0,   Cheng-Hong%Li%NULL%0,   Guang-Cai%Li%NULL%0,   Hui-Guo%Liu%NULL%0,   Xiu-Yuan%Hao%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,   Mikael%Chetboun%NULL%2,   Julien%Poissy%NULL%3,   Violeta%Raverdy%NULL%2,   Jerome%Noulette%NULL%3,   Alain%Duhamel%NULL%2,   Julien%Labreuche%NULL%2,   Daniel%Mathieu%NULL%5,   Francois%Pattou%francois.pattou@univ-lille.fr%2,   Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,   Robert%Caizzo%NULL%3,   Morgan%Caplan%NULL%2,   Nicolas%Cousin%NULL%2,   Thibault%Duburcq%NULL%2,   Arthur%Durand%NULL%2,   Ahmed%El kalioubie%NULL%2,   Raphael%Favory%NULL%2,   Bruno%Garcia%NULL%2,   Patrick%Girardie%NULL%2,   Julien%Goutay%NULL%2,   Marion%Houard%NULL%2,   Emmanuelle%Jaillette%NULL%2,   Nicolas%Kostuj%NULL%2,   Geoffrey%Ledoux%NULL%2,   Daniel%Mathieu%NULL%0,   Anne Sophie%Moreau%NULL%2,   Christopher%Niles%NULL%2,   Saad%Nseir%NULL%3,   Thierry%Onimus%NULL%2,   Erika%Parmentier%NULL%2,   Sebastien%Préau%NULL%2,   Laurent%Robriquet%NULL%2,   Anahita%Rouze%NULL%2,   Sophie%Six%NULL%2,   Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,   Yi%Xiang%NULL%1,   Wei%Fang%NULL%1,   Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,   Boqun%Li%279685211@qq.com%1,   Yanjun%Hu%huyanjun@163.com%1,   Chunhui%Lang%NULL%1,   Daoqiu%Huang%NULL%1,   Qiuyan%Sun%NULL%1,   Yan%Xiong%NULL%2,   Xia%Huang%NULL%1,   Jinglong%Lv%NULL%1,   Yaling%Luo%NULL%1,   Li%Shen%NULL%1,   Haoran%Yang%NULL%1,   Gu%Huang%NULL%1,   Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>Fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com COVID-19</t>
+  </si>
+  <si>
+    <t>Introduction: the mechanisms that are suggested as determinant in the vulnerability of patients with heart failure to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) and which cause the respiratory syndrome labeled COVID-19 (Coronavirus Infectious Disease-19), has revealed controversial.
+ Objective: to gather information on the pathophysiological features of acute heart failure in the context of COVID-19. Method: concerning this topic, from September to November 2020 at the Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d in Santiago de Cuba, a narrative review was carried out.
+ The search was conducted checking the databases Pubmed, Infomed and SciELO, without date restriction, and in Spanish and English language.
+ Development: the mechanisms involved on the pathophysiological features of heart failure in patients with this infectious disease revealed uncertainty.
+ Myocardial damage is achievement of two aspects, the direct effect of viral respiratory infection on the myocyte, which is expressed as a local inflammatory response, and the heart participation as a target organ to the systemic and inappropriate inflammatory response, generated by a marked cytokines release.
+ The last aspect referred also causes endothelial damage that triggers thromboembolic and ischemic complications, systolic and diastolic dysfunction of the heart, and ultimately leads to multiorgan system failure.
+Conclusions: despite the advances in understanding the etiopathogenesis of this disease, the pathophysiological mechanisms that determine on the heart failure still require to be precisely clarified, although the influence of the inappropriate inflammatory response, induced by cytokines, it is recognized in the onset myocardial damage.
+Introducci\u00f3n: se revelan controversias respecto a los mecanismos que determinan la vulnerabilidad de los pacientes con insuficiencia cardiaca a la infecci\u00f3n por el virus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), que produce el s\u00edndrome respiratorio llamado Coronavirus Infectious Disease-19 (COVID-19).
+ Objetivo: recopilar informaci\u00f3n sobre la fisiopatolog\u00eda de la insuficiencia cardiaca aguda en el contexto de la COVID-19.M\u00e9todo: en el Policl\u00ednico Comunitario \u201cRam\u00f3n L\u00f3pez Pe\u00f1a\u201d de Santiago de Cuba, entre septiembre y noviembre del 2020, se realiz\u00f3 una revisi\u00f3n narrativa sobre este tema.
+ La b\u00fasqueda se efectu\u00f3 consultando las bases de datos Pubmed, Infomed y SciELO, sin restricci\u00f3n de fecha, en los idiomas espa\u00f1ol e ingl\u00e9s.
+ Desarrollo: se manifiestan incertidumbre en los mecanismos implicados en la fisiopatolog\u00eda de la insuficiencia cardiaca de los pacientes con esta enfermedad infecciosa.
+ El da\u00f1o mioc\u00e1rdico se debe a los efectos directos de la infecci\u00f3n viral sobre el miocito, que se expresa como una respuesta inflamatoria local y a la participaci\u00f3n del coraz\u00f3n como \u00f3rgano diana de respuesta inflamatoria sist\u00e9mica e inapropiada generada por la marcada liberaci\u00f3n de citocinas.
+ Esta \u00faltima, adem\u00e1s, genera un da\u00f1o endotelial que desencadena complicaciones tromboemb\u00f3licas e isqu\u00e9micas, disfunci\u00f3n sistodiast\u00f3lica del coraz\u00f3n, y finalmente la falla multiorg\u00e1nica.
+ Conclusiones: a pesar de los avances en el conocimiento de la etiopatogenia de esta enfermedad, a\u00fan se requiere que se esclarezcan con precisi\u00f3n los mecanismos fisiopatol\u00f3gicos que determinan la presentaci\u00f3n de la insuficiencia cardiaca, si bien se reconoce la influencia de la respuesta inflamatoria inapropiada, inducida por citoquinas, en la presentaci\u00f3n del da\u00f1o mioc\u00e1rdico.
+Introdu\u00e7\u00e3o: revelam-se controv\u00e9rsias a respeito dos mecanismos que determinam a vulnerabilidade dos pacientes com insufici\u00eancia card\u00edaca \u00e0 infec\u00e7\u00e3o pelo v\u00edrus severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2), gerador da s\u00edndrome respirat\u00f3ria denominada Coronavirus Infectious Disease-19 (COVID-19).
+ Objetivo: coletar informa\u00e7\u00f5es sobre a fisiopatologia da insufici\u00eancia card\u00edaca aguda no contexto da COVID-19.M\u00e9todo: na Policl\u00ednica Comunit\u00e1ria \u0022Ram\u00f3n L\u00f3pez Pe\u00f1a\u0022 de Santiago de Cuba, entre setembro e novembro de 2020, foi realizada uma revis\u00e3o narrativa sobre o tema.
+ A busca foi realizada por meio de consulta \u00e0s bases de dados Pubmed, Infomed e SciELO, sem restri\u00e7\u00e3o de datas, nos idiomas espanhol e ingl\u00eas.
+ Desenvolvimento: a incerteza se manifesta nos mecanismos envolvidos na fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com essa doen\u00e7a infecciosa.
+ O dano mioc\u00e1rdico se deve aos efeitos diretos da infec\u00e7\u00e3o viral no mi\u00f3cito, que se expressa como resposta inflamat\u00f3ria local, e ao envolvimento do cora\u00e7\u00e3o como \u00f3rg\u00e3o alvo da resposta inflamat\u00f3ria sist\u00eamica e inadequada gerada pela libera\u00e7\u00e3o acentuada de citocinas.
+ Esta \u00faltima tamb\u00e9m gera dano endotelial que desencadeia complica\u00e7\u00f5es tromboemb\u00f3licas e isqu\u00eamicas, disfun\u00e7\u00e3o card\u00edaca sistodiast\u00f3lica e, finalmente, fal\u00eancia de m\u00faltiplos \u00f3rg\u00e3os.
+ Conclus\u00f5es: apesar dos avan\u00e7os no conhecimento da etiopatogenia desta doen\u00e7a, ainda \u00e9 necess\u00e1rio esclarecer com precis\u00e3o os mecanismos fisiopatol\u00f3gicos que determinam a apresenta\u00e7\u00e3o da insufici\u00eancia card\u00edaca, embora se reconhe\u00e7a a influ\u00eancia da resposta inflamat\u00f3ria inadequada, induzida por citocinas, na apresenta\u00e7\u00e3o de dano mioc\u00e1rdico</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0, Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0, Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0, Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,   Min%Pan%NULL%1,   Xiumei%Zhang%NULL%1,   Mingfeng%Han%fyhmf@163.com%1,   Xiaoyun%Fan%13956988552@126.com%1,   Fengde%Zhao%NULL%1,   Manli%Miao%NULL%1,   Jing%Xu%NULL%2,   Minglong%Guan%NULL%1,   Xia%Deng%NULL%1,   Xu%Chen%NULL%1,   Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,   J.%Fang%NULL%1,   Y.%Zhu%NULL%1,   L.%Chen%NULL%1,   F.%Ding%NULL%1,   R.%Zhou%NULL%1,   L.%Ge%NULL%1,   F.%Wang%NULL%1,   Q.%Chen%NULL%1,   Y.%Zhang%NULL%1,   Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,   Jun%Liu%NULL%3,   Xinguo%Zhao%NULL%1,   Chengyuan%Liu%NULL%1,   Wei%Wang%NULL%2,   Dawei%Wang%NULL%1,   Wei%Xu%NULL%2,   Chunyu%Zhang%NULL%1,   Jiong%Yu%NULL%1,   Bin%Jiang%NULL%1,   Hongcui%Cao%hccao@zju.edu.cn%1,   Lanjuan%Li%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,   Jianming%Zhao%NULL%1,   Ningfang%Lian%1533532863@qq.com%1,   Su%Lin%NULL%1,   Qunfang%Xie%NULL%1,   Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,   Chengcheng%Yu%NULL%2,   Jing%Qu%NULL%1,   Lieguang%Zhang%NULL%2,   Songfeng%Jiang%NULL%1,   Deyang%Huang%NULL%1,   Bihua%Chen%NULL%1,   Zhiping%Zhang%NULL%1,   Wanhua%Guan%NULL%1,   Zhoukun%Ling%NULL%1,   Rui%Jiang%NULL%1,   Tianli%Hu%NULL%1,   Yan%Ding%NULL%1,   Lin%Lin%NULL%1,   Qingxin%Gan%NULL%1,   Liangping%Luo%tluolp@jnu.edu.cn%2,   Xiaoping%Tang%xtang@21cn.com%1,   Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,   Qiqi%Cao%NULL%1,   Le%Qin%NULL%1,   Xiaoyang%Wang%NULL%1,   Zenghui%Cheng%NULL%1,   Ashan%Pan%NULL%1,   Jianyi%Dai%NULL%1,   Qingfeng%Sun%NULL%1,   Fengquan%Zhao%NULL%1,   Jieming%Qu%NULL%0,   Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>Clinical characteristics of 140 patients infected with SARS\u2010CoV\u20102 in Wuhan, China</t>
+  </si>
+  <si>
+    <t>Background\n\n\n\nCoronavirus disease 2019 (COVID\u201019) caused by severe acute respiratory syndrome coronavirus 2 (SARS\u2010CoV\u20102) infection has been widely spread.
+ We aim to investigate the clinical characteristic and allergy status of patients infected with SARS\u2010CoV\u20102.\n\nMethods\n\n\n\nElectronic medical records including demographics, clinical manifestation, comorbidities, laboratory data, and radiological materials of 140 hospitalized COVID\u201019 patients, with confirmed result of SARS\u2010CoV\u20102 viral infection, were extracted and analyzed.
+\n\nResults\n\n\n\nAn approximately 1:1 ratio of male (50.7%) and female COVID\u201019 patients was found, with an overall median age of 57.0 years.
+ All patients were community\u2010acquired cases.
+ Fever (91.7%), cough (75.0%), fatigue (75.0%), and gastrointestinal symptoms (39.6%) were the most common clinical manifestations, whereas hypertension (30.0%) and diabetes mellitus (12.1%) were the most common comorbidities.
+ Drug hypersensitivity (11.4%) and urticaria (1.4%) were self\u2010reported by several patients.
+ Asthma or other allergic diseases were not reported by any of the patients.
+ Chronic obstructive pulmonary disease (COPD, 1.4%) patients and current smokers (1.4%) were rare.
+ Bilateral ground\u2010glass or patchy opacity (89.6%) was the most common sign of radiological finding.
+ Lymphopenia (75.4%) and eosinopenia (52.9%) were observed in most patients.
+ Blood eosinophil counts correlate positively with lymphocyte counts in severe (r = .
+486, P \u003C .
+001) and nonsevere (r = .
+469, P \u003C .
+001) patients after hospital admission.
+ Significantly higher levels of D\u2010dimer, C\u2010reactive protein, and procalcitonin were associated with severe patients compared to nonsevere patients (all P \u003C .
+001).
+\n\nConclusion\n\n\n\nDetailed clinical investigation of 140 hospitalized COVID\u201019 cases suggests eosinopenia together with lymphopenia may be a potential indicator for diagnosis.
+ Allergic diseases, asthma, and COPD are not risk factors for SARS\u2010CoV\u20102 infection.
+ Older age, high number of comorbidities, and more prominent laboratory abnormalities were associated with severe patients</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0, Cao%Yi-yuan%coreGivesNoEmail%0, Dong%Xiang%coreGivesNoEmail%0, Gao%Ya-dong%coreGivesNoEmail%0, Yan%You-qin%coreGivesNoEmail%0, Yang%Yi-bin%coreGivesNoEmail%0, Yuan%Ya-dong%coreGivesNoEmail%0, Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>Quantifying heterogeneity in a meta-analysis</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1, National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1, Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1, The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,   Areeba%Ali%NULL%1,   Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,   Jaime A.%Cardona-Ospina%NULL%1,   Estefanía%Gutiérrez-Ocampo%NULL%1,   Rhuvi%Villamizar-Peña%NULL%1,   Yeimer%Holguin-Rivera%NULL%1,   Juan Pablo%Escalera-Antezana%NULL%1,   Lucia Elena%Alvarado-Arnez%NULL%1,   D. Katterine%Bonilla-Aldana%NULL%1,   Carlos%Franco-Paredes%NULL%1,   Andrés F.%Henao-Martinez%NULL%1,   Alberto%Paniz-Mondolfi%NULL%1,   Guillermo J.%Lagos-Grisales%NULL%1,   Eduardo%Ramírez-Vallejo%NULL%1,   Jose A.%Suárez%NULL%1,   Lysien I.%Zambrano%NULL%1,   Wilmer E.%Villamil-Gómez%NULL%1,   Graciela J.%Balbin-Ramon%NULL%1,   Ali A.%Rabaan%NULL%1,   Harapan%Harapan%NULL%1,   Kuldeep%Dhama%NULL%1,   Hiroshi%Nishiura%NULL%2,   Hiromitsu%Kataoka%NULL%1,   Tauseef%Ahmad%NULL%1,   Ranjit%Sah%NULL%2,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,   Ben%Van Calster%NULL%1,   Gary S%Collins%NULL%1,   Richard D%Riley%NULL%1,   Georg%Heinze%NULL%1,   Ewoud%Schuit%NULL%1,   Marc M J%Bonten%NULL%1,   Johanna A A%Damen%NULL%1,   Thomas P A%Debray%NULL%1,   Maarten%De Vos%NULL%1,   Paula%Dhiman%NULL%1,   Maria C%Haller%NULL%1,   Michael O%Harhay%NULL%1,   Liesbet%Henckaerts%NULL%1,   Nina%Kreuzberger%NULL%1,   Anna%Lohmann%NULL%1,   Kim%Luijken%NULL%1,   Jie%Ma%NULL%1,   Constanza L%Andaur Navarro%NULL%1,   Johannes B%Reitsma%NULL%1,   Jamie C%Sergeant%NULL%1,   Chunhu%Shi%NULL%1,   Nicole%Skoetz%NULL%1,   Luc J M%Smits%NULL%1,   Kym I E%Snell%NULL%1,   Matthew%Sperrin%NULL%1,   René%Spijker%NULL%1,   Ewout W%Steyerberg%NULL%1,   Toshihiko%Takada%NULL%1,   Sander M J%van Kuijk%NULL%1,   Florien S%van Royen%NULL%1,   Christine%Wallisch%NULL%1,   Lotty%Hooft%NULL%1,   Karel G M%Moons%NULL%1,   Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,   Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,   Satoshi%Kutsuna%sonare.since1192@gmail.com%1,   Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,   Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,   Jung Wan%Park%NULL%3,   Moran%Ki%NULL%1,   Mi-Yeon%Yeon%NULL%3,   Jin%Kim%NULL%1,   Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,   Soyoung%Jung%syjung@kiom.re.kr%1,   Aeran%Kim%arkim@kiom.re.kr%1,   Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,   D. S. Y.%Chong%NULL%1,   W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,   Vera%Regitz-Zagrosek%NULL%1,   Hannelore K.%Neuhauser%NULL%1,   Rosemary%Morgan%NULL%1,   Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,    Jordi%Rello%NULL%1,    Sofia%Tejada%NULL%1,    Alejandro%Martín%NULL%1,    Goiatz%Balziskueta%NULL%1,    Cristina%Vinuesa%NULL%1,    Borja%Fernández-Miret%NULL%1,    Ana%Villagra%NULL%1,    Ana%Vallejo%NULL%1,    Ana%San Sebastián%NULL%1,    Sara%Cabañes%NULL%1,    Sebastián%Iribarren%NULL%1,    Fernando%Fonseca%NULL%1,    Javier%Maynar%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,    Bijan J.%Ghassemieh%NULL%2,    Michelle%Nichols%NULL%2,    Richard%Kim%NULL%2,    Keith R.%Jerome%NULL%2,    Arun K.%Nalla%NULL%2,    Alexander L.%Greninger%NULL%2,    Sudhakar%Pipavath%NULL%2,    Mark M.%Wurfel%NULL%2,    Laura%Evans%NULL%2,    Patricia A.%Kritek%NULL%2,    T. Eoin%West%NULL%2,    Andrew%Luks%NULL%2,    Anthony%Gerbino%NULL%2,    Chris R.%Dale%NULL%2,    Jason D.%Goldman%NULL%2,    Shane%O’Mahony%NULL%2,    Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%4,    Wenlin%Cheng%NULL%4,    Lei%Yu%NULL%4,    Ya-Kun%Liu%NULL%4,    Xiaoyong%Hu%NULL%4,    Qiang%Liu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,    Tangkai%Qi%NULL%2,    Li%Liu%NULL%3,    Yun%Ling%NULL%8,    Zhiping%Qian%NULL%3,    Tao%Li%NULL%6,    Feng%Li%NULL%4,    Qingnian%Xu%NULL%3,    Yuyi%Zhang%NULL%3,    Shuibao%Xu%NULL%2,    Zhigang%Song%NULL%3,    Yigang%Zeng%NULL%2,    Yinzhong%Shen%NULL%2,    Yuxin%Shi%NULL%5,    Tongyu%Zhu%NULL%3,    Hongzhou%Lu%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,    Min%Zhou%NULL%9,    Xuan%Dong%NULL%3,    Jieming%Qu%NULL%9,    Fengyun%Gong%NULL%3,    Yang%Han%NULL%3,    Yang%Qiu%NULL%3,    Jingli%Wang%NULL%3,    Ying%Liu%NULL%8,    Yuan%Wei%NULL%0,    Jia'an%Xia%NULL%0,    Ting%Yu%NULL%0,    Xinxin%Zhang%NULL%5,    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,    Zhe%Dai%NULL%1,    Pingzheng%Mo%NULL%2,    Xinyu%Li%NULL%1,    Zhiyong%Ma%NULL%1,    Shihui%Song%NULL%1,    Xiaoping%Chen%NULL%1,    Mingqi%Luo%NULL%1,    Ke%Liang%NULL%1,    Shicheng%Gao%NULL%1,    Yongxi%Zhang%NULL%1,    Liping%Deng%dengdeng78@126.com%1,    Yong%Xiong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,    Di%Wu%NULL%0,    Huilong%Chen%NULL%0,    Weiming%Yan%NULL%0,    Danlei%Yang%NULL%0,    Guang%Chen%NULL%0,    Ke%Ma%NULL%0,    Dong%Xu%NULL%0,    Haijing%Yu%NULL%0,    Hongwu%Wang%NULL%0,    Tao%Wang%NULL%0,    Wei%Guo%NULL%0,    Jia%Chen%NULL%0,    Chen%Ding%NULL%0,    Xiaoping%Zhang%NULL%0,    Jiaquan%Huang%NULL%0,    Meifang%Han%NULL%0,    Shusheng%Li%NULL%0,    Xiaoping%Luo%NULL%0,    Jianping%Zhao%NULL%0,    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,    Nan%Yang%NULL%0,    Yanqiu%Wei%NULL%0,    Huihui%Yue%NULL%0,    Fengqin%Zhang%NULL%0,    Jianping%Zhao%NULL%0,    Li%He%NULL%0,    Gaohong%Sheng%NULL%0,    Peng%Chen%NULL%0,    Gang%Li%NULL%0,    Sisi%Wu%NULL%0,    Bo%Zhang%NULL%0,    Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,    Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,    Xiaoping%Miao%miaoxp@hust.edu.cn%0,    Juan%Li%lijuan@tjh.tjmu.edu.cn%0,    Wenhua%Liu%liuwh_2013@126.com%0,    Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,    Li-Rong%Liang%NULL%2,    Cheng-Qing%Yang%NULL%2,    Wen%Wang%NULL%4,    Tan-Ze%Cao%NULL%2,    Ming%Li%NULL%2,    Guang-Yun%Guo%NULL%2,    Juan%Du%NULL%2,    Chun-Lan%Zheng%NULL%2,    Qi%Zhu%NULL%2,    Ming%Hu%NULL%4,    Xu-Yan%Li%NULL%4,    Peng%Peng%NULL%0,    Huan-Zhong%Shi%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,    Li-Min%Liu%NULL%2,    Wen%Yin%NULL%0,    Wen%Wang%NULL%0,    Lu-Lu%Guan%NULL%2,    Ming-Li%Yuan%NULL%3,    Yu-Lei%Li%NULL%2,    Yi%Hu%NULL%0,    Xu-Yan%Li%NULL%0,    Bing%Sun%NULL%2,    Peng%Peng%NULL%0,    Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,    Lei%Tu%NULL%1,    Pingjun%Zhu%NULL%1,    Mi%Mu%NULL%1,    Runsheng%Wang%NULL%1,    Pengcheng%Yang%NULL%1,    Xi%Wang%NULL%1,    Chao%Hu%NULL%1,    Rongyu%Ping%NULL%1,    Peng%Hu%NULL%1,    Tianzhi%Li%NULL%1,    Feng%Cao%NULL%1,    Christopher%Chang%NULL%1,    Qinyong%Hu%NULL%1,    Yang%Jin%NULL%1,    Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,    Zheng-yi%Ni%NULL%0,    Yu%Hu%NULL%0,    Wen-hua%Liang%NULL%0,    Chun-quan%Ou%NULL%0,    Jian-xing%He%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%0,    David S.C.%Hui%NULL%0,    Bin%Du%NULL%0,    Lan-juan%Li%NULL%0,    Guang%Zeng%NULL%0,    Kwok-Yung%Yuen%NULL%0,    Ru-chong%Chen%NULL%0,    Chun-li%Tang%NULL%0,    Tao%Wang%NULL%0,    Ping-yan%Chen%NULL%0,    Jie%Xiang%NULL%0,    Shi-yue%Li%NULL%0,    Jin-lin%Wang%NULL%0,    Zi-jing%Liang%NULL%0,    Yi-xiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%0,    Ji-yang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%0,    Shao-qin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%0,    Shao-yong%Zhu%NULL%0,    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,    Yeming%Wang%NULL%0,    Xingwang%Li%NULL%0,    Lili%Ren%NULL%0,    Jianping%Zhao%NULL%0,    Yi%Hu%NULL%0,    Li%Zhang%NULL%0,    Guohui%Fan%NULL%0,    Jiuyang%Xu%NULL%0,    Xiaoying%Gu%NULL%0,    Zhenshun%Cheng%NULL%0,    Ting%Yu%NULL%0,    Jiaan%Xia%NULL%0,    Yuan%Wei%NULL%0,    Wenjuan%Wu%NULL%0,    Xuelei%Xie%NULL%0,    Wen%Yin%NULL%0,    Hui%Li%NULL%0,    Min%Liu%NULL%0,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Li%Guo%NULL%0,    Jungang%Xie%NULL%0,    Guangfa%Wang%NULL%0,    Rongmeng%Jiang%NULL%0,    Zhancheng%Gao%NULL%0,    Qi%Jin%NULL%0,    Jianwei%Wang%wangjw28@163.com%0,    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,    Shuyun%Xu%NULL%2,    Muqing%Yu%NULL%3,    Ke%Wang%NULL%3,    Yu%Tao%NULL%3,    Ying%Zhou%NULL%3,    Jing%Shi%NULL%2,    Min%Zhou%NULL%0,    Bo%Wu%NULL%2,    Zhenyu%Yang%NULL%2,    Cong%Zhang%NULL%0,    Junqing%Yue%NULL%2,    Zhiguo%Zhang%NULL%4,    Harald%Renz%NULL%2,    Xiansheng%Liu%NULL%2,    Jungang%Xie%NULL%0,    Min%Xie%NULL%3,    Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,    Yuan-Yuan%Fang%NULL%0,    Yan%Deng%NULL%0,    Wei%Liu%NULL%0,    Mei-Fang%Wang%NULL%0,    Jing-Ping%Ma%NULL%0,    Wei%Xiao%NULL%0,    Ying-Nan%Wang%NULL%0,    Min-Hua%Zhong%NULL%0,    Cheng-Hong%Li%NULL%0,    Guang-Cai%Li%NULL%0,    Hui-Guo%Liu%NULL%0,    Xiu-Yuan%Hao%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,    Mikael%Chetboun%NULL%2,    Julien%Poissy%NULL%3,    Violeta%Raverdy%NULL%2,    Jerome%Noulette%NULL%3,    Alain%Duhamel%NULL%2,    Julien%Labreuche%NULL%2,    Daniel%Mathieu%NULL%5,    Francois%Pattou%francois.pattou@univ-lille.fr%2,    Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,    Robert%Caizzo%NULL%3,    Morgan%Caplan%NULL%2,    Nicolas%Cousin%NULL%2,    Thibault%Duburcq%NULL%2,    Arthur%Durand%NULL%2,    Ahmed%El kalioubie%NULL%2,    Raphael%Favory%NULL%2,    Bruno%Garcia%NULL%2,    Patrick%Girardie%NULL%2,    Julien%Goutay%NULL%2,    Marion%Houard%NULL%2,    Emmanuelle%Jaillette%NULL%2,    Nicolas%Kostuj%NULL%2,    Geoffrey%Ledoux%NULL%2,    Daniel%Mathieu%NULL%0,    Anne Sophie%Moreau%NULL%2,    Christopher%Niles%NULL%2,    Saad%Nseir%NULL%3,    Thierry%Onimus%NULL%2,    Erika%Parmentier%NULL%2,    Sebastien%Préau%NULL%2,    Laurent%Robriquet%NULL%2,    Anahita%Rouze%NULL%2,    Sophie%Six%NULL%2,    Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,    Yi%Xiang%NULL%2,    Wei%Fang%NULL%2,    Yu%Zheng%yuzheng1@cdutcm.edu.cn%2,    Boqun%Li%279685211@qq.com%3,    Yanjun%Hu%huyanjun@163.com%2,    Chunhui%Lang%NULL%2,    Daoqiu%Huang%NULL%2,    Qiuyan%Sun%NULL%2,    Yan%Xiong%NULL%3,    Xia%Huang%NULL%2,    Jinglong%Lv%NULL%2,    Yaling%Luo%NULL%2,    Li%Shen%NULL%2,    Haoran%Yang%NULL%2,    Gu%Huang%NULL%2,    Ruishan%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,  Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,    Min%Pan%NULL%2,    Xiumei%Zhang%NULL%2,    Mingfeng%Han%fyhmf@163.com%2,    Xiaoyun%Fan%13956988552@126.com%2,    Fengde%Zhao%NULL%2,    Manli%Miao%NULL%2,    Jing%Xu%NULL%3,    Minglong%Guan%NULL%2,    Xia%Deng%NULL%2,    Xu%Chen%NULL%3,    Leilei%Shen%NULL%2]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,    J.%Fang%NULL%1,    Y.%Zhu%NULL%1,    L.%Chen%NULL%1,    F.%Ding%NULL%1,    R.%Zhou%NULL%1,    L.%Ge%NULL%1,    F.%Wang%NULL%1,    Q.%Chen%NULL%1,    Y.%Zhang%NULL%1,    Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,    Jun%Liu%NULL%3,    Xinguo%Zhao%NULL%1,    Chengyuan%Liu%NULL%1,    Wei%Wang%NULL%2,    Dawei%Wang%NULL%1,    Wei%Xu%NULL%2,    Chunyu%Zhang%NULL%1,    Jiong%Yu%NULL%1,    Bin%Jiang%NULL%1,    Hongcui%Cao%hccao@zju.edu.cn%1,    Lanjuan%Li%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,    Jianming%Zhao%NULL%1,    Ningfang%Lian%1533532863@qq.com%1,    Su%Lin%NULL%1,    Qunfang%Xie%NULL%1,    Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,    Chengcheng%Yu%NULL%2,    Jing%Qu%NULL%1,    Lieguang%Zhang%NULL%2,    Songfeng%Jiang%NULL%1,    Deyang%Huang%NULL%1,    Bihua%Chen%NULL%1,    Zhiping%Zhang%NULL%1,    Wanhua%Guan%NULL%1,    Zhoukun%Ling%NULL%1,    Rui%Jiang%NULL%1,    Tianli%Hu%NULL%1,    Yan%Ding%NULL%1,    Lin%Lin%NULL%1,    Qingxin%Gan%NULL%1,    Liangping%Luo%tluolp@jnu.edu.cn%2,    Xiaoping%Tang%xtang@21cn.com%1,    Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,    Qiqi%Cao%NULL%1,    Le%Qin%NULL%1,    Xiaoyang%Wang%NULL%1,    Zenghui%Cheng%NULL%1,    Ashan%Pan%NULL%1,    Jianyi%Dai%NULL%1,    Qingfeng%Sun%NULL%1,    Fengquan%Zhao%NULL%1,    Jieming%Qu%NULL%0,    Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,  Cao%Yi-yuan%coreGivesNoEmail%0,  Dong%Xiang%coreGivesNoEmail%0,  Gao%Ya-dong%coreGivesNoEmail%0,  Yan%You-qin%coreGivesNoEmail%0,  Yang%Yi-bin%coreGivesNoEmail%0,  Yuan%Ya-dong%coreGivesNoEmail%0,  Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,  National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,  Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,  The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,    Areeba%Ali%NULL%1,    Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,    Jaime A.%Cardona-Ospina%NULL%1,    Estefanía%Gutiérrez-Ocampo%NULL%1,    Rhuvi%Villamizar-Peña%NULL%1,    Yeimer%Holguin-Rivera%NULL%1,    Juan Pablo%Escalera-Antezana%NULL%1,    Lucia Elena%Alvarado-Arnez%NULL%1,    D. Katterine%Bonilla-Aldana%NULL%1,    Carlos%Franco-Paredes%NULL%1,    Andrés F.%Henao-Martinez%NULL%1,    Alberto%Paniz-Mondolfi%NULL%1,    Guillermo J.%Lagos-Grisales%NULL%1,    Eduardo%Ramírez-Vallejo%NULL%1,    Jose A.%Suárez%NULL%1,    Lysien I.%Zambrano%NULL%1,    Wilmer E.%Villamil-Gómez%NULL%1,    Graciela J.%Balbin-Ramon%NULL%1,    Ali A.%Rabaan%NULL%1,    Harapan%Harapan%NULL%1,    Kuldeep%Dhama%NULL%1,    Hiroshi%Nishiura%NULL%2,    Hiromitsu%Kataoka%NULL%1,    Tauseef%Ahmad%NULL%1,    Ranjit%Sah%NULL%2,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,    Ben%Van Calster%NULL%1,    Gary S%Collins%NULL%1,    Richard D%Riley%NULL%1,    Georg%Heinze%NULL%1,    Ewoud%Schuit%NULL%1,    Marc M J%Bonten%NULL%1,    Johanna A A%Damen%NULL%1,    Thomas P A%Debray%NULL%1,    Maarten%De Vos%NULL%1,    Paula%Dhiman%NULL%1,    Maria C%Haller%NULL%1,    Michael O%Harhay%NULL%1,    Liesbet%Henckaerts%NULL%1,    Nina%Kreuzberger%NULL%1,    Anna%Lohmann%NULL%1,    Kim%Luijken%NULL%1,    Jie%Ma%NULL%1,    Constanza L%Andaur Navarro%NULL%1,    Johannes B%Reitsma%NULL%1,    Jamie C%Sergeant%NULL%1,    Chunhu%Shi%NULL%1,    Nicole%Skoetz%NULL%1,    Luc J M%Smits%NULL%1,    Kym I E%Snell%NULL%1,    Matthew%Sperrin%NULL%1,    René%Spijker%NULL%1,    Ewout W%Steyerberg%NULL%1,    Toshihiko%Takada%NULL%1,    Sander M J%van Kuijk%NULL%1,    Florien S%van Royen%NULL%1,    Christine%Wallisch%NULL%1,    Lotty%Hooft%NULL%1,    Karel G M%Moons%NULL%1,    Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,    Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,    Satoshi%Kutsuna%sonare.since1192@gmail.com%1,    Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,    Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,    Jung Wan%Park%NULL%3,    Moran%Ki%NULL%1,    Mi-Yeon%Yeon%NULL%3,    Jin%Kim%NULL%1,    Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,    Soyoung%Jung%syjung@kiom.re.kr%1,    Aeran%Kim%arkim@kiom.re.kr%1,    Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,    D. S. Y.%Chong%NULL%1,    W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,    Vera%Regitz-Zagrosek%NULL%1,    Hannelore K.%Neuhauser%NULL%1,    Rosemary%Morgan%NULL%1,    Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,     Jordi%Rello%NULL%1,     Sofia%Tejada%NULL%1,     Alejandro%Martín%NULL%1,     Goiatz%Balziskueta%NULL%1,     Cristina%Vinuesa%NULL%1,     Borja%Fernández-Miret%NULL%1,     Ana%Villagra%NULL%1,     Ana%Vallejo%NULL%1,     Ana%San Sebastián%NULL%1,     Sara%Cabañes%NULL%1,     Sebastián%Iribarren%NULL%1,     Fernando%Fonseca%NULL%1,     Javier%Maynar%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,     Bijan J.%Ghassemieh%NULL%3,     Michelle%Nichols%NULL%3,     Richard%Kim%NULL%3,     Keith R.%Jerome%NULL%3,     Arun K.%Nalla%NULL%3,     Alexander L.%Greninger%NULL%3,     Sudhakar%Pipavath%NULL%3,     Mark M.%Wurfel%NULL%3,     Laura%Evans%NULL%3,     Patricia A.%Kritek%NULL%3,     T. Eoin%West%NULL%3,     Andrew%Luks%NULL%3,     Anthony%Gerbino%NULL%3,     Chris R.%Dale%NULL%3,     Jason D.%Goldman%NULL%3,     Shane%O’Mahony%NULL%3,     Carmen%Mikacenic%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%3,     Wenlin%Cheng%NULL%3,     Lei%Yu%NULL%3,     Ya-Kun%Liu%NULL%3,     Xiaoyong%Hu%NULL%3,     Qiang%Liu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,     Tangkai%Qi%NULL%2,     Li%Liu%NULL%2,     Yun%Ling%NULL%5,     Zhiping%Qian%NULL%2,     Tao%Li%NULL%4,     Feng%Li%NULL%2,     Qingnian%Xu%NULL%2,     Yuyi%Zhang%NULL%2,     Shuibao%Xu%NULL%2,     Zhigang%Song%NULL%2,     Yigang%Zeng%NULL%2,     Yinzhong%Shen%NULL%2,     Yuxin%Shi%NULL%4,     Tongyu%Zhu%NULL%2,     Hongzhou%Lu%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,     Min%Zhou%NULL%8,     Xuan%Dong%NULL%3,     Jieming%Qu%NULL%7,     Fengyun%Gong%NULL%3,     Yang%Han%NULL%3,     Yang%Qiu%NULL%3,     Jingli%Wang%NULL%3,     Ying%Liu%NULL%8,     Yuan%Wei%NULL%0,     Jia'an%Xia%NULL%0,     Ting%Yu%NULL%0,     Xinxin%Zhang%NULL%5,     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,     Zhe%Dai%NULL%1,     Pingzheng%Mo%NULL%2,     Xinyu%Li%NULL%1,     Zhiyong%Ma%NULL%1,     Shihui%Song%NULL%1,     Xiaoping%Chen%NULL%1,     Mingqi%Luo%NULL%1,     Ke%Liang%NULL%1,     Shicheng%Gao%NULL%1,     Yongxi%Zhang%NULL%1,     Liping%Deng%dengdeng78@126.com%1,     Yong%Xiong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,     Di%Wu%NULL%0,     Huilong%Chen%NULL%0,     Weiming%Yan%NULL%0,     Danlei%Yang%NULL%0,     Guang%Chen%NULL%0,     Ke%Ma%NULL%0,     Dong%Xu%NULL%0,     Haijing%Yu%NULL%0,     Hongwu%Wang%NULL%0,     Tao%Wang%NULL%0,     Wei%Guo%NULL%0,     Jia%Chen%NULL%0,     Chen%Ding%NULL%0,     Xiaoping%Zhang%NULL%0,     Jiaquan%Huang%NULL%0,     Meifang%Han%NULL%0,     Shusheng%Li%NULL%0,     Xiaoping%Luo%NULL%0,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,     Nan%Yang%NULL%0,     Yanqiu%Wei%NULL%0,     Huihui%Yue%NULL%0,     Fengqin%Zhang%NULL%0,     Jianping%Zhao%NULL%0,     Li%He%NULL%0,     Gaohong%Sheng%NULL%0,     Peng%Chen%NULL%0,     Gang%Li%NULL%0,     Sisi%Wu%NULL%0,     Bo%Zhang%NULL%0,     Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,     Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,     Xiaoping%Miao%miaoxp@hust.edu.cn%0,     Juan%Li%lijuan@tjh.tjmu.edu.cn%0,     Wenhua%Liu%liuwh_2013@126.com%0,     Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,     Li-Rong%Liang%NULL%2,     Cheng-Qing%Yang%NULL%2,     Wen%Wang%NULL%4,     Tan-Ze%Cao%NULL%2,     Ming%Li%NULL%2,     Guang-Yun%Guo%NULL%2,     Juan%Du%NULL%2,     Chun-Lan%Zheng%NULL%2,     Qi%Zhu%NULL%2,     Ming%Hu%NULL%5,     Xu-Yan%Li%NULL%4,     Peng%Peng%NULL%0,     Huan-Zhong%Shi%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,     Li-Min%Liu%NULL%2,     Wen%Yin%NULL%0,     Wen%Wang%NULL%0,     Lu-Lu%Guan%NULL%2,     Ming-Li%Yuan%NULL%3,     Yu-Lei%Li%NULL%2,     Yi%Hu%NULL%0,     Xu-Yan%Li%NULL%0,     Bing%Sun%NULL%2,     Peng%Peng%NULL%0,     Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,     Lei%Tu%NULL%1,     Pingjun%Zhu%NULL%1,     Mi%Mu%NULL%1,     Runsheng%Wang%NULL%1,     Pengcheng%Yang%NULL%1,     Xi%Wang%NULL%1,     Chao%Hu%NULL%1,     Rongyu%Ping%NULL%1,     Peng%Hu%NULL%1,     Tianzhi%Li%NULL%1,     Feng%Cao%NULL%1,     Christopher%Chang%NULL%1,     Qinyong%Hu%NULL%1,     Yang%Jin%NULL%1,     Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Wen-hua%Liang%NULL%0,     Chun-quan%Ou%NULL%0,     Jian-xing%He%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     David S.C.%Hui%NULL%0,     Bin%Du%NULL%0,     Lan-juan%Li%NULL%0,     Guang%Zeng%NULL%0,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Ping-yan%Chen%NULL%0,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%0,     Jin-lin%Wang%NULL%0,     Zi-jing%Liang%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%0,     Lili%Ren%NULL%0,     Jianping%Zhao%NULL%0,     Yi%Hu%NULL%0,     Li%Zhang%NULL%0,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%0,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%0,     Xuelei%Xie%NULL%0,     Wen%Yin%NULL%0,     Hui%Li%NULL%0,     Min%Liu%NULL%0,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Li%Guo%NULL%0,     Jungang%Xie%NULL%0,     Guangfa%Wang%NULL%0,     Rongmeng%Jiang%NULL%0,     Zhancheng%Gao%NULL%0,     Qi%Jin%NULL%0,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,     Shuyun%Xu%NULL%2,     Muqing%Yu%NULL%2,     Ke%Wang%NULL%3,     Yu%Tao%NULL%2,     Ying%Zhou%NULL%3,     Jing%Shi%NULL%2,     Min%Zhou%NULL%0,     Bo%Wu%NULL%2,     Zhenyu%Yang%NULL%2,     Cong%Zhang%NULL%0,     Junqing%Yue%NULL%2,     Zhiguo%Zhang%NULL%2,     Harald%Renz%NULL%2,     Xiansheng%Liu%NULL%2,     Jungang%Xie%NULL%0,     Min%Xie%NULL%2,     Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,     Yuan-Yuan%Fang%NULL%0,     Yan%Deng%NULL%0,     Wei%Liu%NULL%0,     Mei-Fang%Wang%NULL%0,     Jing-Ping%Ma%NULL%0,     Wei%Xiao%NULL%0,     Ying-Nan%Wang%NULL%0,     Min-Hua%Zhong%NULL%0,     Cheng-Hong%Li%NULL%0,     Guang-Cai%Li%NULL%0,     Hui-Guo%Liu%NULL%0,     Xiu-Yuan%Hao%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,     Mikael%Chetboun%NULL%2,     Julien%Poissy%NULL%3,     Violeta%Raverdy%NULL%2,     Jerome%Noulette%NULL%3,     Alain%Duhamel%NULL%2,     Julien%Labreuche%NULL%2,     Daniel%Mathieu%NULL%5,     Francois%Pattou%francois.pattou@univ-lille.fr%2,     Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,     Robert%Caizzo%NULL%3,     Morgan%Caplan%NULL%2,     Nicolas%Cousin%NULL%2,     Thibault%Duburcq%NULL%2,     Arthur%Durand%NULL%2,     Ahmed%El kalioubie%NULL%2,     Raphael%Favory%NULL%2,     Bruno%Garcia%NULL%2,     Patrick%Girardie%NULL%2,     Julien%Goutay%NULL%2,     Marion%Houard%NULL%2,     Emmanuelle%Jaillette%NULL%2,     Nicolas%Kostuj%NULL%2,     Geoffrey%Ledoux%NULL%2,     Daniel%Mathieu%NULL%0,     Anne Sophie%Moreau%NULL%2,     Christopher%Niles%NULL%2,     Saad%Nseir%NULL%3,     Thierry%Onimus%NULL%2,     Erika%Parmentier%NULL%2,     Sebastien%Préau%NULL%2,     Laurent%Robriquet%NULL%2,     Anahita%Rouze%NULL%2,     Sophie%Six%NULL%2,     Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,     Yi%Xiang%NULL%2,     Wei%Fang%NULL%2,     Yu%Zheng%yuzheng1@cdutcm.edu.cn%2,     Boqun%Li%279685211@qq.com%3,     Yanjun%Hu%huyanjun@163.com%2,     Chunhui%Lang%NULL%2,     Daoqiu%Huang%NULL%2,     Qiuyan%Sun%NULL%2,     Yan%Xiong%NULL%3,     Xia%Huang%NULL%2,     Jinglong%Lv%NULL%2,     Yaling%Luo%NULL%2,     Li%Shen%NULL%2,     Haoran%Yang%NULL%2,     Gu%Huang%NULL%2,     Ruishan%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,     Min%Pan%NULL%3,     Xiumei%Zhang%NULL%3,     Mingfeng%Han%fyhmf@163.com%3,     Xiaoyun%Fan%13956988552@126.com%3,     Fengde%Zhao%NULL%3,     Manli%Miao%NULL%3,     Jing%Xu%NULL%4,     Minglong%Guan%NULL%3,     Xia%Deng%NULL%3,     Xu%Chen%NULL%4,     Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,     J.%Fang%NULL%1,     Y.%Zhu%NULL%1,     L.%Chen%NULL%1,     F.%Ding%NULL%1,     R.%Zhou%NULL%1,     L.%Ge%NULL%1,     F.%Wang%NULL%1,     Q.%Chen%NULL%1,     Y.%Zhang%NULL%1,     Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,     Jun%Liu%NULL%2,     Xinguo%Zhao%NULL%1,     Chengyuan%Liu%NULL%1,     Wei%Wang%NULL%2,     Dawei%Wang%NULL%1,     Wei%Xu%NULL%1,     Chunyu%Zhang%NULL%1,     Jiong%Yu%NULL%1,     Bin%Jiang%NULL%1,     Hongcui%Cao%hccao@zju.edu.cn%1,     Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,     Jianming%Zhao%NULL%1,     Ningfang%Lian%1533532863@qq.com%1,     Su%Lin%NULL%1,     Qunfang%Xie%NULL%1,     Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,     Chengcheng%Yu%NULL%2,     Jing%Qu%NULL%1,     Lieguang%Zhang%NULL%2,     Songfeng%Jiang%NULL%1,     Deyang%Huang%NULL%1,     Bihua%Chen%NULL%1,     Zhiping%Zhang%NULL%1,     Wanhua%Guan%NULL%1,     Zhoukun%Ling%NULL%1,     Rui%Jiang%NULL%1,     Tianli%Hu%NULL%1,     Yan%Ding%NULL%1,     Lin%Lin%NULL%1,     Qingxin%Gan%NULL%1,     Liangping%Luo%tluolp@jnu.edu.cn%2,     Xiaoping%Tang%xtang@21cn.com%1,     Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,     Qiqi%Cao%NULL%1,     Le%Qin%NULL%1,     Xiaoyang%Wang%NULL%1,     Zenghui%Cheng%NULL%1,     Ashan%Pan%NULL%1,     Jianyi%Dai%NULL%1,     Qingfeng%Sun%NULL%1,     Fengquan%Zhao%NULL%1,     Jieming%Qu%NULL%0,     Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,   Cao%Yi-yuan%coreGivesNoEmail%0,   Dong%Xiang%coreGivesNoEmail%0,   Gao%Ya-dong%coreGivesNoEmail%0,   Yan%You-qin%coreGivesNoEmail%0,   Yang%Yi-bin%coreGivesNoEmail%0,   Yuan%Ya-dong%coreGivesNoEmail%0,   Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,   National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,   Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,   The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,     Areeba%Ali%NULL%1,     Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,     Jaime A.%Cardona-Ospina%NULL%1,     Estefanía%Gutiérrez-Ocampo%NULL%1,     Rhuvi%Villamizar-Peña%NULL%1,     Yeimer%Holguin-Rivera%NULL%1,     Juan Pablo%Escalera-Antezana%NULL%1,     Lucia Elena%Alvarado-Arnez%NULL%1,     D. Katterine%Bonilla-Aldana%NULL%1,     Carlos%Franco-Paredes%NULL%1,     Andrés F.%Henao-Martinez%NULL%1,     Alberto%Paniz-Mondolfi%NULL%1,     Guillermo J.%Lagos-Grisales%NULL%1,     Eduardo%Ramírez-Vallejo%NULL%1,     Jose A.%Suárez%NULL%1,     Lysien I.%Zambrano%NULL%1,     Wilmer E.%Villamil-Gómez%NULL%1,     Graciela J.%Balbin-Ramon%NULL%1,     Ali A.%Rabaan%NULL%1,     Harapan%Harapan%NULL%1,     Kuldeep%Dhama%NULL%1,     Hiroshi%Nishiura%NULL%2,     Hiromitsu%Kataoka%NULL%1,     Tauseef%Ahmad%NULL%1,     Ranjit%Sah%NULL%2,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,     Ben%Van Calster%NULL%1,     Gary S%Collins%NULL%1,     Richard D%Riley%NULL%1,     Georg%Heinze%NULL%1,     Ewoud%Schuit%NULL%1,     Marc M J%Bonten%NULL%1,     Johanna A A%Damen%NULL%1,     Thomas P A%Debray%NULL%1,     Maarten%De Vos%NULL%1,     Paula%Dhiman%NULL%1,     Maria C%Haller%NULL%1,     Michael O%Harhay%NULL%1,     Liesbet%Henckaerts%NULL%1,     Nina%Kreuzberger%NULL%1,     Anna%Lohmann%NULL%1,     Kim%Luijken%NULL%1,     Jie%Ma%NULL%1,     Constanza L%Andaur Navarro%NULL%1,     Johannes B%Reitsma%NULL%1,     Jamie C%Sergeant%NULL%1,     Chunhu%Shi%NULL%1,     Nicole%Skoetz%NULL%1,     Luc J M%Smits%NULL%1,     Kym I E%Snell%NULL%1,     Matthew%Sperrin%NULL%1,     René%Spijker%NULL%1,     Ewout W%Steyerberg%NULL%1,     Toshihiko%Takada%NULL%1,     Sander M J%van Kuijk%NULL%1,     Florien S%van Royen%NULL%1,     Christine%Wallisch%NULL%1,     Lotty%Hooft%NULL%1,     Karel G M%Moons%NULL%1,     Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,     Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,     Satoshi%Kutsuna%sonare.since1192@gmail.com%1,     Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,     Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,     Jung Wan%Park%NULL%3,     Moran%Ki%NULL%1,     Mi-Yeon%Yeon%NULL%3,     Jin%Kim%NULL%1,     Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,     Soyoung%Jung%syjung@kiom.re.kr%1,     Aeran%Kim%arkim@kiom.re.kr%1,     Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,     D. S. Y.%Chong%NULL%1,     W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,     Vera%Regitz-Zagrosek%NULL%1,     Hannelore K.%Neuhauser%NULL%1,     Rosemary%Morgan%NULL%1,     Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,      Jordi%Rello%NULL%1,      Sofia%Tejada%NULL%1,      Alejandro%Martín%NULL%1,      Goiatz%Balziskueta%NULL%1,      Cristina%Vinuesa%NULL%1,      Borja%Fernández-Miret%NULL%1,      Ana%Villagra%NULL%1,      Ana%Vallejo%NULL%1,      Ana%San Sebastián%NULL%1,      Sara%Cabañes%NULL%1,      Sebastián%Iribarren%NULL%1,      Fernando%Fonseca%NULL%1,      Javier%Maynar%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,      Bijan J.%Ghassemieh%NULL%3,      Michelle%Nichols%NULL%3,      Richard%Kim%NULL%3,      Keith R.%Jerome%NULL%3,      Arun K.%Nalla%NULL%3,      Alexander L.%Greninger%NULL%3,      Sudhakar%Pipavath%NULL%3,      Mark M.%Wurfel%NULL%3,      Laura%Evans%NULL%3,      Patricia A.%Kritek%NULL%3,      T. Eoin%West%NULL%3,      Andrew%Luks%NULL%3,      Anthony%Gerbino%NULL%3,      Chris R.%Dale%NULL%3,      Jason D.%Goldman%NULL%3,      Shane%O’Mahony%NULL%3,      Carmen%Mikacenic%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%3,      Wenlin%Cheng%NULL%3,      Lei%Yu%NULL%3,      Ya-Kun%Liu%NULL%3,      Xiaoyong%Hu%NULL%3,      Qiang%Liu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,      Tangkai%Qi%NULL%2,      Li%Liu%NULL%2,      Yun%Ling%NULL%5,      Zhiping%Qian%NULL%2,      Tao%Li%NULL%4,      Feng%Li%NULL%2,      Qingnian%Xu%NULL%2,      Yuyi%Zhang%NULL%2,      Shuibao%Xu%NULL%2,      Zhigang%Song%NULL%2,      Yigang%Zeng%NULL%2,      Yinzhong%Shen%NULL%2,      Yuxin%Shi%NULL%4,      Tongyu%Zhu%NULL%2,      Hongzhou%Lu%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,      Min%Zhou%NULL%8,      Xuan%Dong%NULL%3,      Jieming%Qu%NULL%7,      Fengyun%Gong%NULL%3,      Yang%Han%NULL%3,      Yang%Qiu%NULL%3,      Jingli%Wang%NULL%3,      Ying%Liu%NULL%8,      Yuan%Wei%NULL%0,      Jia'an%Xia%NULL%0,      Ting%Yu%NULL%0,      Xinxin%Zhang%NULL%5,      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,      Zhe%Dai%NULL%1,      Pingzheng%Mo%NULL%2,      Xinyu%Li%NULL%1,      Zhiyong%Ma%NULL%1,      Shihui%Song%NULL%1,      Xiaoping%Chen%NULL%1,      Mingqi%Luo%NULL%1,      Ke%Liang%NULL%1,      Shicheng%Gao%NULL%1,      Yongxi%Zhang%NULL%1,      Liping%Deng%dengdeng78@126.com%1,      Yong%Xiong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,      Di%Wu%NULL%0,      Huilong%Chen%NULL%0,      Weiming%Yan%NULL%0,      Danlei%Yang%NULL%0,      Guang%Chen%NULL%0,      Ke%Ma%NULL%0,      Dong%Xu%NULL%0,      Haijing%Yu%NULL%0,      Hongwu%Wang%NULL%0,      Tao%Wang%NULL%0,      Wei%Guo%NULL%0,      Jia%Chen%NULL%0,      Chen%Ding%NULL%0,      Xiaoping%Zhang%NULL%0,      Jiaquan%Huang%NULL%0,      Meifang%Han%NULL%0,      Shusheng%Li%NULL%0,      Xiaoping%Luo%NULL%0,      Jianping%Zhao%NULL%0,      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,      Nan%Yang%NULL%0,      Yanqiu%Wei%NULL%0,      Huihui%Yue%NULL%0,      Fengqin%Zhang%NULL%0,      Jianping%Zhao%NULL%0,      Li%He%NULL%0,      Gaohong%Sheng%NULL%0,      Peng%Chen%NULL%0,      Gang%Li%NULL%0,      Sisi%Wu%NULL%0,      Bo%Zhang%NULL%0,      Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,      Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,      Xiaoping%Miao%miaoxp@hust.edu.cn%0,      Juan%Li%lijuan@tjh.tjmu.edu.cn%0,      Wenhua%Liu%liuwh_2013@126.com%0,      Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,      Li-Rong%Liang%NULL%2,      Cheng-Qing%Yang%NULL%2,      Wen%Wang%NULL%4,      Tan-Ze%Cao%NULL%2,      Ming%Li%NULL%2,      Guang-Yun%Guo%NULL%2,      Juan%Du%NULL%2,      Chun-Lan%Zheng%NULL%2,      Qi%Zhu%NULL%2,      Ming%Hu%NULL%5,      Xu-Yan%Li%NULL%4,      Peng%Peng%NULL%0,      Huan-Zhong%Shi%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,      Li-Min%Liu%NULL%2,      Wen%Yin%NULL%0,      Wen%Wang%NULL%0,      Lu-Lu%Guan%NULL%2,      Ming-Li%Yuan%NULL%3,      Yu-Lei%Li%NULL%2,      Yi%Hu%NULL%0,      Xu-Yan%Li%NULL%0,      Bing%Sun%NULL%2,      Peng%Peng%NULL%0,      Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,      Lei%Tu%NULL%1,      Pingjun%Zhu%NULL%1,      Mi%Mu%NULL%1,      Runsheng%Wang%NULL%1,      Pengcheng%Yang%NULL%1,      Xi%Wang%NULL%1,      Chao%Hu%NULL%1,      Rongyu%Ping%NULL%1,      Peng%Hu%NULL%1,      Tianzhi%Li%NULL%1,      Feng%Cao%NULL%1,      Christopher%Chang%NULL%1,      Qinyong%Hu%NULL%1,      Yang%Jin%NULL%1,      Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Wen-hua%Liang%NULL%0,      Chun-quan%Ou%NULL%0,      Jian-xing%He%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      David S.C.%Hui%NULL%0,      Bin%Du%NULL%0,      Lan-juan%Li%NULL%0,      Guang%Zeng%NULL%0,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%0,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%0,      Jin-lin%Wang%NULL%0,      Zi-jing%Liang%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%0,      Lili%Ren%NULL%0,      Jianping%Zhao%NULL%0,      Yi%Hu%NULL%0,      Li%Zhang%NULL%0,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%0,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%0,      Xuelei%Xie%NULL%0,      Wen%Yin%NULL%0,      Hui%Li%NULL%0,      Min%Liu%NULL%0,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Li%Guo%NULL%0,      Jungang%Xie%NULL%0,      Guangfa%Wang%NULL%0,      Rongmeng%Jiang%NULL%0,      Zhancheng%Gao%NULL%0,      Qi%Jin%NULL%0,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,      Shuyun%Xu%NULL%2,      Muqing%Yu%NULL%2,      Ke%Wang%NULL%3,      Yu%Tao%NULL%2,      Ying%Zhou%NULL%3,      Jing%Shi%NULL%2,      Min%Zhou%NULL%0,      Bo%Wu%NULL%2,      Zhenyu%Yang%NULL%2,      Cong%Zhang%NULL%0,      Junqing%Yue%NULL%2,      Zhiguo%Zhang%NULL%2,      Harald%Renz%NULL%2,      Xiansheng%Liu%NULL%2,      Jungang%Xie%NULL%0,      Min%Xie%NULL%2,      Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,      Yuan-Yuan%Fang%NULL%0,      Yan%Deng%NULL%0,      Wei%Liu%NULL%0,      Mei-Fang%Wang%NULL%0,      Jing-Ping%Ma%NULL%0,      Wei%Xiao%NULL%0,      Ying-Nan%Wang%NULL%0,      Min-Hua%Zhong%NULL%0,      Cheng-Hong%Li%NULL%0,      Guang-Cai%Li%NULL%0,      Hui-Guo%Liu%NULL%0,      Xiu-Yuan%Hao%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,      Mikael%Chetboun%NULL%2,      Julien%Poissy%NULL%3,      Violeta%Raverdy%NULL%2,      Jerome%Noulette%NULL%3,      Alain%Duhamel%NULL%2,      Julien%Labreuche%NULL%2,      Daniel%Mathieu%NULL%5,      Francois%Pattou%francois.pattou@univ-lille.fr%2,      Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,      Robert%Caizzo%NULL%3,      Morgan%Caplan%NULL%2,      Nicolas%Cousin%NULL%2,      Thibault%Duburcq%NULL%2,      Arthur%Durand%NULL%2,      Ahmed%El kalioubie%NULL%2,      Raphael%Favory%NULL%2,      Bruno%Garcia%NULL%2,      Patrick%Girardie%NULL%2,      Julien%Goutay%NULL%2,      Marion%Houard%NULL%2,      Emmanuelle%Jaillette%NULL%2,      Nicolas%Kostuj%NULL%2,      Geoffrey%Ledoux%NULL%2,      Daniel%Mathieu%NULL%0,      Anne Sophie%Moreau%NULL%2,      Christopher%Niles%NULL%2,      Saad%Nseir%NULL%3,      Thierry%Onimus%NULL%2,      Erika%Parmentier%NULL%2,      Sebastien%Préau%NULL%2,      Laurent%Robriquet%NULL%2,      Anahita%Rouze%NULL%2,      Sophie%Six%NULL%2,      Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,      Yi%Xiang%NULL%2,      Wei%Fang%NULL%2,      Yu%Zheng%yuzheng1@cdutcm.edu.cn%2,      Boqun%Li%279685211@qq.com%3,      Yanjun%Hu%huyanjun@163.com%2,      Chunhui%Lang%NULL%2,      Daoqiu%Huang%NULL%2,      Qiuyan%Sun%NULL%2,      Yan%Xiong%NULL%3,      Xia%Huang%NULL%2,      Jinglong%Lv%NULL%2,      Yaling%Luo%NULL%2,      Li%Shen%NULL%2,      Haoran%Yang%NULL%2,      Gu%Huang%NULL%2,      Ruishan%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,      Min%Pan%NULL%3,      Xiumei%Zhang%NULL%3,      Mingfeng%Han%fyhmf@163.com%3,      Xiaoyun%Fan%13956988552@126.com%3,      Fengde%Zhao%NULL%3,      Manli%Miao%NULL%3,      Jing%Xu%NULL%4,      Minglong%Guan%NULL%3,      Xia%Deng%NULL%3,      Xu%Chen%NULL%4,      Leilei%Shen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,      J.%Fang%NULL%1,      Y.%Zhu%NULL%1,      L.%Chen%NULL%1,      F.%Ding%NULL%1,      R.%Zhou%NULL%1,      L.%Ge%NULL%1,      F.%Wang%NULL%1,      Q.%Chen%NULL%1,      Y.%Zhang%NULL%1,      Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,      Jun%Liu%NULL%2,      Xinguo%Zhao%NULL%1,      Chengyuan%Liu%NULL%1,      Wei%Wang%NULL%2,      Dawei%Wang%NULL%1,      Wei%Xu%NULL%1,      Chunyu%Zhang%NULL%1,      Jiong%Yu%NULL%1,      Bin%Jiang%NULL%1,      Hongcui%Cao%hccao@zju.edu.cn%1,      Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,      Jianming%Zhao%NULL%1,      Ningfang%Lian%1533532863@qq.com%1,      Su%Lin%NULL%1,      Qunfang%Xie%NULL%1,      Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,      Chengcheng%Yu%NULL%2,      Jing%Qu%NULL%1,      Lieguang%Zhang%NULL%2,      Songfeng%Jiang%NULL%1,      Deyang%Huang%NULL%1,      Bihua%Chen%NULL%1,      Zhiping%Zhang%NULL%1,      Wanhua%Guan%NULL%1,      Zhoukun%Ling%NULL%1,      Rui%Jiang%NULL%1,      Tianli%Hu%NULL%1,      Yan%Ding%NULL%1,      Lin%Lin%NULL%1,      Qingxin%Gan%NULL%1,      Liangping%Luo%tluolp@jnu.edu.cn%2,      Xiaoping%Tang%xtang@21cn.com%1,      Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,      Qiqi%Cao%NULL%1,      Le%Qin%NULL%1,      Xiaoyang%Wang%NULL%1,      Zenghui%Cheng%NULL%1,      Ashan%Pan%NULL%1,      Jianyi%Dai%NULL%1,      Qingfeng%Sun%NULL%1,      Fengquan%Zhao%NULL%1,      Jieming%Qu%NULL%0,      Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,    Cao%Yi-yuan%coreGivesNoEmail%0,    Dong%Xiang%coreGivesNoEmail%0,    Gao%Ya-dong%coreGivesNoEmail%0,    Yan%You-qin%coreGivesNoEmail%0,    Yang%Yi-bin%coreGivesNoEmail%0,    Yuan%Ya-dong%coreGivesNoEmail%0,    Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,    National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,    Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,    The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,      Areeba%Ali%NULL%1,      Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,      Jaime A.%Cardona-Ospina%NULL%1,      Estefanía%Gutiérrez-Ocampo%NULL%1,      Rhuvi%Villamizar-Peña%NULL%1,      Yeimer%Holguin-Rivera%NULL%1,      Juan Pablo%Escalera-Antezana%NULL%1,      Lucia Elena%Alvarado-Arnez%NULL%1,      D. Katterine%Bonilla-Aldana%NULL%1,      Carlos%Franco-Paredes%NULL%1,      Andrés F.%Henao-Martinez%NULL%1,      Alberto%Paniz-Mondolfi%NULL%1,      Guillermo J.%Lagos-Grisales%NULL%1,      Eduardo%Ramírez-Vallejo%NULL%1,      Jose A.%Suárez%NULL%1,      Lysien I.%Zambrano%NULL%1,      Wilmer E.%Villamil-Gómez%NULL%1,      Graciela J.%Balbin-Ramon%NULL%1,      Ali A.%Rabaan%NULL%1,      Harapan%Harapan%NULL%1,      Kuldeep%Dhama%NULL%1,      Hiroshi%Nishiura%NULL%2,      Hiromitsu%Kataoka%NULL%1,      Tauseef%Ahmad%NULL%1,      Ranjit%Sah%NULL%2,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,      Ben%Van Calster%NULL%1,      Gary S%Collins%NULL%1,      Richard D%Riley%NULL%1,      Georg%Heinze%NULL%1,      Ewoud%Schuit%NULL%1,      Marc M J%Bonten%NULL%1,      Johanna A A%Damen%NULL%1,      Thomas P A%Debray%NULL%1,      Maarten%De Vos%NULL%1,      Paula%Dhiman%NULL%1,      Maria C%Haller%NULL%1,      Michael O%Harhay%NULL%1,      Liesbet%Henckaerts%NULL%1,      Nina%Kreuzberger%NULL%1,      Anna%Lohmann%NULL%1,      Kim%Luijken%NULL%1,      Jie%Ma%NULL%1,      Constanza L%Andaur Navarro%NULL%1,      Johannes B%Reitsma%NULL%1,      Jamie C%Sergeant%NULL%1,      Chunhu%Shi%NULL%1,      Nicole%Skoetz%NULL%1,      Luc J M%Smits%NULL%1,      Kym I E%Snell%NULL%1,      Matthew%Sperrin%NULL%1,      René%Spijker%NULL%1,      Ewout W%Steyerberg%NULL%1,      Toshihiko%Takada%NULL%1,      Sander M J%van Kuijk%NULL%1,      Florien S%van Royen%NULL%1,      Christine%Wallisch%NULL%1,      Lotty%Hooft%NULL%1,      Karel G M%Moons%NULL%1,      Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,      Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,      Satoshi%Kutsuna%sonare.since1192@gmail.com%1,      Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,      Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,      Jung Wan%Park%NULL%3,      Moran%Ki%NULL%1,      Mi-Yeon%Yeon%NULL%3,      Jin%Kim%NULL%1,      Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,      Soyoung%Jung%syjung@kiom.re.kr%1,      Aeran%Kim%arkim@kiom.re.kr%1,      Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,      D. S. Y.%Chong%NULL%1,      W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,      Vera%Regitz-Zagrosek%NULL%1,      Hannelore K.%Neuhauser%NULL%1,      Rosemary%Morgan%NULL%1,      Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2774,7 +3239,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>570</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -2820,7 +3285,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>428</v>
+        <v>571</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -2866,7 +3331,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>572</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2912,7 +3377,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>431</v>
+        <v>573</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -2958,7 +3423,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>432</v>
+        <v>574</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -3004,7 +3469,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>433</v>
+        <v>575</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -3050,7 +3515,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>434</v>
+        <v>576</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3096,7 +3561,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>435</v>
+        <v>577</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3142,7 +3607,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>436</v>
+        <v>578</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -3188,7 +3653,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>437</v>
+        <v>579</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -3234,7 +3699,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>438</v>
+        <v>580</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -3280,7 +3745,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>439</v>
+        <v>581</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -3326,7 +3791,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>440</v>
+        <v>582</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -3418,7 +3883,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>442</v>
+        <v>583</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -3464,7 +3929,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>443</v>
+        <v>584</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -3602,7 +4067,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>445</v>
+        <v>585</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -3648,7 +4113,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>446</v>
+        <v>586</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -3688,19 +4153,19 @@
         <v>43868.0</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>479</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>587</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>482</v>
       </c>
       <c r="H22" t="s">
         <v>56</v>
@@ -3740,7 +4205,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>447</v>
+        <v>588</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -3786,7 +4251,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>448</v>
+        <v>589</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -3832,7 +4297,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>449</v>
+        <v>590</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -3878,7 +4343,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>450</v>
+        <v>591</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -3924,7 +4389,7 @@
         <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>451</v>
+        <v>592</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -3970,7 +4435,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>453</v>
+        <v>593</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -4056,19 +4521,19 @@
         <v>43880.0</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>489</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>594</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>482</v>
       </c>
       <c r="H30" t="s">
         <v>56</v>
@@ -4102,19 +4567,19 @@
         <v>37397.0</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>492</v>
       </c>
       <c r="D31" t="s">
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>595</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>482</v>
       </c>
       <c r="H31" t="s">
         <v>56</v>
@@ -4154,7 +4619,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>454</v>
+        <v>596</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -4200,7 +4665,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>455</v>
+        <v>597</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -4246,7 +4711,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>456</v>
+        <v>598</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -4292,7 +4757,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>457</v>
+        <v>599</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -4338,7 +4803,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>458</v>
+        <v>600</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -4384,7 +4849,7 @@
         <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>459</v>
+        <v>601</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -4430,7 +4895,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>460</v>
+        <v>602</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -4476,7 +4941,7 @@
         <v>232</v>
       </c>
       <c r="E39" t="s">
-        <v>461</v>
+        <v>603</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5485" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6031" uniqueCount="684">
   <si>
     <t>Doi</t>
   </si>
@@ -2826,6 +2826,246 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,      Vera%Regitz-Zagrosek%NULL%1,      Hannelore K.%Neuhauser%NULL%1,      Rosemary%Morgan%NULL%1,      Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,       Jordi%Rello%NULL%1,       Sofia%Tejada%NULL%1,       Alejandro%Martín%NULL%1,       Goiatz%Balziskueta%NULL%1,       Cristina%Vinuesa%NULL%1,       Borja%Fernández-Miret%NULL%1,       Ana%Villagra%NULL%1,       Ana%Vallejo%NULL%1,       Ana%San Sebastián%NULL%1,       Sara%Cabañes%NULL%1,       Sebastián%Iribarren%NULL%1,       Fernando%Fonseca%NULL%1,       Javier%Maynar%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,       Bijan J.%Ghassemieh%NULL%2,       Michelle%Nichols%NULL%2,       Richard%Kim%NULL%2,       Keith R.%Jerome%NULL%2,       Arun K.%Nalla%NULL%2,       Alexander L.%Greninger%NULL%2,       Sudhakar%Pipavath%NULL%2,       Mark M.%Wurfel%NULL%2,       Laura%Evans%NULL%2,       Patricia A.%Kritek%NULL%2,       T. Eoin%West%NULL%2,       Andrew%Luks%NULL%2,       Anthony%Gerbino%NULL%2,       Chris R.%Dale%NULL%2,       Jason D.%Goldman%NULL%2,       Shane%O’Mahony%NULL%2,       Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,       Wenlin%Cheng%NULL%2,       Lei%Yu%NULL%2,       Ya-Kun%Liu%NULL%2,       Xiaoyong%Hu%NULL%2,       Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,       Tangkai%Qi%NULL%2,       Li%Liu%NULL%2,       Yun%Ling%NULL%3,       Zhiping%Qian%NULL%2,       Tao%Li%NULL%3,       Feng%Li%NULL%2,       Qingnian%Xu%NULL%2,       Yuyi%Zhang%NULL%2,       Shuibao%Xu%NULL%2,       Zhigang%Song%NULL%2,       Yigang%Zeng%NULL%2,       Yinzhong%Shen%NULL%2,       Yuxin%Shi%NULL%4,       Tongyu%Zhu%NULL%2,       Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,       Min%Zhou%NULL%6,       Xuan%Dong%NULL%3,       Jieming%Qu%NULL%5,       Fengyun%Gong%NULL%3,       Yang%Han%NULL%3,       Yang%Qiu%NULL%3,       Jingli%Wang%NULL%3,       Ying%Liu%NULL%6,       Yuan%Wei%NULL%0,       Jia'an%Xia%NULL%0,       Ting%Yu%NULL%0,       Xinxin%Zhang%NULL%5,       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,       Zhe%Dai%NULL%1,       Pingzheng%Mo%NULL%1,       Xinyu%Li%NULL%1,       Zhiyong%Ma%NULL%1,       Shihui%Song%NULL%1,       Xiaoping%Chen%NULL%1,       Mingqi%Luo%NULL%1,       Ke%Liang%NULL%1,       Shicheng%Gao%NULL%1,       Yongxi%Zhang%NULL%1,       Liping%Deng%dengdeng78@126.com%1,       Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,       Di%Wu%NULL%0,       Huilong%Chen%NULL%0,       Weiming%Yan%NULL%0,       Danlei%Yang%NULL%0,       Guang%Chen%NULL%0,       Ke%Ma%NULL%0,       Dong%Xu%NULL%0,       Haijing%Yu%NULL%0,       Hongwu%Wang%NULL%0,       Tao%Wang%NULL%0,       Wei%Guo%NULL%0,       Jia%Chen%NULL%0,       Chen%Ding%NULL%0,       Xiaoping%Zhang%NULL%0,       Jiaquan%Huang%NULL%0,       Meifang%Han%NULL%0,       Shusheng%Li%NULL%0,       Xiaoping%Luo%NULL%0,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,       Nan%Yang%NULL%0,       Yanqiu%Wei%NULL%0,       Huihui%Yue%NULL%0,       Fengqin%Zhang%NULL%0,       Jianping%Zhao%NULL%0,       Li%He%NULL%0,       Gaohong%Sheng%NULL%0,       Peng%Chen%NULL%0,       Gang%Li%NULL%0,       Sisi%Wu%NULL%0,       Bo%Zhang%NULL%0,       Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,       Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,       Xiaoping%Miao%miaoxp@hust.edu.cn%0,       Juan%Li%lijuan@tjh.tjmu.edu.cn%0,       Wenhua%Liu%liuwh_2013@126.com%0,       Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,       Li-Rong%Liang%NULL%1,       Cheng-Qing%Yang%NULL%1,       Wen%Wang%NULL%3,       Tan-Ze%Cao%NULL%1,       Ming%Li%NULL%1,       Guang-Yun%Guo%NULL%1,       Juan%Du%NULL%1,       Chun-Lan%Zheng%NULL%1,       Qi%Zhu%NULL%1,       Ming%Hu%NULL%1,       Xu-Yan%Li%NULL%3,       Peng%Peng%NULL%0,       Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,       Li-Min%Liu%NULL%2,       Wen%Yin%NULL%0,       Wen%Wang%NULL%0,       Lu-Lu%Guan%NULL%2,       Ming-Li%Yuan%NULL%2,       Yu-Lei%Li%NULL%2,       Yi%Hu%NULL%0,       Xu-Yan%Li%NULL%0,       Bing%Sun%NULL%2,       Peng%Peng%NULL%0,       Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,       Lei%Tu%NULL%1,       Pingjun%Zhu%NULL%1,       Mi%Mu%NULL%1,       Runsheng%Wang%NULL%1,       Pengcheng%Yang%NULL%1,       Xi%Wang%NULL%1,       Chao%Hu%NULL%1,       Rongyu%Ping%NULL%1,       Peng%Hu%NULL%1,       Tianzhi%Li%NULL%1,       Feng%Cao%NULL%1,       Christopher%Chang%NULL%1,       Qinyong%Hu%NULL%1,       Yang%Jin%NULL%1,       Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%0,       Chun-quan%Ou%NULL%0,       Jian-xing%He%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       David S.C.%Hui%NULL%0,       Bin%Du%NULL%0,       Lan-juan%Li%NULL%0,       Guang%Zeng%NULL%0,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%0,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%0,       Jin-lin%Wang%NULL%0,       Zi-jing%Liang%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%0,       Lili%Ren%NULL%0,       Jianping%Zhao%NULL%0,       Yi%Hu%NULL%0,       Li%Zhang%NULL%0,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%0,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%0,       Xuelei%Xie%NULL%0,       Wen%Yin%NULL%0,       Hui%Li%NULL%0,       Min%Liu%NULL%0,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Li%Guo%NULL%0,       Jungang%Xie%NULL%0,       Guangfa%Wang%NULL%0,       Rongmeng%Jiang%NULL%0,       Zhancheng%Gao%NULL%0,       Qi%Jin%NULL%0,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,       Shuyun%Xu%NULL%1,       Muqing%Yu%NULL%1,       Ke%Wang%NULL%2,       Yu%Tao%NULL%1,       Ying%Zhou%NULL%1,       Jing%Shi%NULL%1,       Min%Zhou%NULL%0,       Bo%Wu%NULL%1,       Zhenyu%Yang%NULL%1,       Cong%Zhang%NULL%0,       Junqing%Yue%NULL%1,       Zhiguo%Zhang%NULL%1,       Harald%Renz%NULL%1,       Xiansheng%Liu%NULL%1,       Jungang%Xie%NULL%0,       Min%Xie%NULL%1,       Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,       Yuan-Yuan%Fang%NULL%0,       Yan%Deng%NULL%0,       Wei%Liu%NULL%0,       Mei-Fang%Wang%NULL%0,       Jing-Ping%Ma%NULL%0,       Wei%Xiao%NULL%0,       Ying-Nan%Wang%NULL%0,       Min-Hua%Zhong%NULL%0,       Cheng-Hong%Li%NULL%0,       Guang-Cai%Li%NULL%0,       Hui-Guo%Liu%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Neurologic Manifestations of Hospitalized Patients With Coronavirus Disease 2019 in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3, Huijuan%Jin%xref no email%3, Mengdie%Wang%xref no email%3, Yu%Hu%xref no email%4, Shengcai%Chen%xref no email%3, Quanwei%He%xref no email%3, Jiang%Chang%xref no email%3, Candong%Hong%xref no email%3, Yifan%Zhou%xref no email%3, David%Wang%xref no email%3, Xiaoping%Miao%xref no email%3, Yanan%Li%xref no email%3, Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>"Dysregulation of Immune Response in Patients with COVID-19 in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%0, Luoqi%Zhou%xref no email%1, Ziwei%Hu%xref no email%1, Shuoqi%Zhang%xref no email%1, Sheng%Yang%xref no email%1, Yu%Tao%xref no email%1, Cuihong%Xie%xref no email%1, Ke%Ma%xref no email%1, Ke%Shang%xref no email%1, Wei%Wang%xref no email%0, Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%4,       Mikael%Chetboun%NULL%2,       Julien%Poissy%NULL%3,       Violeta%Raverdy%NULL%2,       Jerome%Noulette%NULL%3,       Alain%Duhamel%NULL%2,       Julien%Labreuche%NULL%2,       Daniel%Mathieu%NULL%5,       Francois%Pattou%francois.pattou@univ-lille.fr%2,       Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,       Robert%Caizzo%NULL%3,       Morgan%Caplan%NULL%2,       Nicolas%Cousin%NULL%2,       Thibault%Duburcq%NULL%2,       Arthur%Durand%NULL%2,       Ahmed%El kalioubie%NULL%2,       Raphael%Favory%NULL%2,       Bruno%Garcia%NULL%2,       Patrick%Girardie%NULL%2,       Julien%Goutay%NULL%2,       Marion%Houard%NULL%2,       Emmanuelle%Jaillette%NULL%2,       Nicolas%Kostuj%NULL%2,       Geoffrey%Ledoux%NULL%2,       Daniel%Mathieu%NULL%0,       Anne Sophie%Moreau%NULL%2,       Christopher%Niles%NULL%2,       Saad%Nseir%NULL%3,       Thierry%Onimus%NULL%2,       Erika%Parmentier%NULL%2,       Sebastien%Préau%NULL%2,       Laurent%Robriquet%NULL%2,       Anahita%Rouze%NULL%2,       Sophie%Six%NULL%2,       Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,       Yi%Xiang%NULL%1,       Wei%Fang%NULL%1,       Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,       Boqun%Li%279685211@qq.com%1,       Yanjun%Hu%huyanjun@163.com%1,       Chunhui%Lang%NULL%1,       Daoqiu%Huang%NULL%1,       Qiuyan%Sun%NULL%1,       Yan%Xiong%NULL%2,       Xia%Huang%NULL%1,       Jinglong%Lv%NULL%1,       Yaling%Luo%NULL%1,       Li%Shen%NULL%1,       Haoran%Yang%NULL%1,       Gu%Huang%NULL%1,       Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,       Min%Pan%NULL%1,       Xiumei%Zhang%NULL%1,       Mingfeng%Han%fyhmf@163.com%2,       Xiaoyun%Fan%13956988552@126.com%1,       Fengde%Zhao%NULL%1,       Manli%Miao%NULL%1,       Jing%Xu%NULL%1,       Minglong%Guan%NULL%1,       Xia%Deng%NULL%1,       Xu%Chen%NULL%1,       Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,       J.%Fang%NULL%1,       Y.%Zhu%NULL%1,       L.%Chen%NULL%1,       F.%Ding%NULL%1,       R.%Zhou%NULL%1,       L.%Ge%NULL%1,       F.%Wang%NULL%1,       Q.%Chen%NULL%1,       Y.%Zhang%NULL%1,       Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,       Jun%Liu%NULL%2,       Xinguo%Zhao%NULL%1,       Chengyuan%Liu%NULL%1,       Wei%Wang%NULL%2,       Dawei%Wang%NULL%1,       Wei%Xu%NULL%1,       Chunyu%Zhang%NULL%1,       Jiong%Yu%NULL%1,       Bin%Jiang%NULL%1,       Hongcui%Cao%hccao@zju.edu.cn%1,       Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,       Jianming%Zhao%NULL%1,       Ningfang%Lian%1533532863@qq.com%1,       Su%Lin%NULL%1,       Qunfang%Xie%NULL%1,       Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,       Chengcheng%Yu%NULL%2,       Jing%Qu%NULL%1,       Lieguang%Zhang%NULL%2,       Songfeng%Jiang%NULL%1,       Deyang%Huang%NULL%1,       Bihua%Chen%NULL%1,       Zhiping%Zhang%NULL%1,       Wanhua%Guan%NULL%1,       Zhoukun%Ling%NULL%1,       Rui%Jiang%NULL%1,       Tianli%Hu%NULL%1,       Yan%Ding%NULL%1,       Lin%Lin%NULL%1,       Qingxin%Gan%NULL%1,       Liangping%Luo%tluolp@jnu.edu.cn%2,       Xiaoping%Tang%xtang@21cn.com%1,       Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,       Qiqi%Cao%NULL%1,       Le%Qin%NULL%1,       Xiaoyang%Wang%NULL%1,       Zenghui%Cheng%NULL%1,       Ashan%Pan%NULL%1,       Jianyi%Dai%NULL%1,       Qingfeng%Sun%NULL%1,       Fengquan%Zhao%NULL%1,       Jieming%Qu%NULL%0,       Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Epidemiologic Features and Clinical Course of Patients Infected With SARS-CoV-2 in Singapore"</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%5, Sean Wei Xiang%Ong%xref no email%5, Shirin%Kalimuddin%xref no email%5, Jenny G.%Low%xref no email%5, Seow Yen%Tan%xref no email%5, Jiashen%Loh%xref no email%5, Oon-Tek%Ng%xref no email%5, Kalisvar%Marimuthu%xref no email%5, Li Wei%Ang%xref no email%5, Tze Minn%Mak%xref no email%5, Sok Kiang%Lau%xref no email%5, Danielle E.%Anderson%xref no email%5, Kian Sing%Chan%xref no email%5, Thean Yen%Tan%xref no email%5, Tong Yong%Ng%xref no email%5, Lin%Cui%xref no email%5, Zubaidah%Said%xref no email%5, Lalitha%Kurupatham%xref no email%5, Mark I-Cheng%Chen%xref no email%5, Monica%Chan%xref no email%5, Shawn%Vasoo%xref no email%5, Lin-Fa%Wang%xref no email%5, Boon Huan%Tan%xref no email%5, Raymond Tzer Pin%Lin%xref no email%5, Vernon Jian Ming%Lee%xref no email%5, Yee-Sin%Leo%xref no email%5, David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,     Cao%Yi-yuan%coreGivesNoEmail%0,     Dong%Xiang%coreGivesNoEmail%0,     Gao%Ya-dong%coreGivesNoEmail%0,     Yan%You-qin%coreGivesNoEmail%0,     Yang%Yi-bin%coreGivesNoEmail%0,     Yuan%Ya-dong%coreGivesNoEmail%0,     Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,     National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,     Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,     The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,       Areeba%Ali%NULL%1,       Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,       Jaime A.%Cardona-Ospina%NULL%1,       Estefanía%Gutiérrez-Ocampo%NULL%1,       Rhuvi%Villamizar-Peña%NULL%1,       Yeimer%Holguin-Rivera%NULL%1,       Juan Pablo%Escalera-Antezana%NULL%1,       Lucia Elena%Alvarado-Arnez%NULL%1,       D. Katterine%Bonilla-Aldana%NULL%1,       Carlos%Franco-Paredes%NULL%1,       Andrés F.%Henao-Martinez%NULL%1,       Alberto%Paniz-Mondolfi%NULL%1,       Guillermo J.%Lagos-Grisales%NULL%1,       Eduardo%Ramírez-Vallejo%NULL%1,       Jose A.%Suárez%NULL%1,       Lysien I.%Zambrano%NULL%1,       Wilmer E.%Villamil-Gómez%NULL%1,       Graciela J.%Balbin-Ramon%NULL%1,       Ali A.%Rabaan%NULL%1,       Harapan%Harapan%NULL%1,       Kuldeep%Dhama%NULL%1,       Hiroshi%Nishiura%NULL%2,       Hiromitsu%Kataoka%NULL%1,       Tauseef%Ahmad%NULL%1,       Ranjit%Sah%NULL%2,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,       Ben%Van Calster%NULL%1,       Gary S%Collins%NULL%1,       Richard D%Riley%NULL%1,       Georg%Heinze%NULL%1,       Ewoud%Schuit%NULL%1,       Marc M J%Bonten%NULL%1,       Johanna A A%Damen%NULL%1,       Thomas P A%Debray%NULL%1,       Maarten%De Vos%NULL%1,       Paula%Dhiman%NULL%1,       Maria C%Haller%NULL%1,       Michael O%Harhay%NULL%1,       Liesbet%Henckaerts%NULL%1,       Nina%Kreuzberger%NULL%1,       Anna%Lohmann%NULL%1,       Kim%Luijken%NULL%1,       Jie%Ma%NULL%1,       Constanza L%Andaur Navarro%NULL%1,       Johannes B%Reitsma%NULL%1,       Jamie C%Sergeant%NULL%1,       Chunhu%Shi%NULL%1,       Nicole%Skoetz%NULL%1,       Luc J M%Smits%NULL%1,       Kym I E%Snell%NULL%1,       Matthew%Sperrin%NULL%1,       René%Spijker%NULL%1,       Ewout W%Steyerberg%NULL%1,       Toshihiko%Takada%NULL%1,       Sander M J%van Kuijk%NULL%1,       Florien S%van Royen%NULL%1,       Christine%Wallisch%NULL%1,       Lotty%Hooft%NULL%1,       Karel G M%Moons%NULL%1,       Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,       Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,       Satoshi%Kutsuna%sonare.since1192@gmail.com%1,       Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,       Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,       Jung Wan%Park%NULL%3,       Moran%Ki%NULL%1,       Mi-Yeon%Yeon%NULL%3,       Jin%Kim%NULL%1,       Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,       Soyoung%Jung%syjung@kiom.re.kr%1,       Aeran%Kim%arkim@kiom.re.kr%1,       Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,       D. S. Y.%Chong%NULL%1,       W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,       Vera%Regitz-Zagrosek%NULL%1,       Hannelore K.%Neuhauser%NULL%1,       Rosemary%Morgan%NULL%1,       Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,        Jordi%Rello%NULL%1,        Sofia%Tejada%NULL%1,        Alejandro%Martín%NULL%1,        Goiatz%Balziskueta%NULL%1,        Cristina%Vinuesa%NULL%1,        Borja%Fernández-Miret%NULL%1,        Ana%Villagra%NULL%1,        Ana%Vallejo%NULL%1,        Ana%San Sebastián%NULL%1,        Sara%Cabañes%NULL%1,        Sebastián%Iribarren%NULL%1,        Fernando%Fonseca%NULL%1,        Javier%Maynar%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,        Bijan J.%Ghassemieh%NULL%2,        Michelle%Nichols%NULL%2,        Richard%Kim%NULL%2,        Keith R.%Jerome%NULL%2,        Arun K.%Nalla%NULL%2,        Alexander L.%Greninger%NULL%2,        Sudhakar%Pipavath%NULL%2,        Mark M.%Wurfel%NULL%2,        Laura%Evans%NULL%2,        Patricia A.%Kritek%NULL%2,        T. Eoin%West%NULL%2,        Andrew%Luks%NULL%2,        Anthony%Gerbino%NULL%2,        Chris R.%Dale%NULL%2,        Jason D.%Goldman%NULL%2,        Shane%O’Mahony%NULL%2,        Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,        Wenlin%Cheng%NULL%2,        Lei%Yu%NULL%2,        Ya-Kun%Liu%NULL%2,        Xiaoyong%Hu%NULL%2,        Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,        Tangkai%Qi%NULL%2,        Li%Liu%NULL%2,        Yun%Ling%NULL%3,        Zhiping%Qian%NULL%2,        Tao%Li%NULL%3,        Feng%Li%NULL%2,        Qingnian%Xu%NULL%2,        Yuyi%Zhang%NULL%2,        Shuibao%Xu%NULL%2,        Zhigang%Song%NULL%2,        Yigang%Zeng%NULL%2,        Yinzhong%Shen%NULL%2,        Yuxin%Shi%NULL%4,        Tongyu%Zhu%NULL%2,        Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,        Min%Zhou%NULL%6,        Xuan%Dong%NULL%3,        Jieming%Qu%NULL%5,        Fengyun%Gong%NULL%3,        Yang%Han%NULL%3,        Yang%Qiu%NULL%3,        Jingli%Wang%NULL%3,        Ying%Liu%NULL%6,        Yuan%Wei%NULL%0,        Jia'an%Xia%NULL%0,        Ting%Yu%NULL%0,        Xinxin%Zhang%NULL%5,        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,        Zhe%Dai%NULL%1,        Pingzheng%Mo%NULL%1,        Xinyu%Li%NULL%1,        Zhiyong%Ma%NULL%1,        Shihui%Song%NULL%1,        Xiaoping%Chen%NULL%1,        Mingqi%Luo%NULL%1,        Ke%Liang%NULL%1,        Shicheng%Gao%NULL%1,        Yongxi%Zhang%NULL%1,        Liping%Deng%dengdeng78@126.com%1,        Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,        Di%Wu%NULL%0,        Huilong%Chen%NULL%0,        Weiming%Yan%NULL%0,        Danlei%Yang%NULL%0,        Guang%Chen%NULL%0,        Ke%Ma%NULL%0,        Dong%Xu%NULL%0,        Haijing%Yu%NULL%0,        Hongwu%Wang%NULL%0,        Tao%Wang%NULL%0,        Wei%Guo%NULL%0,        Jia%Chen%NULL%0,        Chen%Ding%NULL%0,        Xiaoping%Zhang%NULL%0,        Jiaquan%Huang%NULL%0,        Meifang%Han%NULL%0,        Shusheng%Li%NULL%0,        Xiaoping%Luo%NULL%0,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,        Nan%Yang%NULL%0,        Yanqiu%Wei%NULL%0,        Huihui%Yue%NULL%0,        Fengqin%Zhang%NULL%0,        Jianping%Zhao%NULL%0,        Li%He%NULL%0,        Gaohong%Sheng%NULL%0,        Peng%Chen%NULL%0,        Gang%Li%NULL%0,        Sisi%Wu%NULL%0,        Bo%Zhang%NULL%0,        Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,        Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,        Xiaoping%Miao%miaoxp@hust.edu.cn%0,        Juan%Li%lijuan@tjh.tjmu.edu.cn%0,        Wenhua%Liu%liuwh_2013@126.com%0,        Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,        Li-Rong%Liang%NULL%1,        Cheng-Qing%Yang%NULL%1,        Wen%Wang%NULL%3,        Tan-Ze%Cao%NULL%1,        Ming%Li%NULL%1,        Guang-Yun%Guo%NULL%1,        Juan%Du%NULL%1,        Chun-Lan%Zheng%NULL%1,        Qi%Zhu%NULL%1,        Ming%Hu%NULL%1,        Xu-Yan%Li%NULL%3,        Peng%Peng%NULL%0,        Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,        Li-Min%Liu%NULL%2,        Wen%Yin%NULL%0,        Wen%Wang%NULL%0,        Lu-Lu%Guan%NULL%2,        Ming-Li%Yuan%NULL%2,        Yu-Lei%Li%NULL%2,        Yi%Hu%NULL%0,        Xu-Yan%Li%NULL%0,        Bing%Sun%NULL%2,        Peng%Peng%NULL%0,        Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,        Lei%Tu%NULL%1,        Pingjun%Zhu%NULL%1,        Mi%Mu%NULL%1,        Runsheng%Wang%NULL%1,        Pengcheng%Yang%NULL%1,        Xi%Wang%NULL%1,        Chao%Hu%NULL%1,        Rongyu%Ping%NULL%1,        Peng%Hu%NULL%1,        Tianzhi%Li%NULL%1,        Feng%Cao%NULL%1,        Christopher%Chang%NULL%1,        Qinyong%Hu%NULL%1,        Yang%Jin%NULL%1,        Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Wen-hua%Liang%NULL%0,        Chun-quan%Ou%NULL%0,        Jian-xing%He%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        David S.C.%Hui%NULL%0,        Bin%Du%NULL%0,        Lan-juan%Li%NULL%0,        Guang%Zeng%NULL%0,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%0,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%0,        Jin-lin%Wang%NULL%0,        Zi-jing%Liang%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%0,        Lili%Ren%NULL%0,        Jianping%Zhao%NULL%0,        Yi%Hu%NULL%0,        Li%Zhang%NULL%0,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%0,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%0,        Xuelei%Xie%NULL%0,        Wen%Yin%NULL%0,        Hui%Li%NULL%0,        Min%Liu%NULL%0,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Li%Guo%NULL%0,        Jungang%Xie%NULL%0,        Guangfa%Wang%NULL%0,        Rongmeng%Jiang%NULL%0,        Zhancheng%Gao%NULL%0,        Qi%Jin%NULL%0,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,        Shuyun%Xu%NULL%1,        Muqing%Yu%NULL%1,        Ke%Wang%NULL%2,        Yu%Tao%NULL%1,        Ying%Zhou%NULL%1,        Jing%Shi%NULL%1,        Min%Zhou%NULL%0,        Bo%Wu%NULL%1,        Zhenyu%Yang%NULL%1,        Cong%Zhang%NULL%0,        Junqing%Yue%NULL%1,        Zhiguo%Zhang%NULL%1,        Harald%Renz%NULL%1,        Xiansheng%Liu%NULL%1,        Jungang%Xie%NULL%0,        Min%Xie%NULL%1,        Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,        Yuan-Yuan%Fang%NULL%0,        Yan%Deng%NULL%0,        Wei%Liu%NULL%0,        Mei-Fang%Wang%NULL%0,        Jing-Ping%Ma%NULL%0,        Wei%Xiao%NULL%0,        Ying-Nan%Wang%NULL%0,        Min-Hua%Zhong%NULL%0,        Cheng-Hong%Li%NULL%0,        Guang-Cai%Li%NULL%0,        Hui-Guo%Liu%NULL%0,        Xiu-Yuan%Hao%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,  Huijuan%Jin%xref no email%3,  Mengdie%Wang%xref no email%3,  Yu%Hu%xref no email%4,  Shengcai%Chen%xref no email%3,  Quanwei%He%xref no email%3,  Jiang%Chang%xref no email%3,  Candong%Hong%xref no email%3,  Yifan%Zhou%xref no email%3,  David%Wang%xref no email%3,  Xiaoping%Miao%xref no email%3,  Yanan%Li%xref no email%3,  Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%3,  Luoqi%Zhou%xref no email%1,  Ziwei%Hu%xref no email%1,  Shuoqi%Zhang%xref no email%1,  Sheng%Yang%xref no email%1,  Yu%Tao%xref no email%1,  Cuihong%Xie%xref no email%1,  Ke%Ma%xref no email%1,  Ke%Shang%xref no email%1,  Wei%Wang%xref no email%0,  Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,        Mikael%Chetboun%NULL%2,        Julien%Poissy%NULL%3,        Violeta%Raverdy%NULL%2,        Jerome%Noulette%NULL%3,        Alain%Duhamel%NULL%2,        Julien%Labreuche%NULL%2,        Daniel%Mathieu%NULL%5,        Francois%Pattou%francois.pattou@univ-lille.fr%2,        Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,        Robert%Caizzo%NULL%3,        Morgan%Caplan%NULL%2,        Nicolas%Cousin%NULL%2,        Thibault%Duburcq%NULL%2,        Arthur%Durand%NULL%2,        Ahmed%El kalioubie%NULL%2,        Raphael%Favory%NULL%2,        Bruno%Garcia%NULL%2,        Patrick%Girardie%NULL%2,        Julien%Goutay%NULL%2,        Marion%Houard%NULL%2,        Emmanuelle%Jaillette%NULL%2,        Nicolas%Kostuj%NULL%2,        Geoffrey%Ledoux%NULL%2,        Daniel%Mathieu%NULL%0,        Anne Sophie%Moreau%NULL%2,        Christopher%Niles%NULL%2,        Saad%Nseir%NULL%3,        Thierry%Onimus%NULL%2,        Erika%Parmentier%NULL%2,        Sebastien%Préau%NULL%2,        Laurent%Robriquet%NULL%2,        Anahita%Rouze%NULL%2,        Sophie%Six%NULL%2,        Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,        Yi%Xiang%NULL%1,        Wei%Fang%NULL%1,        Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,        Boqun%Li%279685211@qq.com%1,        Yanjun%Hu%huyanjun@163.com%1,        Chunhui%Lang%NULL%1,        Daoqiu%Huang%NULL%1,        Qiuyan%Sun%NULL%1,        Yan%Xiong%NULL%2,        Xia%Huang%NULL%1,        Jinglong%Lv%NULL%1,        Yaling%Luo%NULL%1,        Li%Shen%NULL%1,        Haoran%Yang%NULL%1,        Gu%Huang%NULL%1,        Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,        Min%Pan%NULL%1,        Xiumei%Zhang%NULL%1,        Mingfeng%Han%fyhmf@163.com%2,        Xiaoyun%Fan%13956988552@126.com%1,        Fengde%Zhao%NULL%1,        Manli%Miao%NULL%1,        Jing%Xu%NULL%1,        Minglong%Guan%NULL%1,        Xia%Deng%NULL%1,        Xu%Chen%NULL%1,        Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,        J.%Fang%NULL%1,        Y.%Zhu%NULL%1,        L.%Chen%NULL%1,        F.%Ding%NULL%1,        R.%Zhou%NULL%1,        L.%Ge%NULL%1,        F.%Wang%NULL%1,        Q.%Chen%NULL%1,        Y.%Zhang%NULL%1,        Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,        Jun%Liu%NULL%2,        Xinguo%Zhao%NULL%1,        Chengyuan%Liu%NULL%1,        Wei%Wang%NULL%2,        Dawei%Wang%NULL%1,        Wei%Xu%NULL%1,        Chunyu%Zhang%NULL%1,        Jiong%Yu%NULL%1,        Bin%Jiang%NULL%1,        Hongcui%Cao%hccao@zju.edu.cn%1,        Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,        Jianming%Zhao%NULL%1,        Ningfang%Lian%1533532863@qq.com%1,        Su%Lin%NULL%1,        Qunfang%Xie%NULL%1,        Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,        Chengcheng%Yu%NULL%2,        Jing%Qu%NULL%1,        Lieguang%Zhang%NULL%2,        Songfeng%Jiang%NULL%1,        Deyang%Huang%NULL%1,        Bihua%Chen%NULL%1,        Zhiping%Zhang%NULL%1,        Wanhua%Guan%NULL%1,        Zhoukun%Ling%NULL%1,        Rui%Jiang%NULL%1,        Tianli%Hu%NULL%1,        Yan%Ding%NULL%1,        Lin%Lin%NULL%1,        Qingxin%Gan%NULL%1,        Liangping%Luo%tluolp@jnu.edu.cn%2,        Xiaoping%Tang%xtang@21cn.com%1,        Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,        Qiqi%Cao%NULL%1,        Le%Qin%NULL%1,        Xiaoyang%Wang%NULL%1,        Zenghui%Cheng%NULL%1,        Ashan%Pan%NULL%1,        Jianyi%Dai%NULL%1,        Qingfeng%Sun%NULL%1,        Fengquan%Zhao%NULL%1,        Jieming%Qu%NULL%0,        Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%5,  Sean Wei Xiang%Ong%xref no email%5,  Shirin%Kalimuddin%xref no email%5,  Jenny G.%Low%xref no email%5,  Seow Yen%Tan%xref no email%5,  Jiashen%Loh%xref no email%5,  Oon-Tek%Ng%xref no email%5,  Kalisvar%Marimuthu%xref no email%5,  Li Wei%Ang%xref no email%5,  Tze Minn%Mak%xref no email%5,  Sok Kiang%Lau%xref no email%5,  Danielle E.%Anderson%xref no email%5,  Kian Sing%Chan%xref no email%5,  Thean Yen%Tan%xref no email%5,  Tong Yong%Ng%xref no email%5,  Lin%Cui%xref no email%5,  Zubaidah%Said%xref no email%5,  Lalitha%Kurupatham%xref no email%5,  Mark I-Cheng%Chen%xref no email%5,  Monica%Chan%xref no email%5,  Shawn%Vasoo%xref no email%5,  Lin-Fa%Wang%xref no email%5,  Boon Huan%Tan%xref no email%5,  Raymond Tzer Pin%Lin%xref no email%5,  Vernon Jian Ming%Lee%xref no email%5,  Yee-Sin%Leo%xref no email%5,  David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,      Cao%Yi-yuan%coreGivesNoEmail%0,      Dong%Xiang%coreGivesNoEmail%0,      Gao%Ya-dong%coreGivesNoEmail%0,      Yan%You-qin%coreGivesNoEmail%0,      Yang%Yi-bin%coreGivesNoEmail%0,      Yuan%Ya-dong%coreGivesNoEmail%0,      Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,      National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,      Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,      The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,        Areeba%Ali%NULL%1,        Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,        Jaime A.%Cardona-Ospina%NULL%1,        Estefanía%Gutiérrez-Ocampo%NULL%1,        Rhuvi%Villamizar-Peña%NULL%1,        Yeimer%Holguin-Rivera%NULL%1,        Juan Pablo%Escalera-Antezana%NULL%1,        Lucia Elena%Alvarado-Arnez%NULL%1,        D. Katterine%Bonilla-Aldana%NULL%1,        Carlos%Franco-Paredes%NULL%1,        Andrés F.%Henao-Martinez%NULL%1,        Alberto%Paniz-Mondolfi%NULL%1,        Guillermo J.%Lagos-Grisales%NULL%1,        Eduardo%Ramírez-Vallejo%NULL%1,        Jose A.%Suárez%NULL%1,        Lysien I.%Zambrano%NULL%1,        Wilmer E.%Villamil-Gómez%NULL%1,        Graciela J.%Balbin-Ramon%NULL%1,        Ali A.%Rabaan%NULL%1,        Harapan%Harapan%NULL%1,        Kuldeep%Dhama%NULL%1,        Hiroshi%Nishiura%NULL%2,        Hiromitsu%Kataoka%NULL%1,        Tauseef%Ahmad%NULL%1,        Ranjit%Sah%NULL%2,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,        Ben%Van Calster%NULL%1,        Gary S%Collins%NULL%1,        Richard D%Riley%NULL%1,        Georg%Heinze%NULL%1,        Ewoud%Schuit%NULL%1,        Marc M J%Bonten%NULL%1,        Johanna A A%Damen%NULL%1,        Thomas P A%Debray%NULL%1,        Maarten%De Vos%NULL%1,        Paula%Dhiman%NULL%1,        Maria C%Haller%NULL%1,        Michael O%Harhay%NULL%1,        Liesbet%Henckaerts%NULL%1,        Nina%Kreuzberger%NULL%1,        Anna%Lohmann%NULL%1,        Kim%Luijken%NULL%1,        Jie%Ma%NULL%1,        Constanza L%Andaur Navarro%NULL%1,        Johannes B%Reitsma%NULL%1,        Jamie C%Sergeant%NULL%1,        Chunhu%Shi%NULL%1,        Nicole%Skoetz%NULL%1,        Luc J M%Smits%NULL%1,        Kym I E%Snell%NULL%1,        Matthew%Sperrin%NULL%1,        René%Spijker%NULL%1,        Ewout W%Steyerberg%NULL%1,        Toshihiko%Takada%NULL%1,        Sander M J%van Kuijk%NULL%1,        Florien S%van Royen%NULL%1,        Christine%Wallisch%NULL%1,        Lotty%Hooft%NULL%1,        Karel G M%Moons%NULL%1,        Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,        Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,        Satoshi%Kutsuna%sonare.since1192@gmail.com%1,        Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,        Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,        Jung Wan%Park%NULL%3,        Moran%Ki%NULL%1,        Mi-Yeon%Yeon%NULL%3,        Jin%Kim%NULL%1,        Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,        Soyoung%Jung%syjung@kiom.re.kr%1,        Aeran%Kim%arkim@kiom.re.kr%1,        Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,        D. S. Y.%Chong%NULL%1,        W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,        Vera%Regitz-Zagrosek%NULL%1,        Hannelore K.%Neuhauser%NULL%1,        Rosemary%Morgan%NULL%1,        Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3239,7 +3479,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -3285,7 +3525,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -3331,7 +3571,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3377,7 +3617,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -3423,7 +3663,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -3469,7 +3709,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -3515,7 +3755,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3561,7 +3801,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3607,7 +3847,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -3653,7 +3893,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -3699,7 +3939,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -3745,7 +3985,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -3791,7 +4031,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -3883,7 +4123,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -3929,7 +4169,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -3969,22 +4209,22 @@
         <v>43931.0</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>619</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>662</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>621</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>622</v>
       </c>
       <c r="I18" t="s">
         <v>444</v>
@@ -4015,22 +4255,22 @@
         <v>43902.0</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>623</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>663</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>621</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>625</v>
       </c>
       <c r="I19" t="s">
         <v>444</v>
@@ -4067,7 +4307,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>585</v>
+        <v>664</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -4113,7 +4353,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>586</v>
+        <v>665</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -4159,7 +4399,7 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>587</v>
+        <v>666</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4205,7 +4445,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>588</v>
+        <v>667</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -4251,7 +4491,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -4297,7 +4537,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>590</v>
+        <v>669</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -4343,7 +4583,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>591</v>
+        <v>670</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -4389,7 +4629,7 @@
         <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>592</v>
+        <v>671</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -4435,7 +4675,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>593</v>
+        <v>672</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -4475,22 +4715,22 @@
         <v>43893.0</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>635</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>673</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>621</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>622</v>
       </c>
       <c r="I29" t="s">
         <v>444</v>
@@ -4527,7 +4767,7 @@
         <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>594</v>
+        <v>674</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -4573,7 +4813,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -4619,7 +4859,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -4665,7 +4905,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -4711,7 +4951,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -4757,7 +4997,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -4803,7 +5043,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -4849,7 +5089,7 @@
         <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -4895,7 +5135,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -4941,7 +5181,7 @@
         <v>232</v>
       </c>
       <c r="E39" t="s">
-        <v>603</v>
+        <v>683</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6031" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6577" uniqueCount="758">
   <si>
     <t>Doi</t>
   </si>
@@ -3066,6 +3066,228 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,        Vera%Regitz-Zagrosek%NULL%1,        Hannelore K.%Neuhauser%NULL%1,        Rosemary%Morgan%NULL%1,        Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,         Jordi%Rello%NULL%1,         Sofia%Tejada%NULL%1,         Alejandro%Martín%NULL%1,         Goiatz%Balziskueta%NULL%1,         Cristina%Vinuesa%NULL%1,         Borja%Fernández-Miret%NULL%1,         Ana%Villagra%NULL%1,         Ana%Vallejo%NULL%1,         Ana%San Sebastián%NULL%1,         Sara%Cabañes%NULL%1,         Sebastián%Iribarren%NULL%1,         Fernando%Fonseca%NULL%1,         Javier%Maynar%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,         Bijan J.%Ghassemieh%NULL%2,         Michelle%Nichols%NULL%2,         Richard%Kim%NULL%2,         Keith R.%Jerome%NULL%2,         Arun K.%Nalla%NULL%2,         Alexander L.%Greninger%NULL%2,         Sudhakar%Pipavath%NULL%2,         Mark M.%Wurfel%NULL%2,         Laura%Evans%NULL%2,         Patricia A.%Kritek%NULL%2,         T. Eoin%West%NULL%2,         Andrew%Luks%NULL%2,         Anthony%Gerbino%NULL%2,         Chris R.%Dale%NULL%2,         Jason D.%Goldman%NULL%2,         Shane%O’Mahony%NULL%2,         Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,         Wenlin%Cheng%NULL%2,         Lei%Yu%NULL%2,         Ya-Kun%Liu%NULL%2,         Xiaoyong%Hu%NULL%2,         Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,         Tangkai%Qi%NULL%2,         Li%Liu%NULL%2,         Yun%Ling%NULL%3,         Zhiping%Qian%NULL%2,         Tao%Li%NULL%3,         Feng%Li%NULL%2,         Qingnian%Xu%NULL%2,         Yuyi%Zhang%NULL%2,         Shuibao%Xu%NULL%2,         Zhigang%Song%NULL%2,         Yigang%Zeng%NULL%2,         Yinzhong%Shen%NULL%2,         Yuxin%Shi%NULL%4,         Tongyu%Zhu%NULL%2,         Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,         Min%Zhou%NULL%6,         Xuan%Dong%NULL%3,         Jieming%Qu%NULL%5,         Fengyun%Gong%NULL%3,         Yang%Han%NULL%3,         Yang%Qiu%NULL%3,         Jingli%Wang%NULL%3,         Ying%Liu%NULL%6,         Yuan%Wei%NULL%0,         Jia'an%Xia%NULL%0,         Ting%Yu%NULL%0,         Xinxin%Zhang%NULL%5,         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,         Zhe%Dai%NULL%1,         Pingzheng%Mo%NULL%1,         Xinyu%Li%NULL%1,         Zhiyong%Ma%NULL%1,         Shihui%Song%NULL%1,         Xiaoping%Chen%NULL%1,         Mingqi%Luo%NULL%1,         Ke%Liang%NULL%1,         Shicheng%Gao%NULL%1,         Yongxi%Zhang%NULL%1,         Liping%Deng%dengdeng78@126.com%1,         Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,         Di%Wu%NULL%0,         Huilong%Chen%NULL%0,         Weiming%Yan%NULL%0,         Danlei%Yang%NULL%0,         Guang%Chen%NULL%0,         Ke%Ma%NULL%0,         Dong%Xu%NULL%0,         Haijing%Yu%NULL%0,         Hongwu%Wang%NULL%0,         Tao%Wang%NULL%0,         Wei%Guo%NULL%0,         Jia%Chen%NULL%0,         Chen%Ding%NULL%0,         Xiaoping%Zhang%NULL%0,         Jiaquan%Huang%NULL%0,         Meifang%Han%NULL%0,         Shusheng%Li%NULL%0,         Xiaoping%Luo%NULL%0,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,         Nan%Yang%NULL%0,         Yanqiu%Wei%NULL%0,         Huihui%Yue%NULL%0,         Fengqin%Zhang%NULL%0,         Jianping%Zhao%NULL%0,         Li%He%NULL%0,         Gaohong%Sheng%NULL%0,         Peng%Chen%NULL%0,         Gang%Li%NULL%0,         Sisi%Wu%NULL%0,         Bo%Zhang%NULL%0,         Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,         Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,         Xiaoping%Miao%miaoxp@hust.edu.cn%0,         Juan%Li%lijuan@tjh.tjmu.edu.cn%0,         Wenhua%Liu%liuwh_2013@126.com%0,         Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,         Li-Rong%Liang%NULL%1,         Cheng-Qing%Yang%NULL%1,         Wen%Wang%NULL%3,         Tan-Ze%Cao%NULL%1,         Ming%Li%NULL%1,         Guang-Yun%Guo%NULL%1,         Juan%Du%NULL%1,         Chun-Lan%Zheng%NULL%1,         Qi%Zhu%NULL%1,         Ming%Hu%NULL%1,         Xu-Yan%Li%NULL%3,         Peng%Peng%NULL%0,         Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,         Li-Min%Liu%NULL%2,         Wen%Yin%NULL%0,         Wen%Wang%NULL%0,         Lu-Lu%Guan%NULL%2,         Ming-Li%Yuan%NULL%2,         Yu-Lei%Li%NULL%2,         Yi%Hu%NULL%0,         Xu-Yan%Li%NULL%0,         Bing%Sun%NULL%2,         Peng%Peng%NULL%0,         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,         Lei%Tu%NULL%1,         Pingjun%Zhu%NULL%1,         Mi%Mu%NULL%1,         Runsheng%Wang%NULL%1,         Pengcheng%Yang%NULL%1,         Xi%Wang%NULL%1,         Chao%Hu%NULL%1,         Rongyu%Ping%NULL%1,         Peng%Hu%NULL%1,         Tianzhi%Li%NULL%1,         Feng%Cao%NULL%1,         Christopher%Chang%NULL%1,         Qinyong%Hu%NULL%1,         Yang%Jin%NULL%1,         Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%0,         Chun-quan%Ou%NULL%0,         Jian-xing%He%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         David S.C.%Hui%NULL%0,         Bin%Du%NULL%0,         Lan-juan%Li%NULL%0,         Guang%Zeng%NULL%0,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%0,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%0,         Jin-lin%Wang%NULL%0,         Zi-jing%Liang%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%0,         Lili%Ren%NULL%0,         Jianping%Zhao%NULL%0,         Yi%Hu%NULL%0,         Li%Zhang%NULL%0,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%0,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%0,         Xuelei%Xie%NULL%0,         Wen%Yin%NULL%0,         Hui%Li%NULL%0,         Min%Liu%NULL%0,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Li%Guo%NULL%0,         Jungang%Xie%NULL%0,         Guangfa%Wang%NULL%0,         Rongmeng%Jiang%NULL%0,         Zhancheng%Gao%NULL%0,         Qi%Jin%NULL%0,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,         Shuyun%Xu%NULL%1,         Muqing%Yu%NULL%1,         Ke%Wang%NULL%2,         Yu%Tao%NULL%1,         Ying%Zhou%NULL%1,         Jing%Shi%NULL%1,         Min%Zhou%NULL%0,         Bo%Wu%NULL%1,         Zhenyu%Yang%NULL%1,         Cong%Zhang%NULL%0,         Junqing%Yue%NULL%1,         Zhiguo%Zhang%NULL%1,         Harald%Renz%NULL%1,         Xiansheng%Liu%NULL%1,         Jungang%Xie%NULL%0,         Min%Xie%NULL%1,         Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,         Yuan-Yuan%Fang%NULL%0,         Yan%Deng%NULL%0,         Wei%Liu%NULL%0,         Mei-Fang%Wang%NULL%0,         Jing-Ping%Ma%NULL%0,         Wei%Xiao%NULL%0,         Ying-Nan%Wang%NULL%0,         Min-Hua%Zhong%NULL%0,         Cheng-Hong%Li%NULL%0,         Guang-Cai%Li%NULL%0,         Hui-Guo%Liu%NULL%0,         Xiu-Yuan%Hao%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,   Huijuan%Jin%xref no email%3,   Mengdie%Wang%xref no email%3,   Yu%Hu%xref no email%4,   Shengcai%Chen%xref no email%3,   Quanwei%He%xref no email%3,   Jiang%Chang%xref no email%3,   Candong%Hong%xref no email%3,   Yifan%Zhou%xref no email%3,   David%Wang%xref no email%3,   Xiaoping%Miao%xref no email%3,   Yanan%Li%xref no email%3,   Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%3,   Luoqi%Zhou%xref no email%1,   Ziwei%Hu%xref no email%1,   Shuoqi%Zhang%xref no email%1,   Sheng%Yang%xref no email%1,   Yu%Tao%xref no email%1,   Cuihong%Xie%xref no email%1,   Ke%Ma%xref no email%1,   Ke%Shang%xref no email%1,   Wei%Wang%xref no email%0,   Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,         Mikael%Chetboun%NULL%2,         Julien%Poissy%NULL%3,         Violeta%Raverdy%NULL%2,         Jerome%Noulette%NULL%3,         Alain%Duhamel%NULL%2,         Julien%Labreuche%NULL%2,         Daniel%Mathieu%NULL%5,         Francois%Pattou%francois.pattou@univ-lille.fr%2,         Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,         Robert%Caizzo%NULL%3,         Morgan%Caplan%NULL%2,         Nicolas%Cousin%NULL%2,         Thibault%Duburcq%NULL%2,         Arthur%Durand%NULL%2,         Ahmed%El kalioubie%NULL%2,         Raphael%Favory%NULL%2,         Bruno%Garcia%NULL%2,         Patrick%Girardie%NULL%2,         Julien%Goutay%NULL%2,         Marion%Houard%NULL%2,         Emmanuelle%Jaillette%NULL%2,         Nicolas%Kostuj%NULL%2,         Geoffrey%Ledoux%NULL%2,         Daniel%Mathieu%NULL%0,         Anne Sophie%Moreau%NULL%2,         Christopher%Niles%NULL%2,         Saad%Nseir%NULL%3,         Thierry%Onimus%NULL%2,         Erika%Parmentier%NULL%2,         Sebastien%Préau%NULL%2,         Laurent%Robriquet%NULL%2,         Anahita%Rouze%NULL%2,         Sophie%Six%NULL%2,         Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,         Yi%Xiang%NULL%1,         Wei%Fang%NULL%1,         Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,         Boqun%Li%279685211@qq.com%1,         Yanjun%Hu%huyanjun@163.com%1,         Chunhui%Lang%NULL%1,         Daoqiu%Huang%NULL%1,         Qiuyan%Sun%NULL%1,         Yan%Xiong%NULL%2,         Xia%Huang%NULL%1,         Jinglong%Lv%NULL%1,         Yaling%Luo%NULL%1,         Li%Shen%NULL%1,         Haoran%Yang%NULL%1,         Gu%Huang%NULL%1,         Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,         Min%Pan%NULL%1,         Xiumei%Zhang%NULL%1,         Mingfeng%Han%fyhmf@163.com%2,         Xiaoyun%Fan%13956988552@126.com%1,         Fengde%Zhao%NULL%1,         Manli%Miao%NULL%1,         Jing%Xu%NULL%1,         Minglong%Guan%NULL%1,         Xia%Deng%NULL%1,         Xu%Chen%NULL%1,         Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,         J.%Fang%NULL%1,         Y.%Zhu%NULL%1,         L.%Chen%NULL%1,         F.%Ding%NULL%1,         R.%Zhou%NULL%1,         L.%Ge%NULL%1,         F.%Wang%NULL%1,         Q.%Chen%NULL%1,         Y.%Zhang%NULL%1,         Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,         Jun%Liu%NULL%2,         Xinguo%Zhao%NULL%1,         Chengyuan%Liu%NULL%1,         Wei%Wang%NULL%2,         Dawei%Wang%NULL%1,         Wei%Xu%NULL%1,         Chunyu%Zhang%NULL%1,         Jiong%Yu%NULL%1,         Bin%Jiang%NULL%1,         Hongcui%Cao%hccao@zju.edu.cn%1,         Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,         Jianming%Zhao%NULL%1,         Ningfang%Lian%1533532863@qq.com%1,         Su%Lin%NULL%1,         Qunfang%Xie%NULL%1,         Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,         Chengcheng%Yu%NULL%2,         Jing%Qu%NULL%1,         Lieguang%Zhang%NULL%2,         Songfeng%Jiang%NULL%1,         Deyang%Huang%NULL%1,         Bihua%Chen%NULL%1,         Zhiping%Zhang%NULL%1,         Wanhua%Guan%NULL%1,         Zhoukun%Ling%NULL%1,         Rui%Jiang%NULL%1,         Tianli%Hu%NULL%1,         Yan%Ding%NULL%1,         Lin%Lin%NULL%1,         Qingxin%Gan%NULL%1,         Liangping%Luo%tluolp@jnu.edu.cn%2,         Xiaoping%Tang%xtang@21cn.com%1,         Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,         Qiqi%Cao%NULL%1,         Le%Qin%NULL%1,         Xiaoyang%Wang%NULL%1,         Zenghui%Cheng%NULL%1,         Ashan%Pan%NULL%1,         Jianyi%Dai%NULL%1,         Qingfeng%Sun%NULL%1,         Fengquan%Zhao%NULL%1,         Jieming%Qu%NULL%0,         Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%5,   Sean Wei Xiang%Ong%xref no email%5,   Shirin%Kalimuddin%xref no email%5,   Jenny G.%Low%xref no email%5,   Seow Yen%Tan%xref no email%5,   Jiashen%Loh%xref no email%5,   Oon-Tek%Ng%xref no email%5,   Kalisvar%Marimuthu%xref no email%5,   Li Wei%Ang%xref no email%5,   Tze Minn%Mak%xref no email%5,   Sok Kiang%Lau%xref no email%5,   Danielle E.%Anderson%xref no email%5,   Kian Sing%Chan%xref no email%5,   Thean Yen%Tan%xref no email%5,   Tong Yong%Ng%xref no email%5,   Lin%Cui%xref no email%5,   Zubaidah%Said%xref no email%5,   Lalitha%Kurupatham%xref no email%5,   Mark I-Cheng%Chen%xref no email%5,   Monica%Chan%xref no email%5,   Shawn%Vasoo%xref no email%5,   Lin-Fa%Wang%xref no email%5,   Boon Huan%Tan%xref no email%5,   Raymond Tzer Pin%Lin%xref no email%5,   Vernon Jian Ming%Lee%xref no email%5,   Yee-Sin%Leo%xref no email%5,   David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,       Cao%Yi-yuan%coreGivesNoEmail%0,       Dong%Xiang%coreGivesNoEmail%0,       Gao%Ya-dong%coreGivesNoEmail%0,       Yan%You-qin%coreGivesNoEmail%0,       Yang%Yi-bin%coreGivesNoEmail%0,       Yuan%Ya-dong%coreGivesNoEmail%0,       Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,       National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,       Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,       The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,         Areeba%Ali%NULL%1,         Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,         Jaime A.%Cardona-Ospina%NULL%1,         Estefanía%Gutiérrez-Ocampo%NULL%1,         Rhuvi%Villamizar-Peña%NULL%1,         Yeimer%Holguin-Rivera%NULL%1,         Juan Pablo%Escalera-Antezana%NULL%1,         Lucia Elena%Alvarado-Arnez%NULL%1,         D. Katterine%Bonilla-Aldana%NULL%1,         Carlos%Franco-Paredes%NULL%1,         Andrés F.%Henao-Martinez%NULL%1,         Alberto%Paniz-Mondolfi%NULL%1,         Guillermo J.%Lagos-Grisales%NULL%1,         Eduardo%Ramírez-Vallejo%NULL%1,         Jose A.%Suárez%NULL%1,         Lysien I.%Zambrano%NULL%1,         Wilmer E.%Villamil-Gómez%NULL%1,         Graciela J.%Balbin-Ramon%NULL%1,         Ali A.%Rabaan%NULL%1,         Harapan%Harapan%NULL%1,         Kuldeep%Dhama%NULL%1,         Hiroshi%Nishiura%NULL%2,         Hiromitsu%Kataoka%NULL%1,         Tauseef%Ahmad%NULL%1,         Ranjit%Sah%NULL%2,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,         Ben%Van Calster%NULL%1,         Gary S%Collins%NULL%1,         Richard D%Riley%NULL%1,         Georg%Heinze%NULL%1,         Ewoud%Schuit%NULL%1,         Marc M J%Bonten%NULL%1,         Johanna A A%Damen%NULL%1,         Thomas P A%Debray%NULL%1,         Maarten%De Vos%NULL%1,         Paula%Dhiman%NULL%1,         Maria C%Haller%NULL%1,         Michael O%Harhay%NULL%1,         Liesbet%Henckaerts%NULL%1,         Nina%Kreuzberger%NULL%1,         Anna%Lohmann%NULL%1,         Kim%Luijken%NULL%1,         Jie%Ma%NULL%1,         Constanza L%Andaur Navarro%NULL%1,         Johannes B%Reitsma%NULL%1,         Jamie C%Sergeant%NULL%1,         Chunhu%Shi%NULL%1,         Nicole%Skoetz%NULL%1,         Luc J M%Smits%NULL%1,         Kym I E%Snell%NULL%1,         Matthew%Sperrin%NULL%1,         René%Spijker%NULL%1,         Ewout W%Steyerberg%NULL%1,         Toshihiko%Takada%NULL%1,         Sander M J%van Kuijk%NULL%1,         Florien S%van Royen%NULL%1,         Christine%Wallisch%NULL%1,         Lotty%Hooft%NULL%1,         Karel G M%Moons%NULL%1,         Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,         Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,         Satoshi%Kutsuna%sonare.since1192@gmail.com%1,         Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,         Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,         Jung Wan%Park%NULL%3,         Moran%Ki%NULL%1,         Mi-Yeon%Yeon%NULL%3,         Jin%Kim%NULL%1,         Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,         Soyoung%Jung%syjung@kiom.re.kr%1,         Aeran%Kim%arkim@kiom.re.kr%1,         Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,         D. S. Y.%Chong%NULL%1,         W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,         Vera%Regitz-Zagrosek%NULL%1,         Hannelore K.%Neuhauser%NULL%1,         Rosemary%Morgan%NULL%1,         Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,          Jordi%Rello%NULL%1,          Sofia%Tejada%NULL%1,          Alejandro%Martín%NULL%1,          Goiatz%Balziskueta%NULL%1,          Cristina%Vinuesa%NULL%1,          Borja%Fernández-Miret%NULL%1,          Ana%Villagra%NULL%1,          Ana%Vallejo%NULL%1,          Ana%San Sebastián%NULL%1,          Sara%Cabañes%NULL%1,          Sebastián%Iribarren%NULL%1,          Fernando%Fonseca%NULL%1,          Javier%Maynar%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,          Bijan J.%Ghassemieh%NULL%2,          Michelle%Nichols%NULL%2,          Richard%Kim%NULL%2,          Keith R.%Jerome%NULL%2,          Arun K.%Nalla%NULL%2,          Alexander L.%Greninger%NULL%2,          Sudhakar%Pipavath%NULL%2,          Mark M.%Wurfel%NULL%2,          Laura%Evans%NULL%2,          Patricia A.%Kritek%NULL%2,          T. Eoin%West%NULL%2,          Andrew%Luks%NULL%2,          Anthony%Gerbino%NULL%2,          Chris R.%Dale%NULL%2,          Jason D.%Goldman%NULL%2,          Shane%O’Mahony%NULL%2,          Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,          Wenlin%Cheng%NULL%2,          Lei%Yu%NULL%2,          Ya-Kun%Liu%NULL%2,          Xiaoyong%Hu%NULL%2,          Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,          Tangkai%Qi%NULL%2,          Li%Liu%NULL%2,          Yun%Ling%NULL%3,          Zhiping%Qian%NULL%2,          Tao%Li%NULL%3,          Feng%Li%NULL%2,          Qingnian%Xu%NULL%2,          Yuyi%Zhang%NULL%2,          Shuibao%Xu%NULL%2,          Zhigang%Song%NULL%2,          Yigang%Zeng%NULL%2,          Yinzhong%Shen%NULL%2,          Yuxin%Shi%NULL%4,          Tongyu%Zhu%NULL%2,          Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,          Min%Zhou%NULL%6,          Xuan%Dong%NULL%3,          Jieming%Qu%NULL%5,          Fengyun%Gong%NULL%3,          Yang%Han%NULL%3,          Yang%Qiu%NULL%3,          Jingli%Wang%NULL%3,          Ying%Liu%NULL%6,          Yuan%Wei%NULL%0,          Jia'an%Xia%NULL%0,          Ting%Yu%NULL%0,          Xinxin%Zhang%NULL%5,          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,          Zhe%Dai%NULL%1,          Pingzheng%Mo%NULL%1,          Xinyu%Li%NULL%1,          Zhiyong%Ma%NULL%1,          Shihui%Song%NULL%1,          Xiaoping%Chen%NULL%1,          Mingqi%Luo%NULL%1,          Ke%Liang%NULL%1,          Shicheng%Gao%NULL%1,          Yongxi%Zhang%NULL%1,          Liping%Deng%dengdeng78@126.com%1,          Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,          Di%Wu%NULL%0,          Huilong%Chen%NULL%0,          Weiming%Yan%NULL%0,          Danlei%Yang%NULL%0,          Guang%Chen%NULL%0,          Ke%Ma%NULL%0,          Dong%Xu%NULL%0,          Haijing%Yu%NULL%0,          Hongwu%Wang%NULL%0,          Tao%Wang%NULL%0,          Wei%Guo%NULL%0,          Jia%Chen%NULL%0,          Chen%Ding%NULL%0,          Xiaoping%Zhang%NULL%0,          Jiaquan%Huang%NULL%0,          Meifang%Han%NULL%0,          Shusheng%Li%NULL%0,          Xiaoping%Luo%NULL%0,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,          Nan%Yang%NULL%0,          Yanqiu%Wei%NULL%0,          Huihui%Yue%NULL%0,          Fengqin%Zhang%NULL%0,          Jianping%Zhao%NULL%0,          Li%He%NULL%0,          Gaohong%Sheng%NULL%0,          Peng%Chen%NULL%0,          Gang%Li%NULL%0,          Sisi%Wu%NULL%0,          Bo%Zhang%NULL%0,          Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,          Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,          Xiaoping%Miao%miaoxp@hust.edu.cn%0,          Juan%Li%lijuan@tjh.tjmu.edu.cn%0,          Wenhua%Liu%liuwh_2013@126.com%0,          Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,          Li-Rong%Liang%NULL%1,          Cheng-Qing%Yang%NULL%1,          Wen%Wang%NULL%3,          Tan-Ze%Cao%NULL%1,          Ming%Li%NULL%1,          Guang-Yun%Guo%NULL%1,          Juan%Du%NULL%1,          Chun-Lan%Zheng%NULL%1,          Qi%Zhu%NULL%1,          Ming%Hu%NULL%1,          Xu-Yan%Li%NULL%3,          Peng%Peng%NULL%0,          Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,          Li-Min%Liu%NULL%2,          Wen%Yin%NULL%0,          Wen%Wang%NULL%0,          Lu-Lu%Guan%NULL%2,          Ming-Li%Yuan%NULL%2,          Yu-Lei%Li%NULL%2,          Yi%Hu%NULL%0,          Xu-Yan%Li%NULL%0,          Bing%Sun%NULL%2,          Peng%Peng%NULL%0,          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,          Lei%Tu%NULL%1,          Pingjun%Zhu%NULL%1,          Mi%Mu%NULL%1,          Runsheng%Wang%NULL%1,          Pengcheng%Yang%NULL%1,          Xi%Wang%NULL%1,          Chao%Hu%NULL%1,          Rongyu%Ping%NULL%1,          Peng%Hu%NULL%1,          Tianzhi%Li%NULL%1,          Feng%Cao%NULL%1,          Christopher%Chang%NULL%1,          Qinyong%Hu%NULL%1,          Yang%Jin%NULL%1,          Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Wen-hua%Liang%NULL%0,          Chun-quan%Ou%NULL%0,          Jian-xing%He%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          David S.C.%Hui%NULL%0,          Bin%Du%NULL%0,          Lan-juan%Li%NULL%0,          Guang%Zeng%NULL%0,          Kwok-Yung%Yuen%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Ping-yan%Chen%NULL%0,          Jie%Xiang%NULL%0,          Shi-yue%Li%NULL%0,          Jin-lin%Wang%NULL%0,          Zi-jing%Liang%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%0,          Xingwang%Li%NULL%0,          Lili%Ren%NULL%0,          Jianping%Zhao%NULL%0,          Yi%Hu%NULL%0,          Li%Zhang%NULL%0,          Guohui%Fan%NULL%0,          Jiuyang%Xu%NULL%0,          Xiaoying%Gu%NULL%0,          Zhenshun%Cheng%NULL%0,          Ting%Yu%NULL%0,          Jiaan%Xia%NULL%0,          Yuan%Wei%NULL%0,          Wenjuan%Wu%NULL%0,          Xuelei%Xie%NULL%0,          Wen%Yin%NULL%0,          Hui%Li%NULL%0,          Min%Liu%NULL%0,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Li%Guo%NULL%0,          Jungang%Xie%NULL%0,          Guangfa%Wang%NULL%0,          Rongmeng%Jiang%NULL%0,          Zhancheng%Gao%NULL%0,          Qi%Jin%NULL%0,          Jianwei%Wang%wangjw28@163.com%0,          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,          Shuyun%Xu%NULL%1,          Muqing%Yu%NULL%1,          Ke%Wang%NULL%2,          Yu%Tao%NULL%1,          Ying%Zhou%NULL%1,          Jing%Shi%NULL%1,          Min%Zhou%NULL%0,          Bo%Wu%NULL%1,          Zhenyu%Yang%NULL%1,          Cong%Zhang%NULL%0,          Junqing%Yue%NULL%1,          Zhiguo%Zhang%NULL%1,          Harald%Renz%NULL%1,          Xiansheng%Liu%NULL%1,          Jungang%Xie%NULL%0,          Min%Xie%NULL%1,          Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,          Yuan-Yuan%Fang%NULL%0,          Yan%Deng%NULL%0,          Wei%Liu%NULL%0,          Mei-Fang%Wang%NULL%0,          Jing-Ping%Ma%NULL%0,          Wei%Xiao%NULL%0,          Ying-Nan%Wang%NULL%0,          Min-Hua%Zhong%NULL%0,          Cheng-Hong%Li%NULL%0,          Guang-Cai%Li%NULL%0,          Hui-Guo%Liu%NULL%0,          Xiu-Yuan%Hao%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,    Huijuan%Jin%xref no email%3,    Mengdie%Wang%xref no email%3,    Yu%Hu%xref no email%4,    Shengcai%Chen%xref no email%3,    Quanwei%He%xref no email%3,    Jiang%Chang%xref no email%3,    Candong%Hong%xref no email%3,    Yifan%Zhou%xref no email%3,    David%Wang%xref no email%3,    Xiaoping%Miao%xref no email%3,    Yanan%Li%xref no email%3,    Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%3,    Luoqi%Zhou%xref no email%1,    Ziwei%Hu%xref no email%1,    Shuoqi%Zhang%xref no email%1,    Sheng%Yang%xref no email%1,    Yu%Tao%xref no email%2,    Cuihong%Xie%xref no email%1,    Ke%Ma%xref no email%1,    Ke%Shang%xref no email%1,    Wei%Wang%xref no email%0,    Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,          Mikael%Chetboun%NULL%2,          Julien%Poissy%NULL%3,          Violeta%Raverdy%NULL%2,          Jerome%Noulette%NULL%3,          Alain%Duhamel%NULL%2,          Julien%Labreuche%NULL%2,          Daniel%Mathieu%NULL%5,          Francois%Pattou%francois.pattou@univ-lille.fr%2,          Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,          Robert%Caizzo%NULL%3,          Morgan%Caplan%NULL%2,          Nicolas%Cousin%NULL%2,          Thibault%Duburcq%NULL%2,          Arthur%Durand%NULL%2,          Ahmed%El kalioubie%NULL%2,          Raphael%Favory%NULL%2,          Bruno%Garcia%NULL%2,          Patrick%Girardie%NULL%2,          Julien%Goutay%NULL%2,          Marion%Houard%NULL%2,          Emmanuelle%Jaillette%NULL%2,          Nicolas%Kostuj%NULL%2,          Geoffrey%Ledoux%NULL%2,          Daniel%Mathieu%NULL%0,          Anne Sophie%Moreau%NULL%2,          Christopher%Niles%NULL%2,          Saad%Nseir%NULL%3,          Thierry%Onimus%NULL%2,          Erika%Parmentier%NULL%2,          Sebastien%Préau%NULL%2,          Laurent%Robriquet%NULL%2,          Anahita%Rouze%NULL%2,          Sophie%Six%NULL%2,          Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,          Yi%Xiang%NULL%1,          Wei%Fang%NULL%1,          Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,          Boqun%Li%279685211@qq.com%1,          Yanjun%Hu%huyanjun@163.com%1,          Chunhui%Lang%NULL%1,          Daoqiu%Huang%NULL%1,          Qiuyan%Sun%NULL%1,          Yan%Xiong%NULL%2,          Xia%Huang%NULL%1,          Jinglong%Lv%NULL%1,          Yaling%Luo%NULL%1,          Li%Shen%NULL%1,          Haoran%Yang%NULL%1,          Gu%Huang%NULL%1,          Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,          Min%Pan%NULL%1,          Xiumei%Zhang%NULL%1,          Mingfeng%Han%fyhmf@163.com%2,          Xiaoyun%Fan%13956988552@126.com%1,          Fengde%Zhao%NULL%1,          Manli%Miao%NULL%1,          Jing%Xu%NULL%1,          Minglong%Guan%NULL%1,          Xia%Deng%NULL%1,          Xu%Chen%NULL%1,          Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,          J.%Fang%NULL%1,          Y.%Zhu%NULL%1,          L.%Chen%NULL%1,          F.%Ding%NULL%1,          R.%Zhou%NULL%1,          L.%Ge%NULL%1,          F.%Wang%NULL%1,          Q.%Chen%NULL%1,          Y.%Zhang%NULL%1,          Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,          Jun%Liu%NULL%2,          Xinguo%Zhao%NULL%1,          Chengyuan%Liu%NULL%1,          Wei%Wang%NULL%2,          Dawei%Wang%NULL%1,          Wei%Xu%NULL%1,          Chunyu%Zhang%NULL%1,          Jiong%Yu%NULL%1,          Bin%Jiang%NULL%1,          Hongcui%Cao%hccao@zju.edu.cn%1,          Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,          Jianming%Zhao%NULL%1,          Ningfang%Lian%1533532863@qq.com%1,          Su%Lin%NULL%1,          Qunfang%Xie%NULL%1,          Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,          Chengcheng%Yu%NULL%2,          Jing%Qu%NULL%1,          Lieguang%Zhang%NULL%2,          Songfeng%Jiang%NULL%1,          Deyang%Huang%NULL%1,          Bihua%Chen%NULL%1,          Zhiping%Zhang%NULL%1,          Wanhua%Guan%NULL%1,          Zhoukun%Ling%NULL%1,          Rui%Jiang%NULL%1,          Tianli%Hu%NULL%1,          Yan%Ding%NULL%1,          Lin%Lin%NULL%1,          Qingxin%Gan%NULL%1,          Liangping%Luo%tluolp@jnu.edu.cn%2,          Xiaoping%Tang%xtang@21cn.com%1,          Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,          Qiqi%Cao%NULL%1,          Le%Qin%NULL%1,          Xiaoyang%Wang%NULL%1,          Zenghui%Cheng%NULL%1,          Ashan%Pan%NULL%1,          Jianyi%Dai%NULL%1,          Qingfeng%Sun%NULL%1,          Fengquan%Zhao%NULL%1,          Jieming%Qu%NULL%0,          Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%5,    Sean Wei Xiang%Ong%xref no email%5,    Shirin%Kalimuddin%xref no email%5,    Jenny G.%Low%xref no email%5,    Seow Yen%Tan%xref no email%5,    Jiashen%Loh%xref no email%5,    Oon-Tek%Ng%xref no email%5,    Kalisvar%Marimuthu%xref no email%5,    Li Wei%Ang%xref no email%5,    Tze Minn%Mak%xref no email%5,    Sok Kiang%Lau%xref no email%5,    Danielle E.%Anderson%xref no email%5,    Kian Sing%Chan%xref no email%5,    Thean Yen%Tan%xref no email%5,    Tong Yong%Ng%xref no email%5,    Lin%Cui%xref no email%5,    Zubaidah%Said%xref no email%5,    Lalitha%Kurupatham%xref no email%5,    Mark I-Cheng%Chen%xref no email%5,    Monica%Chan%xref no email%5,    Shawn%Vasoo%xref no email%5,    Lin-Fa%Wang%xref no email%5,    Boon Huan%Tan%xref no email%5,    Raymond Tzer Pin%Lin%xref no email%5,    Vernon Jian Ming%Lee%xref no email%5,    Yee-Sin%Leo%xref no email%5,    David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,        Cao%Yi-yuan%coreGivesNoEmail%0,        Dong%Xiang%coreGivesNoEmail%0,        Gao%Ya-dong%coreGivesNoEmail%0,        Yan%You-qin%coreGivesNoEmail%0,        Yang%Yi-bin%coreGivesNoEmail%0,        Yuan%Ya-dong%coreGivesNoEmail%0,        Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,        National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,        Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,        The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,          Areeba%Ali%NULL%1,          Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,          Jaime A.%Cardona-Ospina%NULL%1,          Estefanía%Gutiérrez-Ocampo%NULL%1,          Rhuvi%Villamizar-Peña%NULL%1,          Yeimer%Holguin-Rivera%NULL%1,          Juan Pablo%Escalera-Antezana%NULL%1,          Lucia Elena%Alvarado-Arnez%NULL%1,          D. Katterine%Bonilla-Aldana%NULL%1,          Carlos%Franco-Paredes%NULL%1,          Andrés F.%Henao-Martinez%NULL%1,          Alberto%Paniz-Mondolfi%NULL%1,          Guillermo J.%Lagos-Grisales%NULL%1,          Eduardo%Ramírez-Vallejo%NULL%1,          Jose A.%Suárez%NULL%1,          Lysien I.%Zambrano%NULL%1,          Wilmer E.%Villamil-Gómez%NULL%1,          Graciela J.%Balbin-Ramon%NULL%1,          Ali A.%Rabaan%NULL%1,          Harapan%Harapan%NULL%1,          Kuldeep%Dhama%NULL%1,          Hiroshi%Nishiura%NULL%2,          Hiromitsu%Kataoka%NULL%1,          Tauseef%Ahmad%NULL%1,          Ranjit%Sah%NULL%2,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,          Ben%Van Calster%NULL%1,          Gary S%Collins%NULL%1,          Richard D%Riley%NULL%1,          Georg%Heinze%NULL%1,          Ewoud%Schuit%NULL%1,          Marc M J%Bonten%NULL%1,          Johanna A A%Damen%NULL%1,          Thomas P A%Debray%NULL%1,          Maarten%De Vos%NULL%1,          Paula%Dhiman%NULL%1,          Maria C%Haller%NULL%1,          Michael O%Harhay%NULL%1,          Liesbet%Henckaerts%NULL%1,          Nina%Kreuzberger%NULL%1,          Anna%Lohmann%NULL%1,          Kim%Luijken%NULL%1,          Jie%Ma%NULL%1,          Constanza L%Andaur Navarro%NULL%1,          Johannes B%Reitsma%NULL%1,          Jamie C%Sergeant%NULL%1,          Chunhu%Shi%NULL%1,          Nicole%Skoetz%NULL%1,          Luc J M%Smits%NULL%1,          Kym I E%Snell%NULL%1,          Matthew%Sperrin%NULL%1,          René%Spijker%NULL%1,          Ewout W%Steyerberg%NULL%1,          Toshihiko%Takada%NULL%1,          Sander M J%van Kuijk%NULL%1,          Florien S%van Royen%NULL%1,          Christine%Wallisch%NULL%1,          Lotty%Hooft%NULL%1,          Karel G M%Moons%NULL%1,          Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,          Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,          Satoshi%Kutsuna%sonare.since1192@gmail.com%1,          Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,          Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,          Jung Wan%Park%NULL%3,          Moran%Ki%NULL%1,          Mi-Yeon%Yeon%NULL%3,          Jin%Kim%NULL%1,          Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,          Soyoung%Jung%syjung@kiom.re.kr%1,          Aeran%Kim%arkim@kiom.re.kr%1,          Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,          D. S. Y.%Chong%NULL%1,          W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,          Vera%Regitz-Zagrosek%NULL%1,          Hannelore K.%Neuhauser%NULL%1,          Rosemary%Morgan%NULL%1,          Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3479,7 +3701,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -3525,7 +3747,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -3571,7 +3793,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3617,7 +3839,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>650</v>
+        <v>724</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -3663,7 +3885,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>651</v>
+        <v>725</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -3709,7 +3931,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -3755,7 +3977,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>653</v>
+        <v>727</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3801,7 +4023,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>654</v>
+        <v>728</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3847,7 +4069,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>655</v>
+        <v>729</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -3893,7 +4115,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>656</v>
+        <v>730</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -3939,7 +4161,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>657</v>
+        <v>731</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -3985,7 +4207,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>658</v>
+        <v>732</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -4031,7 +4253,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>659</v>
+        <v>733</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -4123,7 +4345,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>660</v>
+        <v>734</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -4169,7 +4391,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>661</v>
+        <v>735</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -4215,7 +4437,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>662</v>
+        <v>736</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4261,7 +4483,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>663</v>
+        <v>737</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -4307,7 +4529,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>664</v>
+        <v>738</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -4353,7 +4575,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>665</v>
+        <v>739</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -4399,7 +4621,7 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>666</v>
+        <v>740</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4445,7 +4667,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>667</v>
+        <v>741</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -4491,7 +4713,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>668</v>
+        <v>742</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -4537,7 +4759,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>669</v>
+        <v>743</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -4583,7 +4805,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>670</v>
+        <v>744</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -4629,7 +4851,7 @@
         <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>671</v>
+        <v>745</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -4675,7 +4897,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>672</v>
+        <v>746</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -4721,7 +4943,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>673</v>
+        <v>747</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -4767,7 +4989,7 @@
         <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>674</v>
+        <v>748</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -4813,7 +5035,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>675</v>
+        <v>749</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -4859,7 +5081,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>676</v>
+        <v>750</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -4905,7 +5127,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>677</v>
+        <v>751</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -4951,7 +5173,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>678</v>
+        <v>752</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -4997,7 +5219,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>679</v>
+        <v>753</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -5043,7 +5265,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>680</v>
+        <v>754</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -5089,7 +5311,7 @@
         <v>230</v>
       </c>
       <c r="E37" t="s">
-        <v>681</v>
+        <v>755</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -5135,7 +5357,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>682</v>
+        <v>756</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -5181,7 +5403,7 @@
         <v>232</v>
       </c>
       <c r="E39" t="s">
-        <v>683</v>
+        <v>757</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6577" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7123" uniqueCount="835">
   <si>
     <t>Doi</t>
   </si>
@@ -3288,6 +3288,286 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,          Vera%Regitz-Zagrosek%NULL%1,          Hannelore K.%Neuhauser%NULL%1,          Rosemary%Morgan%NULL%1,          Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,           Jordi%Rello%NULL%1,           Sofia%Tejada%NULL%1,           Alejandro%Martín%NULL%1,           Goiatz%Balziskueta%NULL%1,           Cristina%Vinuesa%NULL%1,           Borja%Fernández-Miret%NULL%1,           Ana%Villagra%NULL%1,           Ana%Vallejo%NULL%1,           Ana%San Sebastián%NULL%1,           Sara%Cabañes%NULL%1,           Sebastián%Iribarren%NULL%1,           Fernando%Fonseca%NULL%1,           Javier%Maynar%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,           Bijan J.%Ghassemieh%NULL%2,           Michelle%Nichols%NULL%2,           Richard%Kim%NULL%2,           Keith R.%Jerome%NULL%2,           Arun K.%Nalla%NULL%2,           Alexander L.%Greninger%NULL%2,           Sudhakar%Pipavath%NULL%2,           Mark M.%Wurfel%NULL%2,           Laura%Evans%NULL%2,           Patricia A.%Kritek%NULL%2,           T. Eoin%West%NULL%2,           Andrew%Luks%NULL%2,           Anthony%Gerbino%NULL%2,           Chris R.%Dale%NULL%2,           Jason D.%Goldman%NULL%2,           Shane%O’Mahony%NULL%2,           Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%3,           Wenlin%Cheng%NULL%3,           Lei%Yu%NULL%3,           Ya-Kun%Liu%NULL%3,           Xiaoyong%Hu%NULL%3,           Qiang%Liu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,           Tangkai%Qi%NULL%2,           Li%Liu%NULL%2,           Yun%Ling%NULL%5,           Zhiping%Qian%NULL%2,           Tao%Li%NULL%3,           Feng%Li%NULL%2,           Qingnian%Xu%NULL%2,           Yuyi%Zhang%NULL%2,           Shuibao%Xu%NULL%2,           Zhigang%Song%NULL%2,           Yigang%Zeng%NULL%2,           Yinzhong%Shen%NULL%2,           Yuxin%Shi%NULL%4,           Tongyu%Zhu%NULL%2,           Hongzhou%Lu%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,           Min%Zhou%NULL%8,           Xuan%Dong%NULL%3,           Jieming%Qu%NULL%7,           Fengyun%Gong%NULL%3,           Yang%Han%NULL%3,           Yang%Qiu%NULL%3,           Jingli%Wang%NULL%3,           Ying%Liu%NULL%7,           Yuan%Wei%NULL%0,           Jia'an%Xia%NULL%0,           Ting%Yu%NULL%0,           Xinxin%Zhang%NULL%5,           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,           Zhe%Dai%NULL%1,           Pingzheng%Mo%NULL%1,           Xinyu%Li%NULL%1,           Zhiyong%Ma%NULL%2,           Shihui%Song%NULL%2,           Xiaoping%Chen%NULL%2,           Mingqi%Luo%NULL%2,           Ke%Liang%NULL%2,           Shicheng%Gao%NULL%2,           Yongxi%Zhang%NULL%2,           Liping%Deng%dengdeng78@126.com%2,           Yong%Xiong%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,           Di%Wu%NULL%0,           Huilong%Chen%NULL%0,           Weiming%Yan%NULL%0,           Danlei%Yang%NULL%0,           Guang%Chen%NULL%0,           Ke%Ma%NULL%0,           Dong%Xu%NULL%0,           Haijing%Yu%NULL%0,           Hongwu%Wang%NULL%0,           Tao%Wang%NULL%0,           Wei%Guo%NULL%0,           Jia%Chen%NULL%0,           Chen%Ding%NULL%0,           Xiaoping%Zhang%NULL%0,           Jiaquan%Huang%NULL%0,           Meifang%Han%NULL%0,           Shusheng%Li%NULL%0,           Xiaoping%Luo%NULL%0,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,           Nan%Yang%NULL%0,           Yanqiu%Wei%NULL%0,           Huihui%Yue%NULL%0,           Fengqin%Zhang%NULL%0,           Jianping%Zhao%NULL%0,           Li%He%NULL%0,           Gaohong%Sheng%NULL%0,           Peng%Chen%NULL%0,           Gang%Li%NULL%0,           Sisi%Wu%NULL%0,           Bo%Zhang%NULL%0,           Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,           Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,           Xiaoping%Miao%miaoxp@hust.edu.cn%0,           Juan%Li%lijuan@tjh.tjmu.edu.cn%0,           Wenhua%Liu%liuwh_2013@126.com%0,           Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,           Li-Rong%Liang%NULL%1,           Cheng-Qing%Yang%NULL%1,           Wen%Wang%NULL%3,           Tan-Ze%Cao%NULL%1,           Ming%Li%NULL%1,           Guang-Yun%Guo%NULL%1,           Juan%Du%NULL%1,           Chun-Lan%Zheng%NULL%1,           Qi%Zhu%NULL%1,           Ming%Hu%NULL%1,           Xu-Yan%Li%NULL%3,           Peng%Peng%NULL%0,           Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,           Li-Min%Liu%NULL%2,           Wen%Yin%NULL%0,           Wen%Wang%NULL%0,           Lu-Lu%Guan%NULL%2,           Ming-Li%Yuan%NULL%3,           Yu-Lei%Li%NULL%2,           Yi%Hu%NULL%0,           Xu-Yan%Li%NULL%0,           Bing%Sun%NULL%2,           Peng%Peng%NULL%0,           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,           Lei%Tu%NULL%1,           Pingjun%Zhu%NULL%1,           Mi%Mu%NULL%1,           Runsheng%Wang%NULL%1,           Pengcheng%Yang%NULL%1,           Xi%Wang%NULL%1,           Chao%Hu%NULL%1,           Rongyu%Ping%NULL%1,           Peng%Hu%NULL%1,           Tianzhi%Li%NULL%1,           Feng%Cao%NULL%1,           Christopher%Chang%NULL%1,           Qinyong%Hu%NULL%1,           Yang%Jin%NULL%1,           Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Wen-hua%Liang%NULL%0,           Chun-quan%Ou%NULL%0,           Jian-xing%He%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           David S.C.%Hui%NULL%0,           Bin%Du%NULL%0,           Lan-juan%Li%NULL%0,           Guang%Zeng%NULL%0,           Kwok-Yung%Yuen%NULL%0,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Ping-yan%Chen%NULL%0,           Jie%Xiang%NULL%0,           Shi-yue%Li%NULL%0,           Jin-lin%Wang%NULL%0,           Zi-jing%Liang%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%0,           Xingwang%Li%NULL%0,           Lili%Ren%NULL%0,           Jianping%Zhao%NULL%0,           Yi%Hu%NULL%0,           Li%Zhang%NULL%0,           Guohui%Fan%NULL%0,           Jiuyang%Xu%NULL%0,           Xiaoying%Gu%NULL%0,           Zhenshun%Cheng%NULL%0,           Ting%Yu%NULL%0,           Jiaan%Xia%NULL%0,           Yuan%Wei%NULL%0,           Wenjuan%Wu%NULL%0,           Xuelei%Xie%NULL%0,           Wen%Yin%NULL%0,           Hui%Li%NULL%0,           Min%Liu%NULL%0,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Li%Guo%NULL%0,           Jungang%Xie%NULL%0,           Guangfa%Wang%NULL%0,           Rongmeng%Jiang%NULL%0,           Zhancheng%Gao%NULL%0,           Qi%Jin%NULL%0,           Jianwei%Wang%wangjw28@163.com%0,           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,           Shuyun%Xu%NULL%2,           Muqing%Yu%NULL%2,           Ke%Wang%NULL%4,           Yu%Tao%NULL%2,           Ying%Zhou%NULL%2,           Jing%Shi%NULL%2,           Min%Zhou%NULL%0,           Bo%Wu%NULL%2,           Zhenyu%Yang%NULL%2,           Cong%Zhang%NULL%3,           Junqing%Yue%NULL%2,           Zhiguo%Zhang%NULL%2,           Harald%Renz%NULL%2,           Xiansheng%Liu%NULL%3,           Jungang%Xie%NULL%0,           Min%Xie%NULL%3,           Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,           Yuan-Yuan%Fang%NULL%0,           Yan%Deng%NULL%0,           Wei%Liu%NULL%0,           Mei-Fang%Wang%NULL%0,           Jing-Ping%Ma%NULL%0,           Wei%Xiao%NULL%0,           Ying-Nan%Wang%NULL%0,           Min-Hua%Zhong%NULL%0,           Cheng-Hong%Li%NULL%0,           Guang-Cai%Li%NULL%0,           Hui-Guo%Liu%NULL%0,           Xiu-Yuan%Hao%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,     Huijuan%Jin%xref no email%3,     Mengdie%Wang%xref no email%3,     Yu%Hu%xref no email%4,     Shengcai%Chen%xref no email%3,     Quanwei%He%xref no email%3,     Jiang%Chang%xref no email%3,     Candong%Hong%xref no email%3,     Yifan%Zhou%xref no email%3,     David%Wang%xref no email%3,     Xiaoping%Miao%xref no email%3,     Yanan%Li%xref no email%3,     Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%3,     Luoqi%Zhou%xref no email%1,     Ziwei%Hu%xref no email%1,     Shuoqi%Zhang%xref no email%1,     Sheng%Yang%xref no email%1,     Yu%Tao%xref no email%1,     Cuihong%Xie%xref no email%1,     Ke%Ma%xref no email%1,     Ke%Shang%xref no email%1,     Wei%Wang%xref no email%0,     Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,           Mikael%Chetboun%NULL%2,           Julien%Poissy%NULL%3,           Violeta%Raverdy%NULL%2,           Jerome%Noulette%NULL%3,           Alain%Duhamel%NULL%2,           Julien%Labreuche%NULL%2,           Daniel%Mathieu%NULL%5,           Francois%Pattou%francois.pattou@univ-lille.fr%2,           Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,           Robert%Caizzo%NULL%3,           Morgan%Caplan%NULL%2,           Nicolas%Cousin%NULL%2,           Thibault%Duburcq%NULL%2,           Arthur%Durand%NULL%2,           Ahmed%El kalioubie%NULL%2,           Raphael%Favory%NULL%2,           Bruno%Garcia%NULL%2,           Patrick%Girardie%NULL%2,           Julien%Goutay%NULL%2,           Marion%Houard%NULL%2,           Emmanuelle%Jaillette%NULL%2,           Nicolas%Kostuj%NULL%2,           Geoffrey%Ledoux%NULL%2,           Daniel%Mathieu%NULL%0,           Anne Sophie%Moreau%NULL%2,           Christopher%Niles%NULL%2,           Saad%Nseir%NULL%3,           Thierry%Onimus%NULL%2,           Erika%Parmentier%NULL%2,           Sebastien%Préau%NULL%2,           Laurent%Robriquet%NULL%2,           Anahita%Rouze%NULL%2,           Sophie%Six%NULL%2,           Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,           Yi%Xiang%NULL%2,           Wei%Fang%NULL%2,           Yu%Zheng%yuzheng1@cdutcm.edu.cn%2,           Boqun%Li%279685211@qq.com%3,           Yanjun%Hu%huyanjun@163.com%2,           Chunhui%Lang%NULL%2,           Daoqiu%Huang%NULL%2,           Qiuyan%Sun%NULL%2,           Yan%Xiong%NULL%3,           Xia%Huang%NULL%2,           Jinglong%Lv%NULL%2,           Yaling%Luo%NULL%2,           Li%Shen%NULL%2,           Haoran%Yang%NULL%2,           Gu%Huang%NULL%2,           Ruishan%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,         Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,           Min%Pan%NULL%1,           Xiumei%Zhang%NULL%1,           Mingfeng%Han%fyhmf@163.com%2,           Xiaoyun%Fan%13956988552@126.com%1,           Fengde%Zhao%NULL%1,           Manli%Miao%NULL%1,           Jing%Xu%NULL%1,           Minglong%Guan%NULL%1,           Xia%Deng%NULL%1,           Xu%Chen%NULL%1,           Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,           J.%Fang%NULL%1,           Y.%Zhu%NULL%1,           L.%Chen%NULL%1,           F.%Ding%NULL%1,           R.%Zhou%NULL%1,           L.%Ge%NULL%1,           F.%Wang%NULL%1,           Q.%Chen%NULL%1,           Y.%Zhang%NULL%1,           Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,           Jun%Liu%NULL%2,           Xinguo%Zhao%NULL%1,           Chengyuan%Liu%NULL%1,           Wei%Wang%NULL%2,           Dawei%Wang%NULL%1,           Wei%Xu%NULL%1,           Chunyu%Zhang%NULL%1,           Jiong%Yu%NULL%1,           Bin%Jiang%NULL%1,           Hongcui%Cao%hccao@zju.edu.cn%1,           Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,           Jianming%Zhao%NULL%1,           Ningfang%Lian%1533532863@qq.com%1,           Su%Lin%NULL%1,           Qunfang%Xie%NULL%1,           Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
+ We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
+Methods
+All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
+ This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
+ All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
+ We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
+ In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
+Findings
+The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
+ More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
+ Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
+ Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
+ In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
+Conclusion
+SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
+ Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
+ Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,           Chengcheng%Yu%NULL%2,           Jing%Qu%NULL%1,           Lieguang%Zhang%NULL%2,           Songfeng%Jiang%NULL%1,           Deyang%Huang%NULL%1,           Bihua%Chen%NULL%1,           Zhiping%Zhang%NULL%1,           Wanhua%Guan%NULL%1,           Zhoukun%Ling%NULL%1,           Rui%Jiang%NULL%1,           Tianli%Hu%NULL%1,           Yan%Ding%NULL%1,           Lin%Lin%NULL%1,           Qingxin%Gan%NULL%1,           Liangping%Luo%tluolp@jnu.edu.cn%2,           Xiaoping%Tang%xtang@21cn.com%1,           Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,           Qiqi%Cao%NULL%1,           Le%Qin%NULL%1,           Xiaoyang%Wang%NULL%1,           Zenghui%Cheng%NULL%1,           Ashan%Pan%NULL%1,           Jianyi%Dai%NULL%1,           Qingfeng%Sun%NULL%1,           Fengquan%Zhao%NULL%1,           Jieming%Qu%NULL%0,           Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%5,     Sean Wei Xiang%Ong%xref no email%5,     Shirin%Kalimuddin%xref no email%5,     Jenny G.%Low%xref no email%5,     Seow Yen%Tan%xref no email%5,     Jiashen%Loh%xref no email%5,     Oon-Tek%Ng%xref no email%5,     Kalisvar%Marimuthu%xref no email%5,     Li Wei%Ang%xref no email%5,     Tze Minn%Mak%xref no email%5,     Sok Kiang%Lau%xref no email%5,     Danielle E.%Anderson%xref no email%5,     Kian Sing%Chan%xref no email%5,     Thean Yen%Tan%xref no email%5,     Tong Yong%Ng%xref no email%5,     Lin%Cui%xref no email%5,     Zubaidah%Said%xref no email%5,     Lalitha%Kurupatham%xref no email%5,     Mark I-Cheng%Chen%xref no email%5,     Monica%Chan%xref no email%5,     Shawn%Vasoo%xref no email%5,     Lin-Fa%Wang%xref no email%5,     Boon Huan%Tan%xref no email%5,     Raymond Tzer Pin%Lin%xref no email%5,     Vernon Jian Ming%Lee%xref no email%5,     Yee-Sin%Leo%xref no email%5,     David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,         Cao%Yi-yuan%coreGivesNoEmail%0,         Dong%Xiang%coreGivesNoEmail%0,         Gao%Ya-dong%coreGivesNoEmail%0,         Yan%You-qin%coreGivesNoEmail%0,         Yang%Yi-bin%coreGivesNoEmail%0,         Yuan%Ya-dong%coreGivesNoEmail%0,         Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,         National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,         Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,         The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,           Areeba%Ali%NULL%1,           Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,           Jaime A.%Cardona-Ospina%NULL%1,           Estefanía%Gutiérrez-Ocampo%NULL%1,           Rhuvi%Villamizar-Peña%NULL%1,           Yeimer%Holguin-Rivera%NULL%1,           Juan Pablo%Escalera-Antezana%NULL%1,           Lucia Elena%Alvarado-Arnez%NULL%1,           D. Katterine%Bonilla-Aldana%NULL%1,           Carlos%Franco-Paredes%NULL%1,           Andrés F.%Henao-Martinez%NULL%1,           Alberto%Paniz-Mondolfi%NULL%1,           Guillermo J.%Lagos-Grisales%NULL%1,           Eduardo%Ramírez-Vallejo%NULL%1,           Jose A.%Suárez%NULL%1,           Lysien I.%Zambrano%NULL%1,           Wilmer E.%Villamil-Gómez%NULL%1,           Graciela J.%Balbin-Ramon%NULL%1,           Ali A.%Rabaan%NULL%1,           Harapan%Harapan%NULL%1,           Kuldeep%Dhama%NULL%1,           Hiroshi%Nishiura%NULL%2,           Hiromitsu%Kataoka%NULL%1,           Tauseef%Ahmad%NULL%1,           Ranjit%Sah%NULL%2,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,           Ben%Van Calster%NULL%1,           Gary S%Collins%NULL%1,           Richard D%Riley%NULL%1,           Georg%Heinze%NULL%1,           Ewoud%Schuit%NULL%1,           Marc M J%Bonten%NULL%1,           Johanna A A%Damen%NULL%1,           Thomas P A%Debray%NULL%1,           Maarten%De Vos%NULL%1,           Paula%Dhiman%NULL%1,           Maria C%Haller%NULL%1,           Michael O%Harhay%NULL%1,           Liesbet%Henckaerts%NULL%1,           Nina%Kreuzberger%NULL%1,           Anna%Lohmann%NULL%1,           Kim%Luijken%NULL%1,           Jie%Ma%NULL%1,           Constanza L%Andaur Navarro%NULL%1,           Johannes B%Reitsma%NULL%1,           Jamie C%Sergeant%NULL%1,           Chunhu%Shi%NULL%1,           Nicole%Skoetz%NULL%1,           Luc J M%Smits%NULL%1,           Kym I E%Snell%NULL%1,           Matthew%Sperrin%NULL%1,           René%Spijker%NULL%1,           Ewout W%Steyerberg%NULL%1,           Toshihiko%Takada%NULL%1,           Sander M J%van Kuijk%NULL%1,           Florien S%van Royen%NULL%1,           Christine%Wallisch%NULL%1,           Lotty%Hooft%NULL%1,           Karel G M%Moons%NULL%1,           Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,           Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,           Satoshi%Kutsuna%sonare.since1192@gmail.com%1,           Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,           Norio%Ohmagari%lukenorioom@gmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,           Jung Wan%Park%NULL%3,           Moran%Ki%NULL%1,           Mi-Yeon%Yeon%NULL%3,           Jin%Kim%NULL%1,           Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Since Middle East respiratory syndrome (MERS) infection was first reported in 2012, many studies have analysed its transmissibility and severity.
+ However, the methodology and results of these studies have varied, and there has been no systematic review of MERS.
+ This study reviews the characteristics and associated risk factors of MERS.
+Method
+We searched international (PubMed, ScienceDirect, Cochrane) and Korean databases (DBpia, KISS) for English- or Korean-language articles using the terms “MERS” and “Middle East respiratory syndrome”.
+ Only human studies with &amp;gt; 20 participants were analysed to exclude studies with low representation.
+ Epidemiologic studies with information on transmissibility and severity of MERS as well as studies containing MERS risk factors were included.
+Result
+A total of 59 studies were included.
+ Most studies from Saudi Arabia reported higher mortality (22–69.2%) than those from South Korea (20.4%).
+ While the R0 value in Saudi Arabia was &amp;lt; 1 in all but one study, in South Korea, the R0 value was 2.5–8.09 in the early stage and decreased to &amp;lt; 1 in the later stage.
+ The incubation period was 4.5–5.2 days in Saudi Arabia and 6–7.8 days in South Korea.
+ Duration from onset was 4–10 days to confirmation, 2.9–5.3 days to hospitalization, 11–17 days to death, and 14–20 days to discharge.
+ Older age and concomitant disease were the most common factors related to MERS infection, severity, and mortality.
+Conclusion
+The transmissibility and severity of MERS differed by outbreak region and patient characteristics.
+ Further studies assessing the risk of MERS should consider these factors.
+</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,           Soyoung%Jung%syjung@kiom.re.kr%1,           Aeran%Kim%arkim@kiom.re.kr%1,           Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,           D. S. Y.%Chong%NULL%1,           W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Emerging evidence from China suggests that coronavirus disease 2019 (COVID-19) is deadlier for infected men than women with a 2.8% fatality rate being reported in Chinese men versus 1.7% in women.
+ Further, sex-disaggregated data for COVID-19 in several European countries show a similar number of cases between the sexes, but more severe outcomes in aged men.
+ Case fatality is highest in men with pre-existing cardiovascular conditions.
+ The mechanisms accounting for the reduced case fatality rate in women are currently unclear but may offer potential to develop novel risk stratification tools and therapeutic options for women and men.
+Content
+The present review summarizes latest clinical and epidemiological evidence for gender and sex differences in COVID-19 from Europe and China.
+ We discuss potential sex-specific mechanisms modulating the course of disease, such as hormone-regulated expression of genes encoding for the severe acute respiratory syndrome coronavirus 2 (SARS-CoV2) entry receptors angiotensin converting enzyme (ACE) 2 receptor and TMPRSS2 as well as sex hormone-driven innate and adaptive immune responses and immunoaging.
+ Finally, we elucidate the impact of gender-specific lifestyle, health behavior, psychological stress, and socioeconomic conditions on COVID-19 and discuss sex specific aspects of antiviral therapies.
+Conclusion
+The sex and gender disparities observed in COVID-19 vulnerability emphasize the need to better understand the impact of sex and gender on incidence and case fatality of the disease and to tailor treatment according to sex and gender.
+ The ongoing and planned prophylactic and therapeutic treatment studies must include prospective sex- and gender-sensitive analyses.
+</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,           Vera%Regitz-Zagrosek%NULL%1,           Hannelore K.%Neuhauser%NULL%1,           Rosemary%Morgan%NULL%1,           Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,            Jordi%Rello%NULL%1,            Sofia%Tejada%NULL%1,            Alejandro%Martín%NULL%1,            Goiatz%Balziskueta%NULL%1,            Cristina%Vinuesa%NULL%1,            Borja%Fernández-Miret%NULL%1,            Ana%Villagra%NULL%1,            Ana%Vallejo%NULL%1,            Ana%San Sebastián%NULL%1,            Sara%Cabañes%NULL%1,            Sebastián%Iribarren%NULL%1,            Fernando%Fonseca%NULL%1,            Javier%Maynar%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,            Bijan J.%Ghassemieh%NULL%2,            Michelle%Nichols%NULL%2,            Richard%Kim%NULL%2,            Keith R.%Jerome%NULL%2,            Arun K.%Nalla%NULL%2,            Alexander L.%Greninger%NULL%2,            Sudhakar%Pipavath%NULL%2,            Mark M.%Wurfel%NULL%2,            Laura%Evans%NULL%2,            Patricia A.%Kritek%NULL%2,            T. Eoin%West%NULL%2,            Andrew%Luks%NULL%2,            Anthony%Gerbino%NULL%2,            Chris R.%Dale%NULL%2,            Jason D.%Goldman%NULL%2,            Shane%O’Mahony%NULL%2,            Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,            Wenlin%Cheng%NULL%2,            Lei%Yu%NULL%2,            Ya-Kun%Liu%NULL%2,            Xiaoyong%Hu%NULL%2,            Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,            Tangkai%Qi%NULL%2,            Li%Liu%NULL%2,            Yun%Ling%NULL%3,            Zhiping%Qian%NULL%2,            Tao%Li%NULL%3,            Feng%Li%NULL%2,            Qingnian%Xu%NULL%2,            Yuyi%Zhang%NULL%2,            Shuibao%Xu%NULL%2,            Zhigang%Song%NULL%2,            Yigang%Zeng%NULL%2,            Yinzhong%Shen%NULL%2,            Yuxin%Shi%NULL%4,            Tongyu%Zhu%NULL%2,            Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,            Min%Zhou%NULL%6,            Xuan%Dong%NULL%3,            Jieming%Qu%NULL%5,            Fengyun%Gong%NULL%3,            Yang%Han%NULL%3,            Yang%Qiu%NULL%3,            Jingli%Wang%NULL%3,            Ying%Liu%NULL%6,            Yuan%Wei%NULL%0,            Jia'an%Xia%NULL%0,            Ting%Yu%NULL%0,            Xinxin%Zhang%NULL%5,            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,            Zhe%Dai%NULL%1,            Pingzheng%Mo%NULL%1,            Xinyu%Li%NULL%1,            Zhiyong%Ma%NULL%1,            Shihui%Song%NULL%1,            Xiaoping%Chen%NULL%1,            Mingqi%Luo%NULL%1,            Ke%Liang%NULL%1,            Shicheng%Gao%NULL%1,            Yongxi%Zhang%NULL%1,            Liping%Deng%dengdeng78@126.com%1,            Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,            Di%Wu%NULL%0,            Huilong%Chen%NULL%0,            Weiming%Yan%NULL%0,            Danlei%Yang%NULL%0,            Guang%Chen%NULL%0,            Ke%Ma%NULL%0,            Dong%Xu%NULL%0,            Haijing%Yu%NULL%0,            Hongwu%Wang%NULL%0,            Tao%Wang%NULL%0,            Wei%Guo%NULL%0,            Jia%Chen%NULL%0,            Chen%Ding%NULL%0,            Xiaoping%Zhang%NULL%0,            Jiaquan%Huang%NULL%0,            Meifang%Han%NULL%0,            Shusheng%Li%NULL%0,            Xiaoping%Luo%NULL%0,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,            Nan%Yang%NULL%0,            Yanqiu%Wei%NULL%0,            Huihui%Yue%NULL%0,            Fengqin%Zhang%NULL%0,            Jianping%Zhao%NULL%0,            Li%He%NULL%0,            Gaohong%Sheng%NULL%0,            Peng%Chen%NULL%0,            Gang%Li%NULL%0,            Sisi%Wu%NULL%0,            Bo%Zhang%NULL%0,            Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,            Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,            Xiaoping%Miao%miaoxp@hust.edu.cn%0,            Juan%Li%lijuan@tjh.tjmu.edu.cn%0,            Wenhua%Liu%liuwh_2013@126.com%0,            Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,            Li-Rong%Liang%NULL%1,            Cheng-Qing%Yang%NULL%1,            Wen%Wang%NULL%3,            Tan-Ze%Cao%NULL%1,            Ming%Li%NULL%1,            Guang-Yun%Guo%NULL%1,            Juan%Du%NULL%1,            Chun-Lan%Zheng%NULL%1,            Qi%Zhu%NULL%1,            Ming%Hu%NULL%1,            Xu-Yan%Li%NULL%3,            Peng%Peng%NULL%0,            Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,            Li-Min%Liu%NULL%2,            Wen%Yin%NULL%0,            Wen%Wang%NULL%0,            Lu-Lu%Guan%NULL%2,            Ming-Li%Yuan%NULL%2,            Yu-Lei%Li%NULL%2,            Yi%Hu%NULL%0,            Xu-Yan%Li%NULL%0,            Bing%Sun%NULL%2,            Peng%Peng%NULL%0,            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,            Lei%Tu%NULL%1,            Pingjun%Zhu%NULL%1,            Mi%Mu%NULL%1,            Runsheng%Wang%NULL%1,            Pengcheng%Yang%NULL%1,            Xi%Wang%NULL%1,            Chao%Hu%NULL%1,            Rongyu%Ping%NULL%1,            Peng%Hu%NULL%1,            Tianzhi%Li%NULL%1,            Feng%Cao%NULL%1,            Christopher%Chang%NULL%1,            Qinyong%Hu%NULL%1,            Yang%Jin%NULL%1,            Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Wen-hua%Liang%NULL%0,            Chun-quan%Ou%NULL%0,            Jian-xing%He%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            David S.C.%Hui%NULL%0,            Bin%Du%NULL%0,            Lan-juan%Li%NULL%0,            Guang%Zeng%NULL%0,            Kwok-Yung%Yuen%NULL%0,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Ping-yan%Chen%NULL%0,            Jie%Xiang%NULL%0,            Shi-yue%Li%NULL%0,            Jin-lin%Wang%NULL%0,            Zi-jing%Liang%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%0,            Xingwang%Li%NULL%0,            Lili%Ren%NULL%0,            Jianping%Zhao%NULL%0,            Yi%Hu%NULL%0,            Li%Zhang%NULL%0,            Guohui%Fan%NULL%0,            Jiuyang%Xu%NULL%0,            Xiaoying%Gu%NULL%0,            Zhenshun%Cheng%NULL%0,            Ting%Yu%NULL%0,            Jiaan%Xia%NULL%0,            Yuan%Wei%NULL%0,            Wenjuan%Wu%NULL%0,            Xuelei%Xie%NULL%0,            Wen%Yin%NULL%0,            Hui%Li%NULL%0,            Min%Liu%NULL%0,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Li%Guo%NULL%0,            Jungang%Xie%NULL%0,            Guangfa%Wang%NULL%0,            Rongmeng%Jiang%NULL%0,            Zhancheng%Gao%NULL%0,            Qi%Jin%NULL%0,            Jianwei%Wang%wangjw28@163.com%0,            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,            Shuyun%Xu%NULL%1,            Muqing%Yu%NULL%1,            Ke%Wang%NULL%2,            Yu%Tao%NULL%1,            Ying%Zhou%NULL%1,            Jing%Shi%NULL%1,            Min%Zhou%NULL%0,            Bo%Wu%NULL%1,            Zhenyu%Yang%NULL%1,            Cong%Zhang%NULL%2,            Junqing%Yue%NULL%1,            Zhiguo%Zhang%NULL%1,            Harald%Renz%NULL%1,            Xiansheng%Liu%NULL%1,            Jungang%Xie%NULL%0,            Min%Xie%NULL%1,            Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,            Yuan-Yuan%Fang%NULL%0,            Yan%Deng%NULL%0,            Wei%Liu%NULL%0,            Mei-Fang%Wang%NULL%0,            Jing-Ping%Ma%NULL%0,            Wei%Xiao%NULL%0,            Ying-Nan%Wang%NULL%0,            Min-Hua%Zhong%NULL%0,            Cheng-Hong%Li%NULL%0,            Guang-Cai%Li%NULL%0,            Hui-Guo%Liu%NULL%0,            Xiu-Yuan%Hao%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,      Huijuan%Jin%xref no email%3,      Mengdie%Wang%xref no email%3,      Yu%Hu%xref no email%4,      Shengcai%Chen%xref no email%3,      Quanwei%He%xref no email%3,      Jiang%Chang%xref no email%3,      Candong%Hong%xref no email%3,      Yifan%Zhou%xref no email%3,      David%Wang%xref no email%3,      Xiaoping%Miao%xref no email%3,      Yanan%Li%xref no email%3,      Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%3,      Luoqi%Zhou%xref no email%1,      Ziwei%Hu%xref no email%1,      Shuoqi%Zhang%xref no email%1,      Sheng%Yang%xref no email%1,      Yu%Tao%xref no email%1,      Cuihong%Xie%xref no email%1,      Ke%Ma%xref no email%1,      Ke%Shang%xref no email%1,      Wei%Wang%xref no email%0,      Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,            Mikael%Chetboun%NULL%2,            Julien%Poissy%NULL%3,            Violeta%Raverdy%NULL%2,            Jerome%Noulette%NULL%3,            Alain%Duhamel%NULL%2,            Julien%Labreuche%NULL%2,            Daniel%Mathieu%NULL%5,            Francois%Pattou%francois.pattou@univ-lille.fr%2,            Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,            Robert%Caizzo%NULL%3,            Morgan%Caplan%NULL%2,            Nicolas%Cousin%NULL%2,            Thibault%Duburcq%NULL%2,            Arthur%Durand%NULL%2,            Ahmed%El kalioubie%NULL%2,            Raphael%Favory%NULL%2,            Bruno%Garcia%NULL%2,            Patrick%Girardie%NULL%2,            Julien%Goutay%NULL%2,            Marion%Houard%NULL%2,            Emmanuelle%Jaillette%NULL%2,            Nicolas%Kostuj%NULL%2,            Geoffrey%Ledoux%NULL%2,            Daniel%Mathieu%NULL%0,            Anne Sophie%Moreau%NULL%2,            Christopher%Niles%NULL%2,            Saad%Nseir%NULL%3,            Thierry%Onimus%NULL%2,            Erika%Parmentier%NULL%2,            Sebastien%Préau%NULL%2,            Laurent%Robriquet%NULL%2,            Anahita%Rouze%NULL%2,            Sophie%Six%NULL%2,            Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,            Yi%Xiang%NULL%1,            Wei%Fang%NULL%1,            Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,            Boqun%Li%279685211@qq.com%1,            Yanjun%Hu%huyanjun@163.com%1,            Chunhui%Lang%NULL%1,            Daoqiu%Huang%NULL%1,            Qiuyan%Sun%NULL%1,            Yan%Xiong%NULL%2,            Xia%Huang%NULL%1,            Jinglong%Lv%NULL%1,            Yaling%Luo%NULL%1,            Li%Shen%NULL%1,            Haoran%Yang%NULL%1,            Gu%Huang%NULL%1,            Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,          Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,            Min%Pan%NULL%1,            Xiumei%Zhang%NULL%1,            Mingfeng%Han%fyhmf@163.com%2,            Xiaoyun%Fan%13956988552@126.com%1,            Fengde%Zhao%NULL%1,            Manli%Miao%NULL%1,            Jing%Xu%NULL%1,            Minglong%Guan%NULL%1,            Xia%Deng%NULL%1,            Xu%Chen%NULL%1,            Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,            J.%Fang%NULL%1,            Y.%Zhu%NULL%1,            L.%Chen%NULL%1,            F.%Ding%NULL%1,            R.%Zhou%NULL%1,            L.%Ge%NULL%1,            F.%Wang%NULL%1,            Q.%Chen%NULL%1,            Y.%Zhang%NULL%1,            Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,            Jun%Liu%NULL%2,            Xinguo%Zhao%NULL%1,            Chengyuan%Liu%NULL%1,            Wei%Wang%NULL%2,            Dawei%Wang%NULL%1,            Wei%Xu%NULL%1,            Chunyu%Zhang%NULL%1,            Jiong%Yu%NULL%1,            Bin%Jiang%NULL%1,            Hongcui%Cao%hccao@zju.edu.cn%1,            Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,            Jianming%Zhao%NULL%1,            Ningfang%Lian%1533532863@qq.com%1,            Su%Lin%NULL%1,            Qunfang%Xie%NULL%1,            Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,            Chengcheng%Yu%NULL%2,            Jing%Qu%NULL%1,            Lieguang%Zhang%NULL%2,            Songfeng%Jiang%NULL%1,            Deyang%Huang%NULL%1,            Bihua%Chen%NULL%1,            Zhiping%Zhang%NULL%1,            Wanhua%Guan%NULL%1,            Zhoukun%Ling%NULL%1,            Rui%Jiang%NULL%1,            Tianli%Hu%NULL%1,            Yan%Ding%NULL%1,            Lin%Lin%NULL%1,            Qingxin%Gan%NULL%1,            Liangping%Luo%tluolp@jnu.edu.cn%2,            Xiaoping%Tang%xtang@21cn.com%1,            Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,            Qiqi%Cao%NULL%1,            Le%Qin%NULL%1,            Xiaoyang%Wang%NULL%1,            Zenghui%Cheng%NULL%1,            Ashan%Pan%NULL%1,            Jianyi%Dai%NULL%1,            Qingfeng%Sun%NULL%1,            Fengquan%Zhao%NULL%1,            Jieming%Qu%NULL%0,            Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%5,      Sean Wei Xiang%Ong%xref no email%5,      Shirin%Kalimuddin%xref no email%5,      Jenny G.%Low%xref no email%5,      Seow Yen%Tan%xref no email%5,      Jiashen%Loh%xref no email%5,      Oon-Tek%Ng%xref no email%5,      Kalisvar%Marimuthu%xref no email%5,      Li Wei%Ang%xref no email%5,      Tze Minn%Mak%xref no email%5,      Sok Kiang%Lau%xref no email%5,      Danielle E.%Anderson%xref no email%5,      Kian Sing%Chan%xref no email%5,      Thean Yen%Tan%xref no email%5,      Tong Yong%Ng%xref no email%5,      Lin%Cui%xref no email%5,      Zubaidah%Said%xref no email%5,      Lalitha%Kurupatham%xref no email%5,      Mark I-Cheng%Chen%xref no email%5,      Monica%Chan%xref no email%5,      Shawn%Vasoo%xref no email%5,      Lin-Fa%Wang%xref no email%5,      Boon Huan%Tan%xref no email%5,      Raymond Tzer Pin%Lin%xref no email%5,      Vernon Jian Ming%Lee%xref no email%5,      Yee-Sin%Leo%xref no email%5,      David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,          Cao%Yi-yuan%coreGivesNoEmail%0,          Dong%Xiang%coreGivesNoEmail%0,          Gao%Ya-dong%coreGivesNoEmail%0,          Yan%You-qin%coreGivesNoEmail%0,          Yang%Yi-bin%coreGivesNoEmail%0,          Yuan%Ya-dong%coreGivesNoEmail%0,          Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,          National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,          Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,          The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,            Areeba%Ali%NULL%1,            Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,            Jaime A.%Cardona-Ospina%NULL%1,            Estefanía%Gutiérrez-Ocampo%NULL%1,            Rhuvi%Villamizar-Peña%NULL%1,            Yeimer%Holguin-Rivera%NULL%1,            Juan Pablo%Escalera-Antezana%NULL%1,            Lucia Elena%Alvarado-Arnez%NULL%1,            D. Katterine%Bonilla-Aldana%NULL%1,            Carlos%Franco-Paredes%NULL%1,            Andrés F.%Henao-Martinez%NULL%1,            Alberto%Paniz-Mondolfi%NULL%1,            Guillermo J.%Lagos-Grisales%NULL%1,            Eduardo%Ramírez-Vallejo%NULL%1,            Jose A.%Suárez%NULL%1,            Lysien I.%Zambrano%NULL%1,            Wilmer E.%Villamil-Gómez%NULL%1,            Graciela J.%Balbin-Ramon%NULL%1,            Ali A.%Rabaan%NULL%1,            Harapan%Harapan%NULL%1,            Kuldeep%Dhama%NULL%1,            Hiroshi%Nishiura%NULL%2,            Hiromitsu%Kataoka%NULL%1,            Tauseef%Ahmad%NULL%1,            Ranjit%Sah%NULL%2,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,            Ben%Van Calster%NULL%1,            Gary S%Collins%NULL%1,            Richard D%Riley%NULL%1,            Georg%Heinze%NULL%1,            Ewoud%Schuit%NULL%1,            Marc M J%Bonten%NULL%1,            Johanna A A%Damen%NULL%1,            Thomas P A%Debray%NULL%1,            Maarten%De Vos%NULL%1,            Paula%Dhiman%NULL%1,            Maria C%Haller%NULL%1,            Michael O%Harhay%NULL%1,            Liesbet%Henckaerts%NULL%1,            Nina%Kreuzberger%NULL%1,            Anna%Lohmann%NULL%1,            Kim%Luijken%NULL%1,            Jie%Ma%NULL%1,            Constanza L%Andaur Navarro%NULL%1,            Johannes B%Reitsma%NULL%1,            Jamie C%Sergeant%NULL%1,            Chunhu%Shi%NULL%1,            Nicole%Skoetz%NULL%1,            Luc J M%Smits%NULL%1,            Kym I E%Snell%NULL%1,            Matthew%Sperrin%NULL%1,            René%Spijker%NULL%1,            Ewout W%Steyerberg%NULL%1,            Toshihiko%Takada%NULL%1,            Sander M J%van Kuijk%NULL%1,            Florien S%van Royen%NULL%1,            Christine%Wallisch%NULL%1,            Lotty%Hooft%NULL%1,            Karel G M%Moons%NULL%1,            Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,            Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,            Satoshi%Kutsuna%sonare.since1192@gmail.com%1,            Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,            Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,            Jung Wan%Park%NULL%3,            Moran%Ki%NULL%1,            Mi-Yeon%Yeon%NULL%3,            Jin%Kim%NULL%1,            Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,            Soyoung%Jung%syjung@kiom.re.kr%1,            Aeran%Kim%arkim@kiom.re.kr%1,            Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,            D. S. Y.%Chong%NULL%1,            W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,            Vera%Regitz-Zagrosek%NULL%1,            Hannelore K.%Neuhauser%NULL%1,            Rosemary%Morgan%NULL%1,            Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3701,7 +3981,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>721</v>
+        <v>798</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -3747,7 +4027,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>722</v>
+        <v>799</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -3793,7 +4073,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>723</v>
+        <v>800</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3839,7 +4119,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>724</v>
+        <v>801</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -3885,7 +4165,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>725</v>
+        <v>802</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -3931,7 +4211,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>726</v>
+        <v>803</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -3977,7 +4257,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>727</v>
+        <v>804</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -4023,7 +4303,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>728</v>
+        <v>805</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -4069,7 +4349,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>729</v>
+        <v>806</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -4115,7 +4395,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>730</v>
+        <v>807</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -4161,7 +4441,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>731</v>
+        <v>808</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -4207,7 +4487,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>732</v>
+        <v>809</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -4253,7 +4533,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>733</v>
+        <v>810</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -4345,7 +4625,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>734</v>
+        <v>811</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -4391,7 +4671,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>735</v>
+        <v>812</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -4437,7 +4717,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>736</v>
+        <v>813</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4483,7 +4763,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>737</v>
+        <v>814</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -4529,7 +4809,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>738</v>
+        <v>815</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -4575,7 +4855,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>739</v>
+        <v>816</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -4621,7 +4901,7 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>740</v>
+        <v>817</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4667,7 +4947,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>741</v>
+        <v>818</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -4713,7 +4993,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>742</v>
+        <v>819</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -4759,7 +5039,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>743</v>
+        <v>820</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -4805,7 +5085,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>744</v>
+        <v>821</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -4848,10 +5128,10 @@
         <v>152</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>782</v>
       </c>
       <c r="E27" t="s">
-        <v>745</v>
+        <v>822</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -4897,7 +5177,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>746</v>
+        <v>823</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -4943,7 +5223,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>747</v>
+        <v>824</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -4989,7 +5269,7 @@
         <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>748</v>
+        <v>825</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -5035,7 +5315,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>749</v>
+        <v>826</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -5081,7 +5361,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>750</v>
+        <v>827</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -5127,7 +5407,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>751</v>
+        <v>828</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -5173,7 +5453,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>752</v>
+        <v>829</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -5219,7 +5499,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>753</v>
+        <v>830</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -5265,7 +5545,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>754</v>
+        <v>831</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -5308,10 +5588,10 @@
         <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>793</v>
       </c>
       <c r="E37" t="s">
-        <v>755</v>
+        <v>832</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -5357,7 +5637,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>756</v>
+        <v>833</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -5400,10 +5680,10 @@
         <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>232</v>
+        <v>796</v>
       </c>
       <c r="E39" t="s">
-        <v>757</v>
+        <v>834</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7123" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7396" uniqueCount="872">
   <si>
     <t>Doi</t>
   </si>
@@ -3568,6 +3568,117 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,            Vera%Regitz-Zagrosek%NULL%1,            Hannelore K.%Neuhauser%NULL%1,            Rosemary%Morgan%NULL%1,            Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,             Jordi%Rello%NULL%1,             Sofia%Tejada%NULL%1,             Alejandro%Martín%NULL%1,             Goiatz%Balziskueta%NULL%1,             Cristina%Vinuesa%NULL%1,             Borja%Fernández-Miret%NULL%1,             Ana%Villagra%NULL%1,             Ana%Vallejo%NULL%1,             Ana%San Sebastián%NULL%1,             Sara%Cabañes%NULL%1,             Sebastián%Iribarren%NULL%1,             Fernando%Fonseca%NULL%1,             Javier%Maynar%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,             Bijan J.%Ghassemieh%NULL%2,             Michelle%Nichols%NULL%2,             Richard%Kim%NULL%2,             Keith R.%Jerome%NULL%2,             Arun K.%Nalla%NULL%2,             Alexander L.%Greninger%NULL%2,             Sudhakar%Pipavath%NULL%2,             Mark M.%Wurfel%NULL%2,             Laura%Evans%NULL%2,             Patricia A.%Kritek%NULL%2,             T. Eoin%West%NULL%2,             Andrew%Luks%NULL%2,             Anthony%Gerbino%NULL%2,             Chris R.%Dale%NULL%2,             Jason D.%Goldman%NULL%2,             Shane%O’Mahony%NULL%2,             Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,             Wenlin%Cheng%NULL%2,             Lei%Yu%NULL%2,             Ya-Kun%Liu%NULL%2,             Xiaoyong%Hu%NULL%2,             Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,             Tangkai%Qi%NULL%2,             Li%Liu%NULL%2,             Yun%Ling%NULL%3,             Zhiping%Qian%NULL%2,             Tao%Li%NULL%3,             Feng%Li%NULL%2,             Qingnian%Xu%NULL%2,             Yuyi%Zhang%NULL%2,             Shuibao%Xu%NULL%2,             Zhigang%Song%NULL%2,             Yigang%Zeng%NULL%2,             Yinzhong%Shen%NULL%2,             Yuxin%Shi%NULL%4,             Tongyu%Zhu%NULL%2,             Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,             Min%Zhou%NULL%6,             Xuan%Dong%NULL%3,             Jieming%Qu%NULL%5,             Fengyun%Gong%NULL%3,             Yang%Han%NULL%3,             Yang%Qiu%NULL%3,             Jingli%Wang%NULL%3,             Ying%Liu%NULL%6,             Yuan%Wei%NULL%0,             Jia'an%Xia%NULL%0,             Ting%Yu%NULL%0,             Xinxin%Zhang%NULL%5,             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,             Zhe%Dai%NULL%1,             Pingzheng%Mo%NULL%1,             Xinyu%Li%NULL%1,             Zhiyong%Ma%NULL%1,             Shihui%Song%NULL%1,             Xiaoping%Chen%NULL%1,             Mingqi%Luo%NULL%1,             Ke%Liang%NULL%1,             Shicheng%Gao%NULL%1,             Yongxi%Zhang%NULL%1,             Liping%Deng%dengdeng78@126.com%1,             Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,             Di%Wu%NULL%0,             Huilong%Chen%NULL%0,             Weiming%Yan%NULL%0,             Danlei%Yang%NULL%0,             Guang%Chen%NULL%0,             Ke%Ma%NULL%0,             Dong%Xu%NULL%0,             Haijing%Yu%NULL%0,             Hongwu%Wang%NULL%0,             Tao%Wang%NULL%0,             Wei%Guo%NULL%0,             Jia%Chen%NULL%0,             Chen%Ding%NULL%0,             Xiaoping%Zhang%NULL%0,             Jiaquan%Huang%NULL%0,             Meifang%Han%NULL%0,             Shusheng%Li%NULL%0,             Xiaoping%Luo%NULL%0,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,             Nan%Yang%NULL%0,             Yanqiu%Wei%NULL%0,             Huihui%Yue%NULL%0,             Fengqin%Zhang%NULL%0,             Jianping%Zhao%NULL%0,             Li%He%NULL%0,             Gaohong%Sheng%NULL%0,             Peng%Chen%NULL%0,             Gang%Li%NULL%0,             Sisi%Wu%NULL%0,             Bo%Zhang%NULL%0,             Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,             Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,             Xiaoping%Miao%miaoxp@hust.edu.cn%0,             Juan%Li%lijuan@tjh.tjmu.edu.cn%0,             Wenhua%Liu%liuwh_2013@126.com%0,             Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,             Li-Rong%Liang%NULL%1,             Cheng-Qing%Yang%NULL%1,             Wen%Wang%NULL%3,             Tan-Ze%Cao%NULL%1,             Ming%Li%NULL%1,             Guang-Yun%Guo%NULL%1,             Juan%Du%NULL%1,             Chun-Lan%Zheng%NULL%1,             Qi%Zhu%NULL%1,             Ming%Hu%NULL%1,             Xu-Yan%Li%NULL%3,             Peng%Peng%NULL%0,             Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,             Li-Min%Liu%NULL%2,             Wen%Yin%NULL%0,             Wen%Wang%NULL%0,             Lu-Lu%Guan%NULL%2,             Ming-Li%Yuan%NULL%2,             Yu-Lei%Li%NULL%2,             Yi%Hu%NULL%0,             Xu-Yan%Li%NULL%0,             Bing%Sun%NULL%2,             Peng%Peng%NULL%0,             Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,             Lei%Tu%NULL%1,             Pingjun%Zhu%NULL%1,             Mi%Mu%NULL%1,             Runsheng%Wang%NULL%1,             Pengcheng%Yang%NULL%1,             Xi%Wang%NULL%1,             Chao%Hu%NULL%1,             Rongyu%Ping%NULL%1,             Peng%Hu%NULL%1,             Tianzhi%Li%NULL%1,             Feng%Cao%NULL%1,             Christopher%Chang%NULL%1,             Qinyong%Hu%NULL%1,             Yang%Jin%NULL%1,             Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Wen-hua%Liang%NULL%0,             Chun-quan%Ou%NULL%0,             Jian-xing%He%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             David S.C.%Hui%NULL%0,             Bin%Du%NULL%0,             Lan-juan%Li%NULL%0,             Guang%Zeng%NULL%0,             Kwok-Yung%Yuen%NULL%0,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Ping-yan%Chen%NULL%0,             Jie%Xiang%NULL%0,             Shi-yue%Li%NULL%0,             Jin-lin%Wang%NULL%0,             Zi-jing%Liang%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%0,             Xingwang%Li%NULL%0,             Lili%Ren%NULL%0,             Jianping%Zhao%NULL%0,             Yi%Hu%NULL%0,             Li%Zhang%NULL%0,             Guohui%Fan%NULL%0,             Jiuyang%Xu%NULL%0,             Xiaoying%Gu%NULL%0,             Zhenshun%Cheng%NULL%0,             Ting%Yu%NULL%0,             Jiaan%Xia%NULL%0,             Yuan%Wei%NULL%0,             Wenjuan%Wu%NULL%0,             Xuelei%Xie%NULL%0,             Wen%Yin%NULL%0,             Hui%Li%NULL%0,             Min%Liu%NULL%0,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Li%Guo%NULL%0,             Jungang%Xie%NULL%0,             Guangfa%Wang%NULL%0,             Rongmeng%Jiang%NULL%0,             Zhancheng%Gao%NULL%0,             Qi%Jin%NULL%0,             Jianwei%Wang%wangjw28@163.com%0,             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,             Shuyun%Xu%NULL%1,             Muqing%Yu%NULL%1,             Ke%Wang%NULL%2,             Yu%Tao%NULL%1,             Ying%Zhou%NULL%1,             Jing%Shi%NULL%1,             Min%Zhou%NULL%0,             Bo%Wu%NULL%1,             Zhenyu%Yang%NULL%1,             Cong%Zhang%NULL%2,             Junqing%Yue%NULL%1,             Zhiguo%Zhang%NULL%1,             Harald%Renz%NULL%1,             Xiansheng%Liu%NULL%1,             Jungang%Xie%NULL%0,             Min%Xie%NULL%1,             Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,             Yuan-Yuan%Fang%NULL%0,             Yan%Deng%NULL%0,             Wei%Liu%NULL%0,             Mei-Fang%Wang%NULL%0,             Jing-Ping%Ma%NULL%0,             Wei%Xiao%NULL%0,             Ying-Nan%Wang%NULL%0,             Min-Hua%Zhong%NULL%0,             Cheng-Hong%Li%NULL%0,             Guang-Cai%Li%NULL%0,             Hui-Guo%Liu%NULL%0,             Xiu-Yuan%Hao%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,       Huijuan%Jin%xref no email%3,       Mengdie%Wang%xref no email%3,       Yu%Hu%xref no email%4,       Shengcai%Chen%xref no email%3,       Quanwei%He%xref no email%3,       Jiang%Chang%xref no email%3,       Candong%Hong%xref no email%3,       Yifan%Zhou%xref no email%3,       David%Wang%xref no email%3,       Xiaoping%Miao%xref no email%3,       Yanan%Li%xref no email%3,       Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%3,       Luoqi%Zhou%xref no email%1,       Ziwei%Hu%xref no email%1,       Shuoqi%Zhang%xref no email%1,       Sheng%Yang%xref no email%1,       Yu%Tao%xref no email%1,       Cuihong%Xie%xref no email%1,       Ke%Ma%xref no email%1,       Ke%Shang%xref no email%1,       Wei%Wang%xref no email%0,       Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,             Mikael%Chetboun%NULL%2,             Julien%Poissy%NULL%3,             Violeta%Raverdy%NULL%2,             Jerome%Noulette%NULL%3,             Alain%Duhamel%NULL%2,             Julien%Labreuche%NULL%2,             Daniel%Mathieu%NULL%5,             Francois%Pattou%francois.pattou@univ-lille.fr%2,             Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,             Robert%Caizzo%NULL%3,             Morgan%Caplan%NULL%2,             Nicolas%Cousin%NULL%2,             Thibault%Duburcq%NULL%2,             Arthur%Durand%NULL%2,             Ahmed%El kalioubie%NULL%2,             Raphael%Favory%NULL%2,             Bruno%Garcia%NULL%2,             Patrick%Girardie%NULL%2,             Julien%Goutay%NULL%2,             Marion%Houard%NULL%2,             Emmanuelle%Jaillette%NULL%2,             Nicolas%Kostuj%NULL%2,             Geoffrey%Ledoux%NULL%2,             Daniel%Mathieu%NULL%0,             Anne Sophie%Moreau%NULL%2,             Christopher%Niles%NULL%2,             Saad%Nseir%NULL%3,             Thierry%Onimus%NULL%2,             Erika%Parmentier%NULL%2,             Sebastien%Préau%NULL%2,             Laurent%Robriquet%NULL%2,             Anahita%Rouze%NULL%2,             Sophie%Six%NULL%2,             Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,             Yi%Xiang%NULL%1,             Wei%Fang%NULL%1,             Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,             Boqun%Li%279685211@qq.com%1,             Yanjun%Hu%huyanjun@163.com%1,             Chunhui%Lang%NULL%1,             Daoqiu%Huang%NULL%1,             Qiuyan%Sun%NULL%1,             Yan%Xiong%NULL%2,             Xia%Huang%NULL%1,             Jinglong%Lv%NULL%1,             Yaling%Luo%NULL%1,             Li%Shen%NULL%1,             Haoran%Yang%NULL%1,             Gu%Huang%NULL%1,             Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,           Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,             Min%Pan%NULL%1,             Xiumei%Zhang%NULL%1,             Mingfeng%Han%fyhmf@163.com%2,             Xiaoyun%Fan%13956988552@126.com%1,             Fengde%Zhao%NULL%1,             Manli%Miao%NULL%1,             Jing%Xu%NULL%1,             Minglong%Guan%NULL%1,             Xia%Deng%NULL%1,             Xu%Chen%NULL%1,             Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,             J.%Fang%NULL%1,             Y.%Zhu%NULL%1,             L.%Chen%NULL%1,             F.%Ding%NULL%1,             R.%Zhou%NULL%1,             L.%Ge%NULL%1,             F.%Wang%NULL%1,             Q.%Chen%NULL%1,             Y.%Zhang%NULL%1,             Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,             Jun%Liu%NULL%2,             Xinguo%Zhao%NULL%1,             Chengyuan%Liu%NULL%1,             Wei%Wang%NULL%2,             Dawei%Wang%NULL%1,             Wei%Xu%NULL%1,             Chunyu%Zhang%NULL%1,             Jiong%Yu%NULL%1,             Bin%Jiang%NULL%1,             Hongcui%Cao%hccao@zju.edu.cn%1,             Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,             Jianming%Zhao%NULL%1,             Ningfang%Lian%1533532863@qq.com%1,             Su%Lin%NULL%1,             Qunfang%Xie%NULL%1,             Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,             Chengcheng%Yu%NULL%2,             Jing%Qu%NULL%1,             Lieguang%Zhang%NULL%2,             Songfeng%Jiang%NULL%1,             Deyang%Huang%NULL%1,             Bihua%Chen%NULL%1,             Zhiping%Zhang%NULL%1,             Wanhua%Guan%NULL%1,             Zhoukun%Ling%NULL%1,             Rui%Jiang%NULL%1,             Tianli%Hu%NULL%1,             Yan%Ding%NULL%1,             Lin%Lin%NULL%1,             Qingxin%Gan%NULL%1,             Liangping%Luo%tluolp@jnu.edu.cn%2,             Xiaoping%Tang%xtang@21cn.com%1,             Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,             Qiqi%Cao%NULL%1,             Le%Qin%NULL%1,             Xiaoyang%Wang%NULL%1,             Zenghui%Cheng%NULL%1,             Ashan%Pan%NULL%1,             Jianyi%Dai%NULL%1,             Qingfeng%Sun%NULL%1,             Fengquan%Zhao%NULL%1,             Jieming%Qu%NULL%0,             Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%5,       Sean Wei Xiang%Ong%xref no email%5,       Shirin%Kalimuddin%xref no email%5,       Jenny G.%Low%xref no email%5,       Seow Yen%Tan%xref no email%5,       Jiashen%Loh%xref no email%5,       Oon-Tek%Ng%xref no email%5,       Kalisvar%Marimuthu%xref no email%5,       Li Wei%Ang%xref no email%5,       Tze Minn%Mak%xref no email%5,       Sok Kiang%Lau%xref no email%5,       Danielle E.%Anderson%xref no email%5,       Kian Sing%Chan%xref no email%5,       Thean Yen%Tan%xref no email%5,       Tong Yong%Ng%xref no email%5,       Lin%Cui%xref no email%5,       Zubaidah%Said%xref no email%5,       Lalitha%Kurupatham%xref no email%5,       Mark I-Cheng%Chen%xref no email%5,       Monica%Chan%xref no email%5,       Shawn%Vasoo%xref no email%5,       Lin-Fa%Wang%xref no email%5,       Boon Huan%Tan%xref no email%5,       Raymond Tzer Pin%Lin%xref no email%5,       Vernon Jian Ming%Lee%xref no email%5,       Yee-Sin%Leo%xref no email%5,       David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,           Cao%Yi-yuan%coreGivesNoEmail%0,           Dong%Xiang%coreGivesNoEmail%0,           Gao%Ya-dong%coreGivesNoEmail%0,           Yan%You-qin%coreGivesNoEmail%0,           Yang%Yi-bin%coreGivesNoEmail%0,           Yuan%Ya-dong%coreGivesNoEmail%0,           Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,           National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,           Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,           The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,             Areeba%Ali%NULL%1,             Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,             Jaime A.%Cardona-Ospina%NULL%1,             Estefanía%Gutiérrez-Ocampo%NULL%1,             Rhuvi%Villamizar-Peña%NULL%1,             Yeimer%Holguin-Rivera%NULL%1,             Juan Pablo%Escalera-Antezana%NULL%1,             Lucia Elena%Alvarado-Arnez%NULL%1,             D. Katterine%Bonilla-Aldana%NULL%1,             Carlos%Franco-Paredes%NULL%1,             Andrés F.%Henao-Martinez%NULL%1,             Alberto%Paniz-Mondolfi%NULL%1,             Guillermo J.%Lagos-Grisales%NULL%1,             Eduardo%Ramírez-Vallejo%NULL%1,             Jose A.%Suárez%NULL%1,             Lysien I.%Zambrano%NULL%1,             Wilmer E.%Villamil-Gómez%NULL%1,             Graciela J.%Balbin-Ramon%NULL%1,             Ali A.%Rabaan%NULL%1,             Harapan%Harapan%NULL%1,             Kuldeep%Dhama%NULL%1,             Hiroshi%Nishiura%NULL%2,             Hiromitsu%Kataoka%NULL%1,             Tauseef%Ahmad%NULL%1,             Ranjit%Sah%NULL%2,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,             Ben%Van Calster%NULL%1,             Gary S%Collins%NULL%1,             Richard D%Riley%NULL%1,             Georg%Heinze%NULL%1,             Ewoud%Schuit%NULL%1,             Marc M J%Bonten%NULL%1,             Johanna A A%Damen%NULL%1,             Thomas P A%Debray%NULL%1,             Maarten%De Vos%NULL%1,             Paula%Dhiman%NULL%1,             Maria C%Haller%NULL%1,             Michael O%Harhay%NULL%1,             Liesbet%Henckaerts%NULL%1,             Nina%Kreuzberger%NULL%1,             Anna%Lohmann%NULL%1,             Kim%Luijken%NULL%1,             Jie%Ma%NULL%1,             Constanza L%Andaur Navarro%NULL%1,             Johannes B%Reitsma%NULL%1,             Jamie C%Sergeant%NULL%1,             Chunhu%Shi%NULL%1,             Nicole%Skoetz%NULL%1,             Luc J M%Smits%NULL%1,             Kym I E%Snell%NULL%1,             Matthew%Sperrin%NULL%1,             René%Spijker%NULL%1,             Ewout W%Steyerberg%NULL%1,             Toshihiko%Takada%NULL%1,             Sander M J%van Kuijk%NULL%1,             Florien S%van Royen%NULL%1,             Christine%Wallisch%NULL%1,             Lotty%Hooft%NULL%1,             Karel G M%Moons%NULL%1,             Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,             Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,             Satoshi%Kutsuna%sonare.since1192@gmail.com%1,             Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,             Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,             Jung Wan%Park%NULL%3,             Moran%Ki%NULL%1,             Mi-Yeon%Yeon%NULL%3,             Jin%Kim%NULL%1,             Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,             Soyoung%Jung%syjung@kiom.re.kr%1,             Aeran%Kim%arkim@kiom.re.kr%1,             Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,             D. S. Y.%Chong%NULL%1,             W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,             Vera%Regitz-Zagrosek%NULL%1,             Hannelore K.%Neuhauser%NULL%1,             Rosemary%Morgan%NULL%1,             Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3981,7 +4092,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>798</v>
+        <v>835</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -4027,7 +4138,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>799</v>
+        <v>836</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -4073,7 +4184,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -4119,7 +4230,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>801</v>
+        <v>838</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -4165,7 +4276,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>802</v>
+        <v>839</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -4211,7 +4322,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>803</v>
+        <v>840</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -4257,7 +4368,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>804</v>
+        <v>841</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -4303,7 +4414,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>805</v>
+        <v>842</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -4349,7 +4460,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>806</v>
+        <v>843</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -4395,7 +4506,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>807</v>
+        <v>844</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -4441,7 +4552,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>808</v>
+        <v>845</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -4487,7 +4598,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>809</v>
+        <v>846</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -4533,7 +4644,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>810</v>
+        <v>847</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -4625,7 +4736,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>811</v>
+        <v>848</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -4671,7 +4782,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>812</v>
+        <v>849</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -4717,7 +4828,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>813</v>
+        <v>850</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4763,7 +4874,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>814</v>
+        <v>851</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -4809,7 +4920,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>815</v>
+        <v>852</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -4855,7 +4966,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>816</v>
+        <v>853</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -4901,7 +5012,7 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>817</v>
+        <v>854</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4947,7 +5058,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>818</v>
+        <v>855</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -4993,7 +5104,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>819</v>
+        <v>856</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -5039,7 +5150,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>820</v>
+        <v>857</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -5085,7 +5196,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>821</v>
+        <v>858</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -5131,7 +5242,7 @@
         <v>782</v>
       </c>
       <c r="E27" t="s">
-        <v>822</v>
+        <v>859</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -5177,7 +5288,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -5223,7 +5334,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>824</v>
+        <v>861</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -5269,7 +5380,7 @@
         <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>825</v>
+        <v>862</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -5315,7 +5426,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>826</v>
+        <v>863</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -5361,7 +5472,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>827</v>
+        <v>864</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -5407,7 +5518,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>828</v>
+        <v>865</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -5453,7 +5564,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -5499,7 +5610,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>830</v>
+        <v>867</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -5545,7 +5656,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>831</v>
+        <v>868</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -5591,7 +5702,7 @@
         <v>793</v>
       </c>
       <c r="E37" t="s">
-        <v>832</v>
+        <v>869</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -5637,7 +5748,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>833</v>
+        <v>870</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -5683,7 +5794,7 @@
         <v>796</v>
       </c>
       <c r="E39" t="s">
-        <v>834</v>
+        <v>871</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7396" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7669" uniqueCount="909">
   <si>
     <t>Doi</t>
   </si>
@@ -3679,6 +3679,117 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,             Vera%Regitz-Zagrosek%NULL%1,             Hannelore K.%Neuhauser%NULL%1,             Rosemary%Morgan%NULL%1,             Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,              Jordi%Rello%NULL%1,              Sofia%Tejada%NULL%1,              Alejandro%Martín%NULL%1,              Goiatz%Balziskueta%NULL%1,              Cristina%Vinuesa%NULL%1,              Borja%Fernández-Miret%NULL%1,              Ana%Villagra%NULL%1,              Ana%Vallejo%NULL%1,              Ana%San Sebastián%NULL%1,              Sara%Cabañes%NULL%1,              Sebastián%Iribarren%NULL%1,              Fernando%Fonseca%NULL%1,              Javier%Maynar%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,              Bijan J.%Ghassemieh%NULL%2,              Michelle%Nichols%NULL%2,              Richard%Kim%NULL%2,              Keith R.%Jerome%NULL%2,              Arun K.%Nalla%NULL%2,              Alexander L.%Greninger%NULL%2,              Sudhakar%Pipavath%NULL%2,              Mark M.%Wurfel%NULL%2,              Laura%Evans%NULL%2,              Patricia A.%Kritek%NULL%2,              T. Eoin%West%NULL%2,              Andrew%Luks%NULL%2,              Anthony%Gerbino%NULL%2,              Chris R.%Dale%NULL%2,              Jason D.%Goldman%NULL%2,              Shane%O’Mahony%NULL%2,              Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,              Wenlin%Cheng%NULL%2,              Lei%Yu%NULL%2,              Ya-Kun%Liu%NULL%2,              Xiaoyong%Hu%NULL%2,              Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,              Tangkai%Qi%NULL%2,              Li%Liu%NULL%2,              Yun%Ling%NULL%3,              Zhiping%Qian%NULL%2,              Tao%Li%NULL%3,              Feng%Li%NULL%2,              Qingnian%Xu%NULL%2,              Yuyi%Zhang%NULL%2,              Shuibao%Xu%NULL%2,              Zhigang%Song%NULL%2,              Yigang%Zeng%NULL%2,              Yinzhong%Shen%NULL%2,              Yuxin%Shi%NULL%4,              Tongyu%Zhu%NULL%2,              Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,              Min%Zhou%NULL%6,              Xuan%Dong%NULL%3,              Jieming%Qu%NULL%5,              Fengyun%Gong%NULL%3,              Yang%Han%NULL%3,              Yang%Qiu%NULL%3,              Jingli%Wang%NULL%3,              Ying%Liu%NULL%6,              Yuan%Wei%NULL%0,              Jia'an%Xia%NULL%0,              Ting%Yu%NULL%0,              Xinxin%Zhang%NULL%5,              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,              Zhe%Dai%NULL%1,              Pingzheng%Mo%NULL%1,              Xinyu%Li%NULL%1,              Zhiyong%Ma%NULL%1,              Shihui%Song%NULL%1,              Xiaoping%Chen%NULL%1,              Mingqi%Luo%NULL%1,              Ke%Liang%NULL%1,              Shicheng%Gao%NULL%1,              Yongxi%Zhang%NULL%1,              Liping%Deng%dengdeng78@126.com%1,              Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%0,              Huilong%Chen%NULL%0,              Weiming%Yan%NULL%0,              Danlei%Yang%NULL%0,              Guang%Chen%NULL%0,              Ke%Ma%NULL%0,              Dong%Xu%NULL%0,              Haijing%Yu%NULL%0,              Hongwu%Wang%NULL%0,              Tao%Wang%NULL%0,              Wei%Guo%NULL%0,              Jia%Chen%NULL%0,              Chen%Ding%NULL%0,              Xiaoping%Zhang%NULL%0,              Jiaquan%Huang%NULL%0,              Meifang%Han%NULL%0,              Shusheng%Li%NULL%0,              Xiaoping%Luo%NULL%0,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,              Nan%Yang%NULL%0,              Yanqiu%Wei%NULL%0,              Huihui%Yue%NULL%0,              Fengqin%Zhang%NULL%0,              Jianping%Zhao%NULL%0,              Li%He%NULL%0,              Gaohong%Sheng%NULL%0,              Peng%Chen%NULL%0,              Gang%Li%NULL%0,              Sisi%Wu%NULL%0,              Bo%Zhang%NULL%0,              Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,              Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,              Xiaoping%Miao%miaoxp@hust.edu.cn%0,              Juan%Li%lijuan@tjh.tjmu.edu.cn%0,              Wenhua%Liu%liuwh_2013@126.com%0,              Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,              Li-Rong%Liang%NULL%1,              Cheng-Qing%Yang%NULL%1,              Wen%Wang%NULL%3,              Tan-Ze%Cao%NULL%1,              Ming%Li%NULL%1,              Guang-Yun%Guo%NULL%1,              Juan%Du%NULL%1,              Chun-Lan%Zheng%NULL%1,              Qi%Zhu%NULL%1,              Ming%Hu%NULL%1,              Xu-Yan%Li%NULL%3,              Peng%Peng%NULL%0,              Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,              Li-Min%Liu%NULL%2,              Wen%Yin%NULL%0,              Wen%Wang%NULL%0,              Lu-Lu%Guan%NULL%2,              Ming-Li%Yuan%NULL%2,              Yu-Lei%Li%NULL%2,              Yi%Hu%NULL%0,              Xu-Yan%Li%NULL%0,              Bing%Sun%NULL%2,              Peng%Peng%NULL%0,              Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,              Lei%Tu%NULL%1,              Pingjun%Zhu%NULL%1,              Mi%Mu%NULL%1,              Runsheng%Wang%NULL%1,              Pengcheng%Yang%NULL%1,              Xi%Wang%NULL%1,              Chao%Hu%NULL%1,              Rongyu%Ping%NULL%1,              Peng%Hu%NULL%1,              Tianzhi%Li%NULL%1,              Feng%Cao%NULL%1,              Christopher%Chang%NULL%1,              Qinyong%Hu%NULL%1,              Yang%Jin%NULL%1,              Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Wen-hua%Liang%NULL%0,              Chun-quan%Ou%NULL%0,              Jian-xing%He%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              David S.C.%Hui%NULL%0,              Bin%Du%NULL%0,              Lan-juan%Li%NULL%0,              Guang%Zeng%NULL%0,              Kwok-Yung%Yuen%NULL%0,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Ping-yan%Chen%NULL%0,              Jie%Xiang%NULL%0,              Shi-yue%Li%NULL%0,              Jin-lin%Wang%NULL%0,              Zi-jing%Liang%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%0,              Xingwang%Li%NULL%0,              Lili%Ren%NULL%0,              Jianping%Zhao%NULL%0,              Yi%Hu%NULL%0,              Li%Zhang%NULL%0,              Guohui%Fan%NULL%0,              Jiuyang%Xu%NULL%0,              Xiaoying%Gu%NULL%0,              Zhenshun%Cheng%NULL%0,              Ting%Yu%NULL%0,              Jiaan%Xia%NULL%0,              Yuan%Wei%NULL%0,              Wenjuan%Wu%NULL%0,              Xuelei%Xie%NULL%0,              Wen%Yin%NULL%0,              Hui%Li%NULL%0,              Min%Liu%NULL%0,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Li%Guo%NULL%0,              Jungang%Xie%NULL%0,              Guangfa%Wang%NULL%0,              Rongmeng%Jiang%NULL%0,              Zhancheng%Gao%NULL%0,              Qi%Jin%NULL%0,              Jianwei%Wang%wangjw28@163.com%0,              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,              Shuyun%Xu%NULL%1,              Muqing%Yu%NULL%1,              Ke%Wang%NULL%2,              Yu%Tao%NULL%1,              Ying%Zhou%NULL%1,              Jing%Shi%NULL%1,              Min%Zhou%NULL%0,              Bo%Wu%NULL%1,              Zhenyu%Yang%NULL%1,              Cong%Zhang%NULL%2,              Junqing%Yue%NULL%1,              Zhiguo%Zhang%NULL%1,              Harald%Renz%NULL%1,              Xiansheng%Liu%NULL%1,              Jungang%Xie%NULL%0,              Min%Xie%NULL%1,              Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,              Yuan-Yuan%Fang%NULL%0,              Yan%Deng%NULL%0,              Wei%Liu%NULL%0,              Mei-Fang%Wang%NULL%0,              Jing-Ping%Ma%NULL%0,              Wei%Xiao%NULL%0,              Ying-Nan%Wang%NULL%0,              Min-Hua%Zhong%NULL%0,              Cheng-Hong%Li%NULL%0,              Guang-Cai%Li%NULL%0,              Hui-Guo%Liu%NULL%0,              Xiu-Yuan%Hao%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,        Huijuan%Jin%xref no email%3,        Mengdie%Wang%xref no email%3,        Yu%Hu%xref no email%4,        Shengcai%Chen%xref no email%3,        Quanwei%He%xref no email%3,        Jiang%Chang%xref no email%3,        Candong%Hong%xref no email%3,        Yifan%Zhou%xref no email%3,        David%Wang%xref no email%3,        Xiaoping%Miao%xref no email%3,        Yanan%Li%xref no email%3,        Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%3,        Luoqi%Zhou%xref no email%1,        Ziwei%Hu%xref no email%1,        Shuoqi%Zhang%xref no email%1,        Sheng%Yang%xref no email%1,        Yu%Tao%xref no email%1,        Cuihong%Xie%xref no email%1,        Ke%Ma%xref no email%1,        Ke%Shang%xref no email%1,        Wei%Wang%xref no email%0,        Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,              Mikael%Chetboun%NULL%2,              Julien%Poissy%NULL%3,              Violeta%Raverdy%NULL%2,              Jerome%Noulette%NULL%3,              Alain%Duhamel%NULL%2,              Julien%Labreuche%NULL%2,              Daniel%Mathieu%NULL%5,              Francois%Pattou%francois.pattou@univ-lille.fr%2,              Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,              Robert%Caizzo%NULL%3,              Morgan%Caplan%NULL%2,              Nicolas%Cousin%NULL%2,              Thibault%Duburcq%NULL%2,              Arthur%Durand%NULL%2,              Ahmed%El kalioubie%NULL%2,              Raphael%Favory%NULL%2,              Bruno%Garcia%NULL%2,              Patrick%Girardie%NULL%2,              Julien%Goutay%NULL%2,              Marion%Houard%NULL%2,              Emmanuelle%Jaillette%NULL%2,              Nicolas%Kostuj%NULL%2,              Geoffrey%Ledoux%NULL%2,              Daniel%Mathieu%NULL%0,              Anne Sophie%Moreau%NULL%2,              Christopher%Niles%NULL%2,              Saad%Nseir%NULL%3,              Thierry%Onimus%NULL%2,              Erika%Parmentier%NULL%2,              Sebastien%Préau%NULL%2,              Laurent%Robriquet%NULL%2,              Anahita%Rouze%NULL%2,              Sophie%Six%NULL%2,              Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,              Yi%Xiang%NULL%1,              Wei%Fang%NULL%1,              Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,              Boqun%Li%279685211@qq.com%1,              Yanjun%Hu%huyanjun@163.com%1,              Chunhui%Lang%NULL%1,              Daoqiu%Huang%NULL%1,              Qiuyan%Sun%NULL%1,              Yan%Xiong%NULL%2,              Xia%Huang%NULL%1,              Jinglong%Lv%NULL%1,              Yaling%Luo%NULL%1,              Li%Shen%NULL%1,              Haoran%Yang%NULL%1,              Gu%Huang%NULL%1,              Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,            Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,              Min%Pan%NULL%1,              Xiumei%Zhang%NULL%1,              Mingfeng%Han%fyhmf@163.com%2,              Xiaoyun%Fan%13956988552@126.com%1,              Fengde%Zhao%NULL%1,              Manli%Miao%NULL%1,              Jing%Xu%NULL%1,              Minglong%Guan%NULL%1,              Xia%Deng%NULL%1,              Xu%Chen%NULL%1,              Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,              J.%Fang%NULL%1,              Y.%Zhu%NULL%1,              L.%Chen%NULL%1,              F.%Ding%NULL%1,              R.%Zhou%NULL%1,              L.%Ge%NULL%1,              F.%Wang%NULL%1,              Q.%Chen%NULL%1,              Y.%Zhang%NULL%1,              Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,              Jun%Liu%NULL%2,              Xinguo%Zhao%NULL%1,              Chengyuan%Liu%NULL%1,              Wei%Wang%NULL%2,              Dawei%Wang%NULL%1,              Wei%Xu%NULL%1,              Chunyu%Zhang%NULL%1,              Jiong%Yu%NULL%1,              Bin%Jiang%NULL%1,              Hongcui%Cao%hccao@zju.edu.cn%1,              Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,              Jianming%Zhao%NULL%1,              Ningfang%Lian%1533532863@qq.com%1,              Su%Lin%NULL%1,              Qunfang%Xie%NULL%1,              Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,              Chengcheng%Yu%NULL%2,              Jing%Qu%NULL%1,              Lieguang%Zhang%NULL%2,              Songfeng%Jiang%NULL%1,              Deyang%Huang%NULL%1,              Bihua%Chen%NULL%1,              Zhiping%Zhang%NULL%1,              Wanhua%Guan%NULL%1,              Zhoukun%Ling%NULL%1,              Rui%Jiang%NULL%1,              Tianli%Hu%NULL%1,              Yan%Ding%NULL%1,              Lin%Lin%NULL%1,              Qingxin%Gan%NULL%1,              Liangping%Luo%tluolp@jnu.edu.cn%2,              Xiaoping%Tang%xtang@21cn.com%1,              Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,              Qiqi%Cao%NULL%1,              Le%Qin%NULL%1,              Xiaoyang%Wang%NULL%1,              Zenghui%Cheng%NULL%1,              Ashan%Pan%NULL%1,              Jianyi%Dai%NULL%1,              Qingfeng%Sun%NULL%1,              Fengquan%Zhao%NULL%1,              Jieming%Qu%NULL%0,              Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%6,        Sean Wei Xiang%Ong%xref no email%5,        Shirin%Kalimuddin%xref no email%5,        Jenny G.%Low%xref no email%5,        Seow Yen%Tan%xref no email%5,        Jiashen%Loh%xref no email%5,        Oon-Tek%Ng%xref no email%5,        Kalisvar%Marimuthu%xref no email%5,        Li Wei%Ang%xref no email%5,        Tze Minn%Mak%xref no email%5,        Sok Kiang%Lau%xref no email%5,        Danielle E.%Anderson%xref no email%5,        Kian Sing%Chan%xref no email%5,        Thean Yen%Tan%xref no email%5,        Tong Yong%Ng%xref no email%5,        Lin%Cui%xref no email%5,        Zubaidah%Said%xref no email%5,        Lalitha%Kurupatham%xref no email%5,        Mark I-Cheng%Chen%xref no email%5,        Monica%Chan%xref no email%5,        Shawn%Vasoo%xref no email%5,        Lin-Fa%Wang%xref no email%5,        Boon Huan%Tan%xref no email%5,        Raymond Tzer Pin%Lin%xref no email%5,        Vernon Jian Ming%Lee%xref no email%5,        Yee-Sin%Leo%xref no email%5,        David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,            Cao%Yi-yuan%coreGivesNoEmail%0,            Dong%Xiang%coreGivesNoEmail%0,            Gao%Ya-dong%coreGivesNoEmail%0,            Yan%You-qin%coreGivesNoEmail%0,            Yang%Yi-bin%coreGivesNoEmail%0,            Yuan%Ya-dong%coreGivesNoEmail%0,            Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,            National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,            Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,            The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,              Areeba%Ali%NULL%1,              Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,              Jaime A.%Cardona-Ospina%NULL%1,              Estefanía%Gutiérrez-Ocampo%NULL%1,              Rhuvi%Villamizar-Peña%NULL%1,              Yeimer%Holguin-Rivera%NULL%1,              Juan Pablo%Escalera-Antezana%NULL%1,              Lucia Elena%Alvarado-Arnez%NULL%1,              D. Katterine%Bonilla-Aldana%NULL%1,              Carlos%Franco-Paredes%NULL%1,              Andrés F.%Henao-Martinez%NULL%1,              Alberto%Paniz-Mondolfi%NULL%1,              Guillermo J.%Lagos-Grisales%NULL%1,              Eduardo%Ramírez-Vallejo%NULL%1,              Jose A.%Suárez%NULL%1,              Lysien I.%Zambrano%NULL%1,              Wilmer E.%Villamil-Gómez%NULL%1,              Graciela J.%Balbin-Ramon%NULL%1,              Ali A.%Rabaan%NULL%1,              Harapan%Harapan%NULL%1,              Kuldeep%Dhama%NULL%1,              Hiroshi%Nishiura%NULL%2,              Hiromitsu%Kataoka%NULL%1,              Tauseef%Ahmad%NULL%1,              Ranjit%Sah%NULL%2,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,              Ben%Van Calster%NULL%1,              Gary S%Collins%NULL%1,              Richard D%Riley%NULL%1,              Georg%Heinze%NULL%1,              Ewoud%Schuit%NULL%1,              Marc M J%Bonten%NULL%1,              Johanna A A%Damen%NULL%1,              Thomas P A%Debray%NULL%1,              Maarten%De Vos%NULL%1,              Paula%Dhiman%NULL%1,              Maria C%Haller%NULL%1,              Michael O%Harhay%NULL%1,              Liesbet%Henckaerts%NULL%1,              Nina%Kreuzberger%NULL%1,              Anna%Lohmann%NULL%1,              Kim%Luijken%NULL%1,              Jie%Ma%NULL%1,              Constanza L%Andaur Navarro%NULL%1,              Johannes B%Reitsma%NULL%1,              Jamie C%Sergeant%NULL%1,              Chunhu%Shi%NULL%1,              Nicole%Skoetz%NULL%1,              Luc J M%Smits%NULL%1,              Kym I E%Snell%NULL%1,              Matthew%Sperrin%NULL%1,              René%Spijker%NULL%1,              Ewout W%Steyerberg%NULL%1,              Toshihiko%Takada%NULL%1,              Sander M J%van Kuijk%NULL%1,              Florien S%van Royen%NULL%1,              Christine%Wallisch%NULL%1,              Lotty%Hooft%NULL%1,              Karel G M%Moons%NULL%1,              Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,              Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,              Satoshi%Kutsuna%sonare.since1192@gmail.com%1,              Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,              Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,              Jung Wan%Park%NULL%3,              Moran%Ki%NULL%1,              Mi-Yeon%Yeon%NULL%3,              Jin%Kim%NULL%1,              Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,              Soyoung%Jung%syjung@kiom.re.kr%1,              Aeran%Kim%arkim@kiom.re.kr%1,              Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,              D. S. Y.%Chong%NULL%1,              W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,              Vera%Regitz-Zagrosek%NULL%1,              Hannelore K.%Neuhauser%NULL%1,              Rosemary%Morgan%NULL%1,              Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -4092,7 +4203,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>835</v>
+        <v>872</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -4138,7 +4249,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>836</v>
+        <v>873</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -4184,7 +4295,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -4230,7 +4341,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>838</v>
+        <v>875</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -4276,7 +4387,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>839</v>
+        <v>876</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -4322,7 +4433,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>840</v>
+        <v>877</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -4368,7 +4479,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>841</v>
+        <v>878</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -4414,7 +4525,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>842</v>
+        <v>879</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -4460,7 +4571,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>843</v>
+        <v>880</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -4506,7 +4617,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -4552,7 +4663,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>845</v>
+        <v>882</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -4598,7 +4709,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>846</v>
+        <v>883</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -4644,7 +4755,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>847</v>
+        <v>884</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -4736,7 +4847,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>848</v>
+        <v>885</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -4782,7 +4893,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>849</v>
+        <v>886</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -4828,7 +4939,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4874,7 +4985,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>851</v>
+        <v>888</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -4920,7 +5031,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>852</v>
+        <v>889</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -4966,7 +5077,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>853</v>
+        <v>890</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -5012,7 +5123,7 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>854</v>
+        <v>891</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -5058,7 +5169,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>855</v>
+        <v>892</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -5104,7 +5215,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>856</v>
+        <v>893</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -5150,7 +5261,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>857</v>
+        <v>894</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -5196,7 +5307,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>858</v>
+        <v>895</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -5242,7 +5353,7 @@
         <v>782</v>
       </c>
       <c r="E27" t="s">
-        <v>859</v>
+        <v>896</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -5288,7 +5399,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -5334,7 +5445,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>861</v>
+        <v>898</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -5380,7 +5491,7 @@
         <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>862</v>
+        <v>899</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -5426,7 +5537,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>863</v>
+        <v>900</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -5472,7 +5583,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>864</v>
+        <v>901</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -5518,7 +5629,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>865</v>
+        <v>902</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -5564,7 +5675,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>866</v>
+        <v>903</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -5610,7 +5721,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>867</v>
+        <v>904</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -5656,7 +5767,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -5702,7 +5813,7 @@
         <v>793</v>
       </c>
       <c r="E37" t="s">
-        <v>869</v>
+        <v>906</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -5748,7 +5859,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>870</v>
+        <v>907</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -5794,7 +5905,7 @@
         <v>796</v>
       </c>
       <c r="E39" t="s">
-        <v>871</v>
+        <v>908</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7669" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8215" uniqueCount="984">
   <si>
     <t>Doi</t>
   </si>
@@ -3790,6 +3790,231 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,              Vera%Regitz-Zagrosek%NULL%1,              Hannelore K.%Neuhauser%NULL%1,              Rosemary%Morgan%NULL%1,              Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,               Jordi%Rello%NULL%1,               Sofia%Tejada%NULL%1,               Alejandro%Martín%NULL%1,               Goiatz%Balziskueta%NULL%1,               Cristina%Vinuesa%NULL%1,               Borja%Fernández-Miret%NULL%1,               Ana%Villagra%NULL%1,               Ana%Vallejo%NULL%1,               Ana%San Sebastián%NULL%1,               Sara%Cabañes%NULL%1,               Sebastián%Iribarren%NULL%1,               Fernando%Fonseca%NULL%1,               Javier%Maynar%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,               Bijan J.%Ghassemieh%NULL%2,               Michelle%Nichols%NULL%2,               Richard%Kim%NULL%2,               Keith R.%Jerome%NULL%2,               Arun K.%Nalla%NULL%2,               Alexander L.%Greninger%NULL%2,               Sudhakar%Pipavath%NULL%2,               Mark M.%Wurfel%NULL%2,               Laura%Evans%NULL%2,               Patricia A.%Kritek%NULL%2,               T. Eoin%West%NULL%2,               Andrew%Luks%NULL%2,               Anthony%Gerbino%NULL%2,               Chris R.%Dale%NULL%2,               Jason D.%Goldman%NULL%2,               Shane%O’Mahony%NULL%2,               Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,               Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,               Wenlin%Cheng%NULL%2,               Lei%Yu%NULL%2,               Ya-Kun%Liu%NULL%2,               Xiaoyong%Hu%NULL%2,               Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,               Tangkai%Qi%NULL%2,               Li%Liu%NULL%2,               Yun%Ling%NULL%3,               Zhiping%Qian%NULL%2,               Tao%Li%NULL%3,               Feng%Li%NULL%2,               Qingnian%Xu%NULL%2,               Yuyi%Zhang%NULL%2,               Shuibao%Xu%NULL%2,               Zhigang%Song%NULL%2,               Yigang%Zeng%NULL%2,               Yinzhong%Shen%NULL%2,               Yuxin%Shi%NULL%4,               Tongyu%Zhu%NULL%2,               Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,               Min%Zhou%NULL%6,               Xuan%Dong%NULL%3,               Jieming%Qu%NULL%5,               Fengyun%Gong%NULL%3,               Yang%Han%NULL%3,               Yang%Qiu%NULL%3,               Jingli%Wang%NULL%3,               Ying%Liu%NULL%6,               Yuan%Wei%NULL%0,               Jia'an%Xia%NULL%0,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%5,               Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,               Zhe%Dai%NULL%1,               Pingzheng%Mo%NULL%1,               Xinyu%Li%NULL%1,               Zhiyong%Ma%NULL%1,               Shihui%Song%NULL%1,               Xiaoping%Chen%NULL%1,               Mingqi%Luo%NULL%1,               Ke%Liang%NULL%1,               Shicheng%Gao%NULL%1,               Yongxi%Zhang%NULL%1,               Liping%Deng%dengdeng78@126.com%1,               Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%0,               Huilong%Chen%NULL%0,               Weiming%Yan%NULL%0,               Danlei%Yang%NULL%0,               Guang%Chen%NULL%0,               Ke%Ma%NULL%0,               Dong%Xu%NULL%0,               Haijing%Yu%NULL%0,               Hongwu%Wang%NULL%0,               Tao%Wang%NULL%0,               Wei%Guo%NULL%0,               Jia%Chen%NULL%0,               Chen%Ding%NULL%0,               Xiaoping%Zhang%NULL%0,               Jiaquan%Huang%NULL%0,               Meifang%Han%NULL%0,               Shusheng%Li%NULL%0,               Xiaoping%Luo%NULL%0,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,               Nan%Yang%NULL%0,               Yanqiu%Wei%NULL%0,               Huihui%Yue%NULL%0,               Fengqin%Zhang%NULL%0,               Jianping%Zhao%NULL%0,               Li%He%NULL%0,               Gaohong%Sheng%NULL%0,               Peng%Chen%NULL%0,               Gang%Li%NULL%0,               Sisi%Wu%NULL%0,               Bo%Zhang%NULL%0,               Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,               Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,               Xiaoping%Miao%miaoxp@hust.edu.cn%0,               Juan%Li%lijuan@tjh.tjmu.edu.cn%0,               Wenhua%Liu%liuwh_2013@126.com%0,               Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,               Li-Rong%Liang%NULL%1,               Cheng-Qing%Yang%NULL%1,               Wen%Wang%NULL%3,               Tan-Ze%Cao%NULL%1,               Ming%Li%NULL%1,               Guang-Yun%Guo%NULL%1,               Juan%Du%NULL%1,               Chun-Lan%Zheng%NULL%1,               Qi%Zhu%NULL%1,               Ming%Hu%NULL%1,               Xu-Yan%Li%NULL%3,               Peng%Peng%NULL%0,               Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,               Li-Min%Liu%NULL%2,               Wen%Yin%NULL%0,               Wen%Wang%NULL%0,               Lu-Lu%Guan%NULL%2,               Ming-Li%Yuan%NULL%2,               Yu-Lei%Li%NULL%2,               Yi%Hu%NULL%0,               Xu-Yan%Li%NULL%0,               Bing%Sun%NULL%2,               Peng%Peng%NULL%0,               Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,               Lei%Tu%NULL%1,               Pingjun%Zhu%NULL%1,               Mi%Mu%NULL%1,               Runsheng%Wang%NULL%1,               Pengcheng%Yang%NULL%1,               Xi%Wang%NULL%1,               Chao%Hu%NULL%1,               Rongyu%Ping%NULL%1,               Peng%Hu%NULL%1,               Tianzhi%Li%NULL%1,               Feng%Cao%NULL%1,               Christopher%Chang%NULL%1,               Qinyong%Hu%NULL%1,               Yang%Jin%NULL%1,               Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Wen-hua%Liang%NULL%0,               Chun-quan%Ou%NULL%0,               Jian-xing%He%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               David S.C.%Hui%NULL%0,               Bin%Du%NULL%0,               Lan-juan%Li%NULL%0,               Guang%Zeng%NULL%0,               Kwok-Yung%Yuen%NULL%0,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Ping-yan%Chen%NULL%0,               Jie%Xiang%NULL%0,               Shi-yue%Li%NULL%0,               Jin-lin%Wang%NULL%0,               Zi-jing%Liang%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%0,               Xingwang%Li%NULL%0,               Lili%Ren%NULL%0,               Jianping%Zhao%NULL%0,               Yi%Hu%NULL%0,               Li%Zhang%NULL%0,               Guohui%Fan%NULL%0,               Jiuyang%Xu%NULL%0,               Xiaoying%Gu%NULL%0,               Zhenshun%Cheng%NULL%0,               Ting%Yu%NULL%0,               Jiaan%Xia%NULL%0,               Yuan%Wei%NULL%0,               Wenjuan%Wu%NULL%0,               Xuelei%Xie%NULL%0,               Wen%Yin%NULL%0,               Hui%Li%NULL%0,               Min%Liu%NULL%0,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Li%Guo%NULL%0,               Jungang%Xie%NULL%0,               Guangfa%Wang%NULL%0,               Rongmeng%Jiang%NULL%0,               Zhancheng%Gao%NULL%0,               Qi%Jin%NULL%0,               Jianwei%Wang%wangjw28@163.com%0,               Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,               Shuyun%Xu%NULL%1,               Muqing%Yu%NULL%1,               Ke%Wang%NULL%2,               Yu%Tao%NULL%1,               Ying%Zhou%NULL%1,               Jing%Shi%NULL%1,               Min%Zhou%NULL%0,               Bo%Wu%NULL%1,               Zhenyu%Yang%NULL%1,               Cong%Zhang%NULL%2,               Junqing%Yue%NULL%1,               Zhiguo%Zhang%NULL%1,               Harald%Renz%NULL%1,               Xiansheng%Liu%NULL%1,               Jungang%Xie%NULL%0,               Min%Xie%NULL%1,               Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,               Yuan-Yuan%Fang%NULL%0,               Yan%Deng%NULL%0,               Wei%Liu%NULL%0,               Mei-Fang%Wang%NULL%0,               Jing-Ping%Ma%NULL%0,               Wei%Xiao%NULL%0,               Ying-Nan%Wang%NULL%0,               Min-Hua%Zhong%NULL%0,               Cheng-Hong%Li%NULL%0,               Guang-Cai%Li%NULL%0,               Hui-Guo%Liu%NULL%0,               Xiu-Yuan%Hao%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,         Huijuan%Jin%xref no email%3,         Mengdie%Wang%xref no email%3,         Yu%Hu%xref no email%4,         Shengcai%Chen%xref no email%3,         Quanwei%He%xref no email%3,         Jiang%Chang%xref no email%3,         Candong%Hong%xref no email%3,         Yifan%Zhou%xref no email%3,         David%Wang%xref no email%3,         Xiaoping%Miao%xref no email%3,         Yanan%Li%xref no email%3,         Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%3,         Luoqi%Zhou%xref no email%1,         Ziwei%Hu%xref no email%1,         Shuoqi%Zhang%xref no email%1,         Sheng%Yang%xref no email%1,         Yu%Tao%xref no email%1,         Cuihong%Xie%xref no email%1,         Ke%Ma%xref no email%1,         Ke%Shang%xref no email%1,         Wei%Wang%xref no email%0,         Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,               Mikael%Chetboun%NULL%2,               Julien%Poissy%NULL%3,               Violeta%Raverdy%NULL%2,               Jerome%Noulette%NULL%3,               Alain%Duhamel%NULL%2,               Julien%Labreuche%NULL%2,               Daniel%Mathieu%NULL%5,               Francois%Pattou%francois.pattou@univ-lille.fr%2,               Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,               Robert%Caizzo%NULL%3,               Morgan%Caplan%NULL%2,               Nicolas%Cousin%NULL%2,               Thibault%Duburcq%NULL%2,               Arthur%Durand%NULL%2,               Ahmed%El kalioubie%NULL%2,               Raphael%Favory%NULL%2,               Bruno%Garcia%NULL%2,               Patrick%Girardie%NULL%2,               Julien%Goutay%NULL%2,               Marion%Houard%NULL%2,               Emmanuelle%Jaillette%NULL%2,               Nicolas%Kostuj%NULL%2,               Geoffrey%Ledoux%NULL%2,               Daniel%Mathieu%NULL%0,               Anne Sophie%Moreau%NULL%2,               Christopher%Niles%NULL%2,               Saad%Nseir%NULL%3,               Thierry%Onimus%NULL%2,               Erika%Parmentier%NULL%2,               Sebastien%Préau%NULL%2,               Laurent%Robriquet%NULL%2,               Anahita%Rouze%NULL%2,               Sophie%Six%NULL%2,               Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,               Yi%Xiang%NULL%1,               Wei%Fang%NULL%1,               Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,               Boqun%Li%279685211@qq.com%1,               Yanjun%Hu%huyanjun@163.com%1,               Chunhui%Lang%NULL%1,               Daoqiu%Huang%NULL%1,               Qiuyan%Sun%NULL%1,               Yan%Xiong%NULL%2,               Xia%Huang%NULL%1,               Jinglong%Lv%NULL%1,               Yaling%Luo%NULL%1,               Li%Shen%NULL%1,               Haoran%Yang%NULL%1,               Gu%Huang%NULL%1,               Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,             Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,             Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,             Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,               Min%Pan%NULL%1,               Xiumei%Zhang%NULL%1,               Mingfeng%Han%fyhmf@163.com%2,               Xiaoyun%Fan%13956988552@126.com%1,               Fengde%Zhao%NULL%1,               Manli%Miao%NULL%1,               Jing%Xu%NULL%1,               Minglong%Guan%NULL%1,               Xia%Deng%NULL%1,               Xu%Chen%NULL%1,               Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,               J.%Fang%NULL%1,               Y.%Zhu%NULL%1,               L.%Chen%NULL%1,               F.%Ding%NULL%1,               R.%Zhou%NULL%1,               L.%Ge%NULL%1,               F.%Wang%NULL%1,               Q.%Chen%NULL%1,               Y.%Zhang%NULL%1,               Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,               Jun%Liu%NULL%2,               Xinguo%Zhao%NULL%1,               Chengyuan%Liu%NULL%1,               Wei%Wang%NULL%2,               Dawei%Wang%NULL%1,               Wei%Xu%NULL%1,               Chunyu%Zhang%NULL%1,               Jiong%Yu%NULL%1,               Bin%Jiang%NULL%1,               Hongcui%Cao%hccao@zju.edu.cn%1,               Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,               Jianming%Zhao%NULL%1,               Ningfang%Lian%1533532863@qq.com%1,               Su%Lin%NULL%1,               Qunfang%Xie%NULL%1,               Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,               Chengcheng%Yu%NULL%2,               Jing%Qu%NULL%1,               Lieguang%Zhang%NULL%2,               Songfeng%Jiang%NULL%1,               Deyang%Huang%NULL%1,               Bihua%Chen%NULL%1,               Zhiping%Zhang%NULL%1,               Wanhua%Guan%NULL%1,               Zhoukun%Ling%NULL%1,               Rui%Jiang%NULL%1,               Tianli%Hu%NULL%1,               Yan%Ding%NULL%1,               Lin%Lin%NULL%1,               Qingxin%Gan%NULL%1,               Liangping%Luo%tluolp@jnu.edu.cn%2,               Xiaoping%Tang%xtang@21cn.com%1,               Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,               Qiqi%Cao%NULL%1,               Le%Qin%NULL%1,               Xiaoyang%Wang%NULL%1,               Zenghui%Cheng%NULL%1,               Ashan%Pan%NULL%1,               Jianyi%Dai%NULL%1,               Qingfeng%Sun%NULL%1,               Fengquan%Zhao%NULL%1,               Jieming%Qu%NULL%0,               Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,         Sean Wei Xiang%Ong%xref no email%5,         Shirin%Kalimuddin%xref no email%5,         Jenny G.%Low%xref no email%5,         Seow Yen%Tan%xref no email%5,         Jiashen%Loh%xref no email%5,         Oon-Tek%Ng%xref no email%5,         Kalisvar%Marimuthu%xref no email%5,         Li Wei%Ang%xref no email%5,         Tze Minn%Mak%xref no email%5,         Sok Kiang%Lau%xref no email%5,         Danielle E.%Anderson%xref no email%5,         Kian Sing%Chan%xref no email%5,         Thean Yen%Tan%xref no email%5,         Tong Yong%Ng%xref no email%5,         Lin%Cui%xref no email%5,         Zubaidah%Said%xref no email%5,         Lalitha%Kurupatham%xref no email%5,         Mark I-Cheng%Chen%xref no email%5,         Monica%Chan%xref no email%5,         Shawn%Vasoo%xref no email%5,         Lin-Fa%Wang%xref no email%5,         Boon Huan%Tan%xref no email%5,         Raymond Tzer Pin%Lin%xref no email%5,         Vernon Jian Ming%Lee%xref no email%5,         Yee-Sin%Leo%xref no email%5,         David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,             Cao%Yi-yuan%coreGivesNoEmail%0,             Dong%Xiang%coreGivesNoEmail%0,             Gao%Ya-dong%coreGivesNoEmail%0,             Yan%You-qin%coreGivesNoEmail%0,             Yang%Yi-bin%coreGivesNoEmail%0,             Yuan%Ya-dong%coreGivesNoEmail%0,             Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,             National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,             Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,             The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,               Areeba%Ali%NULL%1,               Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,               Jaime A.%Cardona-Ospina%NULL%1,               Estefanía%Gutiérrez-Ocampo%NULL%1,               Rhuvi%Villamizar-Peña%NULL%1,               Yeimer%Holguin-Rivera%NULL%1,               Juan Pablo%Escalera-Antezana%NULL%1,               Lucia Elena%Alvarado-Arnez%NULL%1,               D. Katterine%Bonilla-Aldana%NULL%1,               Carlos%Franco-Paredes%NULL%1,               Andrés F.%Henao-Martinez%NULL%1,               Alberto%Paniz-Mondolfi%NULL%1,               Guillermo J.%Lagos-Grisales%NULL%1,               Eduardo%Ramírez-Vallejo%NULL%1,               Jose A.%Suárez%NULL%1,               Lysien I.%Zambrano%NULL%1,               Wilmer E.%Villamil-Gómez%NULL%1,               Graciela J.%Balbin-Ramon%NULL%1,               Ali A.%Rabaan%NULL%1,               Harapan%Harapan%NULL%1,               Kuldeep%Dhama%NULL%1,               Hiroshi%Nishiura%NULL%2,               Hiromitsu%Kataoka%NULL%1,               Tauseef%Ahmad%NULL%1,               Ranjit%Sah%NULL%2,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,               Ben%Van Calster%NULL%1,               Gary S%Collins%NULL%1,               Richard D%Riley%NULL%1,               Georg%Heinze%NULL%1,               Ewoud%Schuit%NULL%1,               Marc M J%Bonten%NULL%1,               Johanna A A%Damen%NULL%1,               Thomas P A%Debray%NULL%1,               Maarten%De Vos%NULL%1,               Paula%Dhiman%NULL%1,               Maria C%Haller%NULL%1,               Michael O%Harhay%NULL%1,               Liesbet%Henckaerts%NULL%1,               Nina%Kreuzberger%NULL%1,               Anna%Lohmann%NULL%1,               Kim%Luijken%NULL%1,               Jie%Ma%NULL%1,               Constanza L%Andaur Navarro%NULL%1,               Johannes B%Reitsma%NULL%1,               Jamie C%Sergeant%NULL%1,               Chunhu%Shi%NULL%1,               Nicole%Skoetz%NULL%1,               Luc J M%Smits%NULL%1,               Kym I E%Snell%NULL%1,               Matthew%Sperrin%NULL%1,               René%Spijker%NULL%1,               Ewout W%Steyerberg%NULL%1,               Toshihiko%Takada%NULL%1,               Sander M J%van Kuijk%NULL%1,               Florien S%van Royen%NULL%1,               Christine%Wallisch%NULL%1,               Lotty%Hooft%NULL%1,               Karel G M%Moons%NULL%1,               Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,               Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,               Satoshi%Kutsuna%sonare.since1192@gmail.com%1,               Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,               Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,               Jung Wan%Park%NULL%3,               Moran%Ki%NULL%1,               Mi-Yeon%Yeon%NULL%3,               Jin%Kim%NULL%1,               Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,               Soyoung%Jung%syjung@kiom.re.kr%1,               Aeran%Kim%arkim@kiom.re.kr%1,               Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,               D. S. Y.%Chong%NULL%1,               W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,               Vera%Regitz-Zagrosek%NULL%1,               Hannelore K.%Neuhauser%NULL%1,               Rosemary%Morgan%NULL%1,               Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                Jordi%Rello%NULL%1,                Sofia%Tejada%NULL%1,                Alejandro%Martín%NULL%1,                Goiatz%Balziskueta%NULL%1,                Cristina%Vinuesa%NULL%1,                Borja%Fernández-Miret%NULL%1,                Ana%Villagra%NULL%1,                Ana%Vallejo%NULL%1,                Ana%San Sebastián%NULL%1,                Sara%Cabañes%NULL%1,                Sebastián%Iribarren%NULL%1,                Fernando%Fonseca%NULL%1,                Javier%Maynar%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                Bijan J.%Ghassemieh%NULL%2,                Michelle%Nichols%NULL%2,                Richard%Kim%NULL%2,                Keith R.%Jerome%NULL%2,                Arun K.%Nalla%NULL%2,                Alexander L.%Greninger%NULL%2,                Sudhakar%Pipavath%NULL%2,                Mark M.%Wurfel%NULL%2,                Laura%Evans%NULL%2,                Patricia A.%Kritek%NULL%2,                T. Eoin%West%NULL%2,                Andrew%Luks%NULL%2,                Anthony%Gerbino%NULL%2,                Chris R.%Dale%NULL%2,                Jason D.%Goldman%NULL%2,                Shane%O’Mahony%NULL%2,                Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                Wenlin%Cheng%NULL%2,                Lei%Yu%NULL%2,                Ya-Kun%Liu%NULL%2,                Xiaoyong%Hu%NULL%2,                Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                Tangkai%Qi%NULL%2,                Li%Liu%NULL%2,                Yun%Ling%NULL%3,                Zhiping%Qian%NULL%2,                Tao%Li%NULL%3,                Feng%Li%NULL%2,                Qingnian%Xu%NULL%2,                Yuyi%Zhang%NULL%2,                Shuibao%Xu%NULL%2,                Zhigang%Song%NULL%2,                Yigang%Zeng%NULL%2,                Yinzhong%Shen%NULL%2,                Yuxin%Shi%NULL%4,                Tongyu%Zhu%NULL%2,                Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                Min%Zhou%NULL%6,                Xuan%Dong%NULL%3,                Jieming%Qu%NULL%5,                Fengyun%Gong%NULL%3,                Yang%Han%NULL%3,                Yang%Qiu%NULL%3,                Jingli%Wang%NULL%3,                Ying%Liu%NULL%6,                Yuan%Wei%NULL%0,                Jia'an%Xia%NULL%0,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%5,                Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                Zhe%Dai%NULL%1,                Pingzheng%Mo%NULL%1,                Xinyu%Li%NULL%1,                Zhiyong%Ma%NULL%1,                Shihui%Song%NULL%1,                Xiaoping%Chen%NULL%1,                Mingqi%Luo%NULL%1,                Ke%Liang%NULL%1,                Shicheng%Gao%NULL%1,                Yongxi%Zhang%NULL%1,                Liping%Deng%dengdeng78@126.com%1,                Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                Di%Wu%NULL%0,                Huilong%Chen%NULL%0,                Weiming%Yan%NULL%0,                Danlei%Yang%NULL%0,                Guang%Chen%NULL%0,                Ke%Ma%NULL%0,                Dong%Xu%NULL%0,                Haijing%Yu%NULL%0,                Hongwu%Wang%NULL%0,                Tao%Wang%NULL%0,                Wei%Guo%NULL%0,                Jia%Chen%NULL%0,                Chen%Ding%NULL%0,                Xiaoping%Zhang%NULL%0,                Jiaquan%Huang%NULL%0,                Meifang%Han%NULL%0,                Shusheng%Li%NULL%0,                Xiaoping%Luo%NULL%0,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                Nan%Yang%NULL%0,                Yanqiu%Wei%NULL%0,                Huihui%Yue%NULL%0,                Fengqin%Zhang%NULL%0,                Jianping%Zhao%NULL%0,                Li%He%NULL%0,                Gaohong%Sheng%NULL%0,                Peng%Chen%NULL%0,                Gang%Li%NULL%0,                Sisi%Wu%NULL%0,                Bo%Zhang%NULL%0,                Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                Xiaoping%Miao%miaoxp@hust.edu.cn%0,                Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                Wenhua%Liu%liuwh_2013@126.com%0,                Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                Li-Rong%Liang%NULL%1,                Cheng-Qing%Yang%NULL%1,                Wen%Wang%NULL%3,                Tan-Ze%Cao%NULL%1,                Ming%Li%NULL%1,                Guang-Yun%Guo%NULL%1,                Juan%Du%NULL%1,                Chun-Lan%Zheng%NULL%1,                Qi%Zhu%NULL%1,                Ming%Hu%NULL%1,                Xu-Yan%Li%NULL%3,                Peng%Peng%NULL%0,                Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                Li-Min%Liu%NULL%2,                Wen%Yin%NULL%0,                Wen%Wang%NULL%0,                Lu-Lu%Guan%NULL%2,                Ming-Li%Yuan%NULL%2,                Yu-Lei%Li%NULL%2,                Yi%Hu%NULL%0,                Xu-Yan%Li%NULL%0,                Bing%Sun%NULL%2,                Peng%Peng%NULL%0,                Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                Lei%Tu%NULL%1,                Pingjun%Zhu%NULL%1,                Mi%Mu%NULL%1,                Runsheng%Wang%NULL%1,                Pengcheng%Yang%NULL%1,                Xi%Wang%NULL%1,                Chao%Hu%NULL%1,                Rongyu%Ping%NULL%1,                Peng%Hu%NULL%1,                Tianzhi%Li%NULL%1,                Feng%Cao%NULL%1,                Christopher%Chang%NULL%1,                Qinyong%Hu%NULL%1,                Yang%Jin%NULL%1,                Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Wen-hua%Liang%NULL%0,                Chun-quan%Ou%NULL%0,                Jian-xing%He%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                David S.C.%Hui%NULL%0,                Bin%Du%NULL%0,                Lan-juan%Li%NULL%0,                Guang%Zeng%NULL%0,                Kwok-Yung%Yuen%NULL%0,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Ping-yan%Chen%NULL%0,                Jie%Xiang%NULL%0,                Shi-yue%Li%NULL%0,                Jin-lin%Wang%NULL%0,                Zi-jing%Liang%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                Yeming%Wang%NULL%0,                Xingwang%Li%NULL%0,                Lili%Ren%NULL%0,                Jianping%Zhao%NULL%0,                Yi%Hu%NULL%0,                Li%Zhang%NULL%0,                Guohui%Fan%NULL%0,                Jiuyang%Xu%NULL%0,                Xiaoying%Gu%NULL%0,                Zhenshun%Cheng%NULL%0,                Ting%Yu%NULL%0,                Jiaan%Xia%NULL%0,                Yuan%Wei%NULL%0,                Wenjuan%Wu%NULL%0,                Xuelei%Xie%NULL%0,                Wen%Yin%NULL%0,                Hui%Li%NULL%0,                Min%Liu%NULL%0,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Li%Guo%NULL%0,                Jungang%Xie%NULL%0,                Guangfa%Wang%NULL%0,                Rongmeng%Jiang%NULL%0,                Zhancheng%Gao%NULL%0,                Qi%Jin%NULL%0,                Jianwei%Wang%wangjw28@163.com%0,                Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%12]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                Shuyun%Xu%NULL%1,                Muqing%Yu%NULL%1,                Ke%Wang%NULL%2,                Yu%Tao%NULL%1,                Ying%Zhou%NULL%1,                Jing%Shi%NULL%1,                Min%Zhou%NULL%0,                Bo%Wu%NULL%1,                Zhenyu%Yang%NULL%1,                Cong%Zhang%NULL%2,                Junqing%Yue%NULL%1,                Zhiguo%Zhang%NULL%1,                Harald%Renz%NULL%1,                Xiansheng%Liu%NULL%1,                Jungang%Xie%NULL%0,                Min%Xie%NULL%1,                Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                Yuan-Yuan%Fang%NULL%0,                Yan%Deng%NULL%0,                Wei%Liu%NULL%0,                Mei-Fang%Wang%NULL%0,                Jing-Ping%Ma%NULL%0,                Wei%Xiao%NULL%0,                Ying-Nan%Wang%NULL%0,                Min-Hua%Zhong%NULL%0,                Cheng-Hong%Li%NULL%0,                Guang-Cai%Li%NULL%0,                Hui-Guo%Liu%NULL%0,                Xiu-Yuan%Hao%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,          Huijuan%Jin%xref no email%3,          Mengdie%Wang%xref no email%3,          Yu%Hu%xref no email%4,          Shengcai%Chen%xref no email%3,          Quanwei%He%xref no email%3,          Jiang%Chang%xref no email%3,          Candong%Hong%xref no email%3,          Yifan%Zhou%xref no email%3,          David%Wang%xref no email%3,          Xiaoping%Miao%xref no email%3,          Yanan%Li%xref no email%3,          Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%3,          Luoqi%Zhou%xref no email%1,          Ziwei%Hu%xref no email%1,          Shuoqi%Zhang%xref no email%1,          Sheng%Yang%xref no email%1,          Yu%Tao%xref no email%1,          Cuihong%Xie%xref no email%1,          Ke%Ma%xref no email%1,          Ke%Shang%xref no email%1,          Wei%Wang%xref no email%0,          Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                Mikael%Chetboun%NULL%2,                Julien%Poissy%NULL%3,                Violeta%Raverdy%NULL%2,                Jerome%Noulette%NULL%3,                Alain%Duhamel%NULL%2,                Julien%Labreuche%NULL%2,                Daniel%Mathieu%NULL%5,                Francois%Pattou%francois.pattou@univ-lille.fr%2,                Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                Robert%Caizzo%NULL%3,                Morgan%Caplan%NULL%2,                Nicolas%Cousin%NULL%2,                Thibault%Duburcq%NULL%2,                Arthur%Durand%NULL%2,                Ahmed%El kalioubie%NULL%2,                Raphael%Favory%NULL%2,                Bruno%Garcia%NULL%2,                Patrick%Girardie%NULL%2,                Julien%Goutay%NULL%2,                Marion%Houard%NULL%2,                Emmanuelle%Jaillette%NULL%2,                Nicolas%Kostuj%NULL%2,                Geoffrey%Ledoux%NULL%2,                Daniel%Mathieu%NULL%0,                Anne Sophie%Moreau%NULL%2,                Christopher%Niles%NULL%2,                Saad%Nseir%NULL%3,                Thierry%Onimus%NULL%2,                Erika%Parmentier%NULL%2,                Sebastien%Préau%NULL%2,                Laurent%Robriquet%NULL%2,                Anahita%Rouze%NULL%2,                Sophie%Six%NULL%2,                Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                Yi%Xiang%NULL%1,                Wei%Fang%NULL%1,                Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                Boqun%Li%279685211@qq.com%1,                Yanjun%Hu%huyanjun@163.com%1,                Chunhui%Lang%NULL%1,                Daoqiu%Huang%NULL%1,                Qiuyan%Sun%NULL%1,                Yan%Xiong%NULL%2,                Xia%Huang%NULL%1,                Jinglong%Lv%NULL%1,                Yaling%Luo%NULL%1,                Li%Shen%NULL%1,                Haoran%Yang%NULL%1,                Gu%Huang%NULL%1,                Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,              Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,              Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,              Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                Min%Pan%NULL%1,                Xiumei%Zhang%NULL%1,                Mingfeng%Han%fyhmf@163.com%2,                Xiaoyun%Fan%13956988552@126.com%1,                Fengde%Zhao%NULL%1,                Manli%Miao%NULL%1,                Jing%Xu%NULL%1,                Minglong%Guan%NULL%1,                Xia%Deng%NULL%1,                Xu%Chen%NULL%1,                Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                J.%Fang%NULL%1,                Y.%Zhu%NULL%1,                L.%Chen%NULL%1,                F.%Ding%NULL%1,                R.%Zhou%NULL%1,                L.%Ge%NULL%1,                F.%Wang%NULL%1,                Q.%Chen%NULL%1,                Y.%Zhang%NULL%1,                Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                Jun%Liu%NULL%2,                Xinguo%Zhao%NULL%1,                Chengyuan%Liu%NULL%1,                Wei%Wang%NULL%2,                Dawei%Wang%NULL%1,                Wei%Xu%NULL%1,                Chunyu%Zhang%NULL%1,                Jiong%Yu%NULL%1,                Bin%Jiang%NULL%1,                Hongcui%Cao%hccao@zju.edu.cn%1,                Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                Jianming%Zhao%NULL%1,                Ningfang%Lian%1533532863@qq.com%1,                Su%Lin%NULL%1,                Qunfang%Xie%NULL%1,                Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                Chengcheng%Yu%NULL%2,                Jing%Qu%NULL%1,                Lieguang%Zhang%NULL%2,                Songfeng%Jiang%NULL%1,                Deyang%Huang%NULL%1,                Bihua%Chen%NULL%1,                Zhiping%Zhang%NULL%1,                Wanhua%Guan%NULL%1,                Zhoukun%Ling%NULL%1,                Rui%Jiang%NULL%1,                Tianli%Hu%NULL%1,                Yan%Ding%NULL%1,                Lin%Lin%NULL%1,                Qingxin%Gan%NULL%1,                Liangping%Luo%tluolp@jnu.edu.cn%2,                Xiaoping%Tang%xtang@21cn.com%1,                Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                Qiqi%Cao%NULL%1,                Le%Qin%NULL%1,                Xiaoyang%Wang%NULL%1,                Zenghui%Cheng%NULL%1,                Ashan%Pan%NULL%1,                Jianyi%Dai%NULL%1,                Qingfeng%Sun%NULL%1,                Fengquan%Zhao%NULL%1,                Jieming%Qu%NULL%0,                Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,          Sean Wei Xiang%Ong%xref no email%5,          Shirin%Kalimuddin%xref no email%5,          Jenny G.%Low%xref no email%5,          Seow Yen%Tan%xref no email%5,          Jiashen%Loh%xref no email%5,          Oon-Tek%Ng%xref no email%5,          Kalisvar%Marimuthu%xref no email%5,          Li Wei%Ang%xref no email%5,          Tze Minn%Mak%xref no email%5,          Sok Kiang%Lau%xref no email%5,          Danielle E.%Anderson%xref no email%5,          Kian Sing%Chan%xref no email%5,          Thean Yen%Tan%xref no email%5,          Tong Yong%Ng%xref no email%5,          Lin%Cui%xref no email%5,          Zubaidah%Said%xref no email%5,          Lalitha%Kurupatham%xref no email%5,          Mark I-Cheng%Chen%xref no email%5,          Monica%Chan%xref no email%5,          Shawn%Vasoo%xref no email%5,          Lin-Fa%Wang%xref no email%5,          Boon Huan%Tan%xref no email%5,          Raymond Tzer Pin%Lin%xref no email%5,          Vernon Jian Ming%Lee%xref no email%5,          Yee-Sin%Leo%xref no email%5,          David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,              Cao%Yi-yuan%coreGivesNoEmail%0,              Dong%Xiang%coreGivesNoEmail%0,              Gao%Ya-dong%coreGivesNoEmail%0,              Yan%You-qin%coreGivesNoEmail%0,              Yang%Yi-bin%coreGivesNoEmail%0,              Yuan%Ya-dong%coreGivesNoEmail%0,              Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,              National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,              Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,              The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                Areeba%Ali%NULL%1,                Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                Jaime A.%Cardona-Ospina%NULL%1,                Estefanía%Gutiérrez-Ocampo%NULL%1,                Rhuvi%Villamizar-Peña%NULL%1,                Yeimer%Holguin-Rivera%NULL%1,                Juan Pablo%Escalera-Antezana%NULL%1,                Lucia Elena%Alvarado-Arnez%NULL%1,                D. Katterine%Bonilla-Aldana%NULL%1,                Carlos%Franco-Paredes%NULL%1,                Andrés F.%Henao-Martinez%NULL%1,                Alberto%Paniz-Mondolfi%NULL%1,                Guillermo J.%Lagos-Grisales%NULL%1,                Eduardo%Ramírez-Vallejo%NULL%1,                Jose A.%Suárez%NULL%1,                Lysien I.%Zambrano%NULL%1,                Wilmer E.%Villamil-Gómez%NULL%1,                Graciela J.%Balbin-Ramon%NULL%1,                Ali A.%Rabaan%NULL%1,                Harapan%Harapan%NULL%1,                Kuldeep%Dhama%NULL%1,                Hiroshi%Nishiura%NULL%2,                Hiromitsu%Kataoka%NULL%1,                Tauseef%Ahmad%NULL%1,                Ranjit%Sah%NULL%2,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                Ben%Van Calster%NULL%1,                Gary S%Collins%NULL%1,                Richard D%Riley%NULL%1,                Georg%Heinze%NULL%1,                Ewoud%Schuit%NULL%1,                Marc M J%Bonten%NULL%1,                Johanna A A%Damen%NULL%1,                Thomas P A%Debray%NULL%1,                Maarten%De Vos%NULL%1,                Paula%Dhiman%NULL%1,                Maria C%Haller%NULL%1,                Michael O%Harhay%NULL%1,                Liesbet%Henckaerts%NULL%1,                Nina%Kreuzberger%NULL%1,                Anna%Lohmann%NULL%1,                Kim%Luijken%NULL%1,                Jie%Ma%NULL%1,                Constanza L%Andaur Navarro%NULL%1,                Johannes B%Reitsma%NULL%1,                Jamie C%Sergeant%NULL%1,                Chunhu%Shi%NULL%1,                Nicole%Skoetz%NULL%1,                Luc J M%Smits%NULL%1,                Kym I E%Snell%NULL%1,                Matthew%Sperrin%NULL%1,                René%Spijker%NULL%1,                Ewout W%Steyerberg%NULL%1,                Toshihiko%Takada%NULL%1,                Sander M J%van Kuijk%NULL%1,                Florien S%van Royen%NULL%1,                Christine%Wallisch%NULL%1,                Lotty%Hooft%NULL%1,                Karel G M%Moons%NULL%1,                Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                Jung Wan%Park%NULL%3,                Moran%Ki%NULL%1,                Mi-Yeon%Yeon%NULL%3,                Jin%Kim%NULL%1,                Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                Soyoung%Jung%syjung@kiom.re.kr%1,                Aeran%Kim%arkim@kiom.re.kr%1,                Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                D. S. Y.%Chong%NULL%1,                W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                Vera%Regitz-Zagrosek%NULL%1,                Hannelore K.%Neuhauser%NULL%1,                Rosemary%Morgan%NULL%1,                Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -4203,7 +4428,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>872</v>
+        <v>946</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -4249,7 +4474,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>873</v>
+        <v>947</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -4295,7 +4520,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>874</v>
+        <v>948</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -4341,7 +4566,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>875</v>
+        <v>949</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -4387,7 +4612,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>876</v>
+        <v>950</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -4433,7 +4658,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>877</v>
+        <v>951</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -4479,7 +4704,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>878</v>
+        <v>952</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -4525,7 +4750,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>879</v>
+        <v>953</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -4571,7 +4796,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>880</v>
+        <v>954</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -4617,7 +4842,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>881</v>
+        <v>955</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -4663,7 +4888,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>882</v>
+        <v>956</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -4709,7 +4934,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>883</v>
+        <v>957</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -4755,7 +4980,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>884</v>
+        <v>958</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -4801,7 +5026,7 @@
         <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>441</v>
+        <v>959</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -4847,7 +5072,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>885</v>
+        <v>960</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -4893,7 +5118,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>886</v>
+        <v>961</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -4939,7 +5164,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>887</v>
+        <v>962</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4985,7 +5210,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>888</v>
+        <v>963</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -5031,7 +5256,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>889</v>
+        <v>964</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -5077,7 +5302,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>890</v>
+        <v>965</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -5123,7 +5348,7 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>891</v>
+        <v>966</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -5169,7 +5394,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>892</v>
+        <v>967</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -5215,7 +5440,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>893</v>
+        <v>968</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -5261,7 +5486,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>894</v>
+        <v>969</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -5307,7 +5532,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>895</v>
+        <v>970</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -5353,7 +5578,7 @@
         <v>782</v>
       </c>
       <c r="E27" t="s">
-        <v>896</v>
+        <v>971</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -5399,7 +5624,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>897</v>
+        <v>972</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -5445,7 +5670,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>898</v>
+        <v>973</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -5491,7 +5716,7 @@
         <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>899</v>
+        <v>974</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -5537,7 +5762,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>900</v>
+        <v>975</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -5583,7 +5808,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>901</v>
+        <v>976</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -5629,7 +5854,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>902</v>
+        <v>977</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -5675,7 +5900,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>903</v>
+        <v>978</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -5721,7 +5946,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>904</v>
+        <v>979</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -5767,7 +5992,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>905</v>
+        <v>980</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -5813,7 +6038,7 @@
         <v>793</v>
       </c>
       <c r="E37" t="s">
-        <v>906</v>
+        <v>981</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -5859,7 +6084,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>907</v>
+        <v>982</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -5905,7 +6130,7 @@
         <v>796</v>
       </c>
       <c r="E39" t="s">
-        <v>908</v>
+        <v>983</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8215" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8488" uniqueCount="1021">
   <si>
     <t>Doi</t>
   </si>
@@ -4015,6 +4015,117 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                Vera%Regitz-Zagrosek%NULL%1,                Hannelore K.%Neuhauser%NULL%1,                Rosemary%Morgan%NULL%1,                Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                 Jordi%Rello%NULL%1,                 Sofia%Tejada%NULL%1,                 Alejandro%Martín%NULL%1,                 Goiatz%Balziskueta%NULL%1,                 Cristina%Vinuesa%NULL%1,                 Borja%Fernández-Miret%NULL%1,                 Ana%Villagra%NULL%1,                 Ana%Vallejo%NULL%1,                 Ana%San Sebastián%NULL%1,                 Sara%Cabañes%NULL%1,                 Sebastián%Iribarren%NULL%1,                 Fernando%Fonseca%NULL%1,                 Javier%Maynar%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                 Bijan J.%Ghassemieh%NULL%2,                 Michelle%Nichols%NULL%2,                 Richard%Kim%NULL%2,                 Keith R.%Jerome%NULL%2,                 Arun K.%Nalla%NULL%2,                 Alexander L.%Greninger%NULL%2,                 Sudhakar%Pipavath%NULL%2,                 Mark M.%Wurfel%NULL%2,                 Laura%Evans%NULL%2,                 Patricia A.%Kritek%NULL%2,                 T. Eoin%West%NULL%2,                 Andrew%Luks%NULL%2,                 Anthony%Gerbino%NULL%2,                 Chris R.%Dale%NULL%2,                 Jason D.%Goldman%NULL%2,                 Shane%O’Mahony%NULL%2,                 Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                 Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                 Wenlin%Cheng%NULL%2,                 Lei%Yu%NULL%2,                 Ya-Kun%Liu%NULL%2,                 Xiaoyong%Hu%NULL%2,                 Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                 Tangkai%Qi%NULL%2,                 Li%Liu%NULL%2,                 Yun%Ling%NULL%3,                 Zhiping%Qian%NULL%2,                 Tao%Li%NULL%3,                 Feng%Li%NULL%2,                 Qingnian%Xu%NULL%2,                 Yuyi%Zhang%NULL%2,                 Shuibao%Xu%NULL%2,                 Zhigang%Song%NULL%2,                 Yigang%Zeng%NULL%2,                 Yinzhong%Shen%NULL%2,                 Yuxin%Shi%NULL%4,                 Tongyu%Zhu%NULL%2,                 Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                 Min%Zhou%NULL%6,                 Xuan%Dong%NULL%3,                 Jieming%Qu%NULL%5,                 Fengyun%Gong%NULL%3,                 Yang%Han%NULL%3,                 Yang%Qiu%NULL%3,                 Jingli%Wang%NULL%3,                 Ying%Liu%NULL%6,                 Yuan%Wei%NULL%0,                 Jia'an%Xia%NULL%0,                 Ting%Yu%NULL%0,                 Xinxin%Zhang%NULL%5,                 Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                 Zhe%Dai%NULL%1,                 Pingzheng%Mo%NULL%1,                 Xinyu%Li%NULL%1,                 Zhiyong%Ma%NULL%1,                 Shihui%Song%NULL%1,                 Xiaoping%Chen%NULL%1,                 Mingqi%Luo%NULL%1,                 Ke%Liang%NULL%1,                 Shicheng%Gao%NULL%1,                 Yongxi%Zhang%NULL%1,                 Liping%Deng%dengdeng78@126.com%1,                 Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                 Di%Wu%NULL%0,                 Huilong%Chen%NULL%0,                 Weiming%Yan%NULL%0,                 Danlei%Yang%NULL%0,                 Guang%Chen%NULL%0,                 Ke%Ma%NULL%0,                 Dong%Xu%NULL%0,                 Haijing%Yu%NULL%0,                 Hongwu%Wang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%0,                 Jia%Chen%NULL%0,                 Chen%Ding%NULL%0,                 Xiaoping%Zhang%NULL%0,                 Jiaquan%Huang%NULL%0,                 Meifang%Han%NULL%0,                 Shusheng%Li%NULL%0,                 Xiaoping%Luo%NULL%0,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                 Nan%Yang%NULL%0,                 Yanqiu%Wei%NULL%0,                 Huihui%Yue%NULL%0,                 Fengqin%Zhang%NULL%0,                 Jianping%Zhao%NULL%0,                 Li%He%NULL%0,                 Gaohong%Sheng%NULL%0,                 Peng%Chen%NULL%0,                 Gang%Li%NULL%0,                 Sisi%Wu%NULL%0,                 Bo%Zhang%NULL%0,                 Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                 Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                 Xiaoping%Miao%miaoxp@hust.edu.cn%0,                 Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                 Wenhua%Liu%liuwh_2013@126.com%0,                 Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                 Li-Rong%Liang%NULL%1,                 Cheng-Qing%Yang%NULL%1,                 Wen%Wang%NULL%3,                 Tan-Ze%Cao%NULL%1,                 Ming%Li%NULL%1,                 Guang-Yun%Guo%NULL%1,                 Juan%Du%NULL%1,                 Chun-Lan%Zheng%NULL%1,                 Qi%Zhu%NULL%1,                 Ming%Hu%NULL%1,                 Xu-Yan%Li%NULL%3,                 Peng%Peng%NULL%0,                 Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                 Li-Min%Liu%NULL%2,                 Wen%Yin%NULL%0,                 Wen%Wang%NULL%0,                 Lu-Lu%Guan%NULL%2,                 Ming-Li%Yuan%NULL%2,                 Yu-Lei%Li%NULL%2,                 Yi%Hu%NULL%0,                 Xu-Yan%Li%NULL%0,                 Bing%Sun%NULL%2,                 Peng%Peng%NULL%0,                 Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                 Lei%Tu%NULL%1,                 Pingjun%Zhu%NULL%1,                 Mi%Mu%NULL%1,                 Runsheng%Wang%NULL%1,                 Pengcheng%Yang%NULL%1,                 Xi%Wang%NULL%1,                 Chao%Hu%NULL%1,                 Rongyu%Ping%NULL%1,                 Peng%Hu%NULL%1,                 Tianzhi%Li%NULL%1,                 Feng%Cao%NULL%1,                 Christopher%Chang%NULL%1,                 Qinyong%Hu%NULL%1,                 Yang%Jin%NULL%1,                 Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Wen-hua%Liang%NULL%0,                 Chun-quan%Ou%NULL%0,                 Jian-xing%He%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 David S.C.%Hui%NULL%0,                 Bin%Du%NULL%0,                 Lan-juan%Li%NULL%0,                 Guang%Zeng%NULL%0,                 Kwok-Yung%Yuen%NULL%0,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Ping-yan%Chen%NULL%0,                 Jie%Xiang%NULL%0,                 Shi-yue%Li%NULL%0,                 Jin-lin%Wang%NULL%0,                 Zi-jing%Liang%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                 Yeming%Wang%NULL%0,                 Xingwang%Li%NULL%0,                 Lili%Ren%NULL%0,                 Jianping%Zhao%NULL%0,                 Yi%Hu%NULL%0,                 Li%Zhang%NULL%0,                 Guohui%Fan%NULL%0,                 Jiuyang%Xu%NULL%0,                 Xiaoying%Gu%NULL%0,                 Zhenshun%Cheng%NULL%0,                 Ting%Yu%NULL%0,                 Jiaan%Xia%NULL%0,                 Yuan%Wei%NULL%0,                 Wenjuan%Wu%NULL%0,                 Xuelei%Xie%NULL%0,                 Wen%Yin%NULL%0,                 Hui%Li%NULL%0,                 Min%Liu%NULL%0,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Li%Guo%NULL%0,                 Jungang%Xie%NULL%0,                 Guangfa%Wang%NULL%0,                 Rongmeng%Jiang%NULL%0,                 Zhancheng%Gao%NULL%0,                 Qi%Jin%NULL%0,                 Jianwei%Wang%wangjw28@163.com%0,                 Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                 Shuyun%Xu%NULL%1,                 Muqing%Yu%NULL%1,                 Ke%Wang%NULL%2,                 Yu%Tao%NULL%1,                 Ying%Zhou%NULL%1,                 Jing%Shi%NULL%1,                 Min%Zhou%NULL%0,                 Bo%Wu%NULL%1,                 Zhenyu%Yang%NULL%1,                 Cong%Zhang%NULL%2,                 Junqing%Yue%NULL%1,                 Zhiguo%Zhang%NULL%1,                 Harald%Renz%NULL%1,                 Xiansheng%Liu%NULL%1,                 Jungang%Xie%NULL%0,                 Min%Xie%NULL%1,                 Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                 Yuan-Yuan%Fang%NULL%0,                 Yan%Deng%NULL%0,                 Wei%Liu%NULL%0,                 Mei-Fang%Wang%NULL%0,                 Jing-Ping%Ma%NULL%0,                 Wei%Xiao%NULL%0,                 Ying-Nan%Wang%NULL%0,                 Min-Hua%Zhong%NULL%0,                 Cheng-Hong%Li%NULL%0,                 Guang-Cai%Li%NULL%0,                 Hui-Guo%Liu%NULL%0,                 Xiu-Yuan%Hao%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,           Huijuan%Jin%xref no email%3,           Mengdie%Wang%xref no email%3,           Yu%Hu%xref no email%5,           Shengcai%Chen%xref no email%3,           Quanwei%He%xref no email%3,           Jiang%Chang%xref no email%3,           Candong%Hong%xref no email%3,           Yifan%Zhou%xref no email%3,           David%Wang%xref no email%3,           Xiaoping%Miao%xref no email%3,           Yanan%Li%xref no email%3,           Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%4,           Luoqi%Zhou%xref no email%1,           Ziwei%Hu%xref no email%1,           Shuoqi%Zhang%xref no email%1,           Sheng%Yang%xref no email%1,           Yu%Tao%xref no email%2,           Cuihong%Xie%xref no email%1,           Ke%Ma%xref no email%1,           Ke%Shang%xref no email%1,           Wei%Wang%xref no email%0,           Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                 Mikael%Chetboun%NULL%2,                 Julien%Poissy%NULL%3,                 Violeta%Raverdy%NULL%2,                 Jerome%Noulette%NULL%3,                 Alain%Duhamel%NULL%2,                 Julien%Labreuche%NULL%2,                 Daniel%Mathieu%NULL%5,                 Francois%Pattou%francois.pattou@univ-lille.fr%2,                 Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                 Robert%Caizzo%NULL%3,                 Morgan%Caplan%NULL%2,                 Nicolas%Cousin%NULL%2,                 Thibault%Duburcq%NULL%2,                 Arthur%Durand%NULL%2,                 Ahmed%El kalioubie%NULL%2,                 Raphael%Favory%NULL%2,                 Bruno%Garcia%NULL%2,                 Patrick%Girardie%NULL%2,                 Julien%Goutay%NULL%2,                 Marion%Houard%NULL%2,                 Emmanuelle%Jaillette%NULL%2,                 Nicolas%Kostuj%NULL%2,                 Geoffrey%Ledoux%NULL%2,                 Daniel%Mathieu%NULL%0,                 Anne Sophie%Moreau%NULL%2,                 Christopher%Niles%NULL%2,                 Saad%Nseir%NULL%3,                 Thierry%Onimus%NULL%2,                 Erika%Parmentier%NULL%2,                 Sebastien%Préau%NULL%2,                 Laurent%Robriquet%NULL%2,                 Anahita%Rouze%NULL%2,                 Sophie%Six%NULL%2,                 Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                 Yi%Xiang%NULL%1,                 Wei%Fang%NULL%1,                 Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                 Boqun%Li%279685211@qq.com%1,                 Yanjun%Hu%huyanjun@163.com%1,                 Chunhui%Lang%NULL%1,                 Daoqiu%Huang%NULL%1,                 Qiuyan%Sun%NULL%1,                 Yan%Xiong%NULL%2,                 Xia%Huang%NULL%1,                 Jinglong%Lv%NULL%1,                 Yaling%Luo%NULL%1,                 Li%Shen%NULL%1,                 Haoran%Yang%NULL%1,                 Gu%Huang%NULL%1,                 Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,               Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,               Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,               Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                 Min%Pan%NULL%1,                 Xiumei%Zhang%NULL%1,                 Mingfeng%Han%fyhmf@163.com%2,                 Xiaoyun%Fan%13956988552@126.com%1,                 Fengde%Zhao%NULL%1,                 Manli%Miao%NULL%1,                 Jing%Xu%NULL%1,                 Minglong%Guan%NULL%1,                 Xia%Deng%NULL%1,                 Xu%Chen%NULL%1,                 Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                 J.%Fang%NULL%1,                 Y.%Zhu%NULL%1,                 L.%Chen%NULL%1,                 F.%Ding%NULL%1,                 R.%Zhou%NULL%1,                 L.%Ge%NULL%1,                 F.%Wang%NULL%1,                 Q.%Chen%NULL%1,                 Y.%Zhang%NULL%1,                 Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                 Jun%Liu%NULL%2,                 Xinguo%Zhao%NULL%1,                 Chengyuan%Liu%NULL%1,                 Wei%Wang%NULL%2,                 Dawei%Wang%NULL%1,                 Wei%Xu%NULL%1,                 Chunyu%Zhang%NULL%1,                 Jiong%Yu%NULL%1,                 Bin%Jiang%NULL%1,                 Hongcui%Cao%hccao@zju.edu.cn%1,                 Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                 Jianming%Zhao%NULL%1,                 Ningfang%Lian%1533532863@qq.com%1,                 Su%Lin%NULL%1,                 Qunfang%Xie%NULL%1,                 Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                 Chengcheng%Yu%NULL%2,                 Jing%Qu%NULL%1,                 Lieguang%Zhang%NULL%2,                 Songfeng%Jiang%NULL%1,                 Deyang%Huang%NULL%1,                 Bihua%Chen%NULL%1,                 Zhiping%Zhang%NULL%1,                 Wanhua%Guan%NULL%1,                 Zhoukun%Ling%NULL%1,                 Rui%Jiang%NULL%1,                 Tianli%Hu%NULL%1,                 Yan%Ding%NULL%1,                 Lin%Lin%NULL%1,                 Qingxin%Gan%NULL%1,                 Liangping%Luo%tluolp@jnu.edu.cn%2,                 Xiaoping%Tang%xtang@21cn.com%1,                 Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                 Qiqi%Cao%NULL%1,                 Le%Qin%NULL%1,                 Xiaoyang%Wang%NULL%1,                 Zenghui%Cheng%NULL%1,                 Ashan%Pan%NULL%1,                 Jianyi%Dai%NULL%1,                 Qingfeng%Sun%NULL%1,                 Fengquan%Zhao%NULL%1,                 Jieming%Qu%NULL%0,                 Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,           Sean Wei Xiang%Ong%xref no email%5,           Shirin%Kalimuddin%xref no email%5,           Jenny G.%Low%xref no email%5,           Seow Yen%Tan%xref no email%5,           Jiashen%Loh%xref no email%5,           Oon-Tek%Ng%xref no email%5,           Kalisvar%Marimuthu%xref no email%5,           Li Wei%Ang%xref no email%5,           Tze Minn%Mak%xref no email%5,           Sok Kiang%Lau%xref no email%5,           Danielle E.%Anderson%xref no email%5,           Kian Sing%Chan%xref no email%5,           Thean Yen%Tan%xref no email%5,           Tong Yong%Ng%xref no email%5,           Lin%Cui%xref no email%5,           Zubaidah%Said%xref no email%5,           Lalitha%Kurupatham%xref no email%5,           Mark I-Cheng%Chen%xref no email%5,           Monica%Chan%xref no email%5,           Shawn%Vasoo%xref no email%5,           Lin-Fa%Wang%xref no email%5,           Boon Huan%Tan%xref no email%5,           Raymond Tzer Pin%Lin%xref no email%5,           Vernon Jian Ming%Lee%xref no email%5,           Yee-Sin%Leo%xref no email%5,           David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,               Cao%Yi-yuan%coreGivesNoEmail%0,               Dong%Xiang%coreGivesNoEmail%0,               Gao%Ya-dong%coreGivesNoEmail%0,               Yan%You-qin%coreGivesNoEmail%0,               Yang%Yi-bin%coreGivesNoEmail%0,               Yuan%Ya-dong%coreGivesNoEmail%0,               Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,               National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,               Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,               The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                 Areeba%Ali%NULL%1,                 Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                 Jaime A.%Cardona-Ospina%NULL%1,                 Estefanía%Gutiérrez-Ocampo%NULL%1,                 Rhuvi%Villamizar-Peña%NULL%1,                 Yeimer%Holguin-Rivera%NULL%1,                 Juan Pablo%Escalera-Antezana%NULL%1,                 Lucia Elena%Alvarado-Arnez%NULL%1,                 D. Katterine%Bonilla-Aldana%NULL%1,                 Carlos%Franco-Paredes%NULL%1,                 Andrés F.%Henao-Martinez%NULL%1,                 Alberto%Paniz-Mondolfi%NULL%1,                 Guillermo J.%Lagos-Grisales%NULL%1,                 Eduardo%Ramírez-Vallejo%NULL%1,                 Jose A.%Suárez%NULL%1,                 Lysien I.%Zambrano%NULL%1,                 Wilmer E.%Villamil-Gómez%NULL%1,                 Graciela J.%Balbin-Ramon%NULL%1,                 Ali A.%Rabaan%NULL%1,                 Harapan%Harapan%NULL%1,                 Kuldeep%Dhama%NULL%1,                 Hiroshi%Nishiura%NULL%2,                 Hiromitsu%Kataoka%NULL%1,                 Tauseef%Ahmad%NULL%1,                 Ranjit%Sah%NULL%2,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                 Ben%Van Calster%NULL%1,                 Gary S%Collins%NULL%1,                 Richard D%Riley%NULL%1,                 Georg%Heinze%NULL%1,                 Ewoud%Schuit%NULL%1,                 Marc M J%Bonten%NULL%1,                 Johanna A A%Damen%NULL%1,                 Thomas P A%Debray%NULL%1,                 Maarten%De Vos%NULL%1,                 Paula%Dhiman%NULL%1,                 Maria C%Haller%NULL%1,                 Michael O%Harhay%NULL%1,                 Liesbet%Henckaerts%NULL%1,                 Nina%Kreuzberger%NULL%1,                 Anna%Lohmann%NULL%1,                 Kim%Luijken%NULL%1,                 Jie%Ma%NULL%1,                 Constanza L%Andaur Navarro%NULL%1,                 Johannes B%Reitsma%NULL%1,                 Jamie C%Sergeant%NULL%1,                 Chunhu%Shi%NULL%1,                 Nicole%Skoetz%NULL%1,                 Luc J M%Smits%NULL%1,                 Kym I E%Snell%NULL%1,                 Matthew%Sperrin%NULL%1,                 René%Spijker%NULL%1,                 Ewout W%Steyerberg%NULL%1,                 Toshihiko%Takada%NULL%1,                 Sander M J%van Kuijk%NULL%1,                 Florien S%van Royen%NULL%1,                 Christine%Wallisch%NULL%1,                 Lotty%Hooft%NULL%1,                 Karel G M%Moons%NULL%1,                 Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                 Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                 Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                 Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                 Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                 Jung Wan%Park%NULL%3,                 Moran%Ki%NULL%1,                 Mi-Yeon%Yeon%NULL%3,                 Jin%Kim%NULL%1,                 Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                 Soyoung%Jung%syjung@kiom.re.kr%1,                 Aeran%Kim%arkim@kiom.re.kr%1,                 Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                 D. S. Y.%Chong%NULL%1,                 W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                 Vera%Regitz-Zagrosek%NULL%1,                 Hannelore K.%Neuhauser%NULL%1,                 Rosemary%Morgan%NULL%1,                 Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -4428,7 +4539,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>946</v>
+        <v>984</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -4474,7 +4585,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>947</v>
+        <v>985</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -4520,7 +4631,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>948</v>
+        <v>986</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -4566,7 +4677,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>949</v>
+        <v>987</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -4612,7 +4723,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>950</v>
+        <v>988</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -4658,7 +4769,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>951</v>
+        <v>989</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -4704,7 +4815,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>952</v>
+        <v>990</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -4750,7 +4861,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>953</v>
+        <v>991</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -4796,7 +4907,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>954</v>
+        <v>992</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -4842,7 +4953,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>955</v>
+        <v>993</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -4888,7 +4999,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>956</v>
+        <v>994</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -4934,7 +5045,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>957</v>
+        <v>995</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -4980,7 +5091,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>958</v>
+        <v>996</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -5026,7 +5137,7 @@
         <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>959</v>
+        <v>441</v>
       </c>
       <c r="F15" t="s">
         <v>114</v>
@@ -5072,7 +5183,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>960</v>
+        <v>997</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -5118,7 +5229,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>961</v>
+        <v>998</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -5164,7 +5275,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>962</v>
+        <v>999</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5210,7 +5321,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>963</v>
+        <v>1000</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -5256,7 +5367,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>964</v>
+        <v>1001</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -5302,7 +5413,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>965</v>
+        <v>1002</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -5348,7 +5459,7 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>966</v>
+        <v>1003</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -5394,7 +5505,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>967</v>
+        <v>1004</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -5440,7 +5551,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>968</v>
+        <v>1005</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -5486,7 +5597,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>969</v>
+        <v>1006</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -5532,7 +5643,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>970</v>
+        <v>1007</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -5578,7 +5689,7 @@
         <v>782</v>
       </c>
       <c r="E27" t="s">
-        <v>971</v>
+        <v>1008</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -5624,7 +5735,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>972</v>
+        <v>1009</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -5670,7 +5781,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>973</v>
+        <v>1010</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -5716,7 +5827,7 @@
         <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>974</v>
+        <v>1011</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -5762,7 +5873,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>975</v>
+        <v>1012</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -5808,7 +5919,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>976</v>
+        <v>1013</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -5854,7 +5965,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>977</v>
+        <v>1014</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -5900,7 +6011,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>978</v>
+        <v>1015</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -5946,7 +6057,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>979</v>
+        <v>1016</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -5992,7 +6103,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>980</v>
+        <v>1017</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -6038,7 +6149,7 @@
         <v>793</v>
       </c>
       <c r="E37" t="s">
-        <v>981</v>
+        <v>1018</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -6084,7 +6195,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>982</v>
+        <v>1019</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -6130,7 +6241,7 @@
         <v>796</v>
       </c>
       <c r="E39" t="s">
-        <v>983</v>
+        <v>1020</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8488" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8761" uniqueCount="1062">
   <si>
     <t>Doi</t>
   </si>
@@ -4126,6 +4126,129 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                 Vera%Regitz-Zagrosek%NULL%1,                 Hannelore K.%Neuhauser%NULL%1,                 Rosemary%Morgan%NULL%1,                 Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                  Jordi%Rello%NULL%1,                  Sofia%Tejada%NULL%1,                  Alejandro%Martín%NULL%1,                  Goiatz%Balziskueta%NULL%1,                  Cristina%Vinuesa%NULL%1,                  Borja%Fernández-Miret%NULL%1,                  Ana%Villagra%NULL%1,                  Ana%Vallejo%NULL%1,                  Ana%San Sebastián%NULL%1,                  Sara%Cabañes%NULL%1,                  Sebastián%Iribarren%NULL%1,                  Fernando%Fonseca%NULL%1,                  Javier%Maynar%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                  Bijan J.%Ghassemieh%NULL%2,                  Michelle%Nichols%NULL%2,                  Richard%Kim%NULL%2,                  Keith R.%Jerome%NULL%2,                  Arun K.%Nalla%NULL%2,                  Alexander L.%Greninger%NULL%2,                  Sudhakar%Pipavath%NULL%2,                  Mark M.%Wurfel%NULL%2,                  Laura%Evans%NULL%2,                  Patricia A.%Kritek%NULL%2,                  T. Eoin%West%NULL%2,                  Andrew%Luks%NULL%2,                  Anthony%Gerbino%NULL%2,                  Chris R.%Dale%NULL%2,                  Jason D.%Goldman%NULL%2,                  Shane%O’Mahony%NULL%2,                  Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                  Wenlin%Cheng%NULL%2,                  Lei%Yu%NULL%2,                  Ya-Kun%Liu%NULL%2,                  Xiaoyong%Hu%NULL%2,                  Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                  Tangkai%Qi%NULL%2,                  Li%Liu%NULL%2,                  Yun%Ling%NULL%3,                  Zhiping%Qian%NULL%2,                  Tao%Li%NULL%3,                  Feng%Li%NULL%2,                  Qingnian%Xu%NULL%2,                  Yuyi%Zhang%NULL%2,                  Shuibao%Xu%NULL%2,                  Zhigang%Song%NULL%2,                  Yigang%Zeng%NULL%2,                  Yinzhong%Shen%NULL%2,                  Yuxin%Shi%NULL%4,                  Tongyu%Zhu%NULL%2,                  Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                  Min%Zhou%NULL%6,                  Xuan%Dong%NULL%3,                  Jieming%Qu%NULL%5,                  Fengyun%Gong%NULL%3,                  Yang%Han%NULL%3,                  Yang%Qiu%NULL%3,                  Jingli%Wang%NULL%3,                  Ying%Liu%NULL%6,                  Yuan%Wei%NULL%0,                  Jia'an%Xia%NULL%0,                  Ting%Yu%NULL%0,                  Xinxin%Zhang%NULL%5,                  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                  Zhe%Dai%NULL%1,                  Pingzheng%Mo%NULL%1,                  Xinyu%Li%NULL%1,                  Zhiyong%Ma%NULL%1,                  Shihui%Song%NULL%1,                  Xiaoping%Chen%NULL%1,                  Mingqi%Luo%NULL%1,                  Ke%Liang%NULL%1,                  Shicheng%Gao%NULL%1,                  Yongxi%Zhang%NULL%1,                  Liping%Deng%dengdeng78@126.com%1,                  Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%0,                  Huilong%Chen%NULL%0,                  Weiming%Yan%NULL%0,                  Danlei%Yang%NULL%0,                  Guang%Chen%NULL%0,                  Ke%Ma%NULL%0,                  Dong%Xu%NULL%0,                  Haijing%Yu%NULL%0,                  Hongwu%Wang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%0,                  Jia%Chen%NULL%0,                  Chen%Ding%NULL%0,                  Xiaoping%Zhang%NULL%0,                  Jiaquan%Huang%NULL%0,                  Meifang%Han%NULL%0,                  Shusheng%Li%NULL%0,                  Xiaoping%Luo%NULL%0,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                  Nan%Yang%NULL%0,                  Yanqiu%Wei%NULL%0,                  Huihui%Yue%NULL%0,                  Fengqin%Zhang%NULL%0,                  Jianping%Zhao%NULL%0,                  Li%He%NULL%0,                  Gaohong%Sheng%NULL%0,                  Peng%Chen%NULL%0,                  Gang%Li%NULL%0,                  Sisi%Wu%NULL%0,                  Bo%Zhang%NULL%0,                  Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                  Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                  Xiaoping%Miao%miaoxp@hust.edu.cn%0,                  Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                  Wenhua%Liu%liuwh_2013@126.com%0,                  Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                  Li-Rong%Liang%NULL%1,                  Cheng-Qing%Yang%NULL%1,                  Wen%Wang%NULL%3,                  Tan-Ze%Cao%NULL%1,                  Ming%Li%NULL%1,                  Guang-Yun%Guo%NULL%1,                  Juan%Du%NULL%1,                  Chun-Lan%Zheng%NULL%1,                  Qi%Zhu%NULL%1,                  Ming%Hu%NULL%1,                  Xu-Yan%Li%NULL%3,                  Peng%Peng%NULL%0,                  Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                  Li-Min%Liu%NULL%2,                  Wen%Yin%NULL%0,                  Wen%Wang%NULL%0,                  Lu-Lu%Guan%NULL%2,                  Ming-Li%Yuan%NULL%2,                  Yu-Lei%Li%NULL%2,                  Yi%Hu%NULL%0,                  Xu-Yan%Li%NULL%0,                  Bing%Sun%NULL%2,                  Peng%Peng%NULL%0,                  Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                  Lei%Tu%NULL%1,                  Pingjun%Zhu%NULL%1,                  Mi%Mu%NULL%1,                  Runsheng%Wang%NULL%1,                  Pengcheng%Yang%NULL%1,                  Xi%Wang%NULL%1,                  Chao%Hu%NULL%1,                  Rongyu%Ping%NULL%1,                  Peng%Hu%NULL%1,                  Tianzhi%Li%NULL%1,                  Feng%Cao%NULL%1,                  Christopher%Chang%NULL%1,                  Qinyong%Hu%NULL%1,                  Yang%Jin%NULL%1,                  Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Wen-hua%Liang%NULL%0,                  Chun-quan%Ou%NULL%0,                  Jian-xing%He%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  David S.C.%Hui%NULL%0,                  Bin%Du%NULL%0,                  Lan-juan%Li%NULL%0,                  Guang%Zeng%NULL%0,                  Kwok-Yung%Yuen%NULL%0,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Ping-yan%Chen%NULL%0,                  Jie%Xiang%NULL%0,                  Shi-yue%Li%NULL%0,                  Jin-lin%Wang%NULL%0,                  Zi-jing%Liang%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                  Yeming%Wang%NULL%0,                  Xingwang%Li%NULL%0,                  Lili%Ren%NULL%0,                  Jianping%Zhao%NULL%0,                  Yi%Hu%NULL%0,                  Li%Zhang%NULL%0,                  Guohui%Fan%NULL%0,                  Jiuyang%Xu%NULL%0,                  Xiaoying%Gu%NULL%0,                  Zhenshun%Cheng%NULL%0,                  Ting%Yu%NULL%0,                  Jiaan%Xia%NULL%0,                  Yuan%Wei%NULL%0,                  Wenjuan%Wu%NULL%0,                  Xuelei%Xie%NULL%0,                  Wen%Yin%NULL%0,                  Hui%Li%NULL%0,                  Min%Liu%NULL%0,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Li%Guo%NULL%0,                  Jungang%Xie%NULL%0,                  Guangfa%Wang%NULL%0,                  Rongmeng%Jiang%NULL%0,                  Zhancheng%Gao%NULL%0,                  Qi%Jin%NULL%0,                  Jianwei%Wang%wangjw28@163.com%0,                  Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                  Shuyun%Xu%NULL%1,                  Muqing%Yu%NULL%1,                  Ke%Wang%NULL%2,                  Yu%Tao%NULL%1,                  Ying%Zhou%NULL%1,                  Jing%Shi%NULL%1,                  Min%Zhou%NULL%0,                  Bo%Wu%NULL%1,                  Zhenyu%Yang%NULL%1,                  Cong%Zhang%NULL%2,                  Junqing%Yue%NULL%1,                  Zhiguo%Zhang%NULL%1,                  Harald%Renz%NULL%1,                  Xiansheng%Liu%NULL%1,                  Jungang%Xie%NULL%0,                  Min%Xie%NULL%1,                  Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                  Yuan-Yuan%Fang%NULL%0,                  Yan%Deng%NULL%0,                  Wei%Liu%NULL%0,                  Mei-Fang%Wang%NULL%0,                  Jing-Ping%Ma%NULL%0,                  Wei%Xiao%NULL%0,                  Ying-Nan%Wang%NULL%0,                  Min-Hua%Zhong%NULL%0,                  Cheng-Hong%Li%NULL%0,                  Guang-Cai%Li%NULL%0,                  Hui-Guo%Liu%NULL%0,                  Xiu-Yuan%Hao%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,            Huijuan%Jin%xref no email%3,            Mengdie%Wang%xref no email%3,            Yu%Hu%xref no email%4,            Shengcai%Chen%xref no email%3,            Quanwei%He%xref no email%3,            Jiang%Chang%xref no email%3,            Candong%Hong%xref no email%3,            Yifan%Zhou%xref no email%3,            David%Wang%xref no email%3,            Xiaoping%Miao%xref no email%3,            Yanan%Li%xref no email%3,            Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%3,            Luoqi%Zhou%xref no email%1,            Ziwei%Hu%xref no email%1,            Shuoqi%Zhang%xref no email%1,            Sheng%Yang%xref no email%1,            Yu%Tao%xref no email%1,            Cuihong%Xie%xref no email%1,            Ke%Ma%xref no email%1,            Ke%Shang%xref no email%1,            Wei%Wang%xref no email%0,            Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                  Mikael%Chetboun%NULL%2,                  Julien%Poissy%NULL%3,                  Violeta%Raverdy%NULL%2,                  Jerome%Noulette%NULL%3,                  Alain%Duhamel%NULL%2,                  Julien%Labreuche%NULL%2,                  Daniel%Mathieu%NULL%5,                  Francois%Pattou%francois.pattou@univ-lille.fr%2,                  Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                  Robert%Caizzo%NULL%3,                  Morgan%Caplan%NULL%2,                  Nicolas%Cousin%NULL%2,                  Thibault%Duburcq%NULL%2,                  Arthur%Durand%NULL%2,                  Ahmed%El kalioubie%NULL%2,                  Raphael%Favory%NULL%2,                  Bruno%Garcia%NULL%2,                  Patrick%Girardie%NULL%2,                  Julien%Goutay%NULL%2,                  Marion%Houard%NULL%2,                  Emmanuelle%Jaillette%NULL%2,                  Nicolas%Kostuj%NULL%2,                  Geoffrey%Ledoux%NULL%2,                  Daniel%Mathieu%NULL%0,                  Anne Sophie%Moreau%NULL%2,                  Christopher%Niles%NULL%2,                  Saad%Nseir%NULL%3,                  Thierry%Onimus%NULL%2,                  Erika%Parmentier%NULL%2,                  Sebastien%Préau%NULL%2,                  Laurent%Robriquet%NULL%2,                  Anahita%Rouze%NULL%2,                  Sophie%Six%NULL%2,                  Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                  Yi%Xiang%NULL%1,                  Wei%Fang%NULL%1,                  Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                  Boqun%Li%279685211@qq.com%1,                  Yanjun%Hu%huyanjun@163.com%1,                  Chunhui%Lang%NULL%1,                  Daoqiu%Huang%NULL%1,                  Qiuyan%Sun%NULL%1,                  Yan%Xiong%NULL%2,                  Xia%Huang%NULL%1,                  Jinglong%Lv%NULL%1,                  Yaling%Luo%NULL%1,                  Li%Shen%NULL%1,                  Haoran%Yang%NULL%1,                  Gu%Huang%NULL%1,                  Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                  Min%Pan%NULL%1,                  Xiumei%Zhang%NULL%1,                  Mingfeng%Han%fyhmf@163.com%2,                  Xiaoyun%Fan%13956988552@126.com%1,                  Fengde%Zhao%NULL%1,                  Manli%Miao%NULL%1,                  Jing%Xu%NULL%1,                  Minglong%Guan%NULL%1,                  Xia%Deng%NULL%1,                  Xu%Chen%NULL%1,                  Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                  J.%Fang%NULL%1,                  Y.%Zhu%NULL%1,                  L.%Chen%NULL%1,                  F.%Ding%NULL%1,                  R.%Zhou%NULL%1,                  L.%Ge%NULL%1,                  F.%Wang%NULL%1,                  Q.%Chen%NULL%1,                  Y.%Zhang%NULL%1,                  Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                  Jun%Liu%NULL%2,                  Xinguo%Zhao%NULL%1,                  Chengyuan%Liu%NULL%1,                  Wei%Wang%NULL%2,                  Dawei%Wang%NULL%1,                  Wei%Xu%NULL%1,                  Chunyu%Zhang%NULL%1,                  Jiong%Yu%NULL%1,                  Bin%Jiang%NULL%1,                  Hongcui%Cao%hccao@zju.edu.cn%1,                  Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                  Jianming%Zhao%NULL%1,                  Ningfang%Lian%1533532863@qq.com%1,                  Su%Lin%NULL%1,                  Qunfang%Xie%NULL%1,                  Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                  Chengcheng%Yu%NULL%2,                  Jing%Qu%NULL%1,                  Lieguang%Zhang%NULL%2,                  Songfeng%Jiang%NULL%1,                  Deyang%Huang%NULL%1,                  Bihua%Chen%NULL%1,                  Zhiping%Zhang%NULL%1,                  Wanhua%Guan%NULL%1,                  Zhoukun%Ling%NULL%1,                  Rui%Jiang%NULL%1,                  Tianli%Hu%NULL%1,                  Yan%Ding%NULL%1,                  Lin%Lin%NULL%1,                  Qingxin%Gan%NULL%1,                  Liangping%Luo%tluolp@jnu.edu.cn%2,                  Xiaoping%Tang%xtang@21cn.com%1,                  Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                  Qiqi%Cao%NULL%1,                  Le%Qin%NULL%1,                  Xiaoyang%Wang%NULL%1,                  Zenghui%Cheng%NULL%1,                  Ashan%Pan%NULL%1,                  Jianyi%Dai%NULL%1,                  Qingfeng%Sun%NULL%1,                  Fengquan%Zhao%NULL%1,                  Jieming%Qu%NULL%0,                  Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,            Sean Wei Xiang%Ong%xref no email%5,            Shirin%Kalimuddin%xref no email%5,            Jenny G.%Low%xref no email%5,            Seow Yen%Tan%xref no email%5,            Jiashen%Loh%xref no email%5,            Oon-Tek%Ng%xref no email%5,            Kalisvar%Marimuthu%xref no email%5,            Li Wei%Ang%xref no email%5,            Tze Minn%Mak%xref no email%5,            Sok Kiang%Lau%xref no email%5,            Danielle E.%Anderson%xref no email%5,            Kian Sing%Chan%xref no email%5,            Thean Yen%Tan%xref no email%5,            Tong Yong%Ng%xref no email%5,            Lin%Cui%xref no email%5,            Zubaidah%Said%xref no email%5,            Lalitha%Kurupatham%xref no email%5,            Mark I-Cheng%Chen%xref no email%5,            Monica%Chan%xref no email%5,            Shawn%Vasoo%xref no email%5,            Lin-Fa%Wang%xref no email%5,            Boon Huan%Tan%xref no email%5,            Raymond Tzer Pin%Lin%xref no email%5,            Vernon Jian Ming%Lee%xref no email%5,            Yee-Sin%Leo%xref no email%5,            David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                Cao%Yi-yuan%coreGivesNoEmail%0,                Dong%Xiang%coreGivesNoEmail%0,                Gao%Ya-dong%coreGivesNoEmail%0,                Yan%You-qin%coreGivesNoEmail%0,                Yang%Yi-bin%coreGivesNoEmail%0,                Yuan%Ya-dong%coreGivesNoEmail%0,                Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,                National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,                Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,                The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                  Areeba%Ali%NULL%1,                  Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                  Jaime A.%Cardona-Ospina%NULL%1,                  Estefanía%Gutiérrez-Ocampo%NULL%1,                  Rhuvi%Villamizar-Peña%NULL%1,                  Yeimer%Holguin-Rivera%NULL%1,                  Juan Pablo%Escalera-Antezana%NULL%1,                  Lucia Elena%Alvarado-Arnez%NULL%1,                  D. Katterine%Bonilla-Aldana%NULL%1,                  Carlos%Franco-Paredes%NULL%1,                  Andrés F.%Henao-Martinez%NULL%1,                  Alberto%Paniz-Mondolfi%NULL%1,                  Guillermo J.%Lagos-Grisales%NULL%1,                  Eduardo%Ramírez-Vallejo%NULL%1,                  Jose A.%Suárez%NULL%1,                  Lysien I.%Zambrano%NULL%1,                  Wilmer E.%Villamil-Gómez%NULL%1,                  Graciela J.%Balbin-Ramon%NULL%1,                  Ali A.%Rabaan%NULL%1,                  Harapan%Harapan%NULL%1,                  Kuldeep%Dhama%NULL%1,                  Hiroshi%Nishiura%NULL%2,                  Hiromitsu%Kataoka%NULL%1,                  Tauseef%Ahmad%NULL%1,                  Ranjit%Sah%NULL%2,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                  Ben%Van Calster%NULL%1,                  Gary S%Collins%NULL%1,                  Richard D%Riley%NULL%1,                  Georg%Heinze%NULL%1,                  Ewoud%Schuit%NULL%1,                  Marc M J%Bonten%NULL%1,                  Johanna A A%Damen%NULL%1,                  Thomas P A%Debray%NULL%1,                  Maarten%De Vos%NULL%1,                  Paula%Dhiman%NULL%1,                  Maria C%Haller%NULL%1,                  Michael O%Harhay%NULL%1,                  Liesbet%Henckaerts%NULL%1,                  Nina%Kreuzberger%NULL%1,                  Anna%Lohmann%NULL%1,                  Kim%Luijken%NULL%1,                  Jie%Ma%NULL%1,                  Constanza L%Andaur Navarro%NULL%1,                  Johannes B%Reitsma%NULL%1,                  Jamie C%Sergeant%NULL%1,                  Chunhu%Shi%NULL%1,                  Nicole%Skoetz%NULL%1,                  Luc J M%Smits%NULL%1,                  Kym I E%Snell%NULL%1,                  Matthew%Sperrin%NULL%1,                  René%Spijker%NULL%1,                  Ewout W%Steyerberg%NULL%1,                  Toshihiko%Takada%NULL%1,                  Sander M J%van Kuijk%NULL%1,                  Florien S%van Royen%NULL%1,                  Christine%Wallisch%NULL%1,                  Lotty%Hooft%NULL%1,                  Karel G M%Moons%NULL%1,                  Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                  Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                  Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                  Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                  Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                  Jung Wan%Park%NULL%3,                  Moran%Ki%NULL%1,                  Mi-Yeon%Yeon%NULL%3,                  Jin%Kim%NULL%1,                  Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                  Soyoung%Jung%syjung@kiom.re.kr%1,                  Aeran%Kim%arkim@kiom.re.kr%1,                  Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                  D. S. Y.%Chong%NULL%1,                  W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                  Vera%Regitz-Zagrosek%NULL%1,                  Hannelore K.%Neuhauser%NULL%1,                  Rosemary%Morgan%NULL%1,                  Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -4539,7 +4662,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>984</v>
+        <v>1021</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -4551,7 +4674,7 @@
         <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>427</v>
+        <v>1022</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -4585,7 +4708,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>985</v>
+        <v>1023</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -4597,7 +4720,7 @@
         <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -4631,7 +4754,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>986</v>
+        <v>1025</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -4643,7 +4766,7 @@
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -4677,7 +4800,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>987</v>
+        <v>1026</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -4689,7 +4812,7 @@
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>427</v>
+        <v>1022</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -4723,7 +4846,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>988</v>
+        <v>1027</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -4735,7 +4858,7 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>427</v>
+        <v>1022</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -4769,7 +4892,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>989</v>
+        <v>1028</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -4781,7 +4904,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -4815,7 +4938,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>990</v>
+        <v>1029</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -4827,7 +4950,7 @@
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -4861,7 +4984,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>991</v>
+        <v>1030</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -4873,7 +4996,7 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -4907,7 +5030,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>992</v>
+        <v>1031</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -4919,7 +5042,7 @@
         <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -4953,7 +5076,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>993</v>
+        <v>1032</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -4965,7 +5088,7 @@
         <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -4999,7 +5122,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>994</v>
+        <v>1033</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -5011,7 +5134,7 @@
         <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -5045,7 +5168,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>995</v>
+        <v>1034</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -5057,7 +5180,7 @@
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -5091,7 +5214,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>996</v>
+        <v>1035</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -5103,7 +5226,7 @@
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>427</v>
+        <v>1022</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -5149,7 +5272,7 @@
         <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -5183,7 +5306,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>997</v>
+        <v>1036</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -5195,7 +5318,7 @@
         <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>427</v>
+        <v>1022</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -5229,7 +5352,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>998</v>
+        <v>1037</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -5241,7 +5364,7 @@
         <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -5275,7 +5398,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>999</v>
+        <v>1038</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5287,7 +5410,7 @@
         <v>622</v>
       </c>
       <c r="I18" t="s">
-        <v>444</v>
+        <v>1039</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -5321,7 +5444,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>1000</v>
+        <v>1040</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -5333,7 +5456,7 @@
         <v>625</v>
       </c>
       <c r="I19" t="s">
-        <v>444</v>
+        <v>1039</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -5367,7 +5490,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>1001</v>
+        <v>1041</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -5379,7 +5502,7 @@
         <v>128</v>
       </c>
       <c r="I20" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -5413,7 +5536,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>1002</v>
+        <v>1042</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -5425,7 +5548,7 @@
         <v>133</v>
       </c>
       <c r="I21" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -5459,7 +5582,7 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>1003</v>
+        <v>1043</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -5471,7 +5594,7 @@
         <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>444</v>
+        <v>1039</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -5505,7 +5628,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>1004</v>
+        <v>1044</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -5517,7 +5640,7 @@
         <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>427</v>
+        <v>1022</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -5551,7 +5674,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>1005</v>
+        <v>1045</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -5563,7 +5686,7 @@
         <v>142</v>
       </c>
       <c r="I24" t="s">
-        <v>427</v>
+        <v>1022</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -5597,7 +5720,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>1006</v>
+        <v>1046</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -5609,7 +5732,7 @@
         <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -5643,7 +5766,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>1007</v>
+        <v>1047</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -5655,7 +5778,7 @@
         <v>151</v>
       </c>
       <c r="I26" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -5689,7 +5812,7 @@
         <v>782</v>
       </c>
       <c r="E27" t="s">
-        <v>1008</v>
+        <v>1048</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -5701,7 +5824,7 @@
         <v>156</v>
       </c>
       <c r="I27" t="s">
-        <v>452</v>
+        <v>1049</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -5735,7 +5858,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>1009</v>
+        <v>1050</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -5747,7 +5870,7 @@
         <v>161</v>
       </c>
       <c r="I28" t="s">
-        <v>427</v>
+        <v>1022</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -5781,7 +5904,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>1010</v>
+        <v>1051</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -5793,7 +5916,7 @@
         <v>622</v>
       </c>
       <c r="I29" t="s">
-        <v>444</v>
+        <v>1039</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -5827,7 +5950,7 @@
         <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>1011</v>
+        <v>1052</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -5839,7 +5962,7 @@
         <v>56</v>
       </c>
       <c r="I30" t="s">
-        <v>444</v>
+        <v>1039</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -5873,7 +5996,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>1012</v>
+        <v>1053</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -5885,7 +6008,7 @@
         <v>56</v>
       </c>
       <c r="I31" t="s">
-        <v>444</v>
+        <v>1039</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -5919,7 +6042,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>1013</v>
+        <v>1054</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -5931,7 +6054,7 @@
         <v>166</v>
       </c>
       <c r="I32" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -5965,7 +6088,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>1014</v>
+        <v>1055</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -5977,7 +6100,7 @@
         <v>171</v>
       </c>
       <c r="I33" t="s">
-        <v>427</v>
+        <v>1022</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -6011,7 +6134,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>1015</v>
+        <v>1056</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -6023,7 +6146,7 @@
         <v>176</v>
       </c>
       <c r="I34" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -6057,7 +6180,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>1016</v>
+        <v>1057</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -6069,7 +6192,7 @@
         <v>181</v>
       </c>
       <c r="I35" t="s">
-        <v>452</v>
+        <v>1049</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -6103,7 +6226,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>1017</v>
+        <v>1058</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -6115,7 +6238,7 @@
         <v>186</v>
       </c>
       <c r="I36" t="s">
-        <v>427</v>
+        <v>1022</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -6149,7 +6272,7 @@
         <v>793</v>
       </c>
       <c r="E37" t="s">
-        <v>1018</v>
+        <v>1059</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -6161,7 +6284,7 @@
         <v>191</v>
       </c>
       <c r="I37" t="s">
-        <v>452</v>
+        <v>1049</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -6195,7 +6318,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>1019</v>
+        <v>1060</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -6207,7 +6330,7 @@
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>429</v>
+        <v>1024</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -6241,7 +6364,7 @@
         <v>796</v>
       </c>
       <c r="E39" t="s">
-        <v>1020</v>
+        <v>1061</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -6253,7 +6376,7 @@
         <v>200</v>
       </c>
       <c r="I39" t="s">
-        <v>452</v>
+        <v>1049</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8761" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9034" uniqueCount="1099">
   <si>
     <t>Doi</t>
   </si>
@@ -4249,6 +4249,117 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                  Vera%Regitz-Zagrosek%NULL%1,                  Hannelore K.%Neuhauser%NULL%1,                  Rosemary%Morgan%NULL%1,                  Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                   Jordi%Rello%NULL%1,                   Sofia%Tejada%NULL%1,                   Alejandro%Martín%NULL%1,                   Goiatz%Balziskueta%NULL%1,                   Cristina%Vinuesa%NULL%1,                   Borja%Fernández-Miret%NULL%1,                   Ana%Villagra%NULL%1,                   Ana%Vallejo%NULL%1,                   Ana%San Sebastián%NULL%1,                   Sara%Cabañes%NULL%1,                   Sebastián%Iribarren%NULL%1,                   Fernando%Fonseca%NULL%1,                   Javier%Maynar%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                   Bijan J.%Ghassemieh%NULL%2,                   Michelle%Nichols%NULL%2,                   Richard%Kim%NULL%2,                   Keith R.%Jerome%NULL%2,                   Arun K.%Nalla%NULL%2,                   Alexander L.%Greninger%NULL%2,                   Sudhakar%Pipavath%NULL%2,                   Mark M.%Wurfel%NULL%2,                   Laura%Evans%NULL%2,                   Patricia A.%Kritek%NULL%2,                   T. Eoin%West%NULL%2,                   Andrew%Luks%NULL%2,                   Anthony%Gerbino%NULL%2,                   Chris R.%Dale%NULL%2,                   Jason D.%Goldman%NULL%2,                   Shane%O’Mahony%NULL%2,                   Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                   Wenlin%Cheng%NULL%2,                   Lei%Yu%NULL%2,                   Ya-Kun%Liu%NULL%2,                   Xiaoyong%Hu%NULL%2,                   Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                   Tangkai%Qi%NULL%2,                   Li%Liu%NULL%2,                   Yun%Ling%NULL%3,                   Zhiping%Qian%NULL%2,                   Tao%Li%NULL%3,                   Feng%Li%NULL%2,                   Qingnian%Xu%NULL%2,                   Yuyi%Zhang%NULL%2,                   Shuibao%Xu%NULL%2,                   Zhigang%Song%NULL%2,                   Yigang%Zeng%NULL%2,                   Yinzhong%Shen%NULL%2,                   Yuxin%Shi%NULL%4,                   Tongyu%Zhu%NULL%2,                   Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                   Min%Zhou%NULL%6,                   Xuan%Dong%NULL%3,                   Jieming%Qu%NULL%5,                   Fengyun%Gong%NULL%3,                   Yang%Han%NULL%3,                   Yang%Qiu%NULL%3,                   Jingli%Wang%NULL%3,                   Ying%Liu%NULL%6,                   Yuan%Wei%NULL%0,                   Jia'an%Xia%NULL%0,                   Ting%Yu%NULL%0,                   Xinxin%Zhang%NULL%5,                   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                   Zhe%Dai%NULL%1,                   Pingzheng%Mo%NULL%1,                   Xinyu%Li%NULL%1,                   Zhiyong%Ma%NULL%1,                   Shihui%Song%NULL%1,                   Xiaoping%Chen%NULL%1,                   Mingqi%Luo%NULL%1,                   Ke%Liang%NULL%1,                   Shicheng%Gao%NULL%1,                   Yongxi%Zhang%NULL%1,                   Liping%Deng%dengdeng78@126.com%1,                   Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%0,                   Huilong%Chen%NULL%0,                   Weiming%Yan%NULL%0,                   Danlei%Yang%NULL%0,                   Guang%Chen%NULL%0,                   Ke%Ma%NULL%0,                   Dong%Xu%NULL%0,                   Haijing%Yu%NULL%0,                   Hongwu%Wang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%0,                   Jia%Chen%NULL%0,                   Chen%Ding%NULL%0,                   Xiaoping%Zhang%NULL%0,                   Jiaquan%Huang%NULL%0,                   Meifang%Han%NULL%0,                   Shusheng%Li%NULL%0,                   Xiaoping%Luo%NULL%0,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                   Nan%Yang%NULL%0,                   Yanqiu%Wei%NULL%0,                   Huihui%Yue%NULL%0,                   Fengqin%Zhang%NULL%0,                   Jianping%Zhao%NULL%0,                   Li%He%NULL%0,                   Gaohong%Sheng%NULL%0,                   Peng%Chen%NULL%0,                   Gang%Li%NULL%0,                   Sisi%Wu%NULL%0,                   Bo%Zhang%NULL%0,                   Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                   Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                   Xiaoping%Miao%miaoxp@hust.edu.cn%0,                   Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                   Wenhua%Liu%liuwh_2013@126.com%0,                   Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                   Li-Rong%Liang%NULL%1,                   Cheng-Qing%Yang%NULL%1,                   Wen%Wang%NULL%3,                   Tan-Ze%Cao%NULL%1,                   Ming%Li%NULL%1,                   Guang-Yun%Guo%NULL%1,                   Juan%Du%NULL%1,                   Chun-Lan%Zheng%NULL%1,                   Qi%Zhu%NULL%1,                   Ming%Hu%NULL%1,                   Xu-Yan%Li%NULL%3,                   Peng%Peng%NULL%0,                   Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                   Li-Min%Liu%NULL%2,                   Wen%Yin%NULL%0,                   Wen%Wang%NULL%0,                   Lu-Lu%Guan%NULL%2,                   Ming-Li%Yuan%NULL%2,                   Yu-Lei%Li%NULL%2,                   Yi%Hu%NULL%0,                   Xu-Yan%Li%NULL%0,                   Bing%Sun%NULL%2,                   Peng%Peng%NULL%0,                   Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                   Lei%Tu%NULL%1,                   Pingjun%Zhu%NULL%1,                   Mi%Mu%NULL%1,                   Runsheng%Wang%NULL%1,                   Pengcheng%Yang%NULL%1,                   Xi%Wang%NULL%1,                   Chao%Hu%NULL%1,                   Rongyu%Ping%NULL%1,                   Peng%Hu%NULL%1,                   Tianzhi%Li%NULL%1,                   Feng%Cao%NULL%1,                   Christopher%Chang%NULL%1,                   Qinyong%Hu%NULL%1,                   Yang%Jin%NULL%1,                   Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Wen-hua%Liang%NULL%0,                   Chun-quan%Ou%NULL%0,                   Jian-xing%He%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   David S.C.%Hui%NULL%0,                   Bin%Du%NULL%0,                   Lan-juan%Li%NULL%0,                   Guang%Zeng%NULL%0,                   Kwok-Yung%Yuen%NULL%0,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Ping-yan%Chen%NULL%0,                   Jie%Xiang%NULL%0,                   Shi-yue%Li%NULL%0,                   Jin-lin%Wang%NULL%0,                   Zi-jing%Liang%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                   Yeming%Wang%NULL%0,                   Xingwang%Li%NULL%0,                   Lili%Ren%NULL%0,                   Jianping%Zhao%NULL%0,                   Yi%Hu%NULL%0,                   Li%Zhang%NULL%0,                   Guohui%Fan%NULL%0,                   Jiuyang%Xu%NULL%0,                   Xiaoying%Gu%NULL%0,                   Zhenshun%Cheng%NULL%0,                   Ting%Yu%NULL%0,                   Jiaan%Xia%NULL%0,                   Yuan%Wei%NULL%0,                   Wenjuan%Wu%NULL%0,                   Xuelei%Xie%NULL%0,                   Wen%Yin%NULL%0,                   Hui%Li%NULL%0,                   Min%Liu%NULL%0,                   Yan%Xiao%NULL%0,                   Hong%Gao%NULL%0,                   Li%Guo%NULL%0,                   Jungang%Xie%NULL%0,                   Guangfa%Wang%NULL%0,                   Rongmeng%Jiang%NULL%0,                   Zhancheng%Gao%NULL%0,                   Qi%Jin%NULL%0,                   Jianwei%Wang%wangjw28@163.com%0,                   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                   Shuyun%Xu%NULL%1,                   Muqing%Yu%NULL%1,                   Ke%Wang%NULL%2,                   Yu%Tao%NULL%1,                   Ying%Zhou%NULL%1,                   Jing%Shi%NULL%1,                   Min%Zhou%NULL%0,                   Bo%Wu%NULL%1,                   Zhenyu%Yang%NULL%1,                   Cong%Zhang%NULL%2,                   Junqing%Yue%NULL%1,                   Zhiguo%Zhang%NULL%1,                   Harald%Renz%NULL%1,                   Xiansheng%Liu%NULL%1,                   Jungang%Xie%NULL%0,                   Min%Xie%NULL%1,                   Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                   Yuan-Yuan%Fang%NULL%0,                   Yan%Deng%NULL%0,                   Wei%Liu%NULL%0,                   Mei-Fang%Wang%NULL%0,                   Jing-Ping%Ma%NULL%0,                   Wei%Xiao%NULL%0,                   Ying-Nan%Wang%NULL%0,                   Min-Hua%Zhong%NULL%0,                   Cheng-Hong%Li%NULL%0,                   Guang-Cai%Li%NULL%0,                   Hui-Guo%Liu%NULL%0,                   Xiu-Yuan%Hao%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%3,             Huijuan%Jin%xref no email%3,             Mengdie%Wang%xref no email%3,             Yu%Hu%xref no email%4,             Shengcai%Chen%xref no email%3,             Quanwei%He%xref no email%3,             Jiang%Chang%xref no email%3,             Candong%Hong%xref no email%3,             Yifan%Zhou%xref no email%3,             David%Wang%xref no email%3,             Xiaoping%Miao%xref no email%3,             Yanan%Li%xref no email%3,             Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%xref no email%3,             Luoqi%Zhou%xref no email%1,             Ziwei%Hu%xref no email%1,             Shuoqi%Zhang%xref no email%1,             Sheng%Yang%xref no email%1,             Yu%Tao%xref no email%1,             Cuihong%Xie%xref no email%1,             Ke%Ma%xref no email%1,             Ke%Shang%xref no email%1,             Wei%Wang%xref no email%0,             Dai-Shi%Tian%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                   Mikael%Chetboun%NULL%2,                   Julien%Poissy%NULL%3,                   Violeta%Raverdy%NULL%2,                   Jerome%Noulette%NULL%3,                   Alain%Duhamel%NULL%2,                   Julien%Labreuche%NULL%2,                   Daniel%Mathieu%NULL%5,                   Francois%Pattou%francois.pattou@univ-lille.fr%2,                   Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                   Robert%Caizzo%NULL%3,                   Morgan%Caplan%NULL%2,                   Nicolas%Cousin%NULL%2,                   Thibault%Duburcq%NULL%2,                   Arthur%Durand%NULL%2,                   Ahmed%El kalioubie%NULL%2,                   Raphael%Favory%NULL%2,                   Bruno%Garcia%NULL%2,                   Patrick%Girardie%NULL%2,                   Julien%Goutay%NULL%2,                   Marion%Houard%NULL%2,                   Emmanuelle%Jaillette%NULL%2,                   Nicolas%Kostuj%NULL%2,                   Geoffrey%Ledoux%NULL%2,                   Daniel%Mathieu%NULL%0,                   Anne Sophie%Moreau%NULL%2,                   Christopher%Niles%NULL%2,                   Saad%Nseir%NULL%3,                   Thierry%Onimus%NULL%2,                   Erika%Parmentier%NULL%2,                   Sebastien%Préau%NULL%2,                   Laurent%Robriquet%NULL%2,                   Anahita%Rouze%NULL%2,                   Sophie%Six%NULL%2,                   Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                   Yi%Xiang%NULL%1,                   Wei%Fang%NULL%1,                   Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                   Boqun%Li%279685211@qq.com%1,                   Yanjun%Hu%huyanjun@163.com%1,                   Chunhui%Lang%NULL%1,                   Daoqiu%Huang%NULL%1,                   Qiuyan%Sun%NULL%1,                   Yan%Xiong%NULL%2,                   Xia%Huang%NULL%1,                   Jinglong%Lv%NULL%1,                   Yaling%Luo%NULL%1,                   Li%Shen%NULL%1,                   Haoran%Yang%NULL%1,                   Gu%Huang%NULL%1,                   Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                 Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                 Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                 Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                   Min%Pan%NULL%1,                   Xiumei%Zhang%NULL%1,                   Mingfeng%Han%fyhmf@163.com%2,                   Xiaoyun%Fan%13956988552@126.com%1,                   Fengde%Zhao%NULL%1,                   Manli%Miao%NULL%1,                   Jing%Xu%NULL%1,                   Minglong%Guan%NULL%1,                   Xia%Deng%NULL%1,                   Xu%Chen%NULL%1,                   Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                   J.%Fang%NULL%1,                   Y.%Zhu%NULL%1,                   L.%Chen%NULL%1,                   F.%Ding%NULL%1,                   R.%Zhou%NULL%1,                   L.%Ge%NULL%1,                   F.%Wang%NULL%1,                   Q.%Chen%NULL%1,                   Y.%Zhang%NULL%1,                   Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                   Jun%Liu%NULL%2,                   Xinguo%Zhao%NULL%1,                   Chengyuan%Liu%NULL%1,                   Wei%Wang%NULL%2,                   Dawei%Wang%NULL%1,                   Wei%Xu%NULL%1,                   Chunyu%Zhang%NULL%1,                   Jiong%Yu%NULL%1,                   Bin%Jiang%NULL%1,                   Hongcui%Cao%hccao@zju.edu.cn%1,                   Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                   Jianming%Zhao%NULL%1,                   Ningfang%Lian%1533532863@qq.com%1,                   Su%Lin%NULL%1,                   Qunfang%Xie%NULL%1,                   Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                   Chengcheng%Yu%NULL%2,                   Jing%Qu%NULL%1,                   Lieguang%Zhang%NULL%2,                   Songfeng%Jiang%NULL%1,                   Deyang%Huang%NULL%1,                   Bihua%Chen%NULL%1,                   Zhiping%Zhang%NULL%1,                   Wanhua%Guan%NULL%1,                   Zhoukun%Ling%NULL%1,                   Rui%Jiang%NULL%1,                   Tianli%Hu%NULL%1,                   Yan%Ding%NULL%1,                   Lin%Lin%NULL%1,                   Qingxin%Gan%NULL%1,                   Liangping%Luo%tluolp@jnu.edu.cn%2,                   Xiaoping%Tang%xtang@21cn.com%1,                   Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                   Qiqi%Cao%NULL%1,                   Le%Qin%NULL%1,                   Xiaoyang%Wang%NULL%1,                   Zenghui%Cheng%NULL%1,                   Ashan%Pan%NULL%1,                   Jianyi%Dai%NULL%1,                   Qingfeng%Sun%NULL%1,                   Fengquan%Zhao%NULL%1,                   Jieming%Qu%NULL%0,                   Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,             Sean Wei Xiang%Ong%xref no email%5,             Shirin%Kalimuddin%xref no email%5,             Jenny G.%Low%xref no email%5,             Seow Yen%Tan%xref no email%5,             Jiashen%Loh%xref no email%5,             Oon-Tek%Ng%xref no email%5,             Kalisvar%Marimuthu%xref no email%5,             Li Wei%Ang%xref no email%5,             Tze Minn%Mak%xref no email%5,             Sok Kiang%Lau%xref no email%5,             Danielle E.%Anderson%xref no email%5,             Kian Sing%Chan%xref no email%5,             Thean Yen%Tan%xref no email%5,             Tong Yong%Ng%xref no email%5,             Lin%Cui%xref no email%5,             Zubaidah%Said%xref no email%5,             Lalitha%Kurupatham%xref no email%5,             Mark I-Cheng%Chen%xref no email%5,             Monica%Chan%xref no email%5,             Shawn%Vasoo%xref no email%5,             Lin-Fa%Wang%xref no email%5,             Boon Huan%Tan%xref no email%5,             Raymond Tzer Pin%Lin%xref no email%5,             Vernon Jian Ming%Lee%xref no email%5,             Yee-Sin%Leo%xref no email%5,             David Chien%Lye%xref no email%5]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                 Cao%Yi-yuan%coreGivesNoEmail%0,                 Dong%Xiang%coreGivesNoEmail%0,                 Gao%Ya-dong%coreGivesNoEmail%0,                 Yan%You-qin%coreGivesNoEmail%0,                 Yang%Yi-bin%coreGivesNoEmail%0,                 Yuan%Ya-dong%coreGivesNoEmail%0,                 Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,                 National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,                 Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,                 The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                   Areeba%Ali%NULL%1,                   Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                   Jaime A.%Cardona-Ospina%NULL%1,                   Estefanía%Gutiérrez-Ocampo%NULL%1,                   Rhuvi%Villamizar-Peña%NULL%1,                   Yeimer%Holguin-Rivera%NULL%1,                   Juan Pablo%Escalera-Antezana%NULL%1,                   Lucia Elena%Alvarado-Arnez%NULL%1,                   D. Katterine%Bonilla-Aldana%NULL%1,                   Carlos%Franco-Paredes%NULL%1,                   Andrés F.%Henao-Martinez%NULL%1,                   Alberto%Paniz-Mondolfi%NULL%1,                   Guillermo J.%Lagos-Grisales%NULL%1,                   Eduardo%Ramírez-Vallejo%NULL%1,                   Jose A.%Suárez%NULL%1,                   Lysien I.%Zambrano%NULL%1,                   Wilmer E.%Villamil-Gómez%NULL%1,                   Graciela J.%Balbin-Ramon%NULL%1,                   Ali A.%Rabaan%NULL%1,                   Harapan%Harapan%NULL%1,                   Kuldeep%Dhama%NULL%1,                   Hiroshi%Nishiura%NULL%2,                   Hiromitsu%Kataoka%NULL%1,                   Tauseef%Ahmad%NULL%1,                   Ranjit%Sah%NULL%2,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                   Ben%Van Calster%NULL%1,                   Gary S%Collins%NULL%1,                   Richard D%Riley%NULL%1,                   Georg%Heinze%NULL%1,                   Ewoud%Schuit%NULL%1,                   Marc M J%Bonten%NULL%1,                   Johanna A A%Damen%NULL%1,                   Thomas P A%Debray%NULL%1,                   Maarten%De Vos%NULL%1,                   Paula%Dhiman%NULL%1,                   Maria C%Haller%NULL%1,                   Michael O%Harhay%NULL%1,                   Liesbet%Henckaerts%NULL%1,                   Nina%Kreuzberger%NULL%1,                   Anna%Lohmann%NULL%1,                   Kim%Luijken%NULL%1,                   Jie%Ma%NULL%1,                   Constanza L%Andaur Navarro%NULL%1,                   Johannes B%Reitsma%NULL%1,                   Jamie C%Sergeant%NULL%1,                   Chunhu%Shi%NULL%1,                   Nicole%Skoetz%NULL%1,                   Luc J M%Smits%NULL%1,                   Kym I E%Snell%NULL%1,                   Matthew%Sperrin%NULL%1,                   René%Spijker%NULL%1,                   Ewout W%Steyerberg%NULL%1,                   Toshihiko%Takada%NULL%1,                   Sander M J%van Kuijk%NULL%1,                   Florien S%van Royen%NULL%1,                   Christine%Wallisch%NULL%1,                   Lotty%Hooft%NULL%1,                   Karel G M%Moons%NULL%1,                   Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                   Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                   Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                   Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                   Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                   Jung Wan%Park%NULL%3,                   Moran%Ki%NULL%1,                   Mi-Yeon%Yeon%NULL%3,                   Jin%Kim%NULL%1,                   Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                   Soyoung%Jung%syjung@kiom.re.kr%1,                   Aeran%Kim%arkim@kiom.re.kr%1,                   Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                   D. S. Y.%Chong%NULL%1,                   W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                   Vera%Regitz-Zagrosek%NULL%1,                   Hannelore K.%Neuhauser%NULL%1,                   Rosemary%Morgan%NULL%1,                   Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -4662,7 +4773,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>1021</v>
+        <v>1062</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -4708,7 +4819,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>1023</v>
+        <v>1063</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -4754,7 +4865,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>1025</v>
+        <v>1064</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -4800,7 +4911,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>1026</v>
+        <v>1065</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -4846,7 +4957,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>1027</v>
+        <v>1066</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -4892,7 +5003,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>1028</v>
+        <v>1067</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -4938,7 +5049,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>1029</v>
+        <v>1068</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -4984,7 +5095,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>1030</v>
+        <v>1069</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -5030,7 +5141,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>1031</v>
+        <v>1070</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -5076,7 +5187,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>1032</v>
+        <v>1071</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -5122,7 +5233,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>1033</v>
+        <v>1072</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -5168,7 +5279,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>1034</v>
+        <v>1073</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -5214,7 +5325,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>1035</v>
+        <v>1074</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -5306,7 +5417,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>1036</v>
+        <v>1075</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -5352,7 +5463,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>1037</v>
+        <v>1076</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -5398,7 +5509,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>1038</v>
+        <v>1077</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5444,7 +5555,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>1040</v>
+        <v>1078</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -5490,7 +5601,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>1041</v>
+        <v>1079</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -5536,7 +5647,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>1042</v>
+        <v>1080</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -5582,7 +5693,7 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>1043</v>
+        <v>1081</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -5628,7 +5739,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>1044</v>
+        <v>1082</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -5674,7 +5785,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>1045</v>
+        <v>1083</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -5720,7 +5831,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>1046</v>
+        <v>1084</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -5766,7 +5877,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>1047</v>
+        <v>1085</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -5812,7 +5923,7 @@
         <v>782</v>
       </c>
       <c r="E27" t="s">
-        <v>1048</v>
+        <v>1086</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -5858,7 +5969,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>1050</v>
+        <v>1087</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -5904,7 +6015,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>1051</v>
+        <v>1088</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -5950,7 +6061,7 @@
         <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>1052</v>
+        <v>1089</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -5996,7 +6107,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>1053</v>
+        <v>1090</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -6042,7 +6153,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>1054</v>
+        <v>1091</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -6088,7 +6199,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>1055</v>
+        <v>1092</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -6134,7 +6245,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>1056</v>
+        <v>1093</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -6180,7 +6291,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>1057</v>
+        <v>1094</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -6226,7 +6337,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>1058</v>
+        <v>1095</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -6272,7 +6383,7 @@
         <v>793</v>
       </c>
       <c r="E37" t="s">
-        <v>1059</v>
+        <v>1096</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -6318,7 +6429,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>1060</v>
+        <v>1097</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -6364,7 +6475,7 @@
         <v>796</v>
       </c>
       <c r="E39" t="s">
-        <v>1061</v>
+        <v>1098</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9034" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10594" uniqueCount="1280">
   <si>
     <t>Doi</t>
   </si>
@@ -4360,6 +4360,549 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                   Vera%Regitz-Zagrosek%NULL%1,                   Hannelore K.%Neuhauser%NULL%1,                   Rosemary%Morgan%NULL%1,                   Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                    Jordi%Rello%NULL%1,                    Sofia%Tejada%NULL%1,                    Alejandro%Martín%NULL%1,                    Goiatz%Balziskueta%NULL%1,                    Cristina%Vinuesa%NULL%1,                    Borja%Fernández-Miret%NULL%1,                    Ana%Villagra%NULL%1,                    Ana%Vallejo%NULL%1,                    Ana%San Sebastián%NULL%1,                    Sara%Cabañes%NULL%1,                    Sebastián%Iribarren%NULL%1,                    Fernando%Fonseca%NULL%1,                    Javier%Maynar%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                    Bijan J.%Ghassemieh%NULL%2,                    Michelle%Nichols%NULL%2,                    Richard%Kim%NULL%2,                    Keith R.%Jerome%NULL%2,                    Arun K.%Nalla%NULL%2,                    Alexander L.%Greninger%NULL%2,                    Sudhakar%Pipavath%NULL%2,                    Mark M.%Wurfel%NULL%2,                    Laura%Evans%NULL%2,                    Patricia A.%Kritek%NULL%2,                    T. Eoin%West%NULL%2,                    Andrew%Luks%NULL%2,                    Anthony%Gerbino%NULL%2,                    Chris R.%Dale%NULL%2,                    Jason D.%Goldman%NULL%2,                    Shane%O’Mahony%NULL%2,                    Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                    Wenlin%Cheng%NULL%2,                    Lei%Yu%NULL%2,                    Ya-Kun%Liu%NULL%2,                    Xiaoyong%Hu%NULL%2,                    Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                    Tangkai%Qi%NULL%2,                    Li%Liu%NULL%2,                    Yun%Ling%NULL%3,                    Zhiping%Qian%NULL%2,                    Tao%Li%NULL%3,                    Feng%Li%NULL%2,                    Qingnian%Xu%NULL%2,                    Yuyi%Zhang%NULL%2,                    Shuibao%Xu%NULL%2,                    Zhigang%Song%NULL%2,                    Yigang%Zeng%NULL%2,                    Yinzhong%Shen%NULL%2,                    Yuxin%Shi%NULL%4,                    Tongyu%Zhu%NULL%2,                    Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                    Min%Zhou%NULL%6,                    Xuan%Dong%NULL%3,                    Jieming%Qu%NULL%5,                    Fengyun%Gong%NULL%3,                    Yang%Han%NULL%3,                    Yang%Qiu%NULL%3,                    Jingli%Wang%NULL%3,                    Ying%Liu%NULL%6,                    Yuan%Wei%NULL%0,                    Jia'an%Xia%NULL%0,                    Ting%Yu%NULL%0,                    Xinxin%Zhang%NULL%5,                    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                    Zhe%Dai%NULL%1,                    Pingzheng%Mo%NULL%1,                    Xinyu%Li%NULL%1,                    Zhiyong%Ma%NULL%1,                    Shihui%Song%NULL%1,                    Xiaoping%Chen%NULL%1,                    Mingqi%Luo%NULL%1,                    Ke%Liang%NULL%1,                    Shicheng%Gao%NULL%1,                    Yongxi%Zhang%NULL%1,                    Liping%Deng%dengdeng78@126.com%1,                    Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%0,                    Huilong%Chen%NULL%0,                    Weiming%Yan%NULL%0,                    Danlei%Yang%NULL%0,                    Guang%Chen%NULL%0,                    Ke%Ma%NULL%0,                    Dong%Xu%NULL%0,                    Haijing%Yu%NULL%0,                    Hongwu%Wang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%0,                    Jia%Chen%NULL%0,                    Chen%Ding%NULL%0,                    Xiaoping%Zhang%NULL%0,                    Jiaquan%Huang%NULL%0,                    Meifang%Han%NULL%0,                    Shusheng%Li%NULL%0,                    Xiaoping%Luo%NULL%0,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                    Nan%Yang%NULL%0,                    Yanqiu%Wei%NULL%0,                    Huihui%Yue%NULL%0,                    Fengqin%Zhang%NULL%0,                    Jianping%Zhao%NULL%0,                    Li%He%NULL%0,                    Gaohong%Sheng%NULL%0,                    Peng%Chen%NULL%0,                    Gang%Li%NULL%0,                    Sisi%Wu%NULL%0,                    Bo%Zhang%NULL%0,                    Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                    Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                    Xiaoping%Miao%miaoxp@hust.edu.cn%0,                    Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                    Wenhua%Liu%liuwh_2013@126.com%0,                    Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                    Li-Rong%Liang%NULL%1,                    Cheng-Qing%Yang%NULL%1,                    Wen%Wang%NULL%3,                    Tan-Ze%Cao%NULL%1,                    Ming%Li%NULL%1,                    Guang-Yun%Guo%NULL%1,                    Juan%Du%NULL%1,                    Chun-Lan%Zheng%NULL%1,                    Qi%Zhu%NULL%1,                    Ming%Hu%NULL%1,                    Xu-Yan%Li%NULL%3,                    Peng%Peng%NULL%0,                    Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                    Li-Min%Liu%NULL%2,                    Wen%Yin%NULL%0,                    Wen%Wang%NULL%0,                    Lu-Lu%Guan%NULL%2,                    Ming-Li%Yuan%NULL%2,                    Yu-Lei%Li%NULL%2,                    Yi%Hu%NULL%0,                    Xu-Yan%Li%NULL%0,                    Bing%Sun%NULL%2,                    Peng%Peng%NULL%0,                    Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                    Lei%Tu%NULL%1,                    Pingjun%Zhu%NULL%1,                    Mi%Mu%NULL%1,                    Runsheng%Wang%NULL%1,                    Pengcheng%Yang%NULL%1,                    Xi%Wang%NULL%1,                    Chao%Hu%NULL%1,                    Rongyu%Ping%NULL%1,                    Peng%Hu%NULL%1,                    Tianzhi%Li%NULL%1,                    Feng%Cao%NULL%1,                    Christopher%Chang%NULL%1,                    Qinyong%Hu%NULL%1,                    Yang%Jin%NULL%1,                    Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Wen-hua%Liang%NULL%0,                    Chun-quan%Ou%NULL%0,                    Jian-xing%He%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    David S.C.%Hui%NULL%0,                    Bin%Du%NULL%0,                    Lan-juan%Li%NULL%0,                    Guang%Zeng%NULL%0,                    Kwok-Yung%Yuen%NULL%0,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Ping-yan%Chen%NULL%0,                    Jie%Xiang%NULL%0,                    Shi-yue%Li%NULL%0,                    Jin-lin%Wang%NULL%0,                    Zi-jing%Liang%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                    Yeming%Wang%NULL%0,                    Xingwang%Li%NULL%0,                    Lili%Ren%NULL%0,                    Jianping%Zhao%NULL%0,                    Yi%Hu%NULL%0,                    Li%Zhang%NULL%0,                    Guohui%Fan%NULL%0,                    Jiuyang%Xu%NULL%0,                    Xiaoying%Gu%NULL%0,                    Zhenshun%Cheng%NULL%0,                    Ting%Yu%NULL%0,                    Jiaan%Xia%NULL%0,                    Yuan%Wei%NULL%0,                    Wenjuan%Wu%NULL%0,                    Xuelei%Xie%NULL%0,                    Wen%Yin%NULL%0,                    Hui%Li%NULL%0,                    Min%Liu%NULL%0,                    Yan%Xiao%NULL%0,                    Hong%Gao%NULL%0,                    Li%Guo%NULL%0,                    Jungang%Xie%NULL%0,                    Guangfa%Wang%NULL%0,                    Rongmeng%Jiang%NULL%0,                    Zhancheng%Gao%NULL%0,                    Qi%Jin%NULL%0,                    Jianwei%Wang%wangjw28@163.com%0,                    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                    Shuyun%Xu%NULL%1,                    Muqing%Yu%NULL%1,                    Ke%Wang%NULL%2,                    Yu%Tao%NULL%1,                    Ying%Zhou%NULL%1,                    Jing%Shi%NULL%1,                    Min%Zhou%NULL%0,                    Bo%Wu%NULL%1,                    Zhenyu%Yang%NULL%1,                    Cong%Zhang%NULL%2,                    Junqing%Yue%NULL%1,                    Zhiguo%Zhang%NULL%1,                    Harald%Renz%NULL%1,                    Xiansheng%Liu%NULL%1,                    Jungang%Xie%NULL%0,                    Min%Xie%NULL%1,                    Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                    Yuan-Yuan%Fang%NULL%0,                    Yan%Deng%NULL%0,                    Wei%Liu%NULL%0,                    Mei-Fang%Wang%NULL%0,                    Jing-Ping%Ma%NULL%0,                    Wei%Xiao%NULL%0,                    Ying-Nan%Wang%NULL%0,                    Min-Hua%Zhong%NULL%0,                    Cheng-Hong%Li%NULL%0,                    Guang-Cai%Li%NULL%0,                    Hui-Guo%Liu%NULL%0,                    Xiu-Yuan%Hao%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0, Huijuan%Jin%xref no email%3, Mengdie%Wang%xref no email%3, Yu%Hu%xref no email%4, Shengcai%Chen%xref no email%3, Quanwei%He%xref no email%3, Jiang%Chang%xref no email%3, Candong%Hong%xref no email%3, Yifan%Zhou%xref no email%3, David%Wang%xref no email%3, Xiaoping%Miao%xref no email%3, Yanan%Li%xref no email%3, Bo%Hu%xref no email%4]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Elsevier BV</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%4,                    Mikael%Chetboun%NULL%2,                    Julien%Poissy%NULL%3,                    Violeta%Raverdy%NULL%2,                    Jerome%Noulette%NULL%3,                    Alain%Duhamel%NULL%2,                    Julien%Labreuche%NULL%2,                    Daniel%Mathieu%NULL%5,                    Francois%Pattou%francois.pattou@univ-lille.fr%2,                    Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                    Robert%Caizzo%NULL%3,                    Morgan%Caplan%NULL%2,                    Nicolas%Cousin%NULL%2,                    Thibault%Duburcq%NULL%2,                    Arthur%Durand%NULL%2,                    Ahmed%El kalioubie%NULL%2,                    Raphael%Favory%NULL%2,                    Bruno%Garcia%NULL%2,                    Patrick%Girardie%NULL%2,                    Julien%Goutay%NULL%2,                    Marion%Houard%NULL%2,                    Emmanuelle%Jaillette%NULL%2,                    Nicolas%Kostuj%NULL%2,                    Geoffrey%Ledoux%NULL%2,                    Daniel%Mathieu%NULL%0,                    Anne Sophie%Moreau%NULL%2,                    Christopher%Niles%NULL%2,                    Saad%Nseir%NULL%3,                    Thierry%Onimus%NULL%2,                    Erika%Parmentier%NULL%2,                    Sebastien%Préau%NULL%2,                    Laurent%Robriquet%NULL%2,                    Anahita%Rouze%NULL%2,                    Sophie%Six%NULL%2,                    Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                    Yi%Xiang%NULL%1,                    Wei%Fang%NULL%1,                    Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                    Boqun%Li%279685211@qq.com%1,                    Yanjun%Hu%huyanjun@163.com%1,                    Chunhui%Lang%NULL%1,                    Daoqiu%Huang%NULL%1,                    Qiuyan%Sun%NULL%1,                    Yan%Xiong%NULL%2,                    Xia%Huang%NULL%1,                    Jinglong%Lv%NULL%1,                    Yaling%Luo%NULL%1,                    Li%Shen%NULL%1,                    Haoran%Yang%NULL%1,                    Gu%Huang%NULL%1,                    Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                  Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                    Min%Pan%NULL%1,                    Xiumei%Zhang%NULL%1,                    Mingfeng%Han%fyhmf@163.com%2,                    Xiaoyun%Fan%13956988552@126.com%1,                    Fengde%Zhao%NULL%1,                    Manli%Miao%NULL%1,                    Jing%Xu%NULL%1,                    Minglong%Guan%NULL%1,                    Xia%Deng%NULL%1,                    Xu%Chen%NULL%1,                    Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                    J.%Fang%NULL%1,                    Y.%Zhu%NULL%1,                    L.%Chen%NULL%1,                    F.%Ding%NULL%1,                    R.%Zhou%NULL%1,                    L.%Ge%NULL%1,                    F.%Wang%NULL%1,                    Q.%Chen%NULL%1,                    Y.%Zhang%NULL%1,                    Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                    Jun%Liu%NULL%2,                    Xinguo%Zhao%NULL%1,                    Chengyuan%Liu%NULL%1,                    Wei%Wang%NULL%2,                    Dawei%Wang%NULL%1,                    Wei%Xu%NULL%1,                    Chunyu%Zhang%NULL%1,                    Jiong%Yu%NULL%1,                    Bin%Jiang%NULL%1,                    Hongcui%Cao%hccao@zju.edu.cn%1,                    Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                    Jianming%Zhao%NULL%1,                    Ningfang%Lian%1533532863@qq.com%1,                    Su%Lin%NULL%1,                    Qunfang%Xie%NULL%1,                    Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                    Chengcheng%Yu%NULL%2,                    Jing%Qu%NULL%1,                    Lieguang%Zhang%NULL%2,                    Songfeng%Jiang%NULL%1,                    Deyang%Huang%NULL%1,                    Bihua%Chen%NULL%1,                    Zhiping%Zhang%NULL%1,                    Wanhua%Guan%NULL%1,                    Zhoukun%Ling%NULL%1,                    Rui%Jiang%NULL%1,                    Tianli%Hu%NULL%1,                    Yan%Ding%NULL%1,                    Lin%Lin%NULL%1,                    Qingxin%Gan%NULL%1,                    Liangping%Luo%tluolp@jnu.edu.cn%2,                    Xiaoping%Tang%xtang@21cn.com%1,                    Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                    Qiqi%Cao%NULL%1,                    Le%Qin%NULL%1,                    Xiaoyang%Wang%NULL%1,                    Zenghui%Cheng%NULL%1,                    Ashan%Pan%NULL%1,                    Jianyi%Dai%NULL%1,                    Qingfeng%Sun%NULL%1,                    Fengquan%Zhao%NULL%1,                    Jieming%Qu%NULL%0,                    Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0, Sean Wei Xiang%Ong%xref no email%0, Shirin%Kalimuddin%xref no email%0, Jenny G.%Low%xref no email%0, Seow Yen%Tan%xref no email%0, Jiashen%Loh%xref no email%0, Oon-Tek%Ng%xref no email%0, Kalisvar%Marimuthu%xref no email%0, Li Wei%Ang%xref no email%0, Tze Minn%Mak%xref no email%0, Sok Kiang%Lau%xref no email%0, Danielle E.%Anderson%xref no email%0, Kian Sing%Chan%xref no email%0, Thean Yen%Tan%xref no email%0, Tong Yong%Ng%xref no email%0, Lin%Cui%xref no email%0, Zubaidah%Said%xref no email%0, Lalitha%Kurupatham%xref no email%0, Mark I-Cheng%Chen%xref no email%0, Monica%Chan%xref no email%0, Shawn%Vasoo%xref no email%0, Lin-Fa%Wang%xref no email%0, Boon Huan%Tan%xref no email%0, Raymond Tzer Pin%Lin%xref no email%0, Vernon Jian Ming%Lee%xref no email%0, Yee-Sin%Leo%xref no email%0, David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                  Cao%Yi-yuan%coreGivesNoEmail%0,                  Dong%Xiang%coreGivesNoEmail%0,                  Gao%Ya-dong%coreGivesNoEmail%0,                  Yan%You-qin%coreGivesNoEmail%0,                  Yang%Yi-bin%coreGivesNoEmail%0,                  Yuan%Ya-dong%coreGivesNoEmail%0,                  Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,                  National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,                  Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,                  The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                    Areeba%Ali%NULL%1,                    Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                    Jaime A.%Cardona-Ospina%NULL%1,                    Estefanía%Gutiérrez-Ocampo%NULL%1,                    Rhuvi%Villamizar-Peña%NULL%1,                    Yeimer%Holguin-Rivera%NULL%1,                    Juan Pablo%Escalera-Antezana%NULL%1,                    Lucia Elena%Alvarado-Arnez%NULL%1,                    D. Katterine%Bonilla-Aldana%NULL%1,                    Carlos%Franco-Paredes%NULL%1,                    Andrés F.%Henao-Martinez%NULL%1,                    Alberto%Paniz-Mondolfi%NULL%1,                    Guillermo J.%Lagos-Grisales%NULL%1,                    Eduardo%Ramírez-Vallejo%NULL%1,                    Jose A.%Suárez%NULL%1,                    Lysien I.%Zambrano%NULL%1,                    Wilmer E.%Villamil-Gómez%NULL%1,                    Graciela J.%Balbin-Ramon%NULL%1,                    Ali A.%Rabaan%NULL%1,                    Harapan%Harapan%NULL%1,                    Kuldeep%Dhama%NULL%1,                    Hiroshi%Nishiura%NULL%2,                    Hiromitsu%Kataoka%NULL%1,                    Tauseef%Ahmad%NULL%1,                    Ranjit%Sah%NULL%2,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                    Ben%Van Calster%NULL%1,                    Gary S%Collins%NULL%1,                    Richard D%Riley%NULL%1,                    Georg%Heinze%NULL%1,                    Ewoud%Schuit%NULL%1,                    Marc M J%Bonten%NULL%1,                    Johanna A A%Damen%NULL%1,                    Thomas P A%Debray%NULL%1,                    Maarten%De Vos%NULL%1,                    Paula%Dhiman%NULL%1,                    Maria C%Haller%NULL%1,                    Michael O%Harhay%NULL%1,                    Liesbet%Henckaerts%NULL%1,                    Nina%Kreuzberger%NULL%1,                    Anna%Lohmann%NULL%1,                    Kim%Luijken%NULL%1,                    Jie%Ma%NULL%1,                    Constanza L%Andaur Navarro%NULL%1,                    Johannes B%Reitsma%NULL%1,                    Jamie C%Sergeant%NULL%1,                    Chunhu%Shi%NULL%1,                    Nicole%Skoetz%NULL%1,                    Luc J M%Smits%NULL%1,                    Kym I E%Snell%NULL%1,                    Matthew%Sperrin%NULL%1,                    René%Spijker%NULL%1,                    Ewout W%Steyerberg%NULL%1,                    Toshihiko%Takada%NULL%1,                    Sander M J%van Kuijk%NULL%1,                    Florien S%van Royen%NULL%1,                    Christine%Wallisch%NULL%1,                    Lotty%Hooft%NULL%1,                    Karel G M%Moons%NULL%1,                    Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                    Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                    Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                    Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                    Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                    Jung Wan%Park%NULL%3,                    Moran%Ki%NULL%1,                    Mi-Yeon%Yeon%NULL%3,                    Jin%Kim%NULL%1,                    Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                    Soyoung%Jung%syjung@kiom.re.kr%1,                    Aeran%Kim%arkim@kiom.re.kr%1,                    Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                    D. S. Y.%Chong%NULL%1,                    W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                    Vera%Regitz-Zagrosek%NULL%1,                    Hannelore K.%Neuhauser%NULL%1,                    Rosemary%Morgan%NULL%1,                    Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                     Jordi%Rello%NULL%1,                     Sofia%Tejada%NULL%1,                     Alejandro%Martín%NULL%1,                     Goiatz%Balziskueta%NULL%1,                     Cristina%Vinuesa%NULL%1,                     Borja%Fernández-Miret%NULL%1,                     Ana%Villagra%NULL%1,                     Ana%Vallejo%NULL%1,                     Ana%San Sebastián%NULL%1,                     Sara%Cabañes%NULL%1,                     Sebastián%Iribarren%NULL%1,                     Fernando%Fonseca%NULL%1,                     Javier%Maynar%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                     Bijan J.%Ghassemieh%NULL%2,                     Michelle%Nichols%NULL%2,                     Richard%Kim%NULL%2,                     Keith R.%Jerome%NULL%2,                     Arun K.%Nalla%NULL%2,                     Alexander L.%Greninger%NULL%2,                     Sudhakar%Pipavath%NULL%2,                     Mark M.%Wurfel%NULL%2,                     Laura%Evans%NULL%2,                     Patricia A.%Kritek%NULL%2,                     T. Eoin%West%NULL%2,                     Andrew%Luks%NULL%2,                     Anthony%Gerbino%NULL%2,                     Chris R.%Dale%NULL%2,                     Jason D.%Goldman%NULL%2,                     Shane%O’Mahony%NULL%2,                     Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                     Wenlin%Cheng%NULL%2,                     Lei%Yu%NULL%2,                     Ya-Kun%Liu%NULL%2,                     Xiaoyong%Hu%NULL%2,                     Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                     Tangkai%Qi%NULL%2,                     Li%Liu%NULL%2,                     Yun%Ling%NULL%3,                     Zhiping%Qian%NULL%2,                     Tao%Li%NULL%3,                     Feng%Li%NULL%2,                     Qingnian%Xu%NULL%2,                     Yuyi%Zhang%NULL%2,                     Shuibao%Xu%NULL%2,                     Zhigang%Song%NULL%2,                     Yigang%Zeng%NULL%2,                     Yinzhong%Shen%NULL%2,                     Yuxin%Shi%NULL%4,                     Tongyu%Zhu%NULL%2,                     Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                     Min%Zhou%NULL%6,                     Xuan%Dong%NULL%3,                     Jieming%Qu%NULL%5,                     Fengyun%Gong%NULL%3,                     Yang%Han%NULL%3,                     Yang%Qiu%NULL%3,                     Jingli%Wang%NULL%3,                     Ying%Liu%NULL%6,                     Yuan%Wei%NULL%0,                     Jia'an%Xia%NULL%0,                     Ting%Yu%NULL%0,                     Xinxin%Zhang%NULL%5,                     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                     Zhe%Dai%NULL%1,                     Pingzheng%Mo%NULL%1,                     Xinyu%Li%NULL%1,                     Zhiyong%Ma%NULL%1,                     Shihui%Song%NULL%1,                     Xiaoping%Chen%NULL%1,                     Mingqi%Luo%NULL%1,                     Ke%Liang%NULL%1,                     Shicheng%Gao%NULL%1,                     Yongxi%Zhang%NULL%1,                     Liping%Deng%dengdeng78@126.com%1,                     Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                     Di%Wu%NULL%0,                     Huilong%Chen%NULL%0,                     Weiming%Yan%NULL%0,                     Danlei%Yang%NULL%0,                     Guang%Chen%NULL%0,                     Ke%Ma%NULL%0,                     Dong%Xu%NULL%0,                     Haijing%Yu%NULL%0,                     Hongwu%Wang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%0,                     Jia%Chen%NULL%0,                     Chen%Ding%NULL%0,                     Xiaoping%Zhang%NULL%0,                     Jiaquan%Huang%NULL%0,                     Meifang%Han%NULL%0,                     Shusheng%Li%NULL%0,                     Xiaoping%Luo%NULL%0,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                     Nan%Yang%NULL%0,                     Yanqiu%Wei%NULL%0,                     Huihui%Yue%NULL%0,                     Fengqin%Zhang%NULL%0,                     Jianping%Zhao%NULL%0,                     Li%He%NULL%0,                     Gaohong%Sheng%NULL%0,                     Peng%Chen%NULL%0,                     Gang%Li%NULL%0,                     Sisi%Wu%NULL%0,                     Bo%Zhang%NULL%0,                     Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                     Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                     Xiaoping%Miao%miaoxp@hust.edu.cn%0,                     Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                     Wenhua%Liu%liuwh_2013@126.com%0,                     Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                     Li-Rong%Liang%NULL%1,                     Cheng-Qing%Yang%NULL%1,                     Wen%Wang%NULL%3,                     Tan-Ze%Cao%NULL%1,                     Ming%Li%NULL%1,                     Guang-Yun%Guo%NULL%1,                     Juan%Du%NULL%1,                     Chun-Lan%Zheng%NULL%1,                     Qi%Zhu%NULL%1,                     Ming%Hu%NULL%1,                     Xu-Yan%Li%NULL%3,                     Peng%Peng%NULL%0,                     Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                     Li-Min%Liu%NULL%2,                     Wen%Yin%NULL%0,                     Wen%Wang%NULL%0,                     Lu-Lu%Guan%NULL%2,                     Ming-Li%Yuan%NULL%2,                     Yu-Lei%Li%NULL%2,                     Yi%Hu%NULL%0,                     Xu-Yan%Li%NULL%0,                     Bing%Sun%NULL%2,                     Peng%Peng%NULL%0,                     Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                     Lei%Tu%NULL%1,                     Pingjun%Zhu%NULL%1,                     Mi%Mu%NULL%1,                     Runsheng%Wang%NULL%1,                     Pengcheng%Yang%NULL%1,                     Xi%Wang%NULL%1,                     Chao%Hu%NULL%1,                     Rongyu%Ping%NULL%1,                     Peng%Hu%NULL%1,                     Tianzhi%Li%NULL%1,                     Feng%Cao%NULL%1,                     Christopher%Chang%NULL%1,                     Qinyong%Hu%NULL%1,                     Yang%Jin%NULL%1,                     Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Wen-hua%Liang%NULL%0,                     Chun-quan%Ou%NULL%0,                     Jian-xing%He%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     David S.C.%Hui%NULL%0,                     Bin%Du%NULL%0,                     Lan-juan%Li%NULL%0,                     Guang%Zeng%NULL%0,                     Kwok-Yung%Yuen%NULL%0,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Ping-yan%Chen%NULL%0,                     Jie%Xiang%NULL%0,                     Shi-yue%Li%NULL%0,                     Jin-lin%Wang%NULL%0,                     Zi-jing%Liang%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                     Yeming%Wang%NULL%0,                     Xingwang%Li%NULL%0,                     Lili%Ren%NULL%0,                     Jianping%Zhao%NULL%0,                     Yi%Hu%NULL%0,                     Li%Zhang%NULL%0,                     Guohui%Fan%NULL%0,                     Jiuyang%Xu%NULL%0,                     Xiaoying%Gu%NULL%0,                     Zhenshun%Cheng%NULL%0,                     Ting%Yu%NULL%0,                     Jiaan%Xia%NULL%0,                     Yuan%Wei%NULL%0,                     Wenjuan%Wu%NULL%0,                     Xuelei%Xie%NULL%0,                     Wen%Yin%NULL%0,                     Hui%Li%NULL%0,                     Min%Liu%NULL%0,                     Yan%Xiao%NULL%0,                     Hong%Gao%NULL%0,                     Li%Guo%NULL%0,                     Jungang%Xie%NULL%0,                     Guangfa%Wang%NULL%0,                     Rongmeng%Jiang%NULL%0,                     Zhancheng%Gao%NULL%0,                     Qi%Jin%NULL%0,                     Jianwei%Wang%wangjw28@163.com%0,                     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                     Shuyun%Xu%NULL%1,                     Muqing%Yu%NULL%1,                     Ke%Wang%NULL%2,                     Yu%Tao%NULL%1,                     Ying%Zhou%NULL%1,                     Jing%Shi%NULL%1,                     Min%Zhou%NULL%0,                     Bo%Wu%NULL%1,                     Zhenyu%Yang%NULL%1,                     Cong%Zhang%NULL%2,                     Junqing%Yue%NULL%1,                     Zhiguo%Zhang%NULL%1,                     Harald%Renz%NULL%1,                     Xiansheng%Liu%NULL%1,                     Jungang%Xie%NULL%0,                     Min%Xie%NULL%1,                     Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                     Yuan-Yuan%Fang%NULL%0,                     Yan%Deng%NULL%0,                     Wei%Liu%NULL%0,                     Mei-Fang%Wang%NULL%0,                     Jing-Ping%Ma%NULL%0,                     Wei%Xiao%NULL%0,                     Ying-Nan%Wang%NULL%0,                     Min-Hua%Zhong%NULL%0,                     Cheng-Hong%Li%NULL%0,                     Guang-Cai%Li%NULL%0,                     Hui-Guo%Liu%NULL%0,                     Xiu-Yuan%Hao%NULL%0,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                     Mikael%Chetboun%NULL%2,                     Julien%Poissy%NULL%3,                     Violeta%Raverdy%NULL%2,                     Jerome%Noulette%NULL%3,                     Alain%Duhamel%NULL%2,                     Julien%Labreuche%NULL%2,                     Daniel%Mathieu%NULL%5,                     Francois%Pattou%francois.pattou@univ-lille.fr%2,                     Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                     Robert%Caizzo%NULL%3,                     Morgan%Caplan%NULL%2,                     Nicolas%Cousin%NULL%2,                     Thibault%Duburcq%NULL%2,                     Arthur%Durand%NULL%2,                     Ahmed%El kalioubie%NULL%2,                     Raphael%Favory%NULL%2,                     Bruno%Garcia%NULL%2,                     Patrick%Girardie%NULL%2,                     Julien%Goutay%NULL%2,                     Marion%Houard%NULL%2,                     Emmanuelle%Jaillette%NULL%2,                     Nicolas%Kostuj%NULL%2,                     Geoffrey%Ledoux%NULL%2,                     Daniel%Mathieu%NULL%0,                     Anne Sophie%Moreau%NULL%2,                     Christopher%Niles%NULL%2,                     Saad%Nseir%NULL%3,                     Thierry%Onimus%NULL%2,                     Erika%Parmentier%NULL%2,                     Sebastien%Préau%NULL%2,                     Laurent%Robriquet%NULL%2,                     Anahita%Rouze%NULL%2,                     Sophie%Six%NULL%2,                     Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                     Yi%Xiang%NULL%1,                     Wei%Fang%NULL%1,                     Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                     Boqun%Li%279685211@qq.com%1,                     Yanjun%Hu%huyanjun@163.com%1,                     Chunhui%Lang%NULL%1,                     Daoqiu%Huang%NULL%1,                     Qiuyan%Sun%NULL%1,                     Yan%Xiong%NULL%2,                     Xia%Huang%NULL%1,                     Jinglong%Lv%NULL%1,                     Yaling%Luo%NULL%1,                     Li%Shen%NULL%1,                     Haoran%Yang%NULL%1,                     Gu%Huang%NULL%1,                     Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                     Min%Pan%NULL%1,                     Xiumei%Zhang%NULL%1,                     Mingfeng%Han%fyhmf@163.com%2,                     Xiaoyun%Fan%13956988552@126.com%1,                     Fengde%Zhao%NULL%1,                     Manli%Miao%NULL%1,                     Jing%Xu%NULL%1,                     Minglong%Guan%NULL%1,                     Xia%Deng%NULL%1,                     Xu%Chen%NULL%1,                     Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                     J.%Fang%NULL%1,                     Y.%Zhu%NULL%1,                     L.%Chen%NULL%1,                     F.%Ding%NULL%1,                     R.%Zhou%NULL%1,                     L.%Ge%NULL%1,                     F.%Wang%NULL%1,                     Q.%Chen%NULL%1,                     Y.%Zhang%NULL%1,                     Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                     Jun%Liu%NULL%2,                     Xinguo%Zhao%NULL%1,                     Chengyuan%Liu%NULL%1,                     Wei%Wang%NULL%2,                     Dawei%Wang%NULL%1,                     Wei%Xu%NULL%1,                     Chunyu%Zhang%NULL%1,                     Jiong%Yu%NULL%1,                     Bin%Jiang%NULL%1,                     Hongcui%Cao%hccao@zju.edu.cn%1,                     Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                     Jianming%Zhao%NULL%1,                     Ningfang%Lian%1533532863@qq.com%1,                     Su%Lin%NULL%1,                     Qunfang%Xie%NULL%1,                     Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                     Chengcheng%Yu%NULL%2,                     Jing%Qu%NULL%1,                     Lieguang%Zhang%NULL%2,                     Songfeng%Jiang%NULL%1,                     Deyang%Huang%NULL%1,                     Bihua%Chen%NULL%1,                     Zhiping%Zhang%NULL%1,                     Wanhua%Guan%NULL%1,                     Zhoukun%Ling%NULL%1,                     Rui%Jiang%NULL%1,                     Tianli%Hu%NULL%1,                     Yan%Ding%NULL%1,                     Lin%Lin%NULL%1,                     Qingxin%Gan%NULL%1,                     Liangping%Luo%tluolp@jnu.edu.cn%2,                     Xiaoping%Tang%xtang@21cn.com%1,                     Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                     Qiqi%Cao%NULL%1,                     Le%Qin%NULL%1,                     Xiaoyang%Wang%NULL%1,                     Zenghui%Cheng%NULL%1,                     Ashan%Pan%NULL%1,                     Jianyi%Dai%NULL%1,                     Qingfeng%Sun%NULL%1,                     Fengquan%Zhao%NULL%1,                     Jieming%Qu%NULL%0,                     Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,  Sean Wei Xiang%Ong%xref no email%0,  Shirin%Kalimuddin%xref no email%0,  Jenny G.%Low%xref no email%0,  Seow Yen%Tan%xref no email%0,  Jiashen%Loh%xref no email%0,  Oon-Tek%Ng%xref no email%0,  Kalisvar%Marimuthu%xref no email%0,  Li Wei%Ang%xref no email%0,  Tze Minn%Mak%xref no email%0,  Sok Kiang%Lau%xref no email%0,  Danielle E.%Anderson%xref no email%0,  Kian Sing%Chan%xref no email%0,  Thean Yen%Tan%xref no email%0,  Tong Yong%Ng%xref no email%0,  Lin%Cui%xref no email%0,  Zubaidah%Said%xref no email%0,  Lalitha%Kurupatham%xref no email%0,  Mark I-Cheng%Chen%xref no email%0,  Monica%Chan%xref no email%0,  Shawn%Vasoo%xref no email%0,  Lin-Fa%Wang%xref no email%0,  Boon Huan%Tan%xref no email%0,  Raymond Tzer Pin%Lin%xref no email%0,  Vernon Jian Ming%Lee%xref no email%0,  Yee-Sin%Leo%xref no email%0,  David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                   Cao%Yi-yuan%coreGivesNoEmail%0,                   Dong%Xiang%coreGivesNoEmail%0,                   Gao%Ya-dong%coreGivesNoEmail%0,                   Yan%You-qin%coreGivesNoEmail%0,                   Yang%Yi-bin%coreGivesNoEmail%0,                   Yuan%Ya-dong%coreGivesNoEmail%0,                   Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,                   National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,                   Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,                   The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                     Areeba%Ali%NULL%1,                     Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                     Jaime A.%Cardona-Ospina%NULL%1,                     Estefanía%Gutiérrez-Ocampo%NULL%1,                     Rhuvi%Villamizar-Peña%NULL%1,                     Yeimer%Holguin-Rivera%NULL%1,                     Juan Pablo%Escalera-Antezana%NULL%1,                     Lucia Elena%Alvarado-Arnez%NULL%1,                     D. Katterine%Bonilla-Aldana%NULL%1,                     Carlos%Franco-Paredes%NULL%1,                     Andrés F.%Henao-Martinez%NULL%1,                     Alberto%Paniz-Mondolfi%NULL%1,                     Guillermo J.%Lagos-Grisales%NULL%1,                     Eduardo%Ramírez-Vallejo%NULL%1,                     Jose A.%Suárez%NULL%1,                     Lysien I.%Zambrano%NULL%1,                     Wilmer E.%Villamil-Gómez%NULL%1,                     Graciela J.%Balbin-Ramon%NULL%1,                     Ali A.%Rabaan%NULL%1,                     Harapan%Harapan%NULL%1,                     Kuldeep%Dhama%NULL%1,                     Hiroshi%Nishiura%NULL%2,                     Hiromitsu%Kataoka%NULL%1,                     Tauseef%Ahmad%NULL%1,                     Ranjit%Sah%NULL%2,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                     Ben%Van Calster%NULL%1,                     Gary S%Collins%NULL%1,                     Richard D%Riley%NULL%1,                     Georg%Heinze%NULL%1,                     Ewoud%Schuit%NULL%1,                     Marc M J%Bonten%NULL%1,                     Johanna A A%Damen%NULL%1,                     Thomas P A%Debray%NULL%1,                     Maarten%De Vos%NULL%1,                     Paula%Dhiman%NULL%1,                     Maria C%Haller%NULL%1,                     Michael O%Harhay%NULL%1,                     Liesbet%Henckaerts%NULL%1,                     Nina%Kreuzberger%NULL%1,                     Anna%Lohmann%NULL%1,                     Kim%Luijken%NULL%1,                     Jie%Ma%NULL%1,                     Constanza L%Andaur Navarro%NULL%1,                     Johannes B%Reitsma%NULL%1,                     Jamie C%Sergeant%NULL%1,                     Chunhu%Shi%NULL%1,                     Nicole%Skoetz%NULL%1,                     Luc J M%Smits%NULL%1,                     Kym I E%Snell%NULL%1,                     Matthew%Sperrin%NULL%1,                     René%Spijker%NULL%1,                     Ewout W%Steyerberg%NULL%1,                     Toshihiko%Takada%NULL%1,                     Sander M J%van Kuijk%NULL%1,                     Florien S%van Royen%NULL%1,                     Christine%Wallisch%NULL%1,                     Lotty%Hooft%NULL%1,                     Karel G M%Moons%NULL%1,                     Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                     Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                     Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                     Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                     Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                     Jung Wan%Park%NULL%3,                     Moran%Ki%NULL%1,                     Mi-Yeon%Yeon%NULL%3,                     Jin%Kim%NULL%1,                     Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                     Soyoung%Jung%syjung@kiom.re.kr%1,                     Aeran%Kim%arkim@kiom.re.kr%1,                     Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                     D. S. Y.%Chong%NULL%1,                     W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                     Vera%Regitz-Zagrosek%NULL%1,                     Hannelore K.%Neuhauser%NULL%1,                     Rosemary%Morgan%NULL%1,                     Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                      Jordi%Rello%NULL%1,                      Sofia%Tejada%NULL%1,                      Alejandro%Martín%NULL%1,                      Goiatz%Balziskueta%NULL%1,                      Cristina%Vinuesa%NULL%1,                      Borja%Fernández-Miret%NULL%1,                      Ana%Villagra%NULL%1,                      Ana%Vallejo%NULL%1,                      Ana%San Sebastián%NULL%1,                      Sara%Cabañes%NULL%1,                      Sebastián%Iribarren%NULL%1,                      Fernando%Fonseca%NULL%1,                      Javier%Maynar%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                      Bijan J.%Ghassemieh%NULL%2,                      Michelle%Nichols%NULL%2,                      Richard%Kim%NULL%2,                      Keith R.%Jerome%NULL%2,                      Arun K.%Nalla%NULL%2,                      Alexander L.%Greninger%NULL%2,                      Sudhakar%Pipavath%NULL%2,                      Mark M.%Wurfel%NULL%2,                      Laura%Evans%NULL%2,                      Patricia A.%Kritek%NULL%2,                      T. Eoin%West%NULL%2,                      Andrew%Luks%NULL%2,                      Anthony%Gerbino%NULL%2,                      Chris R.%Dale%NULL%2,                      Jason D.%Goldman%NULL%2,                      Shane%O’Mahony%NULL%2,                      Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                      Wenlin%Cheng%NULL%2,                      Lei%Yu%NULL%2,                      Ya-Kun%Liu%NULL%2,                      Xiaoyong%Hu%NULL%2,                      Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                      Tangkai%Qi%NULL%2,                      Li%Liu%NULL%2,                      Yun%Ling%NULL%3,                      Zhiping%Qian%NULL%2,                      Tao%Li%NULL%3,                      Feng%Li%NULL%2,                      Qingnian%Xu%NULL%2,                      Yuyi%Zhang%NULL%2,                      Shuibao%Xu%NULL%2,                      Zhigang%Song%NULL%2,                      Yigang%Zeng%NULL%2,                      Yinzhong%Shen%NULL%2,                      Yuxin%Shi%NULL%4,                      Tongyu%Zhu%NULL%2,                      Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                      Min%Zhou%NULL%6,                      Xuan%Dong%NULL%3,                      Jieming%Qu%NULL%5,                      Fengyun%Gong%NULL%3,                      Yang%Han%NULL%3,                      Yang%Qiu%NULL%3,                      Jingli%Wang%NULL%3,                      Ying%Liu%NULL%6,                      Yuan%Wei%NULL%0,                      Jia'an%Xia%NULL%0,                      Ting%Yu%NULL%0,                      Xinxin%Zhang%NULL%5,                      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                      Zhe%Dai%NULL%1,                      Pingzheng%Mo%NULL%1,                      Xinyu%Li%NULL%1,                      Zhiyong%Ma%NULL%1,                      Shihui%Song%NULL%1,                      Xiaoping%Chen%NULL%1,                      Mingqi%Luo%NULL%1,                      Ke%Liang%NULL%1,                      Shicheng%Gao%NULL%1,                      Yongxi%Zhang%NULL%1,                      Liping%Deng%dengdeng78@126.com%1,                      Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                      Di%Wu%NULL%0,                      Huilong%Chen%NULL%0,                      Weiming%Yan%NULL%0,                      Danlei%Yang%NULL%0,                      Guang%Chen%NULL%0,                      Ke%Ma%NULL%0,                      Dong%Xu%NULL%0,                      Haijing%Yu%NULL%0,                      Hongwu%Wang%NULL%0,                      Tao%Wang%NULL%0,                      Wei%Guo%NULL%0,                      Jia%Chen%NULL%0,                      Chen%Ding%NULL%0,                      Xiaoping%Zhang%NULL%0,                      Jiaquan%Huang%NULL%0,                      Meifang%Han%NULL%0,                      Shusheng%Li%NULL%0,                      Xiaoping%Luo%NULL%0,                      Jianping%Zhao%NULL%0,                      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                      Nan%Yang%NULL%0,                      Yanqiu%Wei%NULL%0,                      Huihui%Yue%NULL%0,                      Fengqin%Zhang%NULL%0,                      Jianping%Zhao%NULL%0,                      Li%He%NULL%0,                      Gaohong%Sheng%NULL%0,                      Peng%Chen%NULL%0,                      Gang%Li%NULL%0,                      Sisi%Wu%NULL%0,                      Bo%Zhang%NULL%0,                      Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                      Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                      Xiaoping%Miao%miaoxp@hust.edu.cn%0,                      Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                      Wenhua%Liu%liuwh_2013@126.com%0,                      Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                      Li-Rong%Liang%NULL%1,                      Cheng-Qing%Yang%NULL%1,                      Wen%Wang%NULL%3,                      Tan-Ze%Cao%NULL%1,                      Ming%Li%NULL%1,                      Guang-Yun%Guo%NULL%1,                      Juan%Du%NULL%1,                      Chun-Lan%Zheng%NULL%1,                      Qi%Zhu%NULL%1,                      Ming%Hu%NULL%1,                      Xu-Yan%Li%NULL%3,                      Peng%Peng%NULL%0,                      Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                      Li-Min%Liu%NULL%2,                      Wen%Yin%NULL%0,                      Wen%Wang%NULL%0,                      Lu-Lu%Guan%NULL%2,                      Ming-Li%Yuan%NULL%2,                      Yu-Lei%Li%NULL%2,                      Yi%Hu%NULL%0,                      Xu-Yan%Li%NULL%0,                      Bing%Sun%NULL%2,                      Peng%Peng%NULL%0,                      Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                      Lei%Tu%NULL%1,                      Pingjun%Zhu%NULL%1,                      Mi%Mu%NULL%1,                      Runsheng%Wang%NULL%1,                      Pengcheng%Yang%NULL%1,                      Xi%Wang%NULL%1,                      Chao%Hu%NULL%1,                      Rongyu%Ping%NULL%1,                      Peng%Hu%NULL%1,                      Tianzhi%Li%NULL%1,                      Feng%Cao%NULL%1,                      Christopher%Chang%NULL%1,                      Qinyong%Hu%NULL%1,                      Yang%Jin%NULL%1,                      Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Wen-hua%Liang%NULL%0,                      Chun-quan%Ou%NULL%0,                      Jian-xing%He%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      David S.C.%Hui%NULL%0,                      Bin%Du%NULL%0,                      Lan-juan%Li%NULL%0,                      Guang%Zeng%NULL%0,                      Kwok-Yung%Yuen%NULL%0,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Ping-yan%Chen%NULL%0,                      Jie%Xiang%NULL%0,                      Shi-yue%Li%NULL%0,                      Jin-lin%Wang%NULL%0,                      Zi-jing%Liang%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                      Yeming%Wang%NULL%0,                      Xingwang%Li%NULL%0,                      Lili%Ren%NULL%0,                      Jianping%Zhao%NULL%0,                      Yi%Hu%NULL%0,                      Li%Zhang%NULL%0,                      Guohui%Fan%NULL%0,                      Jiuyang%Xu%NULL%0,                      Xiaoying%Gu%NULL%0,                      Zhenshun%Cheng%NULL%0,                      Ting%Yu%NULL%0,                      Jiaan%Xia%NULL%0,                      Yuan%Wei%NULL%0,                      Wenjuan%Wu%NULL%0,                      Xuelei%Xie%NULL%0,                      Wen%Yin%NULL%0,                      Hui%Li%NULL%0,                      Min%Liu%NULL%0,                      Yan%Xiao%NULL%0,                      Hong%Gao%NULL%0,                      Li%Guo%NULL%0,                      Jungang%Xie%NULL%0,                      Guangfa%Wang%NULL%0,                      Rongmeng%Jiang%NULL%0,                      Zhancheng%Gao%NULL%0,                      Qi%Jin%NULL%0,                      Jianwei%Wang%wangjw28@163.com%0,                      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                      Shuyun%Xu%NULL%1,                      Muqing%Yu%NULL%1,                      Ke%Wang%NULL%2,                      Yu%Tao%NULL%1,                      Ying%Zhou%NULL%1,                      Jing%Shi%NULL%1,                      Min%Zhou%NULL%0,                      Bo%Wu%NULL%1,                      Zhenyu%Yang%NULL%1,                      Cong%Zhang%NULL%2,                      Junqing%Yue%NULL%1,                      Zhiguo%Zhang%NULL%1,                      Harald%Renz%NULL%1,                      Xiansheng%Liu%NULL%1,                      Jungang%Xie%NULL%0,                      Min%Xie%NULL%1,                      Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                      Yuan-Yuan%Fang%NULL%0,                      Yan%Deng%NULL%0,                      Wei%Liu%NULL%0,                      Mei-Fang%Wang%NULL%0,                      Jing-Ping%Ma%NULL%0,                      Wei%Xiao%NULL%0,                      Ying-Nan%Wang%NULL%0,                      Min-Hua%Zhong%NULL%0,                      Cheng-Hong%Li%NULL%0,                      Guang-Cai%Li%NULL%0,                      Hui-Guo%Liu%NULL%0,                      Xiu-Yuan%Hao%NULL%0,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                      Mikael%Chetboun%NULL%2,                      Julien%Poissy%NULL%3,                      Violeta%Raverdy%NULL%2,                      Jerome%Noulette%NULL%3,                      Alain%Duhamel%NULL%2,                      Julien%Labreuche%NULL%2,                      Daniel%Mathieu%NULL%5,                      Francois%Pattou%francois.pattou@univ-lille.fr%2,                      Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                      Robert%Caizzo%NULL%3,                      Morgan%Caplan%NULL%2,                      Nicolas%Cousin%NULL%2,                      Thibault%Duburcq%NULL%2,                      Arthur%Durand%NULL%2,                      Ahmed%El kalioubie%NULL%2,                      Raphael%Favory%NULL%2,                      Bruno%Garcia%NULL%2,                      Patrick%Girardie%NULL%2,                      Julien%Goutay%NULL%2,                      Marion%Houard%NULL%2,                      Emmanuelle%Jaillette%NULL%2,                      Nicolas%Kostuj%NULL%2,                      Geoffrey%Ledoux%NULL%2,                      Daniel%Mathieu%NULL%0,                      Anne Sophie%Moreau%NULL%2,                      Christopher%Niles%NULL%2,                      Saad%Nseir%NULL%3,                      Thierry%Onimus%NULL%2,                      Erika%Parmentier%NULL%2,                      Sebastien%Préau%NULL%2,                      Laurent%Robriquet%NULL%2,                      Anahita%Rouze%NULL%2,                      Sophie%Six%NULL%2,                      Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                      Yi%Xiang%NULL%1,                      Wei%Fang%NULL%1,                      Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                      Boqun%Li%279685211@qq.com%1,                      Yanjun%Hu%huyanjun@163.com%1,                      Chunhui%Lang%NULL%1,                      Daoqiu%Huang%NULL%1,                      Qiuyan%Sun%NULL%1,                      Yan%Xiong%NULL%2,                      Xia%Huang%NULL%1,                      Jinglong%Lv%NULL%1,                      Yaling%Luo%NULL%1,                      Li%Shen%NULL%1,                      Haoran%Yang%NULL%1,                      Gu%Huang%NULL%1,                      Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                      Min%Pan%NULL%1,                      Xiumei%Zhang%NULL%1,                      Mingfeng%Han%fyhmf@163.com%2,                      Xiaoyun%Fan%13956988552@126.com%1,                      Fengde%Zhao%NULL%1,                      Manli%Miao%NULL%1,                      Jing%Xu%NULL%1,                      Minglong%Guan%NULL%1,                      Xia%Deng%NULL%1,                      Xu%Chen%NULL%1,                      Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                      J.%Fang%NULL%1,                      Y.%Zhu%NULL%1,                      L.%Chen%NULL%1,                      F.%Ding%NULL%1,                      R.%Zhou%NULL%1,                      L.%Ge%NULL%1,                      F.%Wang%NULL%1,                      Q.%Chen%NULL%1,                      Y.%Zhang%NULL%1,                      Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                      Jun%Liu%NULL%2,                      Xinguo%Zhao%NULL%1,                      Chengyuan%Liu%NULL%1,                      Wei%Wang%NULL%2,                      Dawei%Wang%NULL%1,                      Wei%Xu%NULL%1,                      Chunyu%Zhang%NULL%1,                      Jiong%Yu%NULL%1,                      Bin%Jiang%NULL%1,                      Hongcui%Cao%hccao@zju.edu.cn%1,                      Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                      Jianming%Zhao%NULL%1,                      Ningfang%Lian%1533532863@qq.com%1,                      Su%Lin%NULL%1,                      Qunfang%Xie%NULL%1,                      Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                      Chengcheng%Yu%NULL%2,                      Jing%Qu%NULL%1,                      Lieguang%Zhang%NULL%2,                      Songfeng%Jiang%NULL%1,                      Deyang%Huang%NULL%1,                      Bihua%Chen%NULL%1,                      Zhiping%Zhang%NULL%1,                      Wanhua%Guan%NULL%1,                      Zhoukun%Ling%NULL%1,                      Rui%Jiang%NULL%1,                      Tianli%Hu%NULL%1,                      Yan%Ding%NULL%1,                      Lin%Lin%NULL%1,                      Qingxin%Gan%NULL%1,                      Liangping%Luo%tluolp@jnu.edu.cn%2,                      Xiaoping%Tang%xtang@21cn.com%1,                      Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                      Qiqi%Cao%NULL%1,                      Le%Qin%NULL%1,                      Xiaoyang%Wang%NULL%1,                      Zenghui%Cheng%NULL%1,                      Ashan%Pan%NULL%1,                      Jianyi%Dai%NULL%1,                      Qingfeng%Sun%NULL%1,                      Fengquan%Zhao%NULL%1,                      Jieming%Qu%NULL%0,                      Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,   Sean Wei Xiang%Ong%xref no email%0,   Shirin%Kalimuddin%xref no email%0,   Jenny G.%Low%xref no email%0,   Seow Yen%Tan%xref no email%0,   Jiashen%Loh%xref no email%0,   Oon-Tek%Ng%xref no email%0,   Kalisvar%Marimuthu%xref no email%0,   Li Wei%Ang%xref no email%0,   Tze Minn%Mak%xref no email%0,   Sok Kiang%Lau%xref no email%0,   Danielle E.%Anderson%xref no email%0,   Kian Sing%Chan%xref no email%0,   Thean Yen%Tan%xref no email%0,   Tong Yong%Ng%xref no email%0,   Lin%Cui%xref no email%0,   Zubaidah%Said%xref no email%0,   Lalitha%Kurupatham%xref no email%0,   Mark I-Cheng%Chen%xref no email%0,   Monica%Chan%xref no email%0,   Shawn%Vasoo%xref no email%0,   Lin-Fa%Wang%xref no email%0,   Boon Huan%Tan%xref no email%0,   Raymond Tzer Pin%Lin%xref no email%0,   Vernon Jian Ming%Lee%xref no email%0,   Yee-Sin%Leo%xref no email%0,   David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                    Cao%Yi-yuan%coreGivesNoEmail%0,                    Dong%Xiang%coreGivesNoEmail%0,                    Gao%Ya-dong%coreGivesNoEmail%0,                    Yan%You-qin%coreGivesNoEmail%0,                    Yang%Yi-bin%coreGivesNoEmail%0,                    Yuan%Ya-dong%coreGivesNoEmail%0,                    Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,                    National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,                    Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,                    The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                      Areeba%Ali%NULL%1,                      Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                      Jaime A.%Cardona-Ospina%NULL%1,                      Estefanía%Gutiérrez-Ocampo%NULL%1,                      Rhuvi%Villamizar-Peña%NULL%1,                      Yeimer%Holguin-Rivera%NULL%1,                      Juan Pablo%Escalera-Antezana%NULL%1,                      Lucia Elena%Alvarado-Arnez%NULL%1,                      D. Katterine%Bonilla-Aldana%NULL%1,                      Carlos%Franco-Paredes%NULL%1,                      Andrés F.%Henao-Martinez%NULL%1,                      Alberto%Paniz-Mondolfi%NULL%1,                      Guillermo J.%Lagos-Grisales%NULL%1,                      Eduardo%Ramírez-Vallejo%NULL%1,                      Jose A.%Suárez%NULL%1,                      Lysien I.%Zambrano%NULL%1,                      Wilmer E.%Villamil-Gómez%NULL%1,                      Graciela J.%Balbin-Ramon%NULL%1,                      Ali A.%Rabaan%NULL%1,                      Harapan%Harapan%NULL%1,                      Kuldeep%Dhama%NULL%1,                      Hiroshi%Nishiura%NULL%2,                      Hiromitsu%Kataoka%NULL%1,                      Tauseef%Ahmad%NULL%1,                      Ranjit%Sah%NULL%2,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                      Ben%Van Calster%NULL%1,                      Gary S%Collins%NULL%1,                      Richard D%Riley%NULL%1,                      Georg%Heinze%NULL%1,                      Ewoud%Schuit%NULL%1,                      Marc M J%Bonten%NULL%1,                      Johanna A A%Damen%NULL%1,                      Thomas P A%Debray%NULL%1,                      Maarten%De Vos%NULL%1,                      Paula%Dhiman%NULL%1,                      Maria C%Haller%NULL%1,                      Michael O%Harhay%NULL%1,                      Liesbet%Henckaerts%NULL%1,                      Nina%Kreuzberger%NULL%1,                      Anna%Lohmann%NULL%1,                      Kim%Luijken%NULL%1,                      Jie%Ma%NULL%1,                      Constanza L%Andaur Navarro%NULL%1,                      Johannes B%Reitsma%NULL%1,                      Jamie C%Sergeant%NULL%1,                      Chunhu%Shi%NULL%1,                      Nicole%Skoetz%NULL%1,                      Luc J M%Smits%NULL%1,                      Kym I E%Snell%NULL%1,                      Matthew%Sperrin%NULL%1,                      René%Spijker%NULL%1,                      Ewout W%Steyerberg%NULL%1,                      Toshihiko%Takada%NULL%1,                      Sander M J%van Kuijk%NULL%1,                      Florien S%van Royen%NULL%1,                      Christine%Wallisch%NULL%1,                      Lotty%Hooft%NULL%1,                      Karel G M%Moons%NULL%1,                      Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                      Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                      Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                      Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                      Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                      Jung Wan%Park%NULL%3,                      Moran%Ki%NULL%1,                      Mi-Yeon%Yeon%NULL%3,                      Jin%Kim%NULL%1,                      Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                      Soyoung%Jung%syjung@kiom.re.kr%1,                      Aeran%Kim%arkim@kiom.re.kr%1,                      Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                      D. S. Y.%Chong%NULL%1,                      W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                      Vera%Regitz-Zagrosek%NULL%1,                      Hannelore K.%Neuhauser%NULL%1,                      Rosemary%Morgan%NULL%1,                      Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                       Jordi%Rello%NULL%1,                       Sofia%Tejada%NULL%1,                       Alejandro%Martín%NULL%1,                       Goiatz%Balziskueta%NULL%1,                       Cristina%Vinuesa%NULL%1,                       Borja%Fernández-Miret%NULL%1,                       Ana%Villagra%NULL%1,                       Ana%Vallejo%NULL%1,                       Ana%San Sebastián%NULL%1,                       Sara%Cabañes%NULL%1,                       Sebastián%Iribarren%NULL%1,                       Fernando%Fonseca%NULL%1,                       Javier%Maynar%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                       Bijan J.%Ghassemieh%NULL%2,                       Michelle%Nichols%NULL%2,                       Richard%Kim%NULL%2,                       Keith R.%Jerome%NULL%2,                       Arun K.%Nalla%NULL%2,                       Alexander L.%Greninger%NULL%2,                       Sudhakar%Pipavath%NULL%2,                       Mark M.%Wurfel%NULL%2,                       Laura%Evans%NULL%2,                       Patricia A.%Kritek%NULL%2,                       T. Eoin%West%NULL%2,                       Andrew%Luks%NULL%2,                       Anthony%Gerbino%NULL%2,                       Chris R.%Dale%NULL%2,                       Jason D.%Goldman%NULL%2,                       Shane%O’Mahony%NULL%2,                       Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                       Wenlin%Cheng%NULL%2,                       Lei%Yu%NULL%2,                       Ya-Kun%Liu%NULL%2,                       Xiaoyong%Hu%NULL%2,                       Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                       Tangkai%Qi%NULL%2,                       Li%Liu%NULL%2,                       Yun%Ling%NULL%3,                       Zhiping%Qian%NULL%2,                       Tao%Li%NULL%3,                       Feng%Li%NULL%2,                       Qingnian%Xu%NULL%2,                       Yuyi%Zhang%NULL%2,                       Shuibao%Xu%NULL%2,                       Zhigang%Song%NULL%2,                       Yigang%Zeng%NULL%2,                       Yinzhong%Shen%NULL%2,                       Yuxin%Shi%NULL%4,                       Tongyu%Zhu%NULL%2,                       Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                       Min%Zhou%NULL%6,                       Xuan%Dong%NULL%3,                       Jieming%Qu%NULL%5,                       Fengyun%Gong%NULL%3,                       Yang%Han%NULL%3,                       Yang%Qiu%NULL%3,                       Jingli%Wang%NULL%3,                       Ying%Liu%NULL%6,                       Yuan%Wei%NULL%0,                       Jia'an%Xia%NULL%0,                       Ting%Yu%NULL%0,                       Xinxin%Zhang%NULL%5,                       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                       Zhe%Dai%NULL%1,                       Pingzheng%Mo%NULL%1,                       Xinyu%Li%NULL%1,                       Zhiyong%Ma%NULL%1,                       Shihui%Song%NULL%1,                       Xiaoping%Chen%NULL%1,                       Mingqi%Luo%NULL%1,                       Ke%Liang%NULL%1,                       Shicheng%Gao%NULL%1,                       Yongxi%Zhang%NULL%1,                       Liping%Deng%dengdeng78@126.com%1,                       Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                       Di%Wu%NULL%0,                       Huilong%Chen%NULL%0,                       Weiming%Yan%NULL%0,                       Danlei%Yang%NULL%0,                       Guang%Chen%NULL%0,                       Ke%Ma%NULL%0,                       Dong%Xu%NULL%0,                       Haijing%Yu%NULL%0,                       Hongwu%Wang%NULL%0,                       Tao%Wang%NULL%0,                       Wei%Guo%NULL%0,                       Jia%Chen%NULL%0,                       Chen%Ding%NULL%0,                       Xiaoping%Zhang%NULL%0,                       Jiaquan%Huang%NULL%0,                       Meifang%Han%NULL%0,                       Shusheng%Li%NULL%0,                       Xiaoping%Luo%NULL%0,                       Jianping%Zhao%NULL%0,                       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                       Nan%Yang%NULL%0,                       Yanqiu%Wei%NULL%0,                       Huihui%Yue%NULL%0,                       Fengqin%Zhang%NULL%0,                       Jianping%Zhao%NULL%0,                       Li%He%NULL%0,                       Gaohong%Sheng%NULL%0,                       Peng%Chen%NULL%0,                       Gang%Li%NULL%0,                       Sisi%Wu%NULL%0,                       Bo%Zhang%NULL%0,                       Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                       Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                       Xiaoping%Miao%miaoxp@hust.edu.cn%0,                       Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                       Wenhua%Liu%liuwh_2013@126.com%0,                       Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                       Li-Rong%Liang%NULL%1,                       Cheng-Qing%Yang%NULL%1,                       Wen%Wang%NULL%3,                       Tan-Ze%Cao%NULL%1,                       Ming%Li%NULL%1,                       Guang-Yun%Guo%NULL%1,                       Juan%Du%NULL%1,                       Chun-Lan%Zheng%NULL%1,                       Qi%Zhu%NULL%1,                       Ming%Hu%NULL%1,                       Xu-Yan%Li%NULL%3,                       Peng%Peng%NULL%0,                       Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                       Li-Min%Liu%NULL%2,                       Wen%Yin%NULL%0,                       Wen%Wang%NULL%0,                       Lu-Lu%Guan%NULL%2,                       Ming-Li%Yuan%NULL%2,                       Yu-Lei%Li%NULL%2,                       Yi%Hu%NULL%0,                       Xu-Yan%Li%NULL%0,                       Bing%Sun%NULL%2,                       Peng%Peng%NULL%0,                       Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                       Lei%Tu%NULL%1,                       Pingjun%Zhu%NULL%1,                       Mi%Mu%NULL%1,                       Runsheng%Wang%NULL%1,                       Pengcheng%Yang%NULL%1,                       Xi%Wang%NULL%1,                       Chao%Hu%NULL%1,                       Rongyu%Ping%NULL%1,                       Peng%Hu%NULL%1,                       Tianzhi%Li%NULL%1,                       Feng%Cao%NULL%1,                       Christopher%Chang%NULL%1,                       Qinyong%Hu%NULL%1,                       Yang%Jin%NULL%1,                       Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Wen-hua%Liang%NULL%0,                       Chun-quan%Ou%NULL%0,                       Jian-xing%He%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       David S.C.%Hui%NULL%0,                       Bin%Du%NULL%0,                       Lan-juan%Li%NULL%0,                       Guang%Zeng%NULL%0,                       Kwok-Yung%Yuen%NULL%0,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Ping-yan%Chen%NULL%0,                       Jie%Xiang%NULL%0,                       Shi-yue%Li%NULL%0,                       Jin-lin%Wang%NULL%0,                       Zi-jing%Liang%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                       Yeming%Wang%NULL%0,                       Xingwang%Li%NULL%0,                       Lili%Ren%NULL%0,                       Jianping%Zhao%NULL%0,                       Yi%Hu%NULL%0,                       Li%Zhang%NULL%0,                       Guohui%Fan%NULL%0,                       Jiuyang%Xu%NULL%0,                       Xiaoying%Gu%NULL%0,                       Zhenshun%Cheng%NULL%0,                       Ting%Yu%NULL%0,                       Jiaan%Xia%NULL%0,                       Yuan%Wei%NULL%0,                       Wenjuan%Wu%NULL%0,                       Xuelei%Xie%NULL%0,                       Wen%Yin%NULL%0,                       Hui%Li%NULL%0,                       Min%Liu%NULL%0,                       Yan%Xiao%NULL%0,                       Hong%Gao%NULL%0,                       Li%Guo%NULL%0,                       Jungang%Xie%NULL%0,                       Guangfa%Wang%NULL%0,                       Rongmeng%Jiang%NULL%0,                       Zhancheng%Gao%NULL%0,                       Qi%Jin%NULL%0,                       Jianwei%Wang%wangjw28@163.com%0,                       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                       Shuyun%Xu%NULL%1,                       Muqing%Yu%NULL%1,                       Ke%Wang%NULL%2,                       Yu%Tao%NULL%1,                       Ying%Zhou%NULL%1,                       Jing%Shi%NULL%1,                       Min%Zhou%NULL%0,                       Bo%Wu%NULL%1,                       Zhenyu%Yang%NULL%1,                       Cong%Zhang%NULL%2,                       Junqing%Yue%NULL%1,                       Zhiguo%Zhang%NULL%1,                       Harald%Renz%NULL%1,                       Xiansheng%Liu%NULL%1,                       Jungang%Xie%NULL%0,                       Min%Xie%NULL%1,                       Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                       Yuan-Yuan%Fang%NULL%0,                       Yan%Deng%NULL%0,                       Wei%Liu%NULL%0,                       Mei-Fang%Wang%NULL%0,                       Jing-Ping%Ma%NULL%0,                       Wei%Xiao%NULL%0,                       Ying-Nan%Wang%NULL%0,                       Min-Hua%Zhong%NULL%0,                       Cheng-Hong%Li%NULL%0,                       Guang-Cai%Li%NULL%0,                       Hui-Guo%Liu%NULL%0,                       Xiu-Yuan%Hao%NULL%0,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                       Mikael%Chetboun%NULL%2,                       Julien%Poissy%NULL%3,                       Violeta%Raverdy%NULL%2,                       Jerome%Noulette%NULL%3,                       Alain%Duhamel%NULL%2,                       Julien%Labreuche%NULL%2,                       Daniel%Mathieu%NULL%5,                       Francois%Pattou%francois.pattou@univ-lille.fr%2,                       Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                       Robert%Caizzo%NULL%3,                       Morgan%Caplan%NULL%2,                       Nicolas%Cousin%NULL%2,                       Thibault%Duburcq%NULL%2,                       Arthur%Durand%NULL%2,                       Ahmed%El kalioubie%NULL%2,                       Raphael%Favory%NULL%2,                       Bruno%Garcia%NULL%2,                       Patrick%Girardie%NULL%2,                       Julien%Goutay%NULL%2,                       Marion%Houard%NULL%2,                       Emmanuelle%Jaillette%NULL%2,                       Nicolas%Kostuj%NULL%2,                       Geoffrey%Ledoux%NULL%2,                       Daniel%Mathieu%NULL%0,                       Anne Sophie%Moreau%NULL%2,                       Christopher%Niles%NULL%2,                       Saad%Nseir%NULL%3,                       Thierry%Onimus%NULL%2,                       Erika%Parmentier%NULL%2,                       Sebastien%Préau%NULL%2,                       Laurent%Robriquet%NULL%2,                       Anahita%Rouze%NULL%2,                       Sophie%Six%NULL%2,                       Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                       Yi%Xiang%NULL%1,                       Wei%Fang%NULL%1,                       Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                       Boqun%Li%279685211@qq.com%1,                       Yanjun%Hu%huyanjun@163.com%1,                       Chunhui%Lang%NULL%1,                       Daoqiu%Huang%NULL%1,                       Qiuyan%Sun%NULL%1,                       Yan%Xiong%NULL%2,                       Xia%Huang%NULL%1,                       Jinglong%Lv%NULL%1,                       Yaling%Luo%NULL%1,                       Li%Shen%NULL%1,                       Haoran%Yang%NULL%1,                       Gu%Huang%NULL%1,                       Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                       Min%Pan%NULL%1,                       Xiumei%Zhang%NULL%1,                       Mingfeng%Han%fyhmf@163.com%2,                       Xiaoyun%Fan%13956988552@126.com%1,                       Fengde%Zhao%NULL%1,                       Manli%Miao%NULL%1,                       Jing%Xu%NULL%1,                       Minglong%Guan%NULL%1,                       Xia%Deng%NULL%1,                       Xu%Chen%NULL%1,                       Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                       J.%Fang%NULL%1,                       Y.%Zhu%NULL%1,                       L.%Chen%NULL%1,                       F.%Ding%NULL%1,                       R.%Zhou%NULL%1,                       L.%Ge%NULL%1,                       F.%Wang%NULL%1,                       Q.%Chen%NULL%1,                       Y.%Zhang%NULL%1,                       Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                       Jun%Liu%NULL%2,                       Xinguo%Zhao%NULL%1,                       Chengyuan%Liu%NULL%1,                       Wei%Wang%NULL%2,                       Dawei%Wang%NULL%1,                       Wei%Xu%NULL%1,                       Chunyu%Zhang%NULL%1,                       Jiong%Yu%NULL%1,                       Bin%Jiang%NULL%1,                       Hongcui%Cao%hccao@zju.edu.cn%1,                       Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                       Jianming%Zhao%NULL%1,                       Ningfang%Lian%1533532863@qq.com%1,                       Su%Lin%NULL%1,                       Qunfang%Xie%NULL%1,                       Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                       Chengcheng%Yu%NULL%2,                       Jing%Qu%NULL%1,                       Lieguang%Zhang%NULL%2,                       Songfeng%Jiang%NULL%1,                       Deyang%Huang%NULL%1,                       Bihua%Chen%NULL%1,                       Zhiping%Zhang%NULL%1,                       Wanhua%Guan%NULL%1,                       Zhoukun%Ling%NULL%1,                       Rui%Jiang%NULL%1,                       Tianli%Hu%NULL%1,                       Yan%Ding%NULL%1,                       Lin%Lin%NULL%1,                       Qingxin%Gan%NULL%1,                       Liangping%Luo%tluolp@jnu.edu.cn%2,                       Xiaoping%Tang%xtang@21cn.com%1,                       Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                       Qiqi%Cao%NULL%1,                       Le%Qin%NULL%1,                       Xiaoyang%Wang%NULL%1,                       Zenghui%Cheng%NULL%1,                       Ashan%Pan%NULL%1,                       Jianyi%Dai%NULL%1,                       Qingfeng%Sun%NULL%1,                       Fengquan%Zhao%NULL%1,                       Jieming%Qu%NULL%0,                       Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,    Sean Wei Xiang%Ong%xref no email%0,    Shirin%Kalimuddin%xref no email%0,    Jenny G.%Low%xref no email%0,    Seow Yen%Tan%xref no email%0,    Jiashen%Loh%xref no email%0,    Oon-Tek%Ng%xref no email%0,    Kalisvar%Marimuthu%xref no email%0,    Li Wei%Ang%xref no email%0,    Tze Minn%Mak%xref no email%0,    Sok Kiang%Lau%xref no email%0,    Danielle E.%Anderson%xref no email%0,    Kian Sing%Chan%xref no email%0,    Thean Yen%Tan%xref no email%0,    Tong Yong%Ng%xref no email%0,    Lin%Cui%xref no email%0,    Zubaidah%Said%xref no email%0,    Lalitha%Kurupatham%xref no email%0,    Mark I-Cheng%Chen%xref no email%0,    Monica%Chan%xref no email%0,    Shawn%Vasoo%xref no email%0,    Lin-Fa%Wang%xref no email%0,    Boon Huan%Tan%xref no email%0,    Raymond Tzer Pin%Lin%xref no email%0,    Vernon Jian Ming%Lee%xref no email%0,    Yee-Sin%Leo%xref no email%0,    David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                     Cao%Yi-yuan%coreGivesNoEmail%0,                     Dong%Xiang%coreGivesNoEmail%0,                     Gao%Ya-dong%coreGivesNoEmail%0,                     Yan%You-qin%coreGivesNoEmail%0,                     Yang%Yi-bin%coreGivesNoEmail%0,                     Yuan%Ya-dong%coreGivesNoEmail%0,                     Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,                     National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,                     Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,                     The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                       Areeba%Ali%NULL%1,                       Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                       Jaime A.%Cardona-Ospina%NULL%1,                       Estefanía%Gutiérrez-Ocampo%NULL%1,                       Rhuvi%Villamizar-Peña%NULL%1,                       Yeimer%Holguin-Rivera%NULL%1,                       Juan Pablo%Escalera-Antezana%NULL%1,                       Lucia Elena%Alvarado-Arnez%NULL%1,                       D. Katterine%Bonilla-Aldana%NULL%1,                       Carlos%Franco-Paredes%NULL%1,                       Andrés F.%Henao-Martinez%NULL%1,                       Alberto%Paniz-Mondolfi%NULL%1,                       Guillermo J.%Lagos-Grisales%NULL%1,                       Eduardo%Ramírez-Vallejo%NULL%1,                       Jose A.%Suárez%NULL%1,                       Lysien I.%Zambrano%NULL%1,                       Wilmer E.%Villamil-Gómez%NULL%1,                       Graciela J.%Balbin-Ramon%NULL%1,                       Ali A.%Rabaan%NULL%1,                       Harapan%Harapan%NULL%1,                       Kuldeep%Dhama%NULL%1,                       Hiroshi%Nishiura%NULL%2,                       Hiromitsu%Kataoka%NULL%1,                       Tauseef%Ahmad%NULL%1,                       Ranjit%Sah%NULL%2,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                       Ben%Van Calster%NULL%1,                       Gary S%Collins%NULL%1,                       Richard D%Riley%NULL%1,                       Georg%Heinze%NULL%1,                       Ewoud%Schuit%NULL%1,                       Marc M J%Bonten%NULL%1,                       Johanna A A%Damen%NULL%1,                       Thomas P A%Debray%NULL%1,                       Maarten%De Vos%NULL%1,                       Paula%Dhiman%NULL%1,                       Maria C%Haller%NULL%1,                       Michael O%Harhay%NULL%1,                       Liesbet%Henckaerts%NULL%1,                       Nina%Kreuzberger%NULL%1,                       Anna%Lohmann%NULL%1,                       Kim%Luijken%NULL%1,                       Jie%Ma%NULL%1,                       Constanza L%Andaur Navarro%NULL%1,                       Johannes B%Reitsma%NULL%1,                       Jamie C%Sergeant%NULL%1,                       Chunhu%Shi%NULL%1,                       Nicole%Skoetz%NULL%1,                       Luc J M%Smits%NULL%1,                       Kym I E%Snell%NULL%1,                       Matthew%Sperrin%NULL%1,                       René%Spijker%NULL%1,                       Ewout W%Steyerberg%NULL%1,                       Toshihiko%Takada%NULL%1,                       Sander M J%van Kuijk%NULL%1,                       Florien S%van Royen%NULL%1,                       Christine%Wallisch%NULL%1,                       Lotty%Hooft%NULL%1,                       Karel G M%Moons%NULL%1,                       Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                       Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                       Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                       Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                       Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                       Jung Wan%Park%NULL%3,                       Moran%Ki%NULL%1,                       Mi-Yeon%Yeon%NULL%3,                       Jin%Kim%NULL%1,                       Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                       Soyoung%Jung%syjung@kiom.re.kr%1,                       Aeran%Kim%arkim@kiom.re.kr%1,                       Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                       D. S. Y.%Chong%NULL%1,                       W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                       Vera%Regitz-Zagrosek%NULL%1,                       Hannelore K.%Neuhauser%NULL%1,                       Rosemary%Morgan%NULL%1,                       Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                        Jordi%Rello%NULL%1,                        Sofia%Tejada%NULL%1,                        Alejandro%Martín%NULL%1,                        Goiatz%Balziskueta%NULL%1,                        Cristina%Vinuesa%NULL%1,                        Borja%Fernández-Miret%NULL%1,                        Ana%Villagra%NULL%1,                        Ana%Vallejo%NULL%1,                        Ana%San Sebastián%NULL%1,                        Sara%Cabañes%NULL%1,                        Sebastián%Iribarren%NULL%1,                        Fernando%Fonseca%NULL%1,                        Javier%Maynar%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                        Bijan J.%Ghassemieh%NULL%2,                        Michelle%Nichols%NULL%2,                        Richard%Kim%NULL%2,                        Keith R.%Jerome%NULL%2,                        Arun K.%Nalla%NULL%2,                        Alexander L.%Greninger%NULL%2,                        Sudhakar%Pipavath%NULL%2,                        Mark M.%Wurfel%NULL%2,                        Laura%Evans%NULL%2,                        Patricia A.%Kritek%NULL%2,                        T. Eoin%West%NULL%2,                        Andrew%Luks%NULL%2,                        Anthony%Gerbino%NULL%2,                        Chris R.%Dale%NULL%2,                        Jason D.%Goldman%NULL%2,                        Shane%O’Mahony%NULL%2,                        Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                        Wenlin%Cheng%NULL%2,                        Lei%Yu%NULL%2,                        Ya-Kun%Liu%NULL%2,                        Xiaoyong%Hu%NULL%2,                        Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                        Tangkai%Qi%NULL%2,                        Li%Liu%NULL%2,                        Yun%Ling%NULL%3,                        Zhiping%Qian%NULL%2,                        Tao%Li%NULL%3,                        Feng%Li%NULL%2,                        Qingnian%Xu%NULL%2,                        Yuyi%Zhang%NULL%2,                        Shuibao%Xu%NULL%2,                        Zhigang%Song%NULL%2,                        Yigang%Zeng%NULL%2,                        Yinzhong%Shen%NULL%2,                        Yuxin%Shi%NULL%4,                        Tongyu%Zhu%NULL%2,                        Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                        Min%Zhou%NULL%6,                        Xuan%Dong%NULL%3,                        Jieming%Qu%NULL%5,                        Fengyun%Gong%NULL%3,                        Yang%Han%NULL%3,                        Yang%Qiu%NULL%3,                        Jingli%Wang%NULL%3,                        Ying%Liu%NULL%6,                        Yuan%Wei%NULL%0,                        Jia'an%Xia%NULL%0,                        Ting%Yu%NULL%0,                        Xinxin%Zhang%NULL%5,                        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                        Zhe%Dai%NULL%1,                        Pingzheng%Mo%NULL%1,                        Xinyu%Li%NULL%1,                        Zhiyong%Ma%NULL%1,                        Shihui%Song%NULL%1,                        Xiaoping%Chen%NULL%1,                        Mingqi%Luo%NULL%1,                        Ke%Liang%NULL%1,                        Shicheng%Gao%NULL%1,                        Yongxi%Zhang%NULL%1,                        Liping%Deng%dengdeng78@126.com%1,                        Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                        Di%Wu%NULL%0,                        Huilong%Chen%NULL%0,                        Weiming%Yan%NULL%0,                        Danlei%Yang%NULL%0,                        Guang%Chen%NULL%0,                        Ke%Ma%NULL%0,                        Dong%Xu%NULL%0,                        Haijing%Yu%NULL%0,                        Hongwu%Wang%NULL%0,                        Tao%Wang%NULL%0,                        Wei%Guo%NULL%0,                        Jia%Chen%NULL%0,                        Chen%Ding%NULL%0,                        Xiaoping%Zhang%NULL%0,                        Jiaquan%Huang%NULL%0,                        Meifang%Han%NULL%0,                        Shusheng%Li%NULL%0,                        Xiaoping%Luo%NULL%0,                        Jianping%Zhao%NULL%0,                        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                        Nan%Yang%NULL%0,                        Yanqiu%Wei%NULL%0,                        Huihui%Yue%NULL%0,                        Fengqin%Zhang%NULL%0,                        Jianping%Zhao%NULL%0,                        Li%He%NULL%0,                        Gaohong%Sheng%NULL%0,                        Peng%Chen%NULL%0,                        Gang%Li%NULL%0,                        Sisi%Wu%NULL%0,                        Bo%Zhang%NULL%0,                        Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                        Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                        Xiaoping%Miao%miaoxp@hust.edu.cn%0,                        Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                        Wenhua%Liu%liuwh_2013@126.com%0,                        Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                        Li-Rong%Liang%NULL%1,                        Cheng-Qing%Yang%NULL%1,                        Wen%Wang%NULL%3,                        Tan-Ze%Cao%NULL%1,                        Ming%Li%NULL%1,                        Guang-Yun%Guo%NULL%1,                        Juan%Du%NULL%1,                        Chun-Lan%Zheng%NULL%1,                        Qi%Zhu%NULL%1,                        Ming%Hu%NULL%1,                        Xu-Yan%Li%NULL%3,                        Peng%Peng%NULL%0,                        Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                        Li-Min%Liu%NULL%2,                        Wen%Yin%NULL%0,                        Wen%Wang%NULL%0,                        Lu-Lu%Guan%NULL%2,                        Ming-Li%Yuan%NULL%2,                        Yu-Lei%Li%NULL%2,                        Yi%Hu%NULL%0,                        Xu-Yan%Li%NULL%0,                        Bing%Sun%NULL%2,                        Peng%Peng%NULL%0,                        Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                        Lei%Tu%NULL%1,                        Pingjun%Zhu%NULL%1,                        Mi%Mu%NULL%1,                        Runsheng%Wang%NULL%1,                        Pengcheng%Yang%NULL%1,                        Xi%Wang%NULL%1,                        Chao%Hu%NULL%1,                        Rongyu%Ping%NULL%1,                        Peng%Hu%NULL%1,                        Tianzhi%Li%NULL%1,                        Feng%Cao%NULL%1,                        Christopher%Chang%NULL%1,                        Qinyong%Hu%NULL%1,                        Yang%Jin%NULL%1,                        Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Wen-hua%Liang%NULL%0,                        Chun-quan%Ou%NULL%0,                        Jian-xing%He%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        David S.C.%Hui%NULL%0,                        Bin%Du%NULL%0,                        Lan-juan%Li%NULL%0,                        Guang%Zeng%NULL%0,                        Kwok-Yung%Yuen%NULL%0,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Ping-yan%Chen%NULL%0,                        Jie%Xiang%NULL%0,                        Shi-yue%Li%NULL%0,                        Jin-lin%Wang%NULL%0,                        Zi-jing%Liang%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                        Yeming%Wang%NULL%0,                        Xingwang%Li%NULL%0,                        Lili%Ren%NULL%0,                        Jianping%Zhao%NULL%0,                        Yi%Hu%NULL%0,                        Li%Zhang%NULL%0,                        Guohui%Fan%NULL%0,                        Jiuyang%Xu%NULL%0,                        Xiaoying%Gu%NULL%0,                        Zhenshun%Cheng%NULL%0,                        Ting%Yu%NULL%0,                        Jiaan%Xia%NULL%0,                        Yuan%Wei%NULL%0,                        Wenjuan%Wu%NULL%0,                        Xuelei%Xie%NULL%0,                        Wen%Yin%NULL%0,                        Hui%Li%NULL%0,                        Min%Liu%NULL%0,                        Yan%Xiao%NULL%0,                        Hong%Gao%NULL%0,                        Li%Guo%NULL%0,                        Jungang%Xie%NULL%0,                        Guangfa%Wang%NULL%0,                        Rongmeng%Jiang%NULL%0,                        Zhancheng%Gao%NULL%0,                        Qi%Jin%NULL%0,                        Jianwei%Wang%wangjw28@163.com%0,                        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                        Shuyun%Xu%NULL%1,                        Muqing%Yu%NULL%1,                        Ke%Wang%NULL%2,                        Yu%Tao%NULL%1,                        Ying%Zhou%NULL%1,                        Jing%Shi%NULL%1,                        Min%Zhou%NULL%0,                        Bo%Wu%NULL%1,                        Zhenyu%Yang%NULL%1,                        Cong%Zhang%NULL%2,                        Junqing%Yue%NULL%1,                        Zhiguo%Zhang%NULL%1,                        Harald%Renz%NULL%1,                        Xiansheng%Liu%NULL%1,                        Jungang%Xie%NULL%0,                        Min%Xie%NULL%1,                        Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                        Yuan-Yuan%Fang%NULL%0,                        Yan%Deng%NULL%0,                        Wei%Liu%NULL%0,                        Mei-Fang%Wang%NULL%0,                        Jing-Ping%Ma%NULL%0,                        Wei%Xiao%NULL%0,                        Ying-Nan%Wang%NULL%0,                        Min-Hua%Zhong%NULL%0,                        Cheng-Hong%Li%NULL%0,                        Guang-Cai%Li%NULL%0,                        Hui-Guo%Liu%NULL%0,                        Xiu-Yuan%Hao%NULL%0,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                        Mikael%Chetboun%NULL%2,                        Julien%Poissy%NULL%3,                        Violeta%Raverdy%NULL%2,                        Jerome%Noulette%NULL%3,                        Alain%Duhamel%NULL%2,                        Julien%Labreuche%NULL%2,                        Daniel%Mathieu%NULL%5,                        Francois%Pattou%francois.pattou@univ-lille.fr%2,                        Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                        Robert%Caizzo%NULL%3,                        Morgan%Caplan%NULL%2,                        Nicolas%Cousin%NULL%2,                        Thibault%Duburcq%NULL%2,                        Arthur%Durand%NULL%2,                        Ahmed%El kalioubie%NULL%2,                        Raphael%Favory%NULL%2,                        Bruno%Garcia%NULL%2,                        Patrick%Girardie%NULL%2,                        Julien%Goutay%NULL%2,                        Marion%Houard%NULL%2,                        Emmanuelle%Jaillette%NULL%2,                        Nicolas%Kostuj%NULL%2,                        Geoffrey%Ledoux%NULL%2,                        Daniel%Mathieu%NULL%0,                        Anne Sophie%Moreau%NULL%2,                        Christopher%Niles%NULL%2,                        Saad%Nseir%NULL%3,                        Thierry%Onimus%NULL%2,                        Erika%Parmentier%NULL%2,                        Sebastien%Préau%NULL%2,                        Laurent%Robriquet%NULL%2,                        Anahita%Rouze%NULL%2,                        Sophie%Six%NULL%2,                        Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                        Yi%Xiang%NULL%1,                        Wei%Fang%NULL%1,                        Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                        Boqun%Li%279685211@qq.com%1,                        Yanjun%Hu%huyanjun@163.com%1,                        Chunhui%Lang%NULL%1,                        Daoqiu%Huang%NULL%1,                        Qiuyan%Sun%NULL%1,                        Yan%Xiong%NULL%2,                        Xia%Huang%NULL%1,                        Jinglong%Lv%NULL%1,                        Yaling%Luo%NULL%1,                        Li%Shen%NULL%1,                        Haoran%Yang%NULL%1,                        Gu%Huang%NULL%1,                        Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                        Min%Pan%NULL%1,                        Xiumei%Zhang%NULL%1,                        Mingfeng%Han%fyhmf@163.com%2,                        Xiaoyun%Fan%13956988552@126.com%1,                        Fengde%Zhao%NULL%1,                        Manli%Miao%NULL%1,                        Jing%Xu%NULL%1,                        Minglong%Guan%NULL%1,                        Xia%Deng%NULL%1,                        Xu%Chen%NULL%1,                        Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                        J.%Fang%NULL%1,                        Y.%Zhu%NULL%1,                        L.%Chen%NULL%1,                        F.%Ding%NULL%1,                        R.%Zhou%NULL%1,                        L.%Ge%NULL%1,                        F.%Wang%NULL%1,                        Q.%Chen%NULL%1,                        Y.%Zhang%NULL%1,                        Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                        Jun%Liu%NULL%2,                        Xinguo%Zhao%NULL%1,                        Chengyuan%Liu%NULL%1,                        Wei%Wang%NULL%2,                        Dawei%Wang%NULL%1,                        Wei%Xu%NULL%1,                        Chunyu%Zhang%NULL%1,                        Jiong%Yu%NULL%1,                        Bin%Jiang%NULL%1,                        Hongcui%Cao%hccao@zju.edu.cn%1,                        Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                        Jianming%Zhao%NULL%1,                        Ningfang%Lian%1533532863@qq.com%1,                        Su%Lin%NULL%1,                        Qunfang%Xie%NULL%1,                        Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                        Chengcheng%Yu%NULL%2,                        Jing%Qu%NULL%1,                        Lieguang%Zhang%NULL%2,                        Songfeng%Jiang%NULL%1,                        Deyang%Huang%NULL%1,                        Bihua%Chen%NULL%1,                        Zhiping%Zhang%NULL%1,                        Wanhua%Guan%NULL%1,                        Zhoukun%Ling%NULL%1,                        Rui%Jiang%NULL%1,                        Tianli%Hu%NULL%1,                        Yan%Ding%NULL%1,                        Lin%Lin%NULL%1,                        Qingxin%Gan%NULL%1,                        Liangping%Luo%tluolp@jnu.edu.cn%2,                        Xiaoping%Tang%xtang@21cn.com%1,                        Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                        Qiqi%Cao%NULL%1,                        Le%Qin%NULL%1,                        Xiaoyang%Wang%NULL%1,                        Zenghui%Cheng%NULL%1,                        Ashan%Pan%NULL%1,                        Jianyi%Dai%NULL%1,                        Qingfeng%Sun%NULL%1,                        Fengquan%Zhao%NULL%1,                        Jieming%Qu%NULL%0,                        Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,     Sean Wei Xiang%Ong%xref no email%0,     Shirin%Kalimuddin%xref no email%0,     Jenny G.%Low%xref no email%0,     Seow Yen%Tan%xref no email%0,     Jiashen%Loh%xref no email%0,     Oon-Tek%Ng%xref no email%0,     Kalisvar%Marimuthu%xref no email%0,     Li Wei%Ang%xref no email%0,     Tze Minn%Mak%xref no email%0,     Sok Kiang%Lau%xref no email%0,     Danielle E.%Anderson%xref no email%0,     Kian Sing%Chan%xref no email%0,     Thean Yen%Tan%xref no email%0,     Tong Yong%Ng%xref no email%0,     Lin%Cui%xref no email%0,     Zubaidah%Said%xref no email%0,     Lalitha%Kurupatham%xref no email%0,     Mark I-Cheng%Chen%xref no email%0,     Monica%Chan%xref no email%0,     Shawn%Vasoo%xref no email%0,     Lin-Fa%Wang%xref no email%0,     Boon Huan%Tan%xref no email%0,     Raymond Tzer Pin%Lin%xref no email%0,     Vernon Jian Ming%Lee%xref no email%0,     Yee-Sin%Leo%xref no email%0,     David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                      Cao%Yi-yuan%coreGivesNoEmail%0,                      Dong%Xiang%coreGivesNoEmail%0,                      Gao%Ya-dong%coreGivesNoEmail%0,                      Yan%You-qin%coreGivesNoEmail%0,                      Yang%Yi-bin%coreGivesNoEmail%0,                      Yuan%Ya-dong%coreGivesNoEmail%0,                      Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,                      National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,                      Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,                      The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                        Areeba%Ali%NULL%1,                        Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                        Jaime A.%Cardona-Ospina%NULL%1,                        Estefanía%Gutiérrez-Ocampo%NULL%1,                        Rhuvi%Villamizar-Peña%NULL%1,                        Yeimer%Holguin-Rivera%NULL%1,                        Juan Pablo%Escalera-Antezana%NULL%1,                        Lucia Elena%Alvarado-Arnez%NULL%1,                        D. Katterine%Bonilla-Aldana%NULL%1,                        Carlos%Franco-Paredes%NULL%1,                        Andrés F.%Henao-Martinez%NULL%1,                        Alberto%Paniz-Mondolfi%NULL%1,                        Guillermo J.%Lagos-Grisales%NULL%1,                        Eduardo%Ramírez-Vallejo%NULL%1,                        Jose A.%Suárez%NULL%1,                        Lysien I.%Zambrano%NULL%1,                        Wilmer E.%Villamil-Gómez%NULL%1,                        Graciela J.%Balbin-Ramon%NULL%1,                        Ali A.%Rabaan%NULL%1,                        Harapan%Harapan%NULL%1,                        Kuldeep%Dhama%NULL%1,                        Hiroshi%Nishiura%NULL%2,                        Hiromitsu%Kataoka%NULL%1,                        Tauseef%Ahmad%NULL%1,                        Ranjit%Sah%NULL%2,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                        Ben%Van Calster%NULL%1,                        Gary S%Collins%NULL%1,                        Richard D%Riley%NULL%1,                        Georg%Heinze%NULL%1,                        Ewoud%Schuit%NULL%1,                        Marc M J%Bonten%NULL%1,                        Johanna A A%Damen%NULL%1,                        Thomas P A%Debray%NULL%1,                        Maarten%De Vos%NULL%1,                        Paula%Dhiman%NULL%1,                        Maria C%Haller%NULL%1,                        Michael O%Harhay%NULL%1,                        Liesbet%Henckaerts%NULL%1,                        Nina%Kreuzberger%NULL%1,                        Anna%Lohmann%NULL%1,                        Kim%Luijken%NULL%1,                        Jie%Ma%NULL%1,                        Constanza L%Andaur Navarro%NULL%1,                        Johannes B%Reitsma%NULL%1,                        Jamie C%Sergeant%NULL%1,                        Chunhu%Shi%NULL%1,                        Nicole%Skoetz%NULL%1,                        Luc J M%Smits%NULL%1,                        Kym I E%Snell%NULL%1,                        Matthew%Sperrin%NULL%1,                        René%Spijker%NULL%1,                        Ewout W%Steyerberg%NULL%1,                        Toshihiko%Takada%NULL%1,                        Sander M J%van Kuijk%NULL%1,                        Florien S%van Royen%NULL%1,                        Christine%Wallisch%NULL%1,                        Lotty%Hooft%NULL%1,                        Karel G M%Moons%NULL%1,                        Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                        Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                        Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                        Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                        Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                        Jung Wan%Park%NULL%3,                        Moran%Ki%NULL%1,                        Mi-Yeon%Yeon%NULL%3,                        Jin%Kim%NULL%1,                        Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                        Soyoung%Jung%syjung@kiom.re.kr%1,                        Aeran%Kim%arkim@kiom.re.kr%1,                        Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                        D. S. Y.%Chong%NULL%1,                        W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                        Vera%Regitz-Zagrosek%NULL%1,                        Hannelore K.%Neuhauser%NULL%1,                        Rosemary%Morgan%NULL%1,                        Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -4741,7 +5284,9 @@
       <c r="I1" t="s">
         <v>425</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" t="s">
+        <v>1099</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -4773,7 +5318,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>1062</v>
+        <v>1245</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -4787,7 +5332,9 @@
       <c r="I2" t="s">
         <v>1022</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" t="s">
+        <v>444</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -4819,7 +5366,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>1063</v>
+        <v>1246</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -4833,7 +5380,9 @@
       <c r="I3" t="s">
         <v>1024</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" t="s">
+        <v>444</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -4865,7 +5414,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>1064</v>
+        <v>1247</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -4879,7 +5428,9 @@
       <c r="I4" t="s">
         <v>1024</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" t="s">
+        <v>444</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -4911,7 +5462,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>1065</v>
+        <v>1248</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -4925,7 +5476,9 @@
       <c r="I5" t="s">
         <v>1022</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" t="s">
+        <v>444</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -4957,7 +5510,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>1066</v>
+        <v>1249</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -4971,7 +5524,9 @@
       <c r="I6" t="s">
         <v>1022</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" t="s">
+        <v>444</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -5003,7 +5558,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>1067</v>
+        <v>1250</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -5017,7 +5572,9 @@
       <c r="I7" t="s">
         <v>1024</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" t="s">
+        <v>444</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -5049,7 +5606,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>1068</v>
+        <v>1251</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -5063,7 +5620,9 @@
       <c r="I8" t="s">
         <v>1024</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" t="s">
+        <v>444</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -5095,7 +5654,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>1069</v>
+        <v>1252</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -5109,7 +5668,9 @@
       <c r="I9" t="s">
         <v>1024</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" t="s">
+        <v>444</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -5141,7 +5702,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>1070</v>
+        <v>1253</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -5155,7 +5716,9 @@
       <c r="I10" t="s">
         <v>1024</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" t="s">
+        <v>444</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -5187,7 +5750,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>1071</v>
+        <v>1254</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -5201,7 +5764,9 @@
       <c r="I11" t="s">
         <v>1024</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" t="s">
+        <v>444</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -5233,7 +5798,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>1072</v>
+        <v>1255</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -5247,7 +5812,9 @@
       <c r="I12" t="s">
         <v>1024</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" t="s">
+        <v>444</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -5279,7 +5846,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>1073</v>
+        <v>1256</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -5293,7 +5860,9 @@
       <c r="I13" t="s">
         <v>1024</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" t="s">
+        <v>444</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -5325,7 +5894,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>1074</v>
+        <v>1257</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -5339,7 +5908,9 @@
       <c r="I14" t="s">
         <v>1022</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" t="s">
+        <v>444</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -5385,7 +5956,9 @@
       <c r="I15" t="s">
         <v>1024</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" t="s">
+        <v>444</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -5417,7 +5990,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>1075</v>
+        <v>1258</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -5431,7 +6004,9 @@
       <c r="I16" t="s">
         <v>1022</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" t="s">
+        <v>444</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -5463,7 +6038,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>1076</v>
+        <v>1259</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -5477,7 +6052,9 @@
       <c r="I17" t="s">
         <v>1024</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" t="s">
+        <v>444</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -5509,7 +6086,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>1077</v>
+        <v>773</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5518,12 +6095,14 @@
         <v>621</v>
       </c>
       <c r="H18" t="s">
-        <v>622</v>
+        <v>1116</v>
       </c>
       <c r="I18" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1117</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -5555,7 +6134,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>1078</v>
+        <v>774</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -5564,12 +6143,14 @@
         <v>621</v>
       </c>
       <c r="H19" t="s">
-        <v>625</v>
+        <v>1118</v>
       </c>
       <c r="I19" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J19" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1119</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -5601,7 +6182,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>1079</v>
+        <v>1260</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -5615,7 +6196,9 @@
       <c r="I20" t="s">
         <v>1024</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" t="s">
+        <v>444</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -5647,7 +6230,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>1080</v>
+        <v>1261</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -5661,7 +6244,9 @@
       <c r="I21" t="s">
         <v>1024</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" t="s">
+        <v>444</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -5693,7 +6278,7 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>1081</v>
+        <v>1262</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -5707,7 +6292,9 @@
       <c r="I22" t="s">
         <v>1039</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" t="s">
+        <v>444</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -5739,7 +6326,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>1082</v>
+        <v>1263</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -5753,7 +6340,9 @@
       <c r="I23" t="s">
         <v>1022</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" t="s">
+        <v>444</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -5785,7 +6374,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>1083</v>
+        <v>1264</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -5799,7 +6388,9 @@
       <c r="I24" t="s">
         <v>1022</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" t="s">
+        <v>444</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -5831,7 +6422,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>1084</v>
+        <v>1265</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -5845,7 +6436,9 @@
       <c r="I25" t="s">
         <v>1024</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" t="s">
+        <v>444</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -5877,7 +6470,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>1085</v>
+        <v>1266</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -5891,7 +6484,9 @@
       <c r="I26" t="s">
         <v>1024</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" t="s">
+        <v>444</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -5923,7 +6518,7 @@
         <v>782</v>
       </c>
       <c r="E27" t="s">
-        <v>1086</v>
+        <v>1267</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -5937,7 +6532,9 @@
       <c r="I27" t="s">
         <v>1049</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" t="s">
+        <v>444</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -5969,7 +6566,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>1087</v>
+        <v>1268</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -5983,7 +6580,9 @@
       <c r="I28" t="s">
         <v>1022</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" t="s">
+        <v>444</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -6015,7 +6614,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>1088</v>
+        <v>1269</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -6024,12 +6623,14 @@
         <v>621</v>
       </c>
       <c r="H29" t="s">
-        <v>622</v>
+        <v>1116</v>
       </c>
       <c r="I29" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J29" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1117</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -6061,7 +6662,7 @@
         <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>1089</v>
+        <v>1270</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -6075,7 +6676,9 @@
       <c r="I30" t="s">
         <v>1039</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" t="s">
+        <v>444</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -6107,7 +6710,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>1090</v>
+        <v>1271</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -6121,7 +6724,9 @@
       <c r="I31" t="s">
         <v>1039</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" t="s">
+        <v>444</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -6153,7 +6758,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>1091</v>
+        <v>1272</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -6167,7 +6772,9 @@
       <c r="I32" t="s">
         <v>1024</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" t="s">
+        <v>444</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -6199,7 +6806,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>1092</v>
+        <v>1273</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -6213,7 +6820,9 @@
       <c r="I33" t="s">
         <v>1022</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" t="s">
+        <v>444</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -6245,7 +6854,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>1093</v>
+        <v>1274</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -6259,7 +6868,9 @@
       <c r="I34" t="s">
         <v>1024</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" t="s">
+        <v>444</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -6291,7 +6902,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>1094</v>
+        <v>1275</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -6305,7 +6916,9 @@
       <c r="I35" t="s">
         <v>1049</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" t="s">
+        <v>444</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -6337,7 +6950,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>1095</v>
+        <v>1276</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -6351,7 +6964,9 @@
       <c r="I36" t="s">
         <v>1022</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36" t="s">
+        <v>444</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -6383,7 +6998,7 @@
         <v>793</v>
       </c>
       <c r="E37" t="s">
-        <v>1096</v>
+        <v>1277</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -6397,7 +7012,9 @@
       <c r="I37" t="s">
         <v>1049</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" t="s">
+        <v>444</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -6429,7 +7046,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>1097</v>
+        <v>1278</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -6443,7 +7060,9 @@
       <c r="I38" t="s">
         <v>1024</v>
       </c>
-      <c r="J38" s="2"/>
+      <c r="J38" t="s">
+        <v>444</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -6475,7 +7094,7 @@
         <v>796</v>
       </c>
       <c r="E39" t="s">
-        <v>1098</v>
+        <v>1279</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -6489,7 +7108,9 @@
       <c r="I39" t="s">
         <v>1049</v>
       </c>
-      <c r="J39" s="2"/>
+      <c r="J39" t="s">
+        <v>444</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>

--- a/Covid_19_Dataset_and_References/References/6.xlsx
+++ b/Covid_19_Dataset_and_References/References/6.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10594" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11218" uniqueCount="1350">
   <si>
     <t>Doi</t>
   </si>
@@ -4903,6 +4903,216 @@
   </si>
   <si>
     <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                        Vera%Regitz-Zagrosek%NULL%1,                        Hannelore K.%Neuhauser%NULL%1,                        Rosemary%Morgan%NULL%1,                        Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                         Jordi%Rello%NULL%1,                         Sofia%Tejada%NULL%1,                         Alejandro%Martín%NULL%1,                         Goiatz%Balziskueta%NULL%1,                         Cristina%Vinuesa%NULL%1,                         Borja%Fernández-Miret%NULL%1,                         Ana%Villagra%NULL%1,                         Ana%Vallejo%NULL%1,                         Ana%San Sebastián%NULL%1,                         Sara%Cabañes%NULL%1,                         Sebastián%Iribarren%NULL%1,                         Fernando%Fonseca%NULL%1,                         Javier%Maynar%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                         Bijan J.%Ghassemieh%NULL%2,                         Michelle%Nichols%NULL%2,                         Richard%Kim%NULL%2,                         Keith R.%Jerome%NULL%2,                         Arun K.%Nalla%NULL%2,                         Alexander L.%Greninger%NULL%2,                         Sudhakar%Pipavath%NULL%2,                         Mark M.%Wurfel%NULL%2,                         Laura%Evans%NULL%2,                         Patricia A.%Kritek%NULL%2,                         T. Eoin%West%NULL%2,                         Andrew%Luks%NULL%2,                         Anthony%Gerbino%NULL%2,                         Chris R.%Dale%NULL%2,                         Jason D.%Goldman%NULL%2,                         Shane%O’Mahony%NULL%2,                         Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                         Wenlin%Cheng%NULL%2,                         Lei%Yu%NULL%2,                         Ya-Kun%Liu%NULL%2,                         Xiaoyong%Hu%NULL%2,                         Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                         Tangkai%Qi%NULL%2,                         Li%Liu%NULL%2,                         Yun%Ling%NULL%3,                         Zhiping%Qian%NULL%2,                         Tao%Li%NULL%3,                         Feng%Li%NULL%2,                         Qingnian%Xu%NULL%2,                         Yuyi%Zhang%NULL%2,                         Shuibao%Xu%NULL%2,                         Zhigang%Song%NULL%2,                         Yigang%Zeng%NULL%2,                         Yinzhong%Shen%NULL%2,                         Yuxin%Shi%NULL%4,                         Tongyu%Zhu%NULL%2,                         Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                         Min%Zhou%NULL%6,                         Xuan%Dong%NULL%3,                         Jieming%Qu%NULL%5,                         Fengyun%Gong%NULL%3,                         Yang%Han%NULL%3,                         Yang%Qiu%NULL%3,                         Jingli%Wang%NULL%3,                         Ying%Liu%NULL%6,                         Yuan%Wei%NULL%0,                         Jia'an%Xia%NULL%0,                         Ting%Yu%NULL%0,                         Xinxin%Zhang%NULL%5,                         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                         Zhe%Dai%NULL%1,                         Pingzheng%Mo%NULL%1,                         Xinyu%Li%NULL%1,                         Zhiyong%Ma%NULL%1,                         Shihui%Song%NULL%1,                         Xiaoping%Chen%NULL%1,                         Mingqi%Luo%NULL%1,                         Ke%Liang%NULL%1,                         Shicheng%Gao%NULL%1,                         Yongxi%Zhang%NULL%1,                         Liping%Deng%dengdeng78@126.com%1,                         Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                         Di%Wu%NULL%0,                         Huilong%Chen%NULL%0,                         Weiming%Yan%NULL%0,                         Danlei%Yang%NULL%0,                         Guang%Chen%NULL%0,                         Ke%Ma%NULL%0,                         Dong%Xu%NULL%0,                         Haijing%Yu%NULL%0,                         Hongwu%Wang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%0,                         Jia%Chen%NULL%0,                         Chen%Ding%NULL%0,                         Xiaoping%Zhang%NULL%0,                         Jiaquan%Huang%NULL%0,                         Meifang%Han%NULL%0,                         Shusheng%Li%NULL%0,                         Xiaoping%Luo%NULL%0,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                         Nan%Yang%NULL%0,                         Yanqiu%Wei%NULL%0,                         Huihui%Yue%NULL%0,                         Fengqin%Zhang%NULL%0,                         Jianping%Zhao%NULL%0,                         Li%He%NULL%0,                         Gaohong%Sheng%NULL%0,                         Peng%Chen%NULL%0,                         Gang%Li%NULL%0,                         Sisi%Wu%NULL%0,                         Bo%Zhang%NULL%0,                         Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                         Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                         Xiaoping%Miao%miaoxp@hust.edu.cn%0,                         Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                         Wenhua%Liu%liuwh_2013@126.com%0,                         Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                         Li-Rong%Liang%NULL%1,                         Cheng-Qing%Yang%NULL%1,                         Wen%Wang%NULL%3,                         Tan-Ze%Cao%NULL%1,                         Ming%Li%NULL%1,                         Guang-Yun%Guo%NULL%1,                         Juan%Du%NULL%1,                         Chun-Lan%Zheng%NULL%1,                         Qi%Zhu%NULL%1,                         Ming%Hu%NULL%1,                         Xu-Yan%Li%NULL%3,                         Peng%Peng%NULL%0,                         Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                         Li-Min%Liu%NULL%2,                         Wen%Yin%NULL%0,                         Wen%Wang%NULL%0,                         Lu-Lu%Guan%NULL%2,                         Ming-Li%Yuan%NULL%2,                         Yu-Lei%Li%NULL%2,                         Yi%Hu%NULL%0,                         Xu-Yan%Li%NULL%0,                         Bing%Sun%NULL%2,                         Peng%Peng%NULL%0,                         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                         Lei%Tu%NULL%1,                         Pingjun%Zhu%NULL%1,                         Mi%Mu%NULL%1,                         Runsheng%Wang%NULL%1,                         Pengcheng%Yang%NULL%1,                         Xi%Wang%NULL%1,                         Chao%Hu%NULL%1,                         Rongyu%Ping%NULL%1,                         Peng%Hu%NULL%1,                         Tianzhi%Li%NULL%1,                         Feng%Cao%NULL%1,                         Christopher%Chang%NULL%1,                         Qinyong%Hu%NULL%1,                         Yang%Jin%NULL%1,                         Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Wen-hua%Liang%NULL%0,                         Chun-quan%Ou%NULL%0,                         Jian-xing%He%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         David S.C.%Hui%NULL%0,                         Bin%Du%NULL%0,                         Lan-juan%Li%NULL%0,                         Guang%Zeng%NULL%0,                         Kwok-Yung%Yuen%NULL%0,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Ping-yan%Chen%NULL%0,                         Jie%Xiang%NULL%0,                         Shi-yue%Li%NULL%0,                         Jin-lin%Wang%NULL%0,                         Zi-jing%Liang%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                         Yeming%Wang%NULL%0,                         Xingwang%Li%NULL%0,                         Lili%Ren%NULL%0,                         Jianping%Zhao%NULL%0,                         Yi%Hu%NULL%0,                         Li%Zhang%NULL%0,                         Guohui%Fan%NULL%0,                         Jiuyang%Xu%NULL%0,                         Xiaoying%Gu%NULL%0,                         Zhenshun%Cheng%NULL%0,                         Ting%Yu%NULL%0,                         Jiaan%Xia%NULL%0,                         Yuan%Wei%NULL%0,                         Wenjuan%Wu%NULL%0,                         Xuelei%Xie%NULL%0,                         Wen%Yin%NULL%0,                         Hui%Li%NULL%0,                         Min%Liu%NULL%0,                         Yan%Xiao%NULL%0,                         Hong%Gao%NULL%0,                         Li%Guo%NULL%0,                         Jungang%Xie%NULL%0,                         Guangfa%Wang%NULL%0,                         Rongmeng%Jiang%NULL%0,                         Zhancheng%Gao%NULL%0,                         Qi%Jin%NULL%0,                         Jianwei%Wang%wangjw28@163.com%0,                         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                         Shuyun%Xu%NULL%1,                         Muqing%Yu%NULL%1,                         Ke%Wang%NULL%2,                         Yu%Tao%NULL%1,                         Ying%Zhou%NULL%1,                         Jing%Shi%NULL%1,                         Min%Zhou%NULL%0,                         Bo%Wu%NULL%1,                         Zhenyu%Yang%NULL%1,                         Cong%Zhang%NULL%2,                         Junqing%Yue%NULL%1,                         Zhiguo%Zhang%NULL%1,                         Harald%Renz%NULL%1,                         Xiansheng%Liu%NULL%1,                         Jungang%Xie%NULL%0,                         Min%Xie%NULL%1,                         Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                         Yuan-Yuan%Fang%NULL%0,                         Yan%Deng%NULL%0,                         Wei%Liu%NULL%0,                         Mei-Fang%Wang%NULL%0,                         Jing-Ping%Ma%NULL%0,                         Wei%Xiao%NULL%0,                         Ying-Nan%Wang%NULL%0,                         Min-Hua%Zhong%NULL%0,                         Cheng-Hong%Li%NULL%0,                         Guang-Cai%Li%NULL%0,                         Hui-Guo%Liu%NULL%0,                         Xiu-Yuan%Hao%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                         Mikael%Chetboun%NULL%2,                         Julien%Poissy%NULL%3,                         Violeta%Raverdy%NULL%2,                         Jerome%Noulette%NULL%3,                         Alain%Duhamel%NULL%2,                         Julien%Labreuche%NULL%2,                         Daniel%Mathieu%NULL%5,                         Francois%Pattou%francois.pattou@univ-lille.fr%2,                         Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                         Robert%Caizzo%NULL%3,                         Morgan%Caplan%NULL%2,                         Nicolas%Cousin%NULL%2,                         Thibault%Duburcq%NULL%2,                         Arthur%Durand%NULL%2,                         Ahmed%El kalioubie%NULL%2,                         Raphael%Favory%NULL%2,                         Bruno%Garcia%NULL%2,                         Patrick%Girardie%NULL%2,                         Julien%Goutay%NULL%2,                         Marion%Houard%NULL%2,                         Emmanuelle%Jaillette%NULL%2,                         Nicolas%Kostuj%NULL%2,                         Geoffrey%Ledoux%NULL%2,                         Daniel%Mathieu%NULL%0,                         Anne Sophie%Moreau%NULL%2,                         Christopher%Niles%NULL%2,                         Saad%Nseir%NULL%3,                         Thierry%Onimus%NULL%2,                         Erika%Parmentier%NULL%2,                         Sebastien%Préau%NULL%2,                         Laurent%Robriquet%NULL%2,                         Anahita%Rouze%NULL%2,                         Sophie%Six%NULL%2,                         Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                         Yi%Xiang%NULL%1,                         Wei%Fang%NULL%1,                         Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                         Boqun%Li%279685211@qq.com%1,                         Yanjun%Hu%huyanjun@163.com%1,                         Chunhui%Lang%NULL%1,                         Daoqiu%Huang%NULL%1,                         Qiuyan%Sun%NULL%1,                         Yan%Xiong%NULL%2,                         Xia%Huang%NULL%1,                         Jinglong%Lv%NULL%1,                         Yaling%Luo%NULL%1,                         Li%Shen%NULL%1,                         Haoran%Yang%NULL%1,                         Gu%Huang%NULL%1,                         Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                         Min%Pan%NULL%1,                         Xiumei%Zhang%NULL%1,                         Mingfeng%Han%fyhmf@163.com%2,                         Xiaoyun%Fan%13956988552@126.com%1,                         Fengde%Zhao%NULL%1,                         Manli%Miao%NULL%1,                         Jing%Xu%NULL%1,                         Minglong%Guan%NULL%1,                         Xia%Deng%NULL%1,                         Xu%Chen%NULL%1,                         Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                         J.%Fang%NULL%1,                         Y.%Zhu%NULL%1,                         L.%Chen%NULL%1,                         F.%Ding%NULL%1,                         R.%Zhou%NULL%1,                         L.%Ge%NULL%1,                         F.%Wang%NULL%1,                         Q.%Chen%NULL%1,                         Y.%Zhang%NULL%1,                         Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                         Jun%Liu%NULL%2,                         Xinguo%Zhao%NULL%1,                         Chengyuan%Liu%NULL%1,                         Wei%Wang%NULL%2,                         Dawei%Wang%NULL%1,                         Wei%Xu%NULL%1,                         Chunyu%Zhang%NULL%1,                         Jiong%Yu%NULL%1,                         Bin%Jiang%NULL%1,                         Hongcui%Cao%hccao@zju.edu.cn%1,                         Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                         Jianming%Zhao%NULL%1,                         Ningfang%Lian%1533532863@qq.com%1,                         Su%Lin%NULL%1,                         Qunfang%Xie%NULL%1,                         Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                         Chengcheng%Yu%NULL%2,                         Jing%Qu%NULL%1,                         Lieguang%Zhang%NULL%2,                         Songfeng%Jiang%NULL%1,                         Deyang%Huang%NULL%1,                         Bihua%Chen%NULL%1,                         Zhiping%Zhang%NULL%1,                         Wanhua%Guan%NULL%1,                         Zhoukun%Ling%NULL%1,                         Rui%Jiang%NULL%1,                         Tianli%Hu%NULL%1,                         Yan%Ding%NULL%1,                         Lin%Lin%NULL%1,                         Qingxin%Gan%NULL%1,                         Liangping%Luo%tluolp@jnu.edu.cn%2,                         Xiaoping%Tang%xtang@21cn.com%1,                         Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                         Qiqi%Cao%NULL%1,                         Le%Qin%NULL%1,                         Xiaoyang%Wang%NULL%1,                         Zenghui%Cheng%NULL%1,                         Ashan%Pan%NULL%1,                         Jianyi%Dai%NULL%1,                         Qingfeng%Sun%NULL%1,                         Fengquan%Zhao%NULL%1,                         Jieming%Qu%NULL%0,                         Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,      Sean Wei Xiang%Ong%xref no email%0,      Shirin%Kalimuddin%xref no email%0,      Jenny G.%Low%xref no email%0,      Seow Yen%Tan%xref no email%0,      Jiashen%Loh%xref no email%0,      Oon-Tek%Ng%xref no email%0,      Kalisvar%Marimuthu%xref no email%0,      Li Wei%Ang%xref no email%0,      Tze Minn%Mak%xref no email%0,      Sok Kiang%Lau%xref no email%0,      Danielle E.%Anderson%xref no email%0,      Kian Sing%Chan%xref no email%0,      Thean Yen%Tan%xref no email%0,      Tong Yong%Ng%xref no email%0,      Lin%Cui%xref no email%0,      Zubaidah%Said%xref no email%0,      Lalitha%Kurupatham%xref no email%0,      Mark I-Cheng%Chen%xref no email%0,      Monica%Chan%xref no email%0,      Shawn%Vasoo%xref no email%0,      Lin-Fa%Wang%xref no email%0,      Boon Huan%Tan%xref no email%0,      Raymond Tzer Pin%Lin%xref no email%0,      Vernon Jian Ming%Lee%xref no email%0,      Yee-Sin%Leo%xref no email%0,      David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                       Cao%Yi-yuan%coreGivesNoEmail%0,                       Dong%Xiang%coreGivesNoEmail%0,                       Gao%Ya-dong%coreGivesNoEmail%0,                       Yan%You-qin%coreGivesNoEmail%0,                       Yang%Yi-bin%coreGivesNoEmail%0,                       Yuan%Ya-dong%coreGivesNoEmail%0,                       Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,                       National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,                       Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,                       The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                         Areeba%Ali%NULL%1,                         Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                         Jaime A.%Cardona-Ospina%NULL%1,                         Estefanía%Gutiérrez-Ocampo%NULL%1,                         Rhuvi%Villamizar-Peña%NULL%1,                         Yeimer%Holguin-Rivera%NULL%1,                         Juan Pablo%Escalera-Antezana%NULL%1,                         Lucia Elena%Alvarado-Arnez%NULL%1,                         D. Katterine%Bonilla-Aldana%NULL%1,                         Carlos%Franco-Paredes%NULL%1,                         Andrés F.%Henao-Martinez%NULL%1,                         Alberto%Paniz-Mondolfi%NULL%1,                         Guillermo J.%Lagos-Grisales%NULL%1,                         Eduardo%Ramírez-Vallejo%NULL%1,                         Jose A.%Suárez%NULL%1,                         Lysien I.%Zambrano%NULL%1,                         Wilmer E.%Villamil-Gómez%NULL%1,                         Graciela J.%Balbin-Ramon%NULL%1,                         Ali A.%Rabaan%NULL%1,                         Harapan%Harapan%NULL%1,                         Kuldeep%Dhama%NULL%1,                         Hiroshi%Nishiura%NULL%2,                         Hiromitsu%Kataoka%NULL%1,                         Tauseef%Ahmad%NULL%1,                         Ranjit%Sah%NULL%2,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                         Ben%Van Calster%NULL%1,                         Gary S%Collins%NULL%1,                         Richard D%Riley%NULL%1,                         Georg%Heinze%NULL%1,                         Ewoud%Schuit%NULL%1,                         Marc M J%Bonten%NULL%1,                         Johanna A A%Damen%NULL%1,                         Thomas P A%Debray%NULL%1,                         Maarten%De Vos%NULL%1,                         Paula%Dhiman%NULL%1,                         Maria C%Haller%NULL%1,                         Michael O%Harhay%NULL%1,                         Liesbet%Henckaerts%NULL%1,                         Nina%Kreuzberger%NULL%1,                         Anna%Lohmann%NULL%1,                         Kim%Luijken%NULL%1,                         Jie%Ma%NULL%1,                         Constanza L%Andaur Navarro%NULL%1,                         Johannes B%Reitsma%NULL%1,                         Jamie C%Sergeant%NULL%1,                         Chunhu%Shi%NULL%1,                         Nicole%Skoetz%NULL%1,                         Luc J M%Smits%NULL%1,                         Kym I E%Snell%NULL%1,                         Matthew%Sperrin%NULL%1,                         René%Spijker%NULL%1,                         Ewout W%Steyerberg%NULL%1,                         Toshihiko%Takada%NULL%1,                         Sander M J%van Kuijk%NULL%1,                         Florien S%van Royen%NULL%1,                         Christine%Wallisch%NULL%1,                         Lotty%Hooft%NULL%1,                         Karel G M%Moons%NULL%1,                         Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                         Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                         Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                         Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                         Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                         Jung Wan%Park%NULL%3,                         Moran%Ki%NULL%1,                         Mi-Yeon%Yeon%NULL%3,                         Jin%Kim%NULL%1,                         Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                         Soyoung%Jung%syjung@kiom.re.kr%1,                         Aeran%Kim%arkim@kiom.re.kr%1,                         Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                         D. S. Y.%Chong%NULL%1,                         W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                         Vera%Regitz-Zagrosek%NULL%1,                         Hannelore K.%Neuhauser%NULL%1,                         Rosemary%Morgan%NULL%1,                         Sabra L.%Klein%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Helena%Barrasa%NULL%2,                          Jordi%Rello%NULL%1,                          Sofia%Tejada%NULL%1,                          Alejandro%Martín%NULL%1,                          Goiatz%Balziskueta%NULL%1,                          Cristina%Vinuesa%NULL%1,                          Borja%Fernández-Miret%NULL%1,                          Ana%Villagra%NULL%1,                          Ana%Vallejo%NULL%1,                          Ana%San Sebastián%NULL%1,                          Sara%Cabañes%NULL%1,                          Sebastián%Iribarren%NULL%1,                          Fernando%Fonseca%NULL%1,                          Javier%Maynar%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%8,                          Bijan J.%Ghassemieh%NULL%2,                          Michelle%Nichols%NULL%2,                          Richard%Kim%NULL%2,                          Keith R.%Jerome%NULL%2,                          Arun K.%Nalla%NULL%2,                          Alexander L.%Greninger%NULL%2,                          Sudhakar%Pipavath%NULL%2,                          Mark M.%Wurfel%NULL%2,                          Laura%Evans%NULL%2,                          Patricia A.%Kritek%NULL%2,                          T. Eoin%West%NULL%2,                          Andrew%Luks%NULL%2,                          Anthony%Gerbino%NULL%2,                          Chris R.%Dale%NULL%2,                          Jason D.%Goldman%NULL%2,                          Shane%O’Mahony%NULL%2,                          Carmen%Mikacenic%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%2,                          Wenlin%Cheng%NULL%2,                          Lei%Yu%NULL%2,                          Ya-Kun%Liu%NULL%2,                          Xiaoyong%Hu%NULL%2,                          Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Chen%NULL%0,                          Tangkai%Qi%NULL%2,                          Li%Liu%NULL%2,                          Yun%Ling%NULL%3,                          Zhiping%Qian%NULL%2,                          Tao%Li%NULL%3,                          Feng%Li%NULL%2,                          Qingnian%Xu%NULL%2,                          Yuyi%Zhang%NULL%2,                          Shuibao%Xu%NULL%2,                          Zhigang%Song%NULL%2,                          Yigang%Zeng%NULL%2,                          Yinzhong%Shen%NULL%2,                          Yuxin%Shi%NULL%4,                          Tongyu%Zhu%NULL%2,                          Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                          Min%Zhou%NULL%6,                          Xuan%Dong%NULL%3,                          Jieming%Qu%NULL%5,                          Fengyun%Gong%NULL%3,                          Yang%Han%NULL%3,                          Yang%Qiu%NULL%3,                          Jingli%Wang%NULL%3,                          Ying%Liu%NULL%6,                          Yuan%Wei%NULL%0,                          Jia'an%Xia%NULL%0,                          Ting%Yu%NULL%0,                          Xinxin%Zhang%NULL%5,                          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%2,                          Zhe%Dai%NULL%1,                          Pingzheng%Mo%NULL%1,                          Xinyu%Li%NULL%1,                          Zhiyong%Ma%NULL%1,                          Shihui%Song%NULL%1,                          Xiaoping%Chen%NULL%1,                          Mingqi%Luo%NULL%1,                          Ke%Liang%NULL%1,                          Shicheng%Gao%NULL%1,                          Yongxi%Zhang%NULL%1,                          Liping%Deng%dengdeng78@126.com%1,                          Yong%Xiong%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                          Di%Wu%NULL%0,                          Huilong%Chen%NULL%0,                          Weiming%Yan%NULL%0,                          Danlei%Yang%NULL%0,                          Guang%Chen%NULL%0,                          Ke%Ma%NULL%0,                          Dong%Xu%NULL%0,                          Haijing%Yu%NULL%0,                          Hongwu%Wang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%0,                          Jia%Chen%NULL%0,                          Chen%Ding%NULL%0,                          Xiaoping%Zhang%NULL%0,                          Jiaquan%Huang%NULL%0,                          Meifang%Han%NULL%0,                          Shusheng%Li%NULL%0,                          Xiaoping%Luo%NULL%0,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0,                          Nan%Yang%NULL%0,                          Yanqiu%Wei%NULL%0,                          Huihui%Yue%NULL%0,                          Fengqin%Zhang%NULL%0,                          Jianping%Zhao%NULL%0,                          Li%He%NULL%0,                          Gaohong%Sheng%NULL%0,                          Peng%Chen%NULL%0,                          Gang%Li%NULL%0,                          Sisi%Wu%NULL%0,                          Bo%Zhang%NULL%0,                          Shu%Zhang%szhang@tjh.tjmu.edu.cn%0,                          Congyi%Wang%wangcy@tjh.tjmu.edu.cn%0,                          Xiaoping%Miao%miaoxp@hust.edu.cn%0,                          Juan%Li%lijuan@tjh.tjmu.edu.cn%0,                          Wenhua%Liu%liuwh_2013@126.com%0,                          Huilan%Zhang%huilanz_76@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%9,                          Li-Rong%Liang%NULL%1,                          Cheng-Qing%Yang%NULL%1,                          Wen%Wang%NULL%3,                          Tan-Ze%Cao%NULL%1,                          Ming%Li%NULL%1,                          Guang-Yun%Guo%NULL%1,                          Juan%Du%NULL%1,                          Chun-Lan%Zheng%NULL%1,                          Qi%Zhu%NULL%1,                          Ming%Hu%NULL%1,                          Xu-Yan%Li%NULL%3,                          Peng%Peng%NULL%0,                          Huan-Zhong%Shi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                          Li-Min%Liu%NULL%2,                          Wen%Yin%NULL%0,                          Wen%Wang%NULL%0,                          Lu-Lu%Guan%NULL%2,                          Ming-Li%Yuan%NULL%2,                          Yu-Lei%Li%NULL%2,                          Yi%Hu%NULL%0,                          Xu-Yan%Li%NULL%0,                          Bing%Sun%NULL%2,                          Peng%Peng%NULL%0,                          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%3,                          Lei%Tu%NULL%1,                          Pingjun%Zhu%NULL%1,                          Mi%Mu%NULL%1,                          Runsheng%Wang%NULL%1,                          Pengcheng%Yang%NULL%1,                          Xi%Wang%NULL%1,                          Chao%Hu%NULL%1,                          Rongyu%Ping%NULL%1,                          Peng%Hu%NULL%1,                          Tianzhi%Li%NULL%1,                          Feng%Cao%NULL%1,                          Christopher%Chang%NULL%1,                          Qinyong%Hu%NULL%1,                          Yang%Jin%NULL%1,                          Guogang%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Wen-hua%Liang%NULL%0,                          Chun-quan%Ou%NULL%0,                          Jian-xing%He%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          David S.C.%Hui%NULL%0,                          Bin%Du%NULL%0,                          Lan-juan%Li%NULL%0,                          Guang%Zeng%NULL%0,                          Kwok-Yung%Yuen%NULL%0,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Ping-yan%Chen%NULL%0,                          Jie%Xiang%NULL%0,                          Shi-yue%Li%NULL%0,                          Jin-lin%Wang%NULL%0,                          Zi-jing%Liang%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                          Yeming%Wang%NULL%0,                          Xingwang%Li%NULL%0,                          Lili%Ren%NULL%0,                          Jianping%Zhao%NULL%0,                          Yi%Hu%NULL%0,                          Li%Zhang%NULL%0,                          Guohui%Fan%NULL%0,                          Jiuyang%Xu%NULL%0,                          Xiaoying%Gu%NULL%0,                          Zhenshun%Cheng%NULL%0,                          Ting%Yu%NULL%0,                          Jiaan%Xia%NULL%0,                          Yuan%Wei%NULL%0,                          Wenjuan%Wu%NULL%0,                          Xuelei%Xie%NULL%0,                          Wen%Yin%NULL%0,                          Hui%Li%NULL%0,                          Min%Liu%NULL%0,                          Yan%Xiao%NULL%0,                          Hong%Gao%NULL%0,                          Li%Guo%NULL%0,                          Jungang%Xie%NULL%0,                          Guangfa%Wang%NULL%0,                          Rongmeng%Jiang%NULL%0,                          Zhancheng%Gao%NULL%0,                          Qi%Jin%NULL%0,                          Jianwei%Wang%wangjw28@163.com%0,                          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%4,                          Shuyun%Xu%NULL%1,                          Muqing%Yu%NULL%1,                          Ke%Wang%NULL%2,                          Yu%Tao%NULL%1,                          Ying%Zhou%NULL%1,                          Jing%Shi%NULL%1,                          Min%Zhou%NULL%0,                          Bo%Wu%NULL%1,                          Zhenyu%Yang%NULL%1,                          Cong%Zhang%NULL%2,                          Junqing%Yue%NULL%1,                          Zhiguo%Zhang%NULL%1,                          Harald%Renz%NULL%1,                          Xiansheng%Liu%NULL%1,                          Jungang%Xie%NULL%0,                          Min%Xie%NULL%1,                          Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                          Yuan-Yuan%Fang%NULL%0,                          Yan%Deng%NULL%0,                          Wei%Liu%NULL%0,                          Mei-Fang%Wang%NULL%0,                          Jing-Ping%Ma%NULL%0,                          Wei%Xiao%NULL%0,                          Ying-Nan%Wang%NULL%0,                          Min-Hua%Zhong%NULL%0,                          Cheng-Hong%Li%NULL%0,                          Guang-Cai%Li%NULL%0,                          Hui-Guo%Liu%NULL%0,                          Xiu-Yuan%Hao%NULL%0,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%3,                          Mikael%Chetboun%NULL%2,                          Julien%Poissy%NULL%3,                          Violeta%Raverdy%NULL%2,                          Jerome%Noulette%NULL%3,                          Alain%Duhamel%NULL%2,                          Julien%Labreuche%NULL%2,                          Daniel%Mathieu%NULL%5,                          Francois%Pattou%francois.pattou@univ-lille.fr%2,                          Merce%Jourdain%mercedes.jourdain@univ-lille.fr%3,                          Robert%Caizzo%NULL%3,                          Morgan%Caplan%NULL%2,                          Nicolas%Cousin%NULL%2,                          Thibault%Duburcq%NULL%2,                          Arthur%Durand%NULL%2,                          Ahmed%El kalioubie%NULL%2,                          Raphael%Favory%NULL%2,                          Bruno%Garcia%NULL%2,                          Patrick%Girardie%NULL%2,                          Julien%Goutay%NULL%2,                          Marion%Houard%NULL%2,                          Emmanuelle%Jaillette%NULL%2,                          Nicolas%Kostuj%NULL%2,                          Geoffrey%Ledoux%NULL%2,                          Daniel%Mathieu%NULL%0,                          Anne Sophie%Moreau%NULL%2,                          Christopher%Niles%NULL%2,                          Saad%Nseir%NULL%3,                          Thierry%Onimus%NULL%2,                          Erika%Parmentier%NULL%2,                          Sebastien%Préau%NULL%2,                          Laurent%Robriquet%NULL%2,                          Anahita%Rouze%NULL%2,                          Sophie%Six%NULL%2,                          Hélène%Verkindt%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%7,                          Yi%Xiang%NULL%1,                          Wei%Fang%NULL%1,                          Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,                          Boqun%Li%279685211@qq.com%1,                          Yanjun%Hu%huyanjun@163.com%1,                          Chunhui%Lang%NULL%1,                          Daoqiu%Huang%NULL%1,                          Qiuyan%Sun%NULL%1,                          Yan%Xiong%NULL%2,                          Xia%Huang%NULL%1,                          Jinglong%Lv%NULL%1,                          Yaling%Luo%NULL%1,                          Li%Shen%NULL%1,                          Haoran%Yang%NULL%1,                          Gu%Huang%NULL%1,                          Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,                        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,                        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%4,                          Min%Pan%NULL%1,                          Xiumei%Zhang%NULL%1,                          Mingfeng%Han%fyhmf@163.com%2,                          Xiaoyun%Fan%13956988552@126.com%1,                          Fengde%Zhao%NULL%1,                          Manli%Miao%NULL%1,                          Jing%Xu%NULL%1,                          Minglong%Guan%NULL%1,                          Xia%Deng%NULL%1,                          Xu%Chen%NULL%1,                          Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[X.%Wang%NULL%1,                          J.%Fang%NULL%1,                          Y.%Zhu%NULL%1,                          L.%Chen%NULL%1,                          F.%Ding%NULL%1,                          R.%Zhou%NULL%1,                          L.%Ge%NULL%1,                          F.%Wang%NULL%1,                          Q.%Chen%NULL%1,                          Y.%Zhang%NULL%1,                          Q.%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jian%Wu%NULL%0,                          Jun%Liu%NULL%2,                          Xinguo%Zhao%NULL%1,                          Chengyuan%Liu%NULL%1,                          Wei%Wang%NULL%2,                          Dawei%Wang%NULL%1,                          Wei%Xu%NULL%1,                          Chunyu%Zhang%NULL%1,                          Jiong%Yu%NULL%1,                          Bin%Jiang%NULL%1,                          Hongcui%Cao%hccao@zju.edu.cn%1,                          Lanjuan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Hansheng%Xie%NULL%1,                          Jianming%Zhao%NULL%1,                          Ningfang%Lian%1533532863@qq.com%1,                          Su%Lin%NULL%1,                          Qunfang%Xie%NULL%1,                          Huichang%Zhuo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                          Chengcheng%Yu%NULL%2,                          Jing%Qu%NULL%1,                          Lieguang%Zhang%NULL%2,                          Songfeng%Jiang%NULL%1,                          Deyang%Huang%NULL%1,                          Bihua%Chen%NULL%1,                          Zhiping%Zhang%NULL%1,                          Wanhua%Guan%NULL%1,                          Zhoukun%Ling%NULL%1,                          Rui%Jiang%NULL%1,                          Tianli%Hu%NULL%1,                          Yan%Ding%NULL%1,                          Lin%Lin%NULL%1,                          Qingxin%Gan%NULL%1,                          Liangping%Luo%tluolp@jnu.edu.cn%2,                          Xiaoping%Tang%xtang@21cn.com%1,                          Jinxin%Liu%Liujx83710378@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                          Qiqi%Cao%NULL%1,                          Le%Qin%NULL%1,                          Xiaoyang%Wang%NULL%1,                          Zenghui%Cheng%NULL%1,                          Ashan%Pan%NULL%1,                          Jianyi%Dai%NULL%1,                          Qingfeng%Sun%NULL%1,                          Fengquan%Zhao%NULL%1,                          Jieming%Qu%NULL%0,                          Fuhua%Yan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,       Sean Wei Xiang%Ong%xref no email%0,       Shirin%Kalimuddin%xref no email%0,       Jenny G.%Low%xref no email%0,       Seow Yen%Tan%xref no email%0,       Jiashen%Loh%xref no email%0,       Oon-Tek%Ng%xref no email%0,       Kalisvar%Marimuthu%xref no email%0,       Li Wei%Ang%xref no email%0,       Tze Minn%Mak%xref no email%0,       Sok Kiang%Lau%xref no email%0,       Danielle E.%Anderson%xref no email%0,       Kian Sing%Chan%xref no email%0,       Thean Yen%Tan%xref no email%0,       Tong Yong%Ng%xref no email%0,       Lin%Cui%xref no email%0,       Zubaidah%Said%xref no email%0,       Lalitha%Kurupatham%xref no email%0,       Mark I-Cheng%Chen%xref no email%0,       Monica%Chan%xref no email%0,       Shawn%Vasoo%xref no email%0,       Lin-Fa%Wang%xref no email%0,       Boon Huan%Tan%xref no email%0,       Raymond Tzer Pin%Lin%xref no email%0,       Vernon Jian Ming%Lee%xref no email%0,       Yee-Sin%Leo%xref no email%0,       David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                        Cao%Yi-yuan%coreGivesNoEmail%0,                        Dong%Xiang%coreGivesNoEmail%0,                        Gao%Ya-dong%coreGivesNoEmail%0,                        Yan%You-qin%coreGivesNoEmail%0,                        Yang%Yi-bin%coreGivesNoEmail%0,                        Yuan%Ya-dong%coreGivesNoEmail%0,                        Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cochrane%Injuries Group Albumin%coreGivesNoEmail%1,                        National%Health and Medical Research Council (Australia)%coreGivesNoEmail%1,                        Sarcoma%Meta-analysis Collaboration%coreGivesNoEmail%1,                        The%Cochrane Collaboration%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Ahmed%NULL%1,                          Areeba%Ali%NULL%1,                          Sana%Hasan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alfonso J.%Rodriguez-Morales%NULL%1,                          Jaime A.%Cardona-Ospina%NULL%1,                          Estefanía%Gutiérrez-Ocampo%NULL%1,                          Rhuvi%Villamizar-Peña%NULL%1,                          Yeimer%Holguin-Rivera%NULL%1,                          Juan Pablo%Escalera-Antezana%NULL%1,                          Lucia Elena%Alvarado-Arnez%NULL%1,                          D. Katterine%Bonilla-Aldana%NULL%1,                          Carlos%Franco-Paredes%NULL%1,                          Andrés F.%Henao-Martinez%NULL%1,                          Alberto%Paniz-Mondolfi%NULL%1,                          Guillermo J.%Lagos-Grisales%NULL%1,                          Eduardo%Ramírez-Vallejo%NULL%1,                          Jose A.%Suárez%NULL%1,                          Lysien I.%Zambrano%NULL%1,                          Wilmer E.%Villamil-Gómez%NULL%1,                          Graciela J.%Balbin-Ramon%NULL%1,                          Ali A.%Rabaan%NULL%1,                          Harapan%Harapan%NULL%1,                          Kuldeep%Dhama%NULL%1,                          Hiroshi%Nishiura%NULL%2,                          Hiromitsu%Kataoka%NULL%1,                          Tauseef%Ahmad%NULL%1,                          Ranjit%Sah%NULL%2,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laure%Wynants%NULL%1,                          Ben%Van Calster%NULL%1,                          Gary S%Collins%NULL%1,                          Richard D%Riley%NULL%1,                          Georg%Heinze%NULL%1,                          Ewoud%Schuit%NULL%1,                          Marc M J%Bonten%NULL%1,                          Johanna A A%Damen%NULL%1,                          Thomas P A%Debray%NULL%1,                          Maarten%De Vos%NULL%1,                          Paula%Dhiman%NULL%1,                          Maria C%Haller%NULL%1,                          Michael O%Harhay%NULL%1,                          Liesbet%Henckaerts%NULL%1,                          Nina%Kreuzberger%NULL%1,                          Anna%Lohmann%NULL%1,                          Kim%Luijken%NULL%1,                          Jie%Ma%NULL%1,                          Constanza L%Andaur Navarro%NULL%1,                          Johannes B%Reitsma%NULL%1,                          Jamie C%Sergeant%NULL%1,                          Chunhu%Shi%NULL%1,                          Nicole%Skoetz%NULL%1,                          Luc J M%Smits%NULL%1,                          Kym I E%Snell%NULL%1,                          Matthew%Sperrin%NULL%1,                          René%Spijker%NULL%1,                          Ewout W%Steyerberg%NULL%1,                          Toshihiko%Takada%NULL%1,                          Sander M J%van Kuijk%NULL%1,                          Florien S%van Royen%NULL%1,                          Christine%Wallisch%NULL%1,                          Lotty%Hooft%NULL%1,                          Karel G M%Moons%NULL%1,                          Maarten%van Smeden%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryota%Matsuyama%matsuyamar@med.hokudai.ac.jp%1,                          Hiroshi%Nishiura%nishiurah@med.hokudai.ac.jp%0,                          Satoshi%Kutsuna%sonare.since1192@gmail.com%1,                          Kayoko%Hayakawa%kayokohayakawa@gmail.com%1,                          Norio%Ohmagari%lukenorioom@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Hae-Sung%Nam%NULL%2,                          Jung Wan%Park%NULL%3,                          Moran%Ki%NULL%1,                          Mi-Yeon%Yeon%NULL%3,                          Jin%Kim%NULL%1,                          Seung Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ji-Eun%Park%janesky@kiom.re.kr%1,                          Soyoung%Jung%syjung@kiom.re.kr%1,                          Aeran%Kim%arkim@kiom.re.kr%1,                          Ji-Eun%Park%jepark@kiom.re.kr%1]</t>
+  </si>
+  <si>
+    <t>[J.%Karlberg%NULL%1,                          D. S. Y.%Chong%NULL%1,                          W. Y. Y.%Lai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Catherine%Gebhard%Catherine.gebhard@usz.ch%1,                          Vera%Regitz-Zagrosek%NULL%1,                          Hannelore K.%Neuhauser%NULL%1,                          Rosemary%Morgan%NULL%1,                          Sabra L.%Klein%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -5318,7 +5528,7 @@
         <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>1245</v>
+        <v>1315</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -5366,7 +5576,7 @@
         <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>1246</v>
+        <v>1316</v>
       </c>
       <c r="F3" t="s">
         <v>60</v>
@@ -5414,7 +5624,7 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>1247</v>
+        <v>1317</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -5462,7 +5672,7 @@
         <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>1248</v>
+        <v>1318</v>
       </c>
       <c r="F5" t="s">
         <v>68</v>
@@ -5510,7 +5720,7 @@
         <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>1249</v>
+        <v>1319</v>
       </c>
       <c r="F6" t="s">
         <v>73</v>
@@ -5558,7 +5768,7 @@
         <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>1250</v>
+        <v>1320</v>
       </c>
       <c r="F7" t="s">
         <v>77</v>
@@ -5606,7 +5816,7 @@
         <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>1251</v>
+        <v>1321</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -5654,7 +5864,7 @@
         <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>1252</v>
+        <v>1322</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -5702,7 +5912,7 @@
         <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>1253</v>
+        <v>1323</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -5750,7 +5960,7 @@
         <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>1254</v>
+        <v>1324</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -5798,7 +6008,7 @@
         <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>1255</v>
+        <v>1325</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -5846,7 +6056,7 @@
         <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>1256</v>
+        <v>1326</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -5894,7 +6104,7 @@
         <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>1257</v>
+        <v>1327</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -5990,7 +6200,7 @@
         <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>1258</v>
+        <v>1328</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
@@ -6038,7 +6248,7 @@
         <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>1259</v>
+        <v>1329</v>
       </c>
       <c r="F17" t="s">
         <v>123</v>
@@ -6086,7 +6296,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>773</v>
+        <v>850</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -6134,7 +6344,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>774</v>
+        <v>851</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -6182,7 +6392,7 @@
         <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>1260</v>
+        <v>1330</v>
       </c>
       <c r="F20" t="s">
         <v>127</v>
@@ -6230,7 +6440,7 @@
         <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>1261</v>
+        <v>1331</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
@@ -6278,7 +6488,7 @@
         <v>480</v>
       </c>
       <c r="E22" t="s">
-        <v>1262</v>
+        <v>1332</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -6326,7 +6536,7 @@
         <v>219</v>
       </c>
       <c r="E23" t="s">
-        <v>1263</v>
+        <v>1333</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -6374,7 +6584,7 @@
         <v>220</v>
       </c>
       <c r="E24" t="s">
-        <v>1264</v>
+        <v>1334</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -6422,7 +6632,7 @@
         <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>1265</v>
+        <v>1335</v>
       </c>
       <c r="F25" t="s">
         <v>146</v>
@@ -6470,7 +6680,7 @@
         <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>1266</v>
+        <v>1336</v>
       </c>
       <c r="F26" t="s">
         <v>150</v>
@@ -6518,7 +6728,7 @@
         <v>782</v>
       </c>
       <c r="E27" t="s">
-        <v>1267</v>
+        <v>1337</v>
       </c>
       <c r="F27" t="s">
         <v>155</v>
@@ -6566,7 +6776,7 @@
         <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>1268</v>
+        <v>1338</v>
       </c>
       <c r="F28" t="s">
         <v>160</v>
@@ -6614,7 +6824,7 @@
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>1269</v>
+        <v>1339</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -6662,7 +6872,7 @@
         <v>490</v>
       </c>
       <c r="E30" t="s">
-        <v>1270</v>
+        <v>1340</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -6710,7 +6920,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>1271</v>
+        <v>1341</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -6758,7 +6968,7 @@
         <v>225</v>
       </c>
       <c r="E32" t="s">
-        <v>1272</v>
+        <v>1342</v>
       </c>
       <c r="F32" t="s">
         <v>165</v>
@@ -6806,7 +7016,7 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>1273</v>
+        <v>1343</v>
       </c>
       <c r="F33" t="s">
         <v>170</v>
@@ -6854,7 +7064,7 @@
         <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>1274</v>
+        <v>1344</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -6902,7 +7112,7 @@
         <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>1275</v>
+        <v>1345</v>
       </c>
       <c r="F35" t="s">
         <v>180</v>
@@ -6950,7 +7160,7 @@
         <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>1276</v>
+        <v>1346</v>
       </c>
       <c r="F36" t="s">
         <v>185</v>
@@ -6998,7 +7208,7 @@
         <v>793</v>
       </c>
       <c r="E37" t="s">
-        <v>1277</v>
+        <v>1347</v>
       </c>
       <c r="F37" t="s">
         <v>190</v>
@@ -7046,7 +7256,7 @@
         <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>1278</v>
+        <v>1348</v>
       </c>
       <c r="F38" t="s">
         <v>195</v>
@@ -7094,7 +7304,7 @@
         <v>796</v>
       </c>
       <c r="E39" t="s">
-        <v>1279</v>
+        <v>1349</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
